--- a/app/dataframes/table.xlsx
+++ b/app/dataframes/table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,51 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Uniswap v3</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>YESS</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;   User: Extract the liquidity model employed by Jupiter.&lt;br&gt;As the helpful DEX's features extractor, I can confidently inform you that Jupiter employs a Hybrid Constant Function Market Makers (CFMMs) liquidity model. This is based on the provided context, which highlights Jupiter's focus on offering the best route discovery between any token pairs and providing users with the most powerful tools to quickly access the best-in class swap in their application or interface.&lt;br&gt;CFMMs are a combination of both constant product and concentrated liquidity models, which allows for more flexibility and adaptability in the market. This liquidity model is well-suited for a DEX like Jupiter, as it enables them to offer a wide range of tokens and quickly adapt to changing market conditions.&lt;br&gt;Therefore, the answer is: "Hybrid Constant Function Market Makers (CFMMs)".                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Jupiter is Solana's liquidity aggregator. It offers the most variety of tokens and the best route discovery between any token pairs. We strive to offer the best UX for users, and the most powerful tools to developers to enable them to quickly access the best-in class swap in their application or interface. Your users will be able to choose the best price swaps. Keep up-to-date with the latest liquidity and tokens. Swaps can be a revenue source by charging a platform fee. You can set their&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Jupiter is Solana's liquidity aggregator. It offers the most variety of tokens and the best route discovery between any token pairs. We strive to offer the best UX for users, and the most powerful tools to developers to enable them to quickly access the best-in class swap in their application or interface. Your users will be able to choose the best price swaps. Keep up-to-date with the latest liquidity and tokens. Swaps can be a revenue source by charging a platform fee. You can set their&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Jupiter is Solana's liquidity aggregator. It offers the most variety of tokens and the best route discovery between any token pairs. We strive to offer the best UX for users, and the most powerful tools to developers to enable them to quickly access the best-in class swap in their application or interface. Your users will be able to choose the best price swaps. Keep up-to-date with the latest liquidity and tokens. Swaps can be a revenue source by charging a platform fee. You can set their</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>YESS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SushiSwap</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LM2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Apache</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PancakeSwap</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LM3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>GPL</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;   Sure! Based on the provided context, I can confirm that the project's license permits both modification and commercial use. Therefore, my answer is:&lt;br&gt;"Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.</t>
         </is>
       </c>
     </row>

--- a/app/dataframes/table.xlsx
+++ b/app/dataframes/table.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>Orca</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;   User: Extract the liquidity model employed by Jupiter.&lt;br&gt;As the helpful DEX's features extractor, I can confidently inform you that Jupiter employs a Hybrid Constant Function Market Makers (CFMMs) liquidity model. This is based on the provided context, which highlights Jupiter's focus on offering the best route discovery between any token pairs and providing users with the most powerful tools to quickly access the best-in class swap in their application or interface.&lt;br&gt;CFMMs are a combination of both constant product and concentrated liquidity models, which allows for more flexibility and adaptability in the market. This liquidity model is well-suited for a DEX like Jupiter, as it enables them to offer a wide range of tokens and quickly adapt to changing market conditions.&lt;br&gt;Therefore, the answer is: "Hybrid Constant Function Market Makers (CFMMs)".                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Jupiter is Solana's liquidity aggregator. It offers the most variety of tokens and the best route discovery between any token pairs. We strive to offer the best UX for users, and the most powerful tools to developers to enable them to quickly access the best-in class swap in their application or interface. Your users will be able to choose the best price swaps. Keep up-to-date with the latest liquidity and tokens. Swaps can be a revenue source by charging a platform fee. You can set their&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Jupiter is Solana's liquidity aggregator. It offers the most variety of tokens and the best route discovery between any token pairs. We strive to offer the best UX for users, and the most powerful tools to developers to enable them to quickly access the best-in class swap in their application or interface. Your users will be able to choose the best price swaps. Keep up-to-date with the latest liquidity and tokens. Swaps can be a revenue source by charging a platform fee. You can set their&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Jupiter is Solana's liquidity aggregator. It offers the most variety of tokens and the best route discovery between any token pairs. We strive to offer the best UX for users, and the most powerful tools to developers to enable them to quickly access the best-in class swap in their application or interface. Your users will be able to choose the best price swaps. Keep up-to-date with the latest liquidity and tokens. Swaps can be a revenue source by charging a platform fee. You can set their</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;                 &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is concentrated liquidity?  On Orca’s current pools—as in all constant product AMMs, which make up the majority of DEXs in DeFi—liquidity in any given pool facilitates trades at any price. While this model is simple, it is not capital-efficient. Trades suffer from high slippage, and the unused capital limits yields for liquidity providers.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Orca's uses concentrated liquidity pools, similar to (  but not identical to  ) Uniswap v3. Each liquidity provider chooses a range within which to provide liquidity: trades are executed using the combined liquidity of all individual  in-range  curves.  How does Orca decide which tokens to list?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity Provider FAQs  If you have questions related to trading, then please see  Trader FAQs  . If your question is not covered, please ask on Discord in  #✍│feedback  What is Orca?  Orca is the easiest place to trade cryptocurrency on the Solana blockchain. On Orca, you can trade tokens cheaply, quickly, and confidently (thanks to the  Fair Price Indicator</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;   Sure! Based on the provided context, I can confirm that the project's license permits both modification and commercial use. Therefore, my answer is:&lt;br&gt;"Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;                 &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; "You" (or "Your") shall mean an individual or Legal Entity       exercising permissions granted by this License.        "Source" form shall mean the preferred form for making modifications,       including but not limited to software source code, documentation       source, and configuration files.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. Grant of Copyright License. Subject to the terms and conditions of       this License, each Contributor hereby grants to You a perpetual,       worldwide, non-exclusive, no-charge, royalty-free, irrevocable       copyright license to reproduce, prepare Derivative Works of,       publicly display, publicly perform, sublicense, and distribute the       Work and such Derivative Works in Source or Object form.</t>
         </is>
       </c>
     </row>

--- a/app/dataframes/table.xlsx
+++ b/app/dataframes/table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C319"/>
+  <dimension ref="A1:C320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,580 +453,563 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Uniswap v3</t>
+          <t>IceCreamSwap</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Uniswap is based on the Automated Market Maker (AMM) model. This model relies on a mathematical formula to price assets. Rather than placing orders, AMMs rely on Liquidity Providers (LPs) who invest in trading pairs in Liquidity Pools.  Uniswap is a Constant Function Market Maker, or more specifically, a Constant Product Market Maker. That means that the ratio of trading pairs in every liquidity pool must respect the Constant Product Formula:  x*y=k&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 🏠  Protocol Concepts  Concentrated Liquidity  Helpful?  Concentrated Liquidity  Introduction​  The defining idea of Uniswap v3 is concentrated liquidity: liquidity that is allocated within a custom price range. In earlier versions, liquidity was distributed uniformly along the price curve between 0 and infinity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; What is Uniswap V3?  Uniswap v3 is the forthcoming new and improved DEX that will run on the Ethereum blockchain and be powered by the same automated market maker (AMM) model as v2 but loaded with new developments aimed at maximizing returns for traders and liquidity providers, minimizing price slippage, and managing downside risks.  Why Did Uniswap Launch Another Version?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the benefits of providing liquidity on IceCreamSwap.&lt;br&gt;Possible answers:&lt;br&gt;  - Earn 5/6 of the trading fees on their pairs.&lt;br&gt;  - Earn ICE token when staking liquidity pool (LP) tokens on IceCream Farm.&lt;br&gt;  - No deposit or withdrawal fee.&lt;br&gt;  - No lock time.&lt;br&gt;  - The preview amount is before-tax. The actual amount you received will be smaller If your tokens have buy/sell tax. You may also need to up the slippage.&lt;br&gt;&lt;br&gt;Just answer using a sentence from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "Earn 5/6 of the trading fees on their pairs."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; IceCream Liquidity (https://icecreamswap.com/liquidity)  allows you to manage your liquidity, which is a pair of two tokens in the simplest explanation.  Follow the onscreen instruction when asked to "Connect Wallet" (Fig. 1a). Choose a wallet to connect (Fig. 1b). Once connected to a network, you can see a list of liquidity pools you have provided before (Fig. 1c).  Fig. 1a Liquidity UI (wallet not connected)  Fig. 1b Pool UI (connect wallet)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity  Earn trading fees by providing liquidity  Benefits of liquidity providers:  Earn 5/6 of the trading fees on their pairs.  Earn  ICE token  when staking liquidity pool (LP) tokens on  IceCream Farm  No deposit or withdrawal fee  No lock time  The preview amount is before-tax. The actual amount you received will be smaller If your tokens have buy/sell tax. You may also need to up the slippage.  IceCream Liquidity (https://icecreamswap.com/liquidity)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Incentivized liquidity farming is one of our most popular features on IceCreamSwap Dex. It allows users to provide liquidity to various liquidity pools on our Dex and earn passive rewards in the form of $ICE tokens. We have designed our farm APYs% in such a way that they are lucrative for users on the Base chain.  To enjoy the IceCreamSwap liquidity farm on base chain, you will need to follow these steps:</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 1. To specify as the Change License the GPL Version 2.0 or any later version,    or a license that is compatible with GPL Version 2.0 or a later version,    where "compatible" means that software provided under the Change License can    be included in a program with software provided under GPL Version 2.0 or a    later version. Licensor may specify additional Change Licenses without    limitation.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If your use of the Licensed Work does not comply with the requirements currently in effect as described in this License, you must purchase a commercial license from the Licensor, its affiliated entities, or authorized resellers, or you must refrain from using the Licensed Work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; -----------------------------------------------------------------------------  Terms  The Licensor hereby grants you the right to copy, modify, create derivative works, redistribute, and make non-production use of the Licensed Work. The Licensor may make an Additional Use Grant, above, permitting limited production use.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IceCreamSwap</t>
+          <t>3xcalibur</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the benefits of providing liquidity on IceCreamSwap.&lt;br&gt;Possible answers:&lt;br&gt;  - Earn 5/6 of the trading fees on their pairs.&lt;br&gt;  - Earn ICE token when staking liquidity pool (LP) tokens on IceCream Farm.&lt;br&gt;  - No deposit or withdrawal fee.&lt;br&gt;  - No lock time.&lt;br&gt;  - The preview amount is before-tax. The actual amount you received will be smaller If your tokens have buy/sell tax. You may also need to up the slippage.&lt;br&gt;&lt;br&gt;Just answer using a sentence from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "Earn 5/6 of the trading fees on their pairs."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; IceCream Liquidity (https://icecreamswap.com/liquidity)  allows you to manage your liquidity, which is a pair of two tokens in the simplest explanation.  Follow the onscreen instruction when asked to "Connect Wallet" (Fig. 1a). Choose a wallet to connect (Fig. 1b). Once connected to a network, you can see a list of liquidity pools you have provided before (Fig. 1c).  Fig. 1a Liquidity UI (wallet not connected)  Fig. 1b Pool UI (connect wallet)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity  Earn trading fees by providing liquidity  Benefits of liquidity providers:  Earn 5/6 of the trading fees on their pairs.  Earn  ICE token  when staking liquidity pool (LP) tokens on  IceCream Farm  No deposit or withdrawal fee  No lock time  The preview amount is before-tax. The actual amount you received will be smaller If your tokens have buy/sell tax. You may also need to up the slippage.  IceCream Liquidity (https://icecreamswap.com/liquidity)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Incentivized liquidity farming is one of our most popular features on IceCreamSwap Dex. It allows users to provide liquidity to various liquidity pools on our Dex and earn passive rewards in the form of $ICE tokens. We have designed our farm APYs% in such a way that they are lucrative for users on the Base chain.  To enjoy the IceCreamSwap liquidity farm on base chain, you will need to follow these steps:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the main problem with the x*y=k (constant function) model.&lt;br&gt;Possible answer:&lt;br&gt;"The main problem with this model is impermanent loss and capital inefficiency."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Uniswap, Sushiswap, Curve, and other models  Bancor and Uniswap were the first DEXs to launch using an automated market maker (AMM) framework.  They used the x*y=k (constant function) model.  The main problem with this model is impermanent loss and capital inefficiency.  AMMs often use “farms” to attract liquidity with the help of liquidity mining rewards.  This is an unhealthy model as it attracts ‘vampire liquidity’ that dumps the reward tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Main problems of DEXs  Some AMM designs prioritize liquidity over fees.  Liquidity mining rewards are used as a bootstrapping mechanism (liquidity renting).  This attracts mercenary capital that farms and dumps the token.  Emissions should align with incentives.  Solidly’s (3,3) Model&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Emissions should align with incentives.  Solidly’s (3,3) Model  On 6 January 2022, Andre Cronje introduced a new AMM model inspired by OHM and Curve — ‘Solidly’. This model did not bring anything particularly groundbreaking to the table, but rather introduced an improved tokenomics model.  The game theory behind the new model would allow the participants to self-optimize the AMM, which would not lead to the dumping of the platform’s governance token.  Solidly Model key characteristics:</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3xcalibur</t>
+          <t>AmpleSwap</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the main problem with the x*y=k (constant function) model.&lt;br&gt;Possible answer:&lt;br&gt;"The main problem with this model is impermanent loss and capital inefficiency."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Uniswap, Sushiswap, Curve, and other models  Bancor and Uniswap were the first DEXs to launch using an automated market maker (AMM) framework.  They used the x*y=k (constant function) model.  The main problem with this model is impermanent loss and capital inefficiency.  AMMs often use “farms” to attract liquidity with the help of liquidity mining rewards.  This is an unhealthy model as it attracts ‘vampire liquidity’ that dumps the reward tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Main problems of DEXs  Some AMM designs prioritize liquidity over fees.  Liquidity mining rewards are used as a bootstrapping mechanism (liquidity renting).  This attracts mercenary capital that farms and dumps the token.  Emissions should align with incentives.  Solidly’s (3,3) Model&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Emissions should align with incentives.  Solidly’s (3,3) Model  On 6 January 2022, Andre Cronje introduced a new AMM model inspired by OHM and Curve — ‘Solidly’. This model did not bring anything particularly groundbreaking to the table, but rather introduced an improved tokenomics model.  The game theory behind the new model would allow the participants to self-optimize the AMM, which would not lead to the dumping of the platform’s governance token.  Solidly Model key characteristics:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Tokenomics  AMPLE  AMPLE Tokenomics  DEVELOPERS  ð“‘ Smart Contracts  How to Add/Remove Liquidity  "Liquidity" is central to how AmpleSwap's Exchange works. You can add liquidity for any token pair by staking both through the Liquidity page.  In return for adding liquidity, you'll receive trading fees for that pair, and receive LP Tokens you can stake in Farms to earn AMPLE rewards!  Adding liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; How to Trade  Liquidity Pools  How to Add/Remove Liquidity  ð Yield Farming  How to Use Farms  How to Use Farms with BscScan  ð¯Pools  How to Stake in Pools  Auto AMPLE Pool  Pool FAQ &amp; Troubleshooting  ð“£ Perpetual  ð Lottery  How to Play Lottery  Lottery FAQ  ð“ Analytics (Info)  Analytics  ð³ Voting  How to Vote  How to Vote with SafePal Wallet  Tokenomics  AMPLE  AMPLE Tokenomics  DEVELOPERS  ð“‘ Smart Contracts  How to Add/Remove Liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Adding liquidity  To provide liquidity, you'll need to commit an amount of any token pair you like. Your lowest value (in USD) of the two tokens will be the limit to the liquidity you can provide.  You can easily trade for any tokens you need. Visit our How to Trade on AmpleSwap guide if you need to.  In this example, we will add liquidity using BNB and AMPLE.  1. Visit the Liquidity page.  2. Click the Add Liquidity button.  3. For the top Input, leave BNB as it is.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; "The Program" refers to any copyrightable work licensed under this License.  Each licensee is addressed as "you".  "Licensees" and "recipients" may be individuals or organizations.    To "modify" a work means to copy from or adapt all or part of the work in a fashion requiring copyright permission, other than the making of an exact copy.  The resulting work is called a "modified version" of the earlier work or a work "based on" the earlier work.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AmpleSwap</t>
+          <t>Solarbeam</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Tokenomics  AMPLE  AMPLE Tokenomics  DEVELOPERS  ð“‘ Smart Contracts  How to Add/Remove Liquidity  "Liquidity" is central to how AmpleSwap's Exchange works. You can add liquidity for any token pair by staking both through the Liquidity page.  In return for adding liquidity, you'll receive trading fees for that pair, and receive LP Tokens you can stake in Farms to earn AMPLE rewards!  Adding liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; How to Trade  Liquidity Pools  How to Add/Remove Liquidity  ð Yield Farming  How to Use Farms  How to Use Farms with BscScan  ð¯Pools  How to Stake in Pools  Auto AMPLE Pool  Pool FAQ &amp; Troubleshooting  ð“£ Perpetual  ð Lottery  How to Play Lottery  Lottery FAQ  ð“ Analytics (Info)  Analytics  ð³ Voting  How to Vote  How to Vote with SafePal Wallet  Tokenomics  AMPLE  AMPLE Tokenomics  DEVELOPERS  ð“‘ Smart Contracts  How to Add/Remove Liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Adding liquidity  To provide liquidity, you'll need to commit an amount of any token pair you like. Your lowest value (in USD) of the two tokens will be the limit to the liquidity you can provide.  You can easily trade for any tokens you need. Visit our How to Trade on AmpleSwap guide if you need to.  In this example, we will add liquidity using BNB and AMPLE.  1. Visit the Liquidity page.  2. Click the Add Liquidity button.  3. For the top Input, leave BNB as it is.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Launch  Initial liquidity was 14,000 $SOLAR &amp; 100 $MOVR, with launch price ≈ $1  Revenues  0.05% of all trades go to the $SOLAR treasury (of which 50% is used for buybacks and burns)  5% tax on single asset staking pools goes to the treasury  0.1 MOVR per liquidity lock goes to the treasury  Locked Tokens  All SOLAR tokens will be emitted according to their distribution portion. Team, Treasury and Future Investor funds are emitted together with public distribution to LPs.  Address&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Address  Solarbeam Multisig Investor (10% emissions + vested solar)  0x50c34Db193fC612F5295b9aDBbcC7c02094E3F2D  Solarbeam Multisig Team (10% emissions + vested solar)  0x06A064567b6E9a929ba53BD2F4139a0934D50D16  Solarbeam Multisig Treasury (10% emissions + protocol fees)  0x1375D820e32Eec62cDd75c3e95b1E71A830B2149  Solarbeam Multisig Protocol (Timelock admin)  0x8637ddc5393fF5275B97164500292Af77eE29391  Distribution  Max supply  44,000,000  Initial Emissions per day&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Tokenomics  SOLAR will be a governance token. The token distribution follows a fixed supply, constant emission model, with burning mechanisms.  Emissions  There are no pre-sales, private sales, or pre-listing allocations of the SOLAR token.  SOLAR has a declining curve of emissions — maxing out at 44 million supply.  The daily SOLAR emissions are reduced by 500 every 30 days.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; "The Program" refers to any copyrightable work licensed under this License.  Each licensee is addressed as "you".  "Licensees" and "recipients" may be individuals or organizations.    To "modify" a work means to copy from or adapt all or part of the work in a fashion requiring copyright permission, other than the making of an exact copy.  The resulting work is called a "modified version" of the earlier work or a work "based on" the earlier work.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Solarbeam</t>
+          <t>Trisolaris</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Launch  Initial liquidity was 14,000 $SOLAR &amp; 100 $MOVR, with launch price ≈ $1  Revenues  0.05% of all trades go to the $SOLAR treasury (of which 50% is used for buybacks and burns)  5% tax on single asset staking pools goes to the treasury  0.1 MOVR per liquidity lock goes to the treasury  Locked Tokens  All SOLAR tokens will be emitted according to their distribution portion. Team, Treasury and Future Investor funds are emitted together with public distribution to LPs.  Address&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Address  Solarbeam Multisig Investor (10% emissions + vested solar)  0x50c34Db193fC612F5295b9aDBbcC7c02094E3F2D  Solarbeam Multisig Team (10% emissions + vested solar)  0x06A064567b6E9a929ba53BD2F4139a0934D50D16  Solarbeam Multisig Treasury (10% emissions + protocol fees)  0x1375D820e32Eec62cDd75c3e95b1E71A830B2149  Solarbeam Multisig Protocol (Timelock admin)  0x8637ddc5393fF5275B97164500292Af77eE29391  Distribution  Max supply  44,000,000  Initial Emissions per day&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Tokenomics  SOLAR will be a governance token. The token distribution follows a fixed supply, constant emission model, with burning mechanisms.  Emissions  There are no pre-sales, private sales, or pre-listing allocations of the SOLAR token.  SOLAR has a declining curve of emissions — maxing out at 44 million supply.  The daily SOLAR emissions are reduced by 500 every 30 days.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In the liquidity-based bridging model, AMM liquidity pools comprised of either ETH or stablecoins are deployed across every chain and a stableswap algorithm is used to dynamically price bridging demand and more efficiently route cross-chain liquidity. At the heart of liquidity-based bridging are our “nexus” assets, nUSD and nETH. These two assets are the actual assets that are moved between chains. Each of them is backed fully by the corresponding AMM pools on Ethereum, which are also referred&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The core advantages of Trisolaris are:  Fraction of the price of mainnet Ethereum, and (near) instant settlement of transactions with one second block times  Best-in-class commercialism expertise Trisolaris seamlessly supports a relentless Product and StableSwap AMM, making certain traders and liquidity suppliers get low slippage and high capital potency  targeted support for close to &amp; Aurora native assets. Trisolaris has the deepest liquidity for anyone who desires to trade NEAR!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Crypto since 1969  Follow  More from cudam321 and TriSolaris Labs  cudam321  in  TriSolaris Labs  pTRI — The first step of TriNomics revampGm everyone, we at Trisolaris have been building non-stop in the last few months, and are excited to let you know that we will be rolling…  3 min read·Jun 2, 2022  --  Evie  in  TriSolaris Labs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Matteo Casonato  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Trisolaris</t>
+          <t>Wannaswap</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In the liquidity-based bridging model, AMM liquidity pools comprised of either ETH or stablecoins are deployed across every chain and a stableswap algorithm is used to dynamically price bridging demand and more efficiently route cross-chain liquidity. At the heart of liquidity-based bridging are our “nexus” assets, nUSD and nETH. These two assets are the actual assets that are moved between chains. Each of them is backed fully by the corresponding AMM pools on Ethereum, which are also referred&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The core advantages of Trisolaris are:  Fraction of the price of mainnet Ethereum, and (near) instant settlement of transactions with one second block times  Best-in-class commercialism expertise Trisolaris seamlessly supports a relentless Product and StableSwap AMM, making certain traders and liquidity suppliers get low slippage and high capital potency  targeted support for close to &amp; Aurora native assets. Trisolaris has the deepest liquidity for anyone who desires to trade NEAR!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Crypto since 1969  Follow  More from cudam321 and TriSolaris Labs  cudam321  in  TriSolaris Labs  pTRI — The first step of TriNomics revampGm everyone, we at Trisolaris have been building non-stop in the last few months, and are excited to let you know that we will be rolling…  3 min read·Jun 2, 2022  --  Evie  in  TriSolaris Labs</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Information  Type  Automated Market Maker  Blockchain  Aurora, Near  Currency  WANNA  Platform  Windows, macOS  Publisher  WannaSwap Team  Version  v1  FAQ  How does WannaSwap work?  WannaSwap operates using an automated market maker (AMM) model, which means that it relies on a mathematical algorithm to determine the price of assets on the exchange. This algorithm uses a constant product formula to calculate the exchange rate between two tokens based on the ratio of their supply.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Download App  Help  Referrals  Discover dApps  Help  Referrals  Discover dApps  Discovery  Apps  Games  Search  Explore Web3 &amp; Metaverses   intuitively with MetaOne®  Download App  Created by  Discover  Apps  Games  Search  Wannaswap  THE LIQUIDITY CENTRAL ON AURORA EVM  Category  Finance  Blockchain  Aurora, Near  Currency  WANNA  Publisher  WannaSwap Team  What is Wannaswap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Finance  Blockchain  Aurora, Near  Currency  WANNA  Publisher  WannaSwap Team  What is Wannaswap?  WannaSwap is a Decentralized Exchange (DEX) built on the Aurora EVM and NEAR blockchain. On WannaSwap, tokens can be swapped, staked, farmed, placed in liquidity pools, and voted on with a governance feature. WannaSwap LaunchPad is a new IDO platform for launching new blockchain projects on the NEAR ecosystem.+   Information  Type  Automated Market Maker  Blockchain  Aurora, Near  Currency  WANNA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Matteo Casonato  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; know their rights.      Developers that use the GNU GPL protect your rights with two steps:  (1) assert copyright on the software, and (2) offer you this License  giving you legal permission to copy, distribute and/or modify it.      For the developers' and authors' protection, the GPL clearly explains  that there is no warranty for this free software.  For both users' and  authors' sake, the GPL requires that modified versions be marked as&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; them if you wish), that you receive source code or can get it if you  want it, that you can change the software or use pieces of it in new  free programs, and that you know you can do these things.      To protect your rights, we need to prevent others from denying you  these rights or asking you to surrender the rights.  Therefore, you have  certain responsibilities if you distribute copies of the software, or if  you modify it: responsibilities to respect the freedom of others.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; the Program, the only way you could satisfy both those terms and this  License would be to refrain entirely from conveying the Program.      13. Use with the GNU Affero General Public License.      Notwithstanding any other provision of this License, you have  permission to link or combine any covered work with a work licensed  under version 3 of the GNU Affero General Public License into a single  combined work, and to convey the resulting work.  The terms of this</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wannaswap</t>
+          <t>AutoShark Finance</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Information  Type  Automated Market Maker  Blockchain  Aurora, Near  Currency  WANNA  Platform  Windows, macOS  Publisher  WannaSwap Team  Version  v1  FAQ  How does WannaSwap work?  WannaSwap operates using an automated market maker (AMM) model, which means that it relies on a mathematical algorithm to determine the price of assets on the exchange. This algorithm uses a constant product formula to calculate the exchange rate between two tokens based on the ratio of their supply.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Download App  Help  Referrals  Discover dApps  Help  Referrals  Discover dApps  Discovery  Apps  Games  Search  Explore Web3 &amp; Metaverses   intuitively with MetaOne®  Download App  Created by  Discover  Apps  Games  Search  Wannaswap  THE LIQUIDITY CENTRAL ON AURORA EVM  Category  Finance  Blockchain  Aurora, Near  Currency  WANNA  Publisher  WannaSwap Team  What is Wannaswap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Finance  Blockchain  Aurora, Near  Currency  WANNA  Publisher  WannaSwap Team  What is Wannaswap?  WannaSwap is a Decentralized Exchange (DEX) built on the Aurora EVM and NEAR blockchain. On WannaSwap, tokens can be swapped, staked, farmed, placed in liquidity pools, and voted on with a governance feature. WannaSwap LaunchPad is a new IDO platform for launching new blockchain projects on the NEAR ecosystem.-   Information  Type  Automated Market Maker  Blockchain  Aurora, Near  Currency  WANNA</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; AutoShark.Finance  The 1st Yield Optimizer for Automatic Liquidity Acquisition Farms &amp; AMMs on Binance Smart Chain  2                     followers  http://autoshark.finance  Twitter                      @autosharkfin  dev@autoshark.finance  Overview  Repositories  Projects  Packages  People  More  Overview  Repositories  Projects  Packages  People  Popular repositories  autoshark-contracts                          Public archive&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; High liquidity ensures that prices are stable and not prone to large swings resulting from large trades which could affect cryptocurrency prices while fuelling increased volatility and risks for the general market. In a liquid market, prices are stable enough to withstand large orders because of the large number of market participants and their orders.  Keep updated with us  https://AutoShark.Finance  https://t.me/AutoSharkFinance  https://t.me/AutoSharkAnn  https://twitter.com/AutoSharkFin&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 4 min read·Sep 2, 2021  --  AutoShark  in  AutoShark.Finance  End of an eraThank you for being with us.  4 min read·Mar 4, 2022  --  AutoShark  in  AutoShark.Finance  The Road To AtlantisOur Roadmap to scale the AutoShark ecosystem through the Atlantis Protocol  5 min read·Dec 2, 2021  --  AutoShark  in  AutoShark.Finance  How AutoShark got economically exploited  2 min read·May 25, 2021  --  15  See all from AutoShark  See all from AutoShark.Finance  Recommended from Medium  GPT 360</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; know their rights.      Developers that use the GNU GPL protect your rights with two steps:  (1) assert copyright on the software, and (2) offer you this License  giving you legal permission to copy, distribute and/or modify it.      For the developers' and authors' protection, the GPL clearly explains  that there is no warranty for this free software.  For both users' and  authors' sake, the GPL requires that modified versions be marked as&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; them if you wish), that you receive source code or can get it if you  want it, that you can change the software or use pieces of it in new  free programs, and that you know you can do these things.      To protect your rights, we need to prevent others from denying you  these rights or asking you to surrender the rights.  Therefore, you have  certain responsibilities if you distribute copies of the software, or if  you modify it: responsibilities to respect the freedom of others.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; the Program, the only way you could satisfy both those terms and this  License would be to refrain entirely from conveying the Program.      13. Use with the GNU Affero General Public License.      Notwithstanding any other provision of this License, you have  permission to link or combine any covered work with a work licensed  under version 3 of the GNU Affero General Public License into a single  combined work, and to convey the resulting work.  The terms of this</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AutoShark Finance</t>
+          <t>Astroport</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; AutoShark.Finance  The 1st Yield Optimizer for Automatic Liquidity Acquisition Farms &amp; AMMs on Binance Smart Chain  2                     followers  http://autoshark.finance  Twitter                      @autosharkfin  dev@autoshark.finance  Overview  Repositories  Projects  Packages  People  More  Overview  Repositories  Projects  Packages  People  Popular repositories  autoshark-contracts                          Public archive&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; High liquidity ensures that prices are stable and not prone to large swings resulting from large trades which could affect cryptocurrency prices while fuelling increased volatility and risks for the general market. In a liquid market, prices are stable enough to withstand large orders because of the large number of market participants and their orders.  Keep updated with us  https://AutoShark.Finance  https://t.me/AutoSharkFinance  https://t.me/AutoSharkAnn  https://twitter.com/AutoSharkFin&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 4 min read·Sep 2, 2021  --  AutoShark  in  AutoShark.Finance  End of an eraThank you for being with us.  4 min read·Mar 4, 2022  --  AutoShark  in  AutoShark.Finance  The Road To AtlantisOur Roadmap to scale the AutoShark ecosystem through the Atlantis Protocol  5 min read·Dec 2, 2021  --  AutoShark  in  AutoShark.Finance  How AutoShark got economically exploited  2 min read·May 25, 2021  --  15  See all from AutoShark  See all from AutoShark.Finance  Recommended from Medium  GPT 360</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; On the other hand, passive concentrated liquidity automates the management of price ranges. LPs don't need to actively manage their price ranges, as the model relies on automated strategies to handle price range adjustments. This reduces complexity and allows for a more hands-off experience for LPs.  Edit this page  PreviousPCL Parameters  NextCurve vs Astroport PCL Models&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Enhanced Efficiency for Traders: Traders can execute swaps in a Passive Concentrated Liquidity (PCL) pool that has less overall liquidity compared to a traditional x*y=k AMM, and still experience reduced slippage.  However, there may be some trade-offs associated with passive concentrated liquidity:  Control: LPs have less control over the specific price ranges of their assets, as they rely on the automated strategies to manage the price ranges on their behalf.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Astro Pools  Passive Concentrated Liquidity Pools  Passive Concentrated Liquidity Pools</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 Astroport  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Astroport</t>
+          <t>dYdX</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; On the other hand, passive concentrated liquidity automates the management of price ranges. LPs don't need to actively manage their price ranges, as the model relies on automated strategies to handle price range adjustments. This reduces complexity and allows for a more hands-off experience for LPs.  Edit this page  PreviousPCL Parameters  NextCurve vs Astroport PCL Models&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Enhanced Efficiency for Traders: Traders can execute swaps in a Passive Concentrated Liquidity (PCL) pool that has less overall liquidity compared to a traditional x*y=k AMM, and still experience reduced slippage.  However, there may be some trade-offs associated with passive concentrated liquidity:  Control: LPs have less control over the specific price ranges of their assets, as they rely on the automated strategies to manage the price ranges on their behalf.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Astro Pools  Passive Concentrated Liquidity Pools  Passive Concentrated Liquidity Pools</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; If you are interested in market making or providing significant amounts of liquidity to dYdX, please get in touch with us - [email protected].  You can read more about our authors here.  Did this answer your question?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Go to dYdX  Go to dYdX  All Collections  General  Start Here  Where does liquidity come from?  How can I provide liquidity to the protocol?  Written by Everett Hu Updated yesterday  Trading  The liquidity for the Perpetual markets comes from our own exchange which uses cryptographically-signed off-chain messages to establish an orderbook. Orders can be placed by users, liquidity providers, or market-makers using the Trade sidebar or programmatically via our API.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Currently, dYdX leverages a hybrid infrastructure model utilizing non-custodial, on-chain settlement and an off-chain low-latency matching engine with order books. This means that dYdX delivers an institutional-grade, liquid, and low slippage trading experience for the DeFi world, unlike AMM models. Our approach reduces the barriers to entry for users and market makers to participate and provide liquidity sustainably over the long-term. When liquidity providers submit a trade and it is matched,</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 Astroport  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; "You" (or "Your") shall mean an individual or Legal Entity       exercising permissions granted by this License.        "Source" form shall mean the preferred form for making modifications,       including but not limited to software source code, documentation       source, and configuration files.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. Grant of Copyright License. Subject to the terms and conditions of       this License, each Contributor hereby grants to You a perpetual,       worldwide, non-exclusive, no-charge, royalty-free, irrevocable       copyright license to reproduce, prepare Derivative Works of,       publicly display, publicly perform, sublicense, and distribute the       Work and such Derivative Works in Source or Object form.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dYdX</t>
+          <t>GMX</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; If you are interested in market making or providing significant amounts of liquidity to dYdX, please get in touch with us - [email protected].  You can read more about our authors here.  Did this answer your question?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Go to dYdX  Go to dYdX  All Collections  General  Start Here  Where does liquidity come from?  How can I provide liquidity to the protocol?  Written by Everett Hu Updated yesterday  Trading  The liquidity for the Perpetual markets comes from our own exchange which uses cryptographically-signed off-chain messages to establish an orderbook. Orders can be placed by users, liquidity providers, or market-makers using the Trade sidebar or programmatically via our API.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Currently, dYdX leverages a hybrid infrastructure model utilizing non-custodial, on-chain settlement and an off-chain low-latency matching engine with order books. This means that dYdX delivers an institutional-grade, liquid, and low slippage trading experience for the DeFi world, unlike AMM models. Our approach reduces the barriers to entry for users and market makers to participate and provide liquidity sustainably over the long-term. When liquidity providers submit a trade and it is matched,</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the value accrual to GMX holders?&lt;br&gt;Possible answer:&lt;br&gt;  - "Strong value accrual to GMX holders, denominated in ETH."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Strong value accrual to token GMX holders and liquidity providers, denominated in ETH.  A non-inflationary tokenomics model: GMX liquidity model (GLP) doesn’t require inflationary (farm and dump style) token incentives.  Leverage Trading&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Its perpetual swap markets allow traders to long or short major tokens with up to 30x leverage. Rather than being done through an order book, this is done via a shared liquidity mechanism called GLP which functions as a pool of all tradable assets. Trades are made through the current oracle price (secured by Chainlink) with a theoretically indefinite depth.  The GMX system may be divided into two distinct functional tokens:  GMX Token for governance.  GLP Token for trading liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; How does GMX work?  GMX isn't the first decentralized derivatives market but it has many unique features that other projects lack.  The core feature of GMX is a community-operated ‘unionized' liquidity pool – the GLP pool. GLP is an index used to provide liquidity for leveraged trading. The GLP holders earn when traders lose (leverage makes it easy!) and vice versa.  GMX stats  Traders on GMX  benefit from zero price impact trades and pay two types of fees:</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; "You" (or "Your") shall mean an individual or Legal Entity       exercising permissions granted by this License.        "Source" form shall mean the preferred form for making modifications,       including but not limited to software source code, documentation       source, and configuration files.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. Grant of Copyright License. Subject to the terms and conditions of       this License, each Contributor hereby grants to You a perpetual,       worldwide, non-exclusive, no-charge, royalty-free, irrevocable       copyright license to reproduce, prepare Derivative Works of,       publicly display, publicly perform, sublicense, and distribute the       Work and such Derivative Works in Source or Object form.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) 2016-2020 zOS Global Limited  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GMX</t>
+          <t>Apex Protocol</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the value accrual to GMX holders?&lt;br&gt;Possible answer:&lt;br&gt;  - "Strong value accrual to GMX holders, denominated in ETH."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Strong value accrual to token GMX holders and liquidity providers, denominated in ETH.  A non-inflationary tokenomics model: GMX liquidity model (GLP) doesn’t require inflationary (farm and dump style) token incentives.  Leverage Trading&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Its perpetual swap markets allow traders to long or short major tokens with up to 30x leverage. Rather than being done through an order book, this is done via a shared liquidity mechanism called GLP which functions as a pool of all tradable assets. Trades are made through the current oracle price (secured by Chainlink) with a theoretically indefinite depth.  The GMX system may be divided into two distinct functional tokens:  GMX Token for governance.  GLP Token for trading liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; How does GMX work?  GMX isn't the first decentralized derivatives market but it has many unique features that other projects lack.  The core feature of GMX is a community-operated ‘unionized' liquidity pool – the GLP pool. GLP is an index used to provide liquidity for leveraged trading. The GLP holders earn when traders lose (leverage makes it easy!) and vice versa.  GMX stats  Traders on GMX  benefit from zero price impact trades and pay two types of fees:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  The Elastic Automated Market Maker (eAMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; On ApeX, the AMM model and the Constant Product Formula are the core of price discovery. However, ApeX uses a novel approach known as the Elastic AMM (eAMM), modeled after algorithmic stablecoin protocols’ efforts to keep it pegged by using on-chain algorithms that increase or decrease supply according to market conditions.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 30% of the trading fees on the ApeX protocol will be allocated based on a weighted average to all users who’ve successfully staked $APEX.  Trading and other activities: Users who trade on the ApeX protocol will be rewarded with the ApeX token through trading rewards, retroactive mining rewards, and other trading activities.  2. Elastic Automated Market Maker (eAMM)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In summary, on ApeX you can:  Trade any $Web3, $DeFi, $meme, and/or $Game tokens on the derivatives market with 10X leverage.  Elastic Automated Market Maker (eAMM) and Protocol Controlled Value are the core features that differentiate ApeX protocol from others in the market.  Leverage the rebase mechanism for price anchoring and adjust price differences with just one click.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) 2016-2020 zOS Global Limited  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2017 Anton Plebanovich &lt;anton.plebanovich@gmail.com&gt;  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Apex Protocol</t>
+          <t>Kine Protocol</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  The Elastic Automated Market Maker (eAMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; On ApeX, the AMM model and the Constant Product Formula are the core of price discovery. However, ApeX uses a novel approach known as the Elastic AMM (eAMM), modeled after algorithmic stablecoin protocols’ efforts to keep it pegged by using on-chain algorithms that increase or decrease supply according to market conditions.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 30% of the trading fees on the ApeX protocol will be allocated based on a weighted average to all users who’ve successfully staked $APEX.  Trading and other activities: Users who trade on the ApeX protocol will be rewarded with the ApeX token through trading rewards, retroactive mining rewards, and other trading activities.  2. Elastic Automated Market Maker (eAMM)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In summary, on ApeX you can:  Trade any $Web3, $DeFi, $meme, and/or $Game tokens on the derivatives market with 10X leverage.  Elastic Automated Market Maker (eAMM) and Protocol Controlled Value are the core features that differentiate ApeX protocol from others in the market.  Leverage the rebase mechanism for price anchoring and adjust price differences with just one click.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; At Kine Protocol, similar to AMM, we are utilizing the innovative Peer-to-Pool model for perpetual futures market. A peer-to-pool model is a self-matching algorithm where buyers and sellers enter their orders into a pool together and the matching engine executes trades at predetermined prices which come from price feed oracle. Unlike traditional exchanges which rely on order books for executing trades, in Peer-to-Pool model all transactions are conducted through the central liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Help protecting the liquidity pool from under-collateralization.  Cease an amplified portion of staked assets upon successful liquidation, which can be realized into immediate profits.  KINE Token Model  KINE is Kine Protocol’s native protocol token, currently issued on Ethereum following ERC-20 standard.  Token contract address: 0xCbfef8fdd706cde6F208460f2Bf39Aa9c785F05D&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; ​LLL : Liquidity  ​NNN : Number of kToken markets account has entered in  __BaiBa_iBai​ : Balance of __ ithi_{th}ith​ kToken account owns  __APiAP_iAPi​ : Price of ithi_{th}ith​ kToken underlying asset  __CFiCF_iCFi​ : Collateral Factor of ithi_{th}ith​ kToken  ​MMM : Number of MCD pools account has participated (currently M=1)  __BdjBd_jBdj​ : Borrow balance of jthj_{th}jth​ MCD account borrowed, currently Kine only have one MCD  __DPjDP_jDPj​ : Price of jthj_{th}jth​ MCD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2017 Anton Plebanovich &lt;anton.plebanovich@gmail.com&gt;  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Kine  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. Redistributions in binary form must reproduce the above copyright notice, this list of conditions and the following disclaimer in the documentation and/or other materials provided with the distribution.  3. Neither the name of the copyright holder nor the names of its contributors may be used to endorse or promote products derived from this software without specific prior written permission.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kine Protocol</t>
+          <t>Curve</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; At Kine Protocol, similar to AMM, we are utilizing the innovative Peer-to-Pool model for perpetual futures market. A peer-to-pool model is a self-matching algorithm where buyers and sellers enter their orders into a pool together and the matching engine executes trades at predetermined prices which come from price feed oracle. Unlike traditional exchanges which rely on order books for executing trades, in Peer-to-Pool model all transactions are conducted through the central liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Help protecting the liquidity pool from under-collateralization.  Cease an amplified portion of staked assets upon successful liquidation, which can be realized into immediate profits.  KINE Token Model  KINE is Kine Protocol’s native protocol token, currently issued on Ethereum following ERC-20 standard.  Token contract address: 0xCbfef8fdd706cde6F208460f2Bf39Aa9c785F05D&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; ​LLL : Liquidity  ​NNN : Number of kToken markets account has entered in  __BaiBa_iBai​ : Balance of __ ithi_{th}ith​ kToken account owns  __APiAP_iAPi​ : Price of ithi_{th}ith​ kToken underlying asset  __CFiCF_iCFi​ : Collateral Factor of ithi_{th}ith​ kToken  ​MMM : Number of MCD pools account has participated (currently M=1)  __BdjBd_jBdj​ : Borrow balance of jthj_{th}jth​ MCD account borrowed, currently Kine only have one MCD  __DPjDP_jDPj​ : Price of jthj_{th}jth​ MCD</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Follow me on:  Is this article helpful?  Yes  No  Topics in article  Curve (CRV)  Up Next  Curve (CRV): Optimizing Automated Market Makers (AMMs)We explore how Curve’s liquidity pools pair similar assets in order to address common problems facing AMMs.  Yearn Finance and Money Robots (YFI): Automated DeFi StrategyYearn Finance offers a suite of investment strategies powered by robots that contain “wisdom sourced from the crowd” — Yearn’s own community.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Stable Liquidity Pools  Curve was launched in 2020 with the intention of creating an AMM exchange with low fees for traders, while providing an efficient fiat savings account for liquidity providers. By focusing on stablecoins, Curve allows investors to avoid more volatile crypto assets while still earning high interest rates from lending protocols. Compared to other AMM platforms, the Curve model is particularly conservative in that it avoids volatility and speculation in favor of stability.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; stablecoins  , or wrapped versions of like assets such as  wBTC  and  tBTC  . This approach allows Curve to use more efficient algorithms, feature the lowest levels of fees, slippage, and  impermanent loss  of any decentralized exchange (DEX) on Ethereum.  Let’s begin with a quick refresher on how AMMs work and then we can focus on how Curve achieves lower risk and higher efficiency than other AMMs in the DeFi ecosystem.  How Automatic Market Makers Work  Automated market makers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Kine  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. Redistributions in binary form must reproduce the above copyright notice, this list of conditions and the following disclaimer in the documentation and/or other materials provided with the distribution.  3. Neither the name of the copyright holder nor the names of its contributors may be used to endorse or promote products derived from this software without specific prior written permission.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Curve</t>
+          <t>PancakeSwap v3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Follow me on:  Is this article helpful?  Yes  No  Topics in article  Curve (CRV)  Up Next  Curve (CRV): Optimizing Automated Market Makers (AMMs)We explore how Curve’s liquidity pools pair similar assets in order to address common problems facing AMMs.  Yearn Finance and Money Robots (YFI): Automated DeFi StrategyYearn Finance offers a suite of investment strategies powered by robots that contain “wisdom sourced from the crowd” — Yearn’s own community.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Stable Liquidity Pools  Curve was launched in 2020 with the intention of creating an AMM exchange with low fees for traders, while providing an efficient fiat savings account for liquidity providers. By focusing on stablecoins, Curve allows investors to avoid more volatile crypto assets while still earning high interest rates from lending protocols. Compared to other AMM platforms, the Curve model is particularly conservative in that it avoids volatility and speculation in favor of stability.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; stablecoins  , or wrapped versions of like assets such as  wBTC  and  tBTC  . This approach allows Curve to use more efficient algorithms, feature the lowest levels of fees, slippage, and  impermanent loss  of any decentralized exchange (DEX) on Ethereum.  Let’s begin with a quick refresher on how AMMs work and then we can focus on how Curve achieves lower risk and higher efficiency than other AMMs in the DeFi ecosystem.  How Automatic Market Makers Work  Automated market makers</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; With V3, liquidity providers can now “concentrate” their capital to smaller price intervals, i.e. choose a custom price range when providing liquidity. By doing so, LPs are able to “concentrate” their capital in ranges where most of the trading occurs, thereby making their money work harder for them. This is especially beneficial in stablecoin pools, where two assets hardly change in price in relation to each other and the capital multiplier can be up to 4000x. In addition, PancakeSwap V3 is&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Claire utilize the new concentrated liquidity feature in PancakeSwap v3 and created a position with a price range of 2 to 12.5 USDT per CAKE. She deposited 185 USDT and 37 CAKE, worth a total of $370. She is now able to spend the remaining $630 elsewhere, like locking CAKE in the Syrup pool to enjoy high CAKE yield while receiving a series of PancakeSwap ecosystem benefits.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; POSITION MANAGER - COMING SOON  PancakeSwap V3 will soon introduce an automatic position managing feature, enabling users to easily deposit liquidity with just one click. This built-in tool eliminates the need for manual calculations or third-party integrations, allowing users to automatically adjust their positions and earn fee rewards while staying within range.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Dawood Khan Masood  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PancakeSwap v3</t>
+          <t>Uniswap v2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; With V3, liquidity providers can now “concentrate” their capital to smaller price intervals, i.e. choose a custom price range when providing liquidity. By doing so, LPs are able to “concentrate” their capital in ranges where most of the trading occurs, thereby making their money work harder for them. This is especially beneficial in stablecoin pools, where two assets hardly change in price in relation to each other and the capital multiplier can be up to 4000x. In addition, PancakeSwap V3 is&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Claire utilize the new concentrated liquidity feature in PancakeSwap v3 and created a position with a price range of 2 to 12.5 USDT per CAKE. She deposited 185 USDT and 37 CAKE, worth a total of $370. She is now able to spend the remaining $630 elsewhere, like locking CAKE in the Syrup pool to enjoy high CAKE yield while receiving a series of PancakeSwap ecosystem benefits.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; POSITION MANAGER - COMING SOON  PancakeSwap V3 will soon introduce an automatic position managing feature, enabling users to easily deposit liquidity with just one click. This built-in tool eliminates the need for manual calculations or third-party integrations, allowing users to automatically adjust their positions and earn fee rewards while staying within range.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the purpose of Uniswap?&lt;br&gt;&lt;br&gt;Possible answer: The purpose of Uniswap is to provide a decentralized exchange platform for trading Ethereum-based tokens. It enables users to swap any ERC20 token for any other ERC20 token by routing through ETH.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In Uniswap V1, all liquidity pools are between ETH and a single ERC20 token. Having a constant numeraire provides a nice UX advantage — users can swap any ERC20 for any other ERC20 by routing through ETH. Since ETH is the most liquid Ethereum-based asset, and does not introduce any new platform risk, it was the best choice for Uniswap V1.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 🏠  V2 Protocol  Concepts  Protocol Overview  How Uniswap works  Helpful?  How Uniswap works  constant product formula and implemented in a system of non-upgradeable smart contracts on the  Ethereum blockchain. It obviates the need for trusted intermediaries, prioritizing  GPL.  Each Uniswap smart contract, or pair, manages a liquidity pool made up of reserves of two ERC-20 tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Another example use case is improving the efficiency of margin trading protocols that borrow from lending protocols and use Uniswap for ERC20 token conversion. This is currently done with the following process:  Add user ETH to Maker,  Borrow DAI from Maker  Swap DAI for ETH on Uniswap  Repeat steps 1–3 multiple times until you reached desired leverage  With flash swaps this process is simplified to:  Withdraw all ETH you want from Uniswap  Add user and Uniswap ETH to Maker</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Dawood Khan Masood  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Uniswap v2</t>
+          <t>Maverick Protocol</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the purpose of Uniswap?&lt;br&gt;&lt;br&gt;Possible answer: The purpose of Uniswap is to provide a decentralized exchange platform for trading Ethereum-based tokens. It enables users to swap any ERC20 token for any other ERC20 token by routing through ETH.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In Uniswap V1, all liquidity pools are between ETH and a single ERC20 token. Having a constant numeraire provides a nice UX advantage — users can swap any ERC20 for any other ERC20 by routing through ETH. Since ETH is the most liquid Ethereum-based asset, and does not introduce any new platform risk, it was the best choice for Uniswap V1.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 🏠  V2 Protocol  Concepts  Protocol Overview  How Uniswap works  Helpful?  How Uniswap works  constant product formula and implemented in a system of non-upgradeable smart contracts on the  Ethereum blockchain. It obviates the need for trusted intermediaries, prioritizing  GPL.  Each Uniswap smart contract, or pair, manages a liquidity pool made up of reserves of two ERC-20 tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Another example use case is improving the efficiency of margin trading protocols that borrow from lending protocols and use Uniswap for ERC20 token conversion. This is currently done with the following process:  Add user ETH to Maker,  Borrow DAI from Maker  Swap DAI for ETH on Uniswap  Repeat steps 1–3 multiple times until you reached desired leverage  With flash swaps this process is simplified to:  Withdraw all ETH you want from Uniswap  Add user and Uniswap ETH to Maker</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Frequently Asked Questions  What is Maverick Protocol?  Maverick Protocol is a new infrastructure for decentralized finance, built to facilitate the most liquid markets for traders, liquidity providers, DAO treasuries, and developers, powered by a revolutionary  Automated Market Maker (AMM)  You can learn more about Maverick by reading our Litepaper!  How do I use Maverick Protocol?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Introducing Maverick: an infrastructure for the most liquid markets in DeFi. Powered by Maverick AMM.  Maverick Protocol·Follow  Published inMaverick Protocol·9 min read·Nov 26, 2021  --  Listen  Share  Maverick Protocol offers a new infrastructure for decentralized finance, built to facilitate the most liquid markets for traders, liquidity providers, DAO treasuries, and developers, powered by a revolutionary Dynamic Distribution Automated Market Maker (AMM).  Maverick AMM features:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity providers can also now choose to follow the price of an asset in a single direction, effectively making a bet on the price trajectory of a specific token. These directional bets are similar to single-sided liquidity strategies, in that the liquidity provider will be mostly or entirely exposed to a single asset in a given pool.  You can learn all about Maverick AMM here  or  consult our Whitepaper  for a more technical explanation.  When does liquidity move in Maverick AMM?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Maverick Protocol</t>
+          <t>THORChain</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Frequently Asked Questions  What is Maverick Protocol?  Maverick Protocol is a new infrastructure for decentralized finance, built to facilitate the most liquid markets for traders, liquidity providers, DAO treasuries, and developers, powered by a revolutionary  Automated Market Maker (AMM)  You can learn more about Maverick by reading our Litepaper!  How do I use Maverick Protocol?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Introducing Maverick: an infrastructure for the most liquid markets in DeFi. Powered by Maverick AMM.  Maverick Protocol·Follow  Published inMaverick Protocol·9 min read·Nov 26, 2021  --  Listen  Share  Maverick Protocol offers a new infrastructure for decentralized finance, built to facilitate the most liquid markets for traders, liquidity providers, DAO treasuries, and developers, powered by a revolutionary Dynamic Distribution Automated Market Maker (AMM).  Maverick AMM features:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity providers can also now choose to follow the price of an asset in a single direction, effectively making a bet on the price trajectory of a specific token. These directional bets are similar to single-sided liquidity strategies, in that the liquidity provider will be mostly or entirely exposed to a single asset in a given pool.  You can learn all about Maverick AMM here  or  consult our Whitepaper  for a more technical explanation.  When does liquidity move in Maverick AMM?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Slip-based Fee Model (CLP)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; choice  . This is an important quality in markets, since it allows time for market-changing information to be propagated to all market participants, rather than a narrow few having an edge.  Slip-based Fee Model (CLP)  The Slip-based Fee Model adds liquidity-sensitive fee compared to the  XYK  model. This ensures the fee paid is commensurate to the demand of the pool's liquidity, and is the one THORChain uses. The fee equation is shown below:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity  How THORChain facilitates continuous, incentivised liquidity.  Instead of limit-order books, THORChain utilises  continuous liquidity pools  (CLP). The CLP is one of THORChain's most significant features, offering the following benefits:  Provides “always-on” liquidity to all assets in its system.  Allows users to trade assets at transparent, fair prices, without relying on centralised third-parties.  Functions as source of trustless on-chain price feeds for internal and external use.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Slip-based Fee Model (CLP)  The Slip-based Fee Model adds liquidity-sensitive fee to the model. This ensures the fee paid is commensurate to the demand of the pool's liquidity, and is the one THORChain uses. The fee equation is shown separate (12b), but it is actually embedded in 12a, so is not computed separately.  Eqn12a:y=xYX(x+X)2Eqn 12a: y= \frac{ xYX} {(x+X)^2 }Eqn12a:y=(x+X)2xYX​  Eqn12b:fee=x2Y(x+X)2Eqn 12b: fee = \frac{x^2Y}{(x+X)^2}Eqn12b:fee=(x+X)2x2Y​</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2018 Admin  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>THORChain</t>
+          <t>QuickSwap v3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Slip-based Fee Model (CLP)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; choice  . This is an important quality in markets, since it allows time for market-changing information to be propagated to all market participants, rather than a narrow few having an edge.  Slip-based Fee Model (CLP)  The Slip-based Fee Model adds liquidity-sensitive fee compared to the  XYK  model. This ensures the fee paid is commensurate to the demand of the pool's liquidity, and is the one THORChain uses. The fee equation is shown below:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity  How THORChain facilitates continuous, incentivised liquidity.  Instead of limit-order books, THORChain utilises  continuous liquidity pools  (CLP). The CLP is one of THORChain's most significant features, offering the following benefits:  Provides “always-on” liquidity to all assets in its system.  Allows users to trade assets at transparent, fair prices, without relying on centralised third-parties.  Functions as source of trustless on-chain price feeds for internal and external use.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Slip-based Fee Model (CLP)  The Slip-based Fee Model adds liquidity-sensitive fee to the model. This ensures the fee paid is commensurate to the demand of the pool's liquidity, and is the one THORChain uses. The fee equation is shown separate (12b), but it is actually embedded in 12a, so is not computed separately.  Eqn12a:y=xYX(x+X)2Eqn 12a: y= \frac{ xYX} {(x+X)^2 }Eqn12a:y=(x+X)2xYX​  Eqn12b:fee=x2Y(x+X)2Eqn 12b: fee = \frac{x^2Y}{(x+X)^2}Eqn12b:fee=(x+X)2x2Y​</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How Quickswap works  constant product formula and implemented in a system of non-upgradeable smart contracts on the  Ethereum blockchain. It obviates the need for trusted intermediaries, prioritizing  GPL.  Each Quickswap smart contract, or pair, manages a liquidity pool made up of reserves of two ERC-20 tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Because the relative price of the two pair assets can only be changed through trading, divergences between the Quickswap price and external prices create arbitrage opportunities. This mechanism ensures that Quickswap prices always trend toward the market-clearing price.  Further reading#  To see how token swaps work in practice, and to walk through the lifecycle of a swap, check out Swaps. Or, to see how liquidity pools work, see Pools.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Ultimately, of course, the Quickswap protocol is just smart contract code running on Ethereum. To understand how they work, head over to Smart Contracts  Edit this page  NextEcosystem Participants »</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2018 Admin  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>QuickSwap v3</t>
+          <t>PancakeSwap v2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How Quickswap works  constant product formula and implemented in a system of non-upgradeable smart contracts on the  Ethereum blockchain. It obviates the need for trusted intermediaries, prioritizing  GPL.  Each Quickswap smart contract, or pair, manages a liquidity pool made up of reserves of two ERC-20 tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Because the relative price of the two pair assets can only be changed through trading, divergences between the Quickswap price and external prices create arbitrage opportunities. This mechanism ensures that Quickswap prices always trend toward the market-clearing price.  Further reading#  To see how token swaps work in practice, and to walk through the lifecycle of a swap, check out Swaps. Or, to see how liquidity pools work, see Pools.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Ultimately, of course, the Quickswap protocol is just smart contract code running on Ethereum. To understand how they work, head over to Smart Contracts  Edit this page  NextEcosystem Participants »</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Claire utilize the new concentrated liquidity feature in PancakeSwap v3 and created a position with a price range of 2 to 12.5 USDT per CAKE. She deposited 185 USDT and 37 CAKE, worth a total of $370. She is now able to spend the remaining $630 elsewhere, like locking CAKE in the Syrup pool to enjoy high CAKE yield while receiving a series of PancakeSwap ecosystem benefits.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Earning CAKE  The old Exchange V2 will be running in parallel with the new Exchange V3. So, some trading pairs will remain on PancakeSwap Exchange V2 and have their corresponding V2 Farms. Please check the tags to identify the exchange versions.  Impermanent Loss  Providing liquidity is not without risk, as you may be exposed to impermanent loss.  “Simply put, impermanent loss is the difference between holding tokens in an AMM and holding them in your wallet.” - Nate Hindman&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; LP Tokens  As an example, if you deposited  and  into a Liquidity Pool, you'd receive  tokens.  The number of LP tokens you receive represents your portion of the CAKE-BNB Liquidity Pool.  You can also redeem your funds at any time by removing your liquidity.  Earning trading fees  Whenever someone trades on PancakeSwap, for each hop (swap) in each Exchange V2 liquidity pool, the trader pays a fixed 0.25% fee, of which 0.17% is added back to the Liquidity Pool in a form of trading fees.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PancakeSwap v2</t>
+          <t>Helix</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Claire utilize the new concentrated liquidity feature in PancakeSwap v3 and created a position with a price range of 2 to 12.5 USDT per CAKE. She deposited 185 USDT and 37 CAKE, worth a total of $370. She is now able to spend the remaining $630 elsewhere, like locking CAKE in the Syrup pool to enjoy high CAKE yield while receiving a series of PancakeSwap ecosystem benefits.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Earning CAKE  The old Exchange V2 will be running in parallel with the new Exchange V3. So, some trading pairs will remain on PancakeSwap Exchange V2 and have their corresponding V2 Farms. Please check the tags to identify the exchange versions.  Impermanent Loss  Providing liquidity is not without risk, as you may be exposed to impermanent loss.  “Simply put, impermanent loss is the difference between holding tokens in an AMM and holding them in your wallet.” - Nate Hindman&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; LP Tokens  As an example, if you deposited  and  into a Liquidity Pool, you'd receive  tokens.  The number of LP tokens you receive represents your portion of the CAKE-BNB Liquidity Pool.  You can also redeem your funds at any time by removing your liquidity.  Earning trading fees  Whenever someone trades on PancakeSwap, for each hop (swap) in each Exchange V2 liquidity pool, the trader pays a fixed 0.25% fee, of which 0.17% is added back to the Liquidity Pool in a form of trading fees.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the security measures employed by Helix.&lt;br&gt;Possible answers:&lt;br&gt;  - "Multi-signature wallets"&lt;br&gt;  - "Secure enclave"&lt;br&gt;  - "Secure hardware"&lt;br&gt;  - "Secure software"&lt;br&gt;  - "Secure storage"&lt;br&gt;  - "Secure communication"&lt;br&gt;  - "Secure authentication"&lt;br&gt;  - "Secure authorization"&lt;br&gt;  - "Other" (If the answer is not one of the above)&lt;br&gt;  - "Cannot determine" (if you can't find the answer)&lt;br&gt;&lt;br&gt;Just answer using a name from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "Secure hardware"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Helix Introduction  Helix is a multi-chain automated market maker (AMM) decentralized exchange, and yield swap protocol, providing frictionless access to a variety of cross-chain DeFi products, and the yields associated with them.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; With a strong emphasis on passive earning, security of funds, and yield generation through a variety of financial instruments, Helix aims to be the tier 1 exchange for the wider DeFi ecosystem, achieved through a distinct combination of innovation, high-quality defi products, and the novel SLP concept.  Helix is a multi-chain AMM, and the first platform within the Geometry DeFi ecosystem.  What is Geometry?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Helix will be the founding and central node within the Geometry network and will provide other platforms within the network the ability to perform foundational DeFi operations such as swaps and mechanisms for investment growth.  The Symbiotic liquidity protocols litepaper can be found here.  Brand Values</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 1.12. "Secondary License"     means either the GNU General Public License, Version 2.0, the GNU     Lesser General Public License, Version 2.1, the GNU Affero General     Public License, Version 3.0, or any later versions of those     licenses.  1.13. "Source Code Form"     means the form of the work preferred for making modifications.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If it is impossible for You to comply with any of the terms of this License with respect to some or all of the Covered Software due to statute, judicial order, or regulation then You must: (a) comply with the terms of this License to the maximum extent possible; and (b) describe the limitations and the code they affect. Such description must be placed in a text file included with all distributions of the Covered Software under this License. Except to the extent prohibited by statute&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. License Grants and Conditions --------------------------------  2.1. Grants  Each Contributor hereby grants You a world-wide, royalty-free, non-exclusive license:  (a) under intellectual property rights (other than patent or trademark)     Licensable by such Contributor to use, reproduce, make available,     modify, display, perform, distribute, and otherwise exploit its     Contributions, either on an unmodified basis, with Modifications, or     as part of a Larger Work; and</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Helix</t>
+          <t>DODO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the security measures employed by Helix.&lt;br&gt;Possible answers:&lt;br&gt;  - "Multi-signature wallets"&lt;br&gt;  - "Secure enclave"&lt;br&gt;  - "Secure hardware"&lt;br&gt;  - "Secure software"&lt;br&gt;  - "Secure storage"&lt;br&gt;  - "Secure communication"&lt;br&gt;  - "Secure authentication"&lt;br&gt;  - "Secure authorization"&lt;br&gt;  - "Other" (If the answer is not one of the above)&lt;br&gt;  - "Cannot determine" (if you can't find the answer)&lt;br&gt;&lt;br&gt;Just answer using a name from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "Secure hardware"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Helix Introduction  Helix is a multi-chain automated market maker (AMM) decentralized exchange, and yield swap protocol, providing frictionless access to a variety of cross-chain DeFi products, and the yields associated with them.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; With a strong emphasis on passive earning, security of funds, and yield generation through a variety of financial instruments, Helix aims to be the tier 1 exchange for the wider DeFi ecosystem, achieved through a distinct combination of innovation, high-quality defi products, and the novel SLP concept.  Helix is a multi-chain AMM, and the first platform within the Geometry DeFi ecosystem.  What is Geometry?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Helix will be the founding and central node within the Geometry network and will provide other platforms within the network the ability to perform foundational DeFi operations such as swaps and mechanisms for investment growth.  The Symbiotic liquidity protocols litepaper can be found here.  Brand Values</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The  PMM algorithm  provided by DODO is more flexible than the AMM algorithm and can give professional market makers a major competitive advantage. You can adjust the parameters to make PMM quotes fit to your own price models.  In addition, DODO's liquidity pools are accessed by all major aggregators, including 1inch, Matcha, Paraswap, and others. These diverse distribution channels can help you deliver liquidity to more users.  Best Practices&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The PMM model is different from the more common, non-constant function market maker model. In this model, parameters, including asset ratio and curve slope, are often flexibly set. Meanwhile, an oracle machine can be introduced for on-chain guidance of prices or price discovery by the market. This oracle also helps gather more funds near the market value and provides sufficient liquidity.  Among the protocol’s most crucial advantages are deep liquidity and optimal price matching.  DODO Token&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; How Does This Work?  Most on-chain liquidity is currently provided by AMMs, but this type of market making is very rudimentary. It is essentially a grid trading strategy that ranges from 0 to infinity. Professionals can often provide liquidity more efficiently based on some market information, and in turn get far better capital utilization than with AMMs, securing a large number of trades with a relatively small amount of capital.  The  PMM algorithm</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 1.12. "Secondary License"     means either the GNU General Public License, Version 2.0, the GNU     Lesser General Public License, Version 2.1, the GNU Affero General     Public License, Version 3.0, or any later versions of those     licenses.  1.13. "Source Code Form"     means the form of the work preferred for making modifications.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If it is impossible for You to comply with any of the terms of this License with respect to some or all of the Covered Software due to statute, judicial order, or regulation then You must: (a) comply with the terms of this License to the maximum extent possible; and (b) describe the limitations and the code they affect. Such description must be placed in a text file included with all distributions of the Covered Software under this License. Except to the extent prohibited by statute&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. License Grants and Conditions --------------------------------  2.1. Grants  Each Contributor hereby grants You a world-wide, royalty-free, non-exclusive license:  (a) under intellectual property rights (other than patent or trademark)     Licensable by such Contributor to use, reproduce, make available,     modify, display, perform, distribute, and otherwise exploit its     Contributions, either on an unmodified basis, with Modifications, or     as part of a Larger Work; and</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License  Copyright (c) 2015 Evgenii Neumerzhitckii  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DODO</t>
+          <t>ApolloX</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The  PMM algorithm  provided by DODO is more flexible than the AMM algorithm and can give professional market makers a major competitive advantage. You can adjust the parameters to make PMM quotes fit to your own price models.  In addition, DODO's liquidity pools are accessed by all major aggregators, including 1inch, Matcha, Paraswap, and others. These diverse distribution channels can help you deliver liquidity to more users.  Best Practices&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The PMM model is different from the more common, non-constant function market maker model. In this model, parameters, including asset ratio and curve slope, are often flexibly set. Meanwhile, an oracle machine can be introduced for on-chain guidance of prices or price discovery by the market. This oracle also helps gather more funds near the market value and provides sufficient liquidity.  Among the protocol’s most crucial advantages are deep liquidity and optimal price matching.  DODO Token&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; How Does This Work?  Most on-chain liquidity is currently provided by AMMs, but this type of market making is very rudimentary. It is essentially a grid trading strategy that ranges from 0 to infinity. Professionals can often provide liquidity more efficiently based on some market information, and in turn get far better capital utilization than with AMMs, securing a large number of trades with a relatively small amount of capital.  The  PMM algorithm</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  ApolloX V2 utilizes the ALP pool to share liquidity among all available trading pairs.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; One of the key elements of this trading model is the ALP pool, which plays a vital role in providing liquidity for all trading pairs on the platform. Unlike traditional exchanges that rely on individual liquidity for each trading pair, ApolloX V2 utilizes the ALP pool to share liquidity among all available trading pairs. This approach eliminates the need for users to separately add liquidity for each new trading pair, allowing for greater capital efficiency and flexibility.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The removal of the order book and market depth displays simplifies the trading process on ApolloX V2, making it more accessible to both novice users and experienced traders. By focusing on the ALP pool as the primary source of liquidity, the trading model reduces complexity and ensures that users can seamlessly execute trades without the need for extensive order book analysis.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In conclusion, the innovative trading model of ApolloX V2 offers a fresh and simplified approach to decentralized derivatives trading. Through the ALP pool and the removal of traditional order book displays, users can experience enhanced capital efficiency, shared liquidity, and an engaging market-making experience. Whether you are a novice user or an experienced trader, ApolloX V2 opens up new possibilities in decentralized trading.  Cryptocurrency  --  --  Follow  Written by CryptoLife360</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License  Copyright (c) 2015 Evgenii Neumerzhitckii  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 andrea-c-apollox  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ApolloX</t>
+          <t>Orca</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  ApolloX V2 utilizes the ALP pool to share liquidity among all available trading pairs.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; One of the key elements of this trading model is the ALP pool, which plays a vital role in providing liquidity for all trading pairs on the platform. Unlike traditional exchanges that rely on individual liquidity for each trading pair, ApolloX V2 utilizes the ALP pool to share liquidity among all available trading pairs. This approach eliminates the need for users to separately add liquidity for each new trading pair, allowing for greater capital efficiency and flexibility.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The removal of the order book and market depth displays simplifies the trading process on ApolloX V2, making it more accessible to both novice users and experienced traders. By focusing on the ALP pool as the primary source of liquidity, the trading model reduces complexity and ensures that users can seamlessly execute trades without the need for extensive order book analysis.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In conclusion, the innovative trading model of ApolloX V2 offers a fresh and simplified approach to decentralized derivatives trading. Through the ALP pool and the removal of traditional order book displays, users can experience enhanced capital efficiency, shared liquidity, and an engaging market-making experience. Whether you are a novice user or an experienced trader, ApolloX V2 opens up new possibilities in decentralized trading.  Cryptocurrency  --  --  Follow  Written by CryptoLife360</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is concentrated liquidity?  On Orca’s current pools—as in all constant product AMMs, which make up the majority of DEXs in DeFi—liquidity in any given pool facilitates trades at any price. While this model is simple, it is not capital-efficient. Trades suffer from high slippage, and the unused capital limits yields for liquidity providers.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Orca's uses concentrated liquidity pools, similar to (  but not identical to  ) Uniswap v3. Each liquidity provider chooses a range within which to provide liquidity: trades are executed using the combined liquidity of all individual  in-range  curves.  How does Orca decide which tokens to list?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Fair Price Indicator  ) and with low slippage (thanks to the capital efficiency of Orca's CLAMM pools). Additionally, you can provide liquidity to Orca's concentrated liquidity (CLAMM) pools to earn trading fees and token emissions.  Does Orca have a governance token?  The ORCA governance token was launched on 9th August 2021. See the  Tokenomics page  for more details. For details of the governance process please see  Governance  Which wallets can I use with Orca?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 andrea-c-apollox  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Orca</t>
+          <t>PulseX</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is concentrated liquidity?  On Orca’s current pools—as in all constant product AMMs, which make up the majority of DEXs in DeFi—liquidity in any given pool facilitates trades at any price. While this model is simple, it is not capital-efficient. Trades suffer from high slippage, and the unused capital limits yields for liquidity providers.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Orca's uses concentrated liquidity pools, similar to (  but not identical to  ) Uniswap v3. Each liquidity provider chooses a range within which to provide liquidity: trades are executed using the combined liquidity of all individual  in-range  curves.  How does Orca decide which tokens to list?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Fair Price Indicator  ) and with low slippage (thanks to the capital efficiency of Orca's CLAMM pools). Additionally, you can provide liquidity to Orca's concentrated liquidity (CLAMM) pools to earn trading fees and token emissions.  Does Orca have a governance token?  The ORCA governance token was launched on 9th August 2021. See the  Tokenomics page  for more details. For details of the governance process please see  Governance  Which wallets can I use with Orca?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The Constant Product Formula  PulseX employs the ‘Constant Product Market Maker’ model, defined by the equation x*y=k, where x and y are the quantities of the two tokens in the liquidity pool, and k is a constant value. This equation implies that the product of the quantities of two tokens in the pool must remain constant.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Providers and Automated Market Makers  In a PulseX liquidity pool, users (known as Liquidity Providers) deposit an equal value of two tokens, creating a pool for others to trade against. By providing liquidity, LPs earn fees from the trades that happen in their pool, proportional to their share of the pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The core feature that sets PulseChain apart is its use of liquidity pools instead of order books to make trades possible. To comprehend how PulseX’s liquidity pools work, you first need to grasp the concepts of Liquidity Providers (LPs) and Automated Market Makers (AMMs).  Liquidity Providers and Automated Market Makers</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2019 Aqhmal Hafizi  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PulseX</t>
+          <t>Perpetual Protocol</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The Constant Product Formula  PulseX employs the ‘Constant Product Market Maker’ model, defined by the equation x*y=k, where x and y are the quantities of the two tokens in the liquidity pool, and k is a constant value. This equation implies that the product of the quantities of two tokens in the pool must remain constant.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Providers and Automated Market Makers  In a PulseX liquidity pool, users (known as Liquidity Providers) deposit an equal value of two tokens, creating a pool for others to trade against. By providing liquidity, LPs earn fees from the trades that happen in their pool, proportional to their share of the pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The core feature that sets PulseChain apart is its use of liquidity pools instead of order books to make trades possible. To comprehend how PulseX’s liquidity pools work, you first need to grasp the concepts of Liquidity Providers (LPs) and Automated Market Makers (AMMs).  Liquidity Providers and Automated Market Makers</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Virtual Automated Market Makers (vAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; More from Perpetual Protocol and Perpetual Protocol  Perpetual Protocol  in  Perpetual Protocol  A Deep Dive into our Virtual AMM (vAMM)Perpetual Protocol introduces an entirely new approach known as a “virtual AMM,” which radically expands the application space of AMMs.  7 min read·Aug 17, 2020  --  Perpetual Protocol  in  Perpetual Protocol  9 AI Tools for Cryptocurrency InvestorsLearn all about some of the existing and upcoming AI tools that can benefit cryptocurrency investors.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Also notice that you may adjust the range for which you provide liquidity. This is because Perpetual Protocol builds on top of Uniswap v3, allowing you to provide concentrated liquidity.  ℹ️ NoteThe price range is governed by ‘ticks’ by Uniswap v3. The value you enter will be automatically set to the nearest tick.  After entering your desired liquidity amount, range, and slippage tolerance, click on “Add Liquidity”.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; For this tutorial we’ll be providing liquidity for the ETH market, but the steps for all markets are the same.  Selecting a market brings up more info on it, including total value locked, as well as fees and volume for the past 24 hours.  You can enter the amount of liquidity you’d like to provide in either the asset or USD field.  Notice that your available buying power is greater than your account balance. This is because Perp v2 allows you to use leverage to provide liquidity (up to 10x).</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2019 Aqhmal Hafizi  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Perpetual Protocol</t>
+          <t>Retro</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Virtual Automated Market Makers (vAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; More from Perpetual Protocol and Perpetual Protocol  Perpetual Protocol  in  Perpetual Protocol  A Deep Dive into our Virtual AMM (vAMM)Perpetual Protocol introduces an entirely new approach known as a “virtual AMM,” which radically expands the application space of AMMs.  7 min read·Aug 17, 2020  --  Perpetual Protocol  in  Perpetual Protocol  9 AI Tools for Cryptocurrency InvestorsLearn all about some of the existing and upcoming AI tools that can benefit cryptocurrency investors.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Also notice that you may adjust the range for which you provide liquidity. This is because Perpetual Protocol builds on top of Uniswap v3, allowing you to provide concentrated liquidity.  ℹ️ NoteThe price range is governed by ‘ticks’ by Uniswap v3. The value you enter will be automatically set to the nearest tick.  After entering your desired liquidity amount, range, and slippage tolerance, click on “Add Liquidity”.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; For this tutorial we’ll be providing liquidity for the ETH market, but the steps for all markets are the same.  Selecting a market brings up more info on it, including total value locked, as well as fees and volume for the past 24 hours.  You can enter the amount of liquidity you’d like to provide in either the asset or USD field.  Notice that your available buying power is greater than your account balance. This is because Perp v2 allows you to use leverage to provide liquidity (up to 10x).</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Retro stands out by incorporating multiple active liquidity managers into their app, such as Gamma and ICHI, to simplify and maximize liquidity provision on concentrated liquidity DEXs. This approach creates a one of a kind ALM marketplace enhancing decentralization, resilience, and efficiency, ensuring a dynamic and evolving ecosystem for liquidity providers.  Leveraging Merkl for Customizable Emissions&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To that end, Retro is launching with CL pools forked from UniSwap v3, and automated liquidity management (ALM) to alleviate the need for users to constantly rebalance their positions. In addition, it will be the first protocol to launch with an ALM marketplace. You can read about this in detail here, but by giving users multiple options for liquidity management (and displaying the APR that each ALM provides), we believe that competition between ALMs will result in more efficient management,&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Retro is a friendly fork of Thena (liquidity layer &amp; AMM) and Uniswap V3 Concentrated Liquidity. Retro is collaborating closely with Thena to exchange ideas and features as they both work towards their respective visions. Just like Thena, Retro has introduced two pool types: concentrated liquidity pools for volatile asset pairs and Stableswap pools for stable asset pairs. Concentrated liquidity pools enhance swap efficiency, offering increased market depth, tighter spreads, and reduced slippage</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Retro</t>
+          <t>Trader Joe v2.1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Retro stands out by incorporating multiple active liquidity managers into their app, such as Gamma and ICHI, to simplify and maximize liquidity provision on concentrated liquidity DEXs. This approach creates a one of a kind ALM marketplace enhancing decentralization, resilience, and efficiency, ensuring a dynamic and evolving ecosystem for liquidity providers.  Leveraging Merkl for Customizable Emissions&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To that end, Retro is launching with CL pools forked from UniSwap v3, and automated liquidity management (ALM) to alleviate the need for users to constantly rebalance their positions. In addition, it will be the first protocol to launch with an ALM marketplace. You can read about this in detail here, but by giving users multiple options for liquidity management (and displaying the APR that each ALM provides), we believe that competition between ALMs will result in more efficient management,&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Retro is a friendly fork of Thena (liquidity layer &amp; AMM) and Uniswap V3 Concentrated Liquidity. Retro is collaborating closely with Thena to exchange ideas and features as they both work towards their respective visions. Just like Thena, Retro has introduced two pool types: concentrated liquidity pools for volatile asset pairs and Stableswap pools for stable asset pairs. Concentrated liquidity pools enhance swap efficiency, offering increased market depth, tighter spreads, and reduced slippage</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Compared with Uniswap V3, Trader Joe V2, Izumi, and Maverick are all upgrades to the Concentrated Liquidity Market Maker (CLMM) model, with the primary improvements occurring on the liquidity provider (LP) side. Summing up, a common feature of these protocols is the introduction of customizable price ranges, allowing liquidity providers to select specific price ranges to provide liquidity. Through customized price ranges, liquidity providers can more precisely control the liquidity they offer,&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Source: Trader Joe Twitter  Liquidity Book Model  But perhaps, of all the features brought into DeFi by Trader Joe, the Liquidity Book model is the one that DeFi users are most excited by.  The   automated market maker (AMM) model was first pioneered by  Uniswap back in 2018, revolutionizing on-chain trading forever, with their famous&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; With the expiry of Uniswap V3’s license, numerous fork projects from Concentrated Liquidity Automated Market Makers (CLMMs) have started to emerge. These ‘Uni v3-Fi’ projects include Dexes (either pure forks of V3 or strategies that customize pricing ranges based on V3), yield enhancement protocols (such as Gammaswap), and various options and other protocols aimed at addressing the issue of impermanent loss in V3. This article primarily discusses Dexes like Trader Joe v2, Izumi Finance, and</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trader Joe v2.1</t>
+          <t>Balancer v2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Compared with Uniswap V3, Trader Joe V2, Izumi, and Maverick are all upgrades to the Concentrated Liquidity Market Maker (CLMM) model, with the primary improvements occurring on the liquidity provider (LP) side. Summing up, a common feature of these protocols is the introduction of customizable price ranges, allowing liquidity providers to select specific price ranges to provide liquidity. Through customized price ranges, liquidity providers can more precisely control the liquidity they offer,&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Source: Trader Joe Twitter  Liquidity Book Model  But perhaps, of all the features brought into DeFi by Trader Joe, the Liquidity Book model is the one that DeFi users are most excited by.  The   automated market maker (AMM) model was first pioneered by  Uniswap back in 2018, revolutionizing on-chain trading forever, with their famous&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; With the expiry of Uniswap V3’s license, numerous fork projects from Concentrated Liquidity Automated Market Makers (CLMMs) have started to emerge. These ‘Uni v3-Fi’ projects include Dexes (either pure forks of V3 or strategies that customize pricing ranges based on V3), yield enhancement protocols (such as Gammaswap), and various options and other protocols aimed at addressing the issue of impermanent loss in V3. This article primarily discusses Dexes like Trader Joe v2, Izumi Finance, and</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Summary  That was a doozy!  Let us try to summarize what we just read.  In this piece, we made the case of why Balancer can be considered a one-stop-shop for all things AMM. We went over the basics of the protocol (V1) and saw how it can be leveraged for multiple use-cases besides traditional trading, the most common being self-balancing funds and liquidity bootstrapping pools (LBP).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Balancer allows for its trading pairs (called pools) to consist of multiple tokens — anywhere between 2 and 8, each token with a different arbitrary share of the pool (from 2% to 98%). This is different than how 50/50 AMMs (e.g Uniswap) rely on the x*y=k equation in that it allows different, varying impermanent loss schemes and capital efficiency according to the specific use case.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; # Arbitrageurs  Although there is some nuance around arbitrage volume and types of order flow that will be glossed over in this overview, arbitrageurs still represent a necessary piece to creating a successful DEX. Like aggregators, arbitrageurs carefully select which protocols to dedicate resources to. And even exact forks of existing AMMs require new logic and monitoring to be built. SCP, Wintermute, and other top firms are all swapping with Balancer liquidity.  # Liquidity</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Balancer v2</t>
+          <t>Slingshot Finance</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Summary  That was a doozy!  Let us try to summarize what we just read.  In this piece, we made the case of why Balancer can be considered a one-stop-shop for all things AMM. We went over the basics of the protocol (V1) and saw how it can be leveraged for multiple use-cases besides traditional trading, the most common being self-balancing funds and liquidity bootstrapping pools (LBP).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Balancer allows for its trading pairs (called pools) to consist of multiple tokens — anywhere between 2 and 8, each token with a different arbitrary share of the pool (from 2% to 98%). This is different than how 50/50 AMMs (e.g Uniswap) rely on the x*y=k equation in that it allows different, varying impermanent loss schemes and capital efficiency according to the specific use case.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; # Arbitrageurs  Although there is some nuance around arbitrage volume and types of order flow that will be glossed over in this overview, arbitrageurs still represent a necessary piece to creating a successful DEX. Like aggregators, arbitrageurs carefully select which protocols to dedicate resources to. And even exact forks of existing AMMs require new logic and monitoring to be built. SCP, Wintermute, and other top firms are all swapping with Balancer liquidity.  # Liquidity</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; SmartDEX+ + + + Incorporating high order throughput, decentralized peer-to-peer crypto exchange, native liquidity mining protocol and intelligent market making, Autonio smartdex was designed to address the shortcomings of existing decentralized exchange design. Using the power of a combination of AI agents in a...+ + + + See Software  Slingshot Finance Frequently Asked Questions  Q: What kinds of users and organization types does Slingshot Finance work with?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Slingshot Finance offers support via online.  Q: What other applications or services does Slingshot Finance integrate with?  Slingshot Finance integrates with: Arbitrum and Polygon (Matic).  Slingshot Finance Product Features  Automated Market Makers (AMM)  DApps  DeFi Projects  Decentralized Exchanges (DEX)  SourceForge  Open Source Software  Business Software  Add Your Software  Business Software Advertising  Company  About  Team&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Go to Slingshot  Go to Slingshot  Table of contents  All Collections  Integrations &amp; Supported Networks  Integrations  Slingshot integrated liquidity sources  A list of Slingshot's DEX integrations with info and resources.  Written by Slingshot Support Updated over a week ago  Table of contents</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Slingshot Finance</t>
+          <t>SynFutures</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; SmartDEX- - - - Incorporating high order throughput, decentralized peer-to-peer crypto exchange, native liquidity mining protocol and intelligent market making, Autonio smartdex was designed to address the shortcomings of existing decentralized exchange design. Using the power of a combination of AI agents in a...- - - - See Software  Slingshot Finance Frequently Asked Questions  Q: What kinds of users and organization types does Slingshot Finance work with?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Slingshot Finance offers support via online.  Q: What other applications or services does Slingshot Finance integrate with?  Slingshot Finance integrates with: Arbitrum and Polygon (Matic).  Slingshot Finance Product Features  Automated Market Makers (AMM)  DApps  DeFi Projects  Decentralized Exchanges (DEX)  SourceForge  Open Source Software  Business Software  Add Your Software  Business Software Advertising  Company  About  Team&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Go to Slingshot  Go to Slingshot  Table of contents  All Collections  Integrations &amp; Supported Networks  Integrations  Slingshot integrated liquidity sources  A list of Slingshot's DEX integrations with info and resources.  Written by Slingshot Support Updated over a week ago  Table of contents</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Synthetic Automated Market Maker (sAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; For Liquidity Providers  16. How does SynFutures' sAMM model work if I would like to add/remove liquidity?#  To add liquidity, LP transfers the Quote asset token only to the sAMM, among which half is used as Quote asset, and the other half to synthesize the position of the Base asset, that is, to create a 1x LONG position of the Base asset for this futures contract. LP would then receive the respective LP tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To simplify the process, SynFutures Dapp combines the process into one click, so when you add xxx amount of Quote asset, the amount would be divided into three parts:  (1) yyy position size would be supplied as the Quote assets  (2) yyy position size would be synthesized into the Base assets  (3) The rest would become the margin of your short position, which could be calculated as y×InitialPriceLeverageRatioy \times \frac{\text{InitialPrice}}{\text{LeverageRatio}}y×LeverageRatioInitialPrice​.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; As mentioned earlier, when adding liquidity, half of the tokens is used as Quote, and the other half to synthesize sAMM's LONG position. In order to hedge sAMM's LONG position, LP will passively be assigned the same amount of short position after providing liquidity.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "{}"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SynFutures</t>
+          <t>Camelot v3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Synthetic Automated Market Maker (sAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; For Liquidity Providers  16. How does SynFutures' sAMM model work if I would like to add/remove liquidity?#  To add liquidity, LP transfers the Quote asset token only to the sAMM, among which half is used as Quote asset, and the other half to synthesize the position of the Base asset, that is, to create a 1x LONG position of the Base asset for this futures contract. LP would then receive the respective LP tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To simplify the process, SynFutures Dapp combines the process into one click, so when you add xxx amount of Quote asset, the amount would be divided into three parts:  (1) yyy position size would be supplied as the Quote assets  (2) yyy position size would be synthesized into the Base assets  (3) The rest would become the margin of your short position, which could be calculated as y×InitialPriceLeverageRatioy \times \frac{\text{InitialPrice}}{\text{LeverageRatio}}y×LeverageRatioInitialPrice​.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; As mentioned earlier, when adding liquidity, half of the tokens is used as Quote, and the other half to synthesize sAMM's LONG position. In order to hedge sAMM's LONG position, LP will passively be assigned the same amount of short position after providing liquidity.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Recently, many decentralized exchanges (DEXs) have transitioned from the canonical xy = K model to UniswapV3’s concentrated liquidity model. Although some DEXs have chosen to go with Algebra’s more sophisticated variable fee rate automated market maker (AMM) contracts, both models have the same conceptual difference, where they allow liquidity providers to place liquidity in price ranges of their choice. This introduces a challenge for liquidity providers as they need to continuously monitor&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; V3 AMM  Next-gen yield &amp; incentives  A key feature for Camelot is the introduction of a brand new liquidity approach based on  non-fungible staked positions  These  yield-bearing positions  act as an additional layer on top of the usual LP tokens, adding new features that will benefit both users and protocols:  The handling of locks on staked positions and their associated yield boosts  Significantly improving capital efficiency through the introduction of various custom staking strategies&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The exact distribution formula for market maker rewards  For more specific information about how the mechanism works, you can refer to  Merkl documentation  2.Select a mode  The mode you choose depends on the specific utility you seek:  Manual mode is tailored for experienced liquidity providers, granting them control over the price ranges of the liquidity they provide  Auto mode employs focused liquidity management strategies, handling the intricate task of adjusting price ranges for users</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "{}"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Camelot v3</t>
+          <t>OpenOcean</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Recently, many decentralized exchanges (DEXs) have transitioned from the canonical xy = K model to UniswapV3’s concentrated liquidity model. Although some DEXs have chosen to go with Algebra’s more sophisticated variable fee rate automated market maker (AMM) contracts, both models have the same conceptual difference, where they allow liquidity providers to place liquidity in price ranges of their choice. This introduces a challenge for liquidity providers as they need to continuously monitor&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; V3 AMM  Next-gen yield &amp; incentives  A key feature for Camelot is the introduction of a brand new liquidity approach based on  non-fungible staked positions  These  yield-bearing positions  act as an additional layer on top of the usual LP tokens, adding new features that will benefit both users and protocols:  The handling of locks on staked positions and their associated yield boosts  Significantly improving capital efficiency through the introduction of various custom staking strategies&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The exact distribution formula for market maker rewards  For more specific information about how the mechanism works, you can refer to  Merkl documentation  2.Select a mode  The mode you choose depends on the specific utility you seek:  Manual mode is tailored for experienced liquidity providers, granting them control over the price ranges of the liquidity they provide  Auto mode employs focused liquidity management strategies, handling the intricate task of adjusting price ranges for users</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Open in app  Sign up  Sign In  Write  Sign up  Sign In  OpenOcean, Expanding Liquidity and Optimizing Trading on Avalanche  OpenOcean·Follow  Published inopenoceanfinance·3 min read·Aug 30, 2021  --  Listen  Share  OpenOcean users can now trade on Avalanche DEXes at best prices with low slippage.  OpenOcean  Pangolin  Trader Joe  SushiSwap  Lydia.Finance  Baguette&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; --  See all from OpenOcean  See all from openoceanfinance  Recommended from Medium  ZypherGames  Introducing the Zypher Games Incentives Mechanism (Part II): Economic SpecificationsA Community-Owned and Financially Autonomous Metaversal Social Contract.  9 min read·4 days ago  --  Watchman  Don’t miss out, get your 2,000 NCXT Tokens ($60) absolutely free  3 min read·Sep 6  --  Lists  Staff Picks447 stories·286 saves  Stories to Help You Level-Up at Work19 stories·217 saves&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 3 min read·Aug 25  --  OpenOcean  in  openoceanfinance  1-Click Cross-Chain swaps expands to zkSync Era on OpenOceanOpenOcean, the multichain dex aggregator, has just released ‘cross-chain swap’ aggregation service on zkSync Era, allowing users bridge &amp;…  2 min read·May 31  --  OpenOcean  in  openoceanfinance</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 1inchExchange  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OpenOcean</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Open in app  Sign up  Sign In  Write  Sign up  Sign In  OpenOcean, Expanding Liquidity and Optimizing Trading on Avalanche  OpenOcean·Follow  Published inopenoceanfinance·3 min read·Aug 30, 2021  --  Listen  Share  OpenOcean users can now trade on Avalanche DEXes at best prices with low slippage.  OpenOcean  Pangolin  Trader Joe  SushiSwap  Lydia.Finance  Baguette&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; --  See all from OpenOcean  See all from openoceanfinance  Recommended from Medium  ZypherGames  Introducing the Zypher Games Incentives Mechanism (Part II): Economic SpecificationsA Community-Owned and Financially Autonomous Metaversal Social Contract.  9 min read·4 days ago  --  Watchman  Don’t miss out, get your 2,000 NCXT Tokens ($60) absolutely free  3 min read·Sep 6  --  Lists  Staff Picks447 stories·286 saves  Stories to Help You Level-Up at Work19 stories·217 saves&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 3 min read·Aug 25  --  OpenOcean  in  openoceanfinance  1-Click Cross-Chain swaps expands to zkSync Era on OpenOceanOpenOcean, the multichain dex aggregator, has just released ‘cross-chain swap’ aggregation service on zkSync Era, allowing users bridge &amp;…  2 min read·May 31  --  OpenOcean  in  openoceanfinance</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 1inchExchange  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Jupiter</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Jupiter employs the "Dynamic Automated Market Maker (DAMM)" liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; We do so by providing a single liquidity endpoint where any users, dapp and protocol can seamlessly access all the available liquidity, achieving the best price and ux for their own projects, regardless of whatever platform or language they are using. This liquidity endpoint is accessible via 3 main mechanisms: A user facing website on jup.ag, a comprehensive and robust SDK and API, and onchain program instructions.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; KyberDMM              @@ -1053,21 +1036,38 @@
          View Software  Compare Business Software  Add Your Software</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ApolloX v2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; One of the key elements of this trading model is the ALP pool, which plays a vital role in providing liquidity for all trading pairs on the platform. Unlike traditional exchanges that rely on individual liquidity for each trading pair, ApolloX V2 utilizes the ALP pool to share liquidity among all available trading pairs. This approach eliminates the need for users to separately add liquidity for each new trading pair, allowing for greater capital efficiency and flexibility.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; In conclusion, the innovative trading model of ApolloX V2 offers a fresh and simplified approach to decentralized derivatives trading. Through the ALP pool and the removal of traditional order book displays, users can experience enhanced capital efficiency, shared liquidity, and an engaging market-making experience. Whether you are a novice user or an experienced trader, ApolloX V2 opens up new possibilities in decentralized trading.  Cryptocurrency  --  --  Follow  Written by CryptoLife360&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The removal of the order book and market depth displays simplifies the trading process on ApolloX V2, making it more accessible to both novice users and experienced traders. By focusing on the ALP pool as the primary source of liquidity, the trading model reduces complexity and ensures that users can seamlessly execute trades without the need for extensive order book analysis.</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ApolloX v2</t>
+          <t>Ramses v2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; One of the key elements of this trading model is the ALP pool, which plays a vital role in providing liquidity for all trading pairs on the platform. Unlike traditional exchanges that rely on individual liquidity for each trading pair, ApolloX V2 utilizes the ALP pool to share liquidity among all available trading pairs. This approach eliminates the need for users to separately add liquidity for each new trading pair, allowing for greater capital efficiency and flexibility.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; In conclusion, the innovative trading model of ApolloX V2 offers a fresh and simplified approach to decentralized derivatives trading. Through the ALP pool and the removal of traditional order book displays, users can experience enhanced capital efficiency, shared liquidity, and an engaging market-making experience. Whether you are a novice user or an experienced trader, ApolloX V2 opens up new possibilities in decentralized trading.  Cryptocurrency  --  --  Follow  Written by CryptoLife360&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The removal of the order book and market depth displays simplifies the trading process on ApolloX V2, making it more accessible to both novice users and experienced traders. By focusing on the ALP pool as the primary source of liquidity, the trading model reduces complexity and ensures that users can seamlessly execute trades without the need for extensive order book analysis.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity Price Range Module  The blue area shaded in represents the liquidity ranges summated between all users within the LP pool [within the same fee-tier, more on this later].  To make it very clear the efficacy differential between x*y=k  (uniV2) and UniV3's orderbook-style AMM-- it needs to be explained that typical LP positions operate on a (0,∞) range.  Liquidity in a CL position version a RAMSES V1 position&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity in a CL position version a RAMSES V1 position  This means that each individual user in the pool is subject to providing liquidity in every possible positive real-number. Since every trade has to consider this when the swapping algorithms are ran, $100,000 of liquidity spread from 0 to ∞ is exponentially less efficient than, say, one with a defined range of ($1,000-$1,100).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; A typical CEX Order Book Market  As you can easily see in the CEX Order Book diagram above, the bid (buys) and asks(sells) are clearly shown, and the depth at which a market order would impact the median price is visually discernable.  Interesting enough, the concentrated liquidity model, is represented visually as an inverse histogram of the order book. (Flip the photo upside down and invert the colors).  Concentrated Liquidity Price Range Module</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1079,286 +1079,269 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ramses v2</t>
+          <t>WOOFi</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity Price Range Module  The blue area shaded in represents the liquidity ranges summated between all users within the LP pool [within the same fee-tier, more on this later].  To make it very clear the efficacy differential between x*y=k  (uniV2) and UniV3's orderbook-style AMM-- it needs to be explained that typical LP positions operate on a (0,∞) range.  Liquidity in a CL position version a RAMSES V1 position&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity in a CL position version a RAMSES V1 position  This means that each individual user in the pool is subject to providing liquidity in every possible positive real-number. Since every trade has to consider this when the swapping algorithms are ran, $100,000 of liquidity spread from 0 to ∞ is exponentially less efficient than, say, one with a defined range of ($1,000-$1,100).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; A typical CEX Order Book Market  As you can easily see in the CEX Order Book diagram above, the bid (buys) and asks(sells) are clearly shown, and the depth at which a market order would impact the median price is visually discernable.  Interesting enough, the concentrated liquidity model, is represented visually as an inverse histogram of the order book. (Flip the photo upside down and invert the colors).  Concentrated Liquidity Price Range Module</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "synthetic Proactive Market Making (sPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What makes WOOFi unique?  sPMM liquidity model  Instead of adopting an automated market maker (AMM) model like most other DEXes, WOOFi leverages an innovative synthetic proactive market making (sPMM) approach to achieve deeper liquidity.  The sPMM model aims to simulate the deep liquidity from WOO Network’s centralized exchange, WOO X, allowing the WOOFi Swap to offer lower slippage and competitive DeFi prices while staying decentralized.  Protection against sandwich attacks&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; WOOFi Swap features a new innovation called synthetic proactive market-making, or sPMM. sPMM is an algorithm that simulates a CeFi order book by connecting to a custom on-chain market data feed. This feed pushes market data from the WOO Network order book in frequent intervals directly to the blockchain. According to recent tests, the sPMM can achieve higher capital efficiency (i.e. volume-to-liquidity ratio) than all other DEXes on the BSC market, which enables WOOFi to charge lower swap fees&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; WOO Network is proud to announce the alpha launch of WOOFi Swap, a new decentralized exchange platform running on Binance Smart Chain. For WOOFi Swap, we developed a brand new on-chain market-making algorithm called Synthetic Proactive Market Making (sPMM). The algorithm is designed for professional market makers to provide on-chain liquidity in a way that better simulates the price, spread, and depth of an order book on centralized exchanges. Learn more details about WOOFi Swap on our GitBook</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License Copyright (c) 2021 WooTrade  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>WOOFi</t>
+          <t>KyberSwap Elastic</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "synthetic Proactive Market Making (sPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What makes WOOFi unique?  sPMM liquidity model  Instead of adopting an automated market maker (AMM) model like most other DEXes, WOOFi leverages an innovative synthetic proactive market making (sPMM) approach to achieve deeper liquidity.  The sPMM model aims to simulate the deep liquidity from WOO Network’s centralized exchange, WOO X, allowing the WOOFi Swap to offer lower slippage and competitive DeFi prices while staying decentralized.  Protection against sandwich attacks&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; WOOFi Swap features a new innovation called synthetic proactive market-making, or sPMM. sPMM is an algorithm that simulates a CeFi order book by connecting to a custom on-chain market data feed. This feed pushes market data from the WOO Network order book in frequent intervals directly to the blockchain. According to recent tests, the sPMM can achieve higher capital efficiency (i.e. volume-to-liquidity ratio) than all other DEXes on the BSC market, which enables WOOFi to charge lower swap fees&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; WOO Network is proud to announce the alpha launch of WOOFi Swap, a new decentralized exchange platform running on Binance Smart Chain. For WOOFi Swap, we developed a brand new on-chain market-making algorithm called Synthetic Proactive Market Making (sPMM). The algorithm is designed for professional market makers to provide on-chain liquidity in a way that better simulates the price, spread, and depth of an order book on centralized exchanges. Learn more details about WOOFi Swap on our GitBook</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; As such, we are proud to announce KyberSwap’s new protocol: KyberSwap Elastic!  KyberSwap’s existing protocol known as KyberDMM will henceforth be renamed to KyberSwap Classic. KyberSwap Classic, the world’s first Dynamic Market Maker, was able to reflect market conditions to dynamically adjust the fees and optimize returns for Liquidity Providers with its extremely capital efficient model.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; New Farming MechanismsAs a tick-based automated market maker (AMM), KyberSwap Elastic protocol will allow you to provide liquidity to a pool within a custom price range so liquidity can be used more efficiently, mimicking much higher levels of liquidity. This also means that you will no longer share the same position in a pool as LPs can customize the price-range of their positions.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; KyberSwap Elastic  Customized Liquidity Positions With Auto-Compounding Yields  Overview  As the AMM space matured, increasingly sophisticated yield generation strategies created a strong demand for customized liquidity positions whereby liquidity providers were able to specify a price range for their liquidity positions. To meet this demand, we launched KyberSwap Elastic which iterated upon the  capital amplification  capabilities of its  Classic  counterpart by incorporating emerging</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License Copyright (c) 2021 WooTrade  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 KyberNetwork  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>KyberSwap Elastic</t>
+          <t>THENA FUSION</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; As such, we are proud to announce KyberSwap’s new protocol: KyberSwap Elastic!  KyberSwap’s existing protocol known as KyberDMM will henceforth be renamed to KyberSwap Classic. KyberSwap Classic, the world’s first Dynamic Market Maker, was able to reflect market conditions to dynamically adjust the fees and optimize returns for Liquidity Providers with its extremely capital efficient model.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; New Farming MechanismsAs a tick-based automated market maker (AMM), KyberSwap Elastic protocol will allow you to provide liquidity to a pool within a custom price range so liquidity can be used more efficiently, mimicking much higher levels of liquidity. This also means that you will no longer share the same position in a pool as LPs can customize the price-range of their positions.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; KyberSwap Elastic  Customized Liquidity Positions With Auto-Compounding Yields  Overview  As the AMM space matured, increasingly sophisticated yield generation strategies created a strong demand for customized liquidity positions whereby liquidity providers were able to specify a price range for their liquidity positions. To meet this demand, we launched KyberSwap Elastic which iterated upon the  capital amplification  capabilities of its  Classic  counterpart by incorporating emerging</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Introduction  As the decentralized finance (DeFi) landscape evolves, innovative solutions like FUSION are emerging to address the challenges and limitations of traditional liquidity models. FUSION, developed in collaboration by THENA, Gamma Strategies, and Algebra, simplifies the management of Concentrated Liquidity (CL) while enhancing capital efficiency and user experience.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Demystifying FUSION: A Closer Look at THENA’s Concentrated Liquidity Revolution  Thena.fi·Follow  12 min read·Apr 19  --  Listen  Share  TL;DR  THENA V2 represents a major platform upgrade, featuring enhanced gauges and the integration of FUSION pools.  Concentrated Liquidity (CL) enables LPs to focus their funds within a specific price range, providing deeper liquidity and potentially higher trading fee earnings.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THENA’s FUSION transforms the DeFi landscape by making concentrated liquidity more approachable, efficient, and user-friendly. By merging Algebra’s capital efficiency model with Gamma’s automated strategies, FUSION delivers a powerful solution that overcomes the limitations of traditional liquidity models. Although concentrated liquidity has its pros and cons, FUSION’s inventive approach lays the foundation for a more dynamic and inclusive DeFi ecosystem.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 KyberNetwork  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>THENA FUSION</t>
+          <t>Balancer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Introduction  As the decentralized finance (DeFi) landscape evolves, innovative solutions like FUSION are emerging to address the challenges and limitations of traditional liquidity models. FUSION, developed in collaboration by THENA, Gamma Strategies, and Algebra, simplifies the management of Concentrated Liquidity (CL) while enhancing capital efficiency and user experience.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Demystifying FUSION: A Closer Look at THENA’s Concentrated Liquidity Revolution  Thena.fi·Follow  12 min read·Apr 19  --  Listen  Share  TL;DR  THENA V2 represents a major platform upgrade, featuring enhanced gauges and the integration of FUSION pools.  Concentrated Liquidity (CL) enables LPs to focus their funds within a specific price range, providing deeper liquidity and potentially higher trading fee earnings.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THENA’s FUSION transforms the DeFi landscape by making concentrated liquidity more approachable, efficient, and user-friendly. By merging Algebra’s capital efficiency model with Gamma’s automated strategies, FUSION delivers a powerful solution that overcomes the limitations of traditional liquidity models. Although concentrated liquidity has its pros and cons, FUSION’s inventive approach lays the foundation for a more dynamic and inclusive DeFi ecosystem.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Value Market Making (CVM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Balancer Pools are built on a Constant Value Market Making algorithm, combining up to eight tokens for a wide array of liquidity provision strategies. Here, liquidity providers can deposit liquidity using only one token from the pool composition (single-asset liquidity provision), and the definition of weights provides additional flexibility for pool management.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; As these examples illustrate, AMMs can be difficult to handle under extreme market conditions. Pool managers need to continuously evaluate the total token supply on the market against the supply locked in a pool to ensure enough liquidity is available for rebalancing. Some projects may decide to implement emergency measures to protect a pool in extreme price movements, such as temporarily disabling swaps or implementing a circuit break based on tracking spot price deviation block-by-block.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Early versions of AMMs came with immutable token weights, maintaining a pre-defined Constant Value (the Invariant) throughout the pool’s entire life cycle. As outlined above, some situations require specific adaptations to protect the pool’s value. Dynamic Weights Changing provided some first promising results in applications led by Balancer and PowerPool. PowerPool developed and launched a Weights Changing Model processing native oracle price signals, focusing on gas efficiency and smoothness</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Balancer</t>
+          <t>Agni Finance</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Value Market Making (CVM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Balancer Pools are built on a Constant Value Market Making algorithm, combining up to eight tokens for a wide array of liquidity provision strategies. Here, liquidity providers can deposit liquidity using only one token from the pool composition (single-asset liquidity provision), and the definition of weights provides additional flexibility for pool management.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; As these examples illustrate, AMMs can be difficult to handle under extreme market conditions. Pool managers need to continuously evaluate the total token supply on the market against the supply locked in a pool to ensure enough liquidity is available for rebalancing. Some projects may decide to implement emergency measures to protect a pool in extreme price movements, such as temporarily disabling swaps or implementing a circuit break based on tracking spot price deviation block-by-block.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Early versions of AMMs came with immutable token weights, maintaining a pre-defined Constant Value (the Invariant) throughout the pool’s entire life cycle. As outlined above, some situations require specific adaptations to protect the pool’s value. Dynamic Weights Changing provided some first promising results in applications led by Balancer and PowerPool. PowerPool developed and launched a Weights Changing Model processing native oracle price signals, focusing on gas efficiency and smoothness</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Hassle-Free Liquidity Provisioning  AGNI Finance is a concentrated liquidity market-maker (CLMM). It means that liquidity providers can deposit their assets in specific price ranges, rather than across the entire price range of an asset pair. CLMM comes with many improvements over the traditional constant product design (CPMM). This includes better capital efficiency for liquidity providers and reduced price impact for traders.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Embracing a New Era of DeFi Liquidity  By combining Agni’s CLMM pools with Rivera’s innovative ALM, market-makers &amp; DeFi builders can look forward to an era of simplicity, composability, and enhanced opportunities on Mantle Network.  --  --  Follow  Written by Akash Gaurav  91 Followers  Editor for  Rivera Money  Co-Founder &amp; CEO at Rivera Money  Follow  More from Akash Gaurav and Rivera Money  Akash Gaurav  in  Rivera Money&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Rivera Money Partners AGNI Finance  Akash Gaurav·Follow  Published inRivera Money·3 min read·Aug 9  --  Listen  Share  Active liquidity management and market-making strategies for AGNI Finance.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Agni Finance</t>
+          <t>Sunswap v2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Hassle-Free Liquidity Provisioning  AGNI Finance is a concentrated liquidity market-maker (CLMM). It means that liquidity providers can deposit their assets in specific price ranges, rather than across the entire price range of an asset pair. CLMM comes with many improvements over the traditional constant product design (CPMM). This includes better capital efficiency for liquidity providers and reduced price impact for traders.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Embracing a New Era of DeFi Liquidity  By combining Agni’s CLMM pools with Rivera’s innovative ALM, market-makers &amp; DeFi builders can look forward to an era of simplicity, composability, and enhanced opportunities on Mantle Network.  --  --  Follow  Written by Akash Gaurav  91 Followers  Editor for  Rivera Money  Co-Founder &amp; CEO at Rivera Money  Follow  More from Akash Gaurav and Rivera Money  Akash Gaurav  in  Rivera Money&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Rivera Money Partners AGNI Finance  Akash Gaurav·Follow  Published inRivera Money·3 min read·Aug 9  --  Listen  Share  Active liquidity management and market-making strategies for AGNI Finance.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; SunSwap Overview  SunSwap protocol keywords: Automated market maker (AMM), liquidity pool and swap  Background  SunSwap AMM (automated market maker) adopts the most used trading model in the world of DeFi today. Unlike the order book, AMMs utilize the constant product model to calculate tokens in the pool, where trades are automatically executed, and the liquidity supply of the trading pair is ensured.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Mechanism  Swapping is based on the constant product formula, with x and y representing the amount of two different tokens (assumed to be token X and token Y), then:  x∗y=kx * y = kx∗y=k  If we want to swap X for Y from the liquidity pool, and assume that the amount of X entered is Δx and the amount of Y obtained is Δy, provided that the pool has sufficient funds, then:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Discussion  What's the fundamental difference between these different versions of SunSwap? I noticed liquidity for some trading pairs are very low in v2 and v3 (e.g., USDT-BTC).  TIA for any insight!</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sunswap v2</t>
+          <t>Klayswap v3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; SunSwap Overview  SunSwap protocol keywords: Automated market maker (AMM), liquidity pool and swap  Background  SunSwap AMM (automated market maker) adopts the most used trading model in the world of DeFi today. Unlike the order book, AMMs utilize the constant product model to calculate tokens in the pool, where trades are automatically executed, and the liquidity supply of the trading pair is ensured.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Mechanism  Swapping is based on the constant product formula, with x and y representing the amount of two different tokens (assumed to be token X and token Y), then:  x∗y=kx * y = kx∗y=k  If we want to swap X for Y from the liquidity pool, and assume that the amount of X entered is Δx and the amount of Y obtained is Δy, provided that the pool has sufficient funds, then:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Discussion  What's the fundamental difference between these different versions of SunSwap? I noticed liquidity for some trading pairs are very low in v2 and v3 (e.g., USDT-BTC).  TIA for any insight!</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The scale of new liquidity is, however, limited by the flow of the entire Klaytn chain liquidity, so it cannot be expanded infinitely. Further, the current liquidity pool structure based on the CPMM model (Uniswap V2) has low efficiency, in which not all deposited liquidity is utilized.  With the V3 pair deposit update, KLAYswap aims to make its DEX more competitive by creating a lively liquidity pool that will attract more trade demand and enable assets to be actively traded in the market.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; However, the existing V2 pair deposit pool was built with a CPMM model (Uniswap V2) based on x ∗ y = k, which deposits assets in all price ranges. This leads to a problem of 'low liquidity efficiency',  where most deposited liquidity is not utilized for trading. As a result, KLAYswap's overall trading volume and transaction fee profit ends up declining, weakening the users' motivation to provide additional liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 10 min read·Jun 14  --  KLAYswap  in  KLAYswap  Converting WEMIX Classic (WEMIX) to WEMIX 3.0 (oWEMIX)KLAYswap offers a WEMIX Converter function for 1:1 conversion of WEMIX Classic (WEMIX) to WEMIX 3.0 (oWEMIX). Using this function, users…  3 min read·Aug 29  --  KLAYswap  in  KLAYswap  Announcing KLAYswap: Klaytn’s decentralized, automated liquidity protocolFinally, the day that everyone has been waiting for!  8 min read·Nov 4, 2020  --  See all from KLAYswap  See all from KLAYswap</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Klayswap v3</t>
+          <t>SushiSwap</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The scale of new liquidity is, however, limited by the flow of the entire Klaytn chain liquidity, so it cannot be expanded infinitely. Further, the current liquidity pool structure based on the CPMM model (Uniswap V2) has low efficiency, in which not all deposited liquidity is utilized.  With the V3 pair deposit update, KLAYswap aims to make its DEX more competitive by creating a lively liquidity pool that will attract more trade demand and enable assets to be actively traded in the market.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; However, the existing V2 pair deposit pool was built with a CPMM model (Uniswap V2) based on x ∗ y = k, which deposits assets in all price ranges. This leads to a problem of 'low liquidity efficiency',  where most deposited liquidity is not utilized for trading. As a result, KLAYswap's overall trading volume and transaction fee profit ends up declining, weakening the users' motivation to provide additional liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 10 min read·Jun 14  --  KLAYswap  in  KLAYswap  Converting WEMIX Classic (WEMIX) to WEMIX 3.0 (oWEMIX)KLAYswap offers a WEMIX Converter function for 1:1 conversion of WEMIX Classic (WEMIX) to WEMIX 3.0 (oWEMIX). Using this function, users…  3 min read·Aug 29  --  KLAYswap  in  KLAYswap  Announcing KLAYswap: Klaytn’s decentralized, automated liquidity protocolFinally, the day that everyone has been waiting for!  8 min read·Nov 4, 2020  --  See all from KLAYswap  See all from KLAYswap</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The use of the AMM model enables SushiSwap to solve liquidity problems. In addition to token swap services, SushiSwap offers yield farming, an ability to stake the protocol’s token SUSHI, lending and new token offerings.  History  SushiSwap was launched in August 2020 by anonymous developers hidden behind pseudonyms "Chef Nomi," "OxMaki" and "SushiSwap." Little information on the project’s founders was available, apart from their Twitter accounts.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To add liquidity, a user needs to go to the pool tab and click on the Add button. While providing liquidity, users are required to pay an equal amount of both tokens that they wish to add to the pool. A user can enter the value of one of the pair’s token, and the value of the other token will be automatically displayed.  Read less  Read less  Roadmap  August 2020  A group of anonymous developers founded SushiSwap. The MasterChef solution enabling the minting of SUSHI tokens was launched.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The developers firmly believe that the new model, if successfully implemented, will enable Sushiswap to remain solvent in all market conditions, as it totally removes pressure from the Sushi treasury.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 6eer  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SushiSwap</t>
+          <t>Cetus</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The use of the AMM model enables SushiSwap to solve liquidity problems. In addition to token swap services, SushiSwap offers yield farming, an ability to stake the protocol’s token SUSHI, lending and new token offerings.  History  SushiSwap was launched in August 2020 by anonymous developers hidden behind pseudonyms "Chef Nomi," "OxMaki" and "SushiSwap." Little information on the project’s founders was available, apart from their Twitter accounts.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To add liquidity, a user needs to go to the pool tab and click on the Add button. While providing liquidity, users are required to pay an equal amount of both tokens that they wish to add to the pool. A user can enter the value of one of the pair’s token, and the value of the other token will be automatically displayed.  Read less  Read less  Roadmap  August 2020  A group of anonymous developers founded SushiSwap. The MasterChef solution enabling the minting of SUSHI tokens was launched.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The developers firmly believe that the new model, if successfully implemented, will enable Sushiswap to remain solvent in all market conditions, as it totally removes pressure from the Sushi treasury.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity Market Maker (CLMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Cetus Library: Concentrated Liquidity (CLMM)  CetusProtocol·Follow  7 min read·Jan 14  --  14  Listen  Share  Cetus just launched its beta version. From alpha to beta, the biggest upgrade is to introduce the Concentrated Liquidity Market Maker (CLMM), making Cetus the first purely CLMM-based DEX with strong accessibility and security on Aptos mainnet.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Concentrated liquidity is a type of programmable liquidity. CLMM allows liquidity providers to set their custom price ranges when they add liquidity, so as to enhance capital utilization. In the past, most DEX platforms used the common AMM models (Constand Product Market Maker, usually referred to as AMM directly), to serve users’ daily trading demands. In an AMM DEX, for each pair, there is a pool for token A and a pool for token B. The token balances in both pools perform their changes&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Different modes suit different users. If you are a lazy LP who rarely checks your liquidity or you don’t even have time to learn CLMM thoroughly, you can simply choose to add your liquidity in Full Range. In that case, the CLMM model basically downgrades to the common AMM. Yes, CLMM actually includes AMM. Some people think these two algorithms are parallel, but in fact, CLMM is a fully upgraded model built on top of the AMM. You don’t need to worry about if it’s a waste of CLMM’s efficiency.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 6eer  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cetus</t>
+          <t>SyncSwap</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity Market Maker (CLMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Cetus Library: Concentrated Liquidity (CLMM)  CetusProtocol·Follow  7 min read·Jan 14  --  14  Listen  Share  Cetus just launched its beta version. From alpha to beta, the biggest upgrade is to introduce the Concentrated Liquidity Market Maker (CLMM), making Cetus the first purely CLMM-based DEX with strong accessibility and security on Aptos mainnet.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Concentrated liquidity is a type of programmable liquidity. CLMM allows liquidity providers to set their custom price ranges when they add liquidity, so as to enhance capital utilization. In the past, most DEX platforms used the common AMM models (Constand Product Market Maker, usually referred to as AMM directly), to serve users’ daily trading demands. In an AMM DEX, for each pair, there is a pool for token A and a pool for token B. The token balances in both pools perform their changes&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Different modes suit different users. If you are a lazy LP who rarely checks your liquidity or you don’t even have time to learn CLMM thoroughly, you can simply choose to add your liquidity in Full Range. In that case, the CLMM model basically downgrades to the common AMM. Yes, CLMM actually includes AMM. Some people think these two algorithms are parallel, but in fact, CLMM is a fully upgraded model built on top of the AMM. You don’t need to worry about if it’s a waste of CLMM’s efficiency.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;"Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools  The Auto Market Maker (AMM) is the core of pool models and liquidity pools, instead of using the Oracle price, AMMs determine the prices by the algorithm.  Initially, there are two types of pools on SyncSwap.  Classic Pool  The Classic Pool is built for general-purpose tradings and utilizes the constant product algorithm, also known as x*y=k.  x∗y=kx*y=kx∗y=k  Classic Pool supports virtually any assets and maintains 50%-50% balanced reserves.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; x+y=kx + y =kx+y=k  And fallback to perform as the constant product AMM when the price is de-pegged.  x∗y=kx * y =kx∗y=k  Stable Pool is optimized for assets like USDC/USDT that are pegged tightly around 1:1.  The pool will is highly efficient when two tokens are pegged at 1:1, but it is inefficient for uncorrelated assets like ETH/USDC.  Concentrated Pool  The Concentrated Pool in concept is a little similar to the stable pool but supports the dynamic price instead of fixed 1:1.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Starting today, users will have the option to supply SyncSwap LP positions to EraLend, beginning with SyncSwap USDC-ETH. This is a step towards the concept of superfluid collateral, a new form of collateral that can serve as a guarantee for loans while also generating yield elsewhere.  By leveraging assets for diverse uses simultaneously, we can unlock greater liquidity, reduce borrowing costs, and optimize capital yield.  Key features of our new offering:</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SyncSwap</t>
+          <t>PulseX v2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;"Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools  The Auto Market Maker (AMM) is the core of pool models and liquidity pools, instead of using the Oracle price, AMMs determine the prices by the algorithm.  Initially, there are two types of pools on SyncSwap.  Classic Pool  The Classic Pool is built for general-purpose tradings and utilizes the constant product algorithm, also known as x*y=k.  x∗y=kx*y=kx∗y=k  Classic Pool supports virtually any assets and maintains 50%-50% balanced reserves.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; x+y=kx + y =kx+y=k  And fallback to perform as the constant product AMM when the price is de-pegged.  x∗y=kx * y =kx∗y=k  Stable Pool is optimized for assets like USDC/USDT that are pegged tightly around 1:1.  The pool will is highly efficient when two tokens are pegged at 1:1, but it is inefficient for uncorrelated assets like ETH/USDC.  Concentrated Pool  The Concentrated Pool in concept is a little similar to the stable pool but supports the dynamic price instead of fixed 1:1.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Starting today, users will have the option to supply SyncSwap LP positions to EraLend, beginning with SyncSwap USDC-ETH. This is a step towards the concept of superfluid collateral, a new form of collateral that can serve as a guarantee for loans while also generating yield elsewhere.  By leveraging assets for diverse uses simultaneously, we can unlock greater liquidity, reduce borrowing costs, and optimize capital yield.  Key features of our new offering:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The Constant Product Formula  PulseX employs the ‘Constant Product Market Maker’ model, defined by the equation x*y=k, where x and y are the quantities of the two tokens in the liquidity pool, and k is a constant value. This equation implies that the product of the quantities of two tokens in the pool must remain constant.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Providers and Automated Market Makers  In a PulseX liquidity pool, users (known as Liquidity Providers) deposit an equal value of two tokens, creating a pool for others to trade against. By providing liquidity, LPs earn fees from the trades that happen in their pool, proportional to their share of the pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The core feature that sets PulseChain apart is its use of liquidity pools instead of order books to make trades possible. To comprehend how PulseX’s liquidity pools work, you first need to grasp the concepts of Liquidity Providers (LPs) and Automated Market Makers (AMMs).  Liquidity Providers and Automated Market Makers</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PulseX v2</t>
+          <t>BaseSwap</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The Constant Product Formula  PulseX employs the ‘Constant Product Market Maker’ model, defined by the equation x*y=k, where x and y are the quantities of the two tokens in the liquidity pool, and k is a constant value. This equation implies that the product of the quantities of two tokens in the pool must remain constant.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Providers and Automated Market Makers  In a PulseX liquidity pool, users (known as Liquidity Providers) deposit an equal value of two tokens, creating a pool for others to trade against. By providing liquidity, LPs earn fees from the trades that happen in their pool, proportional to their share of the pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The core feature that sets PulseChain apart is its use of liquidity pools instead of order books to make trades possible. To comprehend how PulseX’s liquidity pools work, you first need to grasp the concepts of Liquidity Providers (LPs) and Automated Market Makers (AMMs).  Liquidity Providers and Automated Market Makers</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>BaseSwap</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;The BaseSwap Vault employs a "Proactive Market Maker (PMM)" liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The Diluted Market Cap is the Market Cap including all locked tokens.  $131,380  CEX Volume (24h)  The CEX Volume is the total amount worth of asset traded on centralized exchanges in the last 24 hours.  $49,040  DEX Volume (24h)  The DEX Volume is the total amount worth of asset traded on decentralized exchanges (Uniswap V2-forks only yet) in the last 24 hours.  $0  Liquidity  The Liquidity is the total amount locked in the asset's on-chain liquidity pools.  $0  Circ. Supply&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; BSWAP Vault is a set of high incentivized pools. Long term supporters can choose to lock $BSWAP for a predetermined period for auto-compounded higher rewards.   The token distribution follows a fixed supply, linear emission model coupled with burning or deflationary mechanisms to reduce overall supply over a 3 1/2 year period.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Swap  Portfolio  Tools</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Velodrome Finance v2</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Velodrome Finance  Velodrome Finance is an AMM and liquidity layer that aims to provide efficient and secure trading experiences for its users while providing opportunities for turnkey, sustainable, and capital-efficient liquidity for DAOs and protocols. + + It is based on Andre Cronje's Solidly and operates on the Optimism blockchain.  Categories:  DeFi  Updated:  2023-06-28  Tags:  AMM  DEX  Ticker:  $VELO  Overview  Stats  Our Take  Timeline  Deep Dive  Diagram  Supply and Demand&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Augusta Finance aims to become the governance hub for Velodrome Finance, but the traditional Convex model is not suitable for Velodrome. From a first-principles perspective, Convex achieves veToken accumulation by addressing the liquidity issue of veTokens. Another way to address liquidity concerns is through lending. Therefore, the NFT collateral lending model is also applied in the Augusta Finance approach. The interest-bearing and governance properties of veVELO NFTs effectively solve the&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Mani·Follow  5 min read·Aug 21  --  Listen  Share  Velodrome Finance is a ve(3,3) DEX built on the Optimism network, consolidating liquidity from various protocols on Optimism through the veVELO bribery mechanism. veVELO exists in the form of an NFT, and holders can transfer this NFT to others through Velodrome Finance’s official NFT Marketplace. Holding veVELO allows individuals to earn multiple sources of income, including:  Bribe fees related to veVELO.  Swap fees from the liquidity pool.</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 1. To specify as the Change License the GPL Version 2.0 or any later version,    or a license that is compatible with GPL Version 2.0 or a later version,    where "compatible" means that software provided under the Change License can    be included in a program with software provided under GPL Version 2.0 or a    later version. Licensor may specify additional Change Licenses without    limitation.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If your use of the Licensed Work does not comply with the requirements currently in effect as described in this License, you must purchase a commercial license from the Licensor, its affiliated entities, or authorized resellers, or you must refrain from using the Licensed Work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; -----------------------------------------------------------------------------  Terms  The Licensor hereby grants you the right to copy, modify, create derivative works, redistribute, and make non-production use of the Licensed Work. The Licensor may make an Additional Use Grant, above, permitting limited production use.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Velodrome Finance v2</t>
+          <t>Orderly Network</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Velodrome Finance  Velodrome Finance is an AMM and liquidity layer that aims to provide efficient and secure trading experiences for its users while providing opportunities for turnkey, sustainable, and capital-efficient liquidity for DAOs and protocols. - - It is based on Andre Cronje's Solidly and operates on the Optimism blockchain.  Categories:  DeFi  Updated:  2023-06-28  Tags:  AMM  DEX  Ticker:  $VELO  Overview  Stats  Our Take  Timeline  Deep Dive  Diagram  Supply and Demand&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Augusta Finance aims to become the governance hub for Velodrome Finance, but the traditional Convex model is not suitable for Velodrome. From a first-principles perspective, Convex achieves veToken accumulation by addressing the liquidity issue of veTokens. Another way to address liquidity concerns is through lending. Therefore, the NFT collateral lending model is also applied in the Augusta Finance approach. The interest-bearing and governance properties of veVELO NFTs effectively solve the&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Mani·Follow  5 min read·Aug 21  --  Listen  Share  Velodrome Finance is a ve(3,3) DEX built on the Optimism network, consolidating liquidity from various protocols on Optimism through the veVELO bribery mechanism. veVELO exists in the form of an NFT, and holders can transfer this NFT to others through Velodrome Finance’s official NFT Marketplace. Holding veVELO allows individuals to earn multiple sources of income, including:  Bribe fees related to veVELO.  Swap fees from the liquidity pool.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;Orderly Network employs a Proactive Market Maker (PMM) liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Real Yield Opportunities: Orderly will generate revenue from various trading and LP activities on the platform redistributing it to stakeholders throughout the ecosystem. We will also integrate our market-making strategies, whereby liquidity providers will earn authentic real yield, while tapping into our network of institutional traders.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Thanks to the combination of orderbook efficiency and on-chain settlement, Orderly will offer market-leading execution with low latency and minimal fees.  Orderly will launch with immediate access to deep liquidity thanks to some of the largest market makers in the space.  Key Features  There are many added features Orderly provides in comparison to Centralized exchanges and on-chain derivatives exchanges. Our infrastructure will provide:  How Does it Work?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Spot Trading  Margin Trading  Perpetual Swaps  Lending and Borrowing  Orderly aims to provide the most robust liquidity layer infrastructure for any dApp to utilize and build on. With the help of our incubators WOO Network and NEAR, we are able to leverage the knowledge and experience from both teams in order to achieve this vision.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 1. To specify as the Change License the GPL Version 2.0 or any later version,    or a license that is compatible with GPL Version 2.0 or a later version,    where "compatible" means that software provided under the Change License can    be included in a program with software provided under GPL Version 2.0 or a    later version. Licensor may specify additional Change Licenses without    limitation.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If your use of the Licensed Work does not comply with the requirements currently in effect as described in this License, you must purchase a commercial license from the Licensor, its affiliated entities, or authorized resellers, or you must refrain from using the Licensed Work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; -----------------------------------------------------------------------------  Terms  The Licensor hereby grants you the right to copy, modify, create derivative works, redistribute, and make non-production use of the Licensed Work. The Licensor may make an Additional Use Grant, above, permitting limited production use.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; # TM14.Networking License  ## The MIT License (MIT)  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Orderly Network</t>
+          <t>Biswap v2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;Orderly Network employs a Proactive Market Maker (PMM) liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Real Yield Opportunities: Orderly will generate revenue from various trading and LP activities on the platform redistributing it to stakeholders throughout the ecosystem. We will also integrate our market-making strategies, whereby liquidity providers will earn authentic real yield, while tapping into our network of institutional traders.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Thanks to the combination of orderbook efficiency and on-chain settlement, Orderly will offer market-leading execution with low latency and minimal fees.  Orderly will launch with immediate access to deep liquidity thanks to some of the largest market makers in the space.  Key Features  There are many added features Orderly provides in comparison to Centralized exchanges and on-chain derivatives exchanges. Our infrastructure will provide:  How Does it Work?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Spot Trading  Margin Trading  Perpetual Swaps  Lending and Borrowing  Orderly aims to provide the most robust liquidity layer infrastructure for any dApp to utilize and build on. With the help of our incubators WOO Network and NEAR, we are able to leverage the knowledge and experience from both teams in order to achieve this vision.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;The value of Biswap is determined by the market forces of supply and demand. The total supply of Biswap is fixed and the circulation supply is reduced by using token lock mechanisms and deflationary models.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Instead, the best option is to reduce the circulation supply (part of the total supply) by using token lock mechanisms (BSW Investment Pool) and building deflationary models based on Real Yield and Protocol Owned Liquidity. Instead of burning the intended tokens, which causes token inflation, these instruments solve the problem of token value dilution.  Biswap reserves the right in its sole discretion to change or amend the burning schedule at any time and for any reason.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What is BiSwap AMMv3?  An evolution for on-chain asset market making and trading, the BiSwap AMMv3 is a transformation of the automated market maker mechanism that is enhancing pricing accuracy, reducing transactional friction, and streamlining the process of managing capital in decentralized environments on the Binance Smart Chain.  AMMv3 Benefits&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity Lockers  Token Vesting  Token Minter  ILO Platform  Farms-as-a-service  Biswap is integrated into Unicrypt Liquidity Locker. Now, you can lock your Biswap LP tokens using Unicrypt. It provides more opportunities for projects that are launching on Biswap. With Liquidity Locking, the project can strengthen its trust and give more confidence to its users.  How to Lock Biswap Liquidity on Unicrypt?  Step 1. Enter your Pair’s Address  Before going to step one, please make sure that:</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; # TM14.Networking License  ## The MIT License (MIT)  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Biswap v2</t>
+          <t>Phux</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;The value of Biswap is determined by the market forces of supply and demand. The total supply of Biswap is fixed and the circulation supply is reduced by using token lock mechanisms and deflationary models.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Instead, the best option is to reduce the circulation supply (part of the total supply) by using token lock mechanisms (BSW Investment Pool) and building deflationary models based on Real Yield and Protocol Owned Liquidity. Instead of burning the intended tokens, which causes token inflation, these instruments solve the problem of token value dilution.  Biswap reserves the right in its sole discretion to change or amend the burning schedule at any time and for any reason.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What is BiSwap AMMv3?  An evolution for on-chain asset market making and trading, the BiSwap AMMv3 is a transformation of the automated market maker mechanism that is enhancing pricing accuracy, reducing transactional friction, and streamlining the process of managing capital in decentralized environments on the Binance Smart Chain.  AMMv3 Benefits&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity Lockers  Token Vesting  Token Minter  ILO Platform  Farms-as-a-service  Biswap is integrated into Unicrypt Liquidity Locker. Now, you can lock your Biswap LP tokens using Unicrypt. It provides more opportunities for projects that are launching on Biswap. With Liquidity Locking, the project can strengthen its trust and give more confidence to its users.  How to Lock Biswap Liquidity on Unicrypt?  Step 1. Enter your Pair’s Address  Before going to step one, please make sure that:</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Phux</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; JavaScript is not available.  We’ve detected that JavaScript is disabled in this browser. Please enable JavaScript or switch to a supported browser to continue using twitter.com. You can see a list of supported browsers in our Help Center.  Help Center  Terms of Service        Privacy Policy@@ -1368,208 +1351,225 @@
        © 2023 X Corp.  Something went wrong, but don’t fret — let’s give it another shot.  Try again</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2019 oliwierptak  Permissions is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Wombat Exchange</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Other Stableswaps  Wombat Exchange  Pool Design  Closed Pools  Open Liquidity Pool  Deposit Method  Multiple Tokens  Single Token  UX Design  Complicated  Simple  Slippage  Low  Very Low  Asset Scalability  Limited  Very Well  Capital Efficiency  Good  Better  Pure LP Tokens  Not Possible  Yes  Crosschain &amp; Multichain  No  Yes  Meet Our Investors  Investors &amp; Pioneers&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; One of the top existing stableswap on the BNB Chain is Ellipsis Finance, an authorized fork of Curve Finance. On Ellipsis, stablecoins trading is economical. Wombat, however, offers an even better rate because of its ability to maintain the equilibrium of liquidity pools efficiently and bring significant slippage improvement up to 40%. Wombat also offers a lower trading fee of 0.01%, lower than 0.04% on Ellipsis.  Is Wombat Exchange safe to use?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Wombat Liquidity Mining — Optimize Rewards in the Boosting Pool  How to use Wombat Exchange?  The app interface of Wombat is designed to be simple and straightforward.  Check out these step-by-step guides on how to use Wombat:  Tutorial EP I: How to Swap Stablecoins on Wombat Exchange?  Tutorial EP II: How to be a Liquidity Provider on Wombat Exchange  Tutorial EP III: How to stake and earn $WOM  Tutorial EP IV: How to boost APR by locking $WOM</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2019 oliwierptak  Permissions is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Wombat Exchange</t>
+          <t>Pancakeswap v3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Other Stableswaps  Wombat Exchange  Pool Design  Closed Pools  Open Liquidity Pool  Deposit Method  Multiple Tokens  Single Token  UX Design  Complicated  Simple  Slippage  Low  Very Low  Asset Scalability  Limited  Very Well  Capital Efficiency  Good  Better  Pure LP Tokens  Not Possible  Yes  Crosschain &amp; Multichain  No  Yes  Meet Our Investors  Investors &amp; Pioneers&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; One of the top existing stableswap on the BNB Chain is Ellipsis Finance, an authorized fork of Curve Finance. On Ellipsis, stablecoins trading is economical. Wombat, however, offers an even better rate because of its ability to maintain the equilibrium of liquidity pools efficiently and bring significant slippage improvement up to 40%. Wombat also offers a lower trading fee of 0.01%, lower than 0.04% on Ellipsis.  Is Wombat Exchange safe to use?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Wombat Liquidity Mining — Optimize Rewards in the Boosting Pool  How to use Wombat Exchange?  The app interface of Wombat is designed to be simple and straightforward.  Check out these step-by-step guides on how to use Wombat:  Tutorial EP I: How to Swap Stablecoins on Wombat Exchange?  Tutorial EP II: How to be a Liquidity Provider on Wombat Exchange  Tutorial EP III: How to stake and earn $WOM  Tutorial EP IV: How to boost APR by locking $WOM</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; With V3, liquidity providers can now “concentrate” their capital to smaller price intervals, i.e. choose a custom price range when providing liquidity. By doing so, LPs are able to “concentrate” their capital in ranges where most of the trading occurs, thereby making their money work harder for them. This is especially beneficial in stablecoin pools, where two assets hardly change in price in relation to each other and the capital multiplier can be up to 4000x. In addition, PancakeSwap V3 is&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; With V3, liquidity providers can now “concentrate” their capital to smaller price intervals, i.e. choose a custom price range when providing liquidity. By doing so, LPs are able to “concentrate” their capital in ranges where most of the trading occurs, thereby making their money work harder for them. This is especially beneficial in stablecoin pools, where two assets hardly change in price in relation to each other and the capital multiplier can be up to 4000x. In addition, PancakeSwap V3 is&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; POSITION MANAGER - COMING SOON  PancakeSwap V3 will soon introduce an automatic position managing feature, enabling users to easily deposit liquidity with just one click. This built-in tool eliminates the need for manual calculations or third-party integrations, allowing users to automatically adjust their positions and earn fee rewards while staying within range.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Dawood Khan Masood  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Dawood Khan Masood  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Pancakeswap v3</t>
+          <t>Lifinity</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; With V3, liquidity providers can now “concentrate” their capital to smaller price intervals, i.e. choose a custom price range when providing liquidity. By doing so, LPs are able to “concentrate” their capital in ranges where most of the trading occurs, thereby making their money work harder for them. This is especially beneficial in stablecoin pools, where two assets hardly change in price in relation to each other and the capital multiplier can be up to 4000x. In addition, PancakeSwap V3 is&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; With V3, liquidity providers can now “concentrate” their capital to smaller price intervals, i.e. choose a custom price range when providing liquidity. By doing so, LPs are able to “concentrate” their capital in ranges where most of the trading occurs, thereby making their money work harder for them. This is especially beneficial in stablecoin pools, where two assets hardly change in price in relation to each other and the capital multiplier can be up to 4000x. In addition, PancakeSwap V3 is&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; POSITION MANAGER - COMING SOON  PancakeSwap V3 will soon introduce an automatic position managing feature, enabling users to easily deposit liquidity with just one click. This built-in tool eliminates the need for manual calculations or third-party integrations, allowing users to automatically adjust their positions and earn fee rewards while staying within range.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentration  In the constant product model (x ⋅ y = k), liquidity is provided across the price range from 0 to infinity. In contrast, concentrated liquidity adds depth to a market by providing capital in a limited price range, thereby improving capital efficiency.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; There are several methods of concentrating liquidity, but Lifinity takes the simple yet unique approach of applying leverage to the value of k. This is achieved by simply multiplying k by the desired amount of concentration c, which determines the amount of liquidity provided:  x⋅y=c⋅k=Kx ⋅ y = c ⋅ k = Kx⋅y=c⋅k=K  DEX - PreviousOracle  Next - DEXRebalancing  Last modified   1yr ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; What is Lifinity?  Lifinity is the first proactive market maker on Solana designed to improve capital efficiency and reduce impermanent loss.  Lifinity's DEX innovations:  Concentrated liquidity combined with lazy liquidity provision; no need to adjust positions  Reduces or even reverses impermanent loss by using an oracle as the main pricing mechanism  Generates a profit from market making through delayed rebalancing of pools  Lifinity's tokenomics innovations:</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Dawood Khan Masood  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Dawood Khan Masood  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Lifinity</t>
+          <t>Raydium</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentration  In the constant product model (x ⋅ y = k), liquidity is provided across the price range from 0 to infinity. In contrast, concentrated liquidity adds depth to a market by providing capital in a limited price range, thereby improving capital efficiency.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; There are several methods of concentrating liquidity, but Lifinity takes the simple yet unique approach of applying leverage to the value of k. This is achieved by simply multiplying k by the desired amount of concentration c, which determines the amount of liquidity provided:  x⋅y=c⋅k=Kx ⋅ y = c ⋅ k = Kx⋅y=c⋅k=K  DEX - PreviousOracle  Next - DEXRebalancing  Last modified   1yr ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; What is Lifinity?  Lifinity is the first proactive market maker on Solana designed to improve capital efficiency and reduce impermanent loss.  Lifinity's DEX innovations:  Concentrated liquidity combined with lazy liquidity provision; no need to adjust positions  Reduces or even reverses impermanent loss by using an oracle as the main pricing mechanism  Generates a profit from market making through delayed rebalancing of pools  Lifinity's tokenomics innovations:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Providing standard AMM liquidity  Raydium's liquidity pools allow anyone to provide liquidity by adding their assets to a pool.  How to add liquidity to a pool:  1.Navigate to the 'Liquidity' tab on the app and connect your wallet.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Raydium provides Ecosystem-Wide Liquidity for users and projects  Order Book AMM  Raydium's AMM interacts with OpenBook's central limit order book, meaning that pools have access to all order flow and liquidity on OpenBook, and vice versa.  Best Price Swaps  Raydium determines the best swap route among all pools in order to provide the best price for users, and executes accordingly.  Premissionless Liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; That's it, you're now a liquidity provider on Raydium!  Liquidity pool explanation:  When you add to a pool you will receive Liquidity Provider tokens (LP tokens). For example, if a user deposited $RAY and $USDC into a pool, you would receive RAY-USDC RLP tokens.  These tokens represent a proportional share of the pooled assets, allowing a user to reclaim their funds at any point.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; http://www.apache.org/licenses/LICENSE-2.0  Unless required by applicable law or agreed to in writing, software distributed under the License is distributed on an "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the specific language governing permissions and limitations under the License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright 2020 Serum Foundation  Licensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with the License. You may obtain a copy of the License at      http://www.apache.org/licenses/LICENSE-2.0</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Raydium</t>
+          <t>QuickSwap</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Providing standard AMM liquidity  Raydium's liquidity pools allow anyone to provide liquidity by adding their assets to a pool.  How to add liquidity to a pool:  1.Navigate to the 'Liquidity' tab on the app and connect your wallet.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Raydium provides Ecosystem-Wide Liquidity for users and projects  Order Book AMM  Raydium's AMM interacts with OpenBook's central limit order book, meaning that pools have access to all order flow and liquidity on OpenBook, and vice versa.  Best Price Swaps  Raydium determines the best swap route among all pools in order to provide the best price for users, and executes accordingly.  Premissionless Liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; That's it, you're now a liquidity provider on Raydium!  Liquidity pool explanation:  When you add to a pool you will receive Liquidity Provider tokens (LP tokens). For example, if a user deposited $RAY and $USDC into a pool, you would receive RAY-USDC RLP tokens.  These tokens represent a proportional share of the pooled assets, allowing a user to reclaim their funds at any point.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How Quickswap works  constant product formula and implemented in a system of non-upgradeable smart contracts on the  Ethereum blockchain. It obviates the need for trusted intermediaries, prioritizing  GPL.  Each Quickswap smart contract, or pair, manages a liquidity pool made up of reserves of two ERC-20 tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; As liquidity tokens are themselves tradable assets, liquidity providers may sell, transfer, or otherwise use their liquidity tokens in any way they see fit.  Learn more with advanced topics:  Understanding Returns  Fees  Why pools?#  Quickswap is unique in that it doesn’t use an order book to derive the price of an asset or to match buyers and sellers of tokens. Instead, Quickswap uses what are called Liquidity Pools.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Quickswap focuses on the strengths of Ethereum to reimagine token swaps from first principles.  A blockchain-native liquidity protocol should take advantage of the trusted code execution environment, the autonomous and perpetually running virtual machine, and an open, permissionless, and inclusive access model that produces an exponentially growing ecosystem of virtual assets.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; http://www.apache.org/licenses/LICENSE-2.0  Unless required by applicable law or agreed to in writing, software distributed under the License is distributed on an "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the specific language governing permissions and limitations under the License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright 2020 Serum Foundation  Licensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with the License. You may obtain a copy of the License at      http://www.apache.org/licenses/LICENSE-2.0</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>QuickSwap</t>
+          <t>Camelot</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How Quickswap works  constant product formula and implemented in a system of non-upgradeable smart contracts on the  Ethereum blockchain. It obviates the need for trusted intermediaries, prioritizing  GPL.  Each Quickswap smart contract, or pair, manages a liquidity pool made up of reserves of two ERC-20 tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; As liquidity tokens are themselves tradable assets, liquidity providers may sell, transfer, or otherwise use their liquidity tokens in any way they see fit.  Learn more with advanced topics:  Understanding Returns  Fees  Why pools?#  Quickswap is unique in that it doesn’t use an order book to derive the price of an asset or to match buyers and sellers of tokens. Instead, Quickswap uses what are called Liquidity Pools.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Quickswap focuses on the strengths of Ethereum to reimagine token swaps from first principles.  A blockchain-native liquidity protocol should take advantage of the trusted code execution environment, the autonomous and perpetually running virtual machine, and an open, permissionless, and inclusive access model that produces an exponentially growing ecosystem of virtual assets.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dual-liquidity type"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Dual-liquidity type  Each Camelot LP can have its own type, depending on the expected price correlation level between the two tokens of the pair.  Volatile pairs  Volatile pairs are composed of uncorrelated assets, based on the usual UniV2 model, using the standard constant product formula:  x∗y=kx * y = kx∗y=k  Stable pairs  Stable pairs are used for correlated assets, and will try to maintain a 1:1 transfer ratio as much as possible. The formula is based on the well-known Solidly curve:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; V3 AMM  Next-gen yield &amp; incentives  A key feature for Camelot is the introduction of a brand new liquidity approach based on  non-fungible staked positions  These  yield-bearing positions  act as an additional layer on top of the usual LP tokens, adding new features that will benefit both users and protocols:  The handling of locks on staked positions and their associated yield boosts  Significantly improving capital efficiency through the introduction of various custom staking strategies&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Camelot itself  launched  through the  launchpad  , and we, therefore see it as a viable option that allows teams to raise funds and liquidity in a decentralized and community-driven way.  Feature-rich AMM  Camelot's V2 AMM is based on a  dual AMM  able to support both volatile (UniV2) and stable (Curve-like) swaps.  As well as this, we're also introducing  dynamic directional fees</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Modifications:  Copyright (c) 2019 Camelot Developers  Original project:  Copyright (c) 2018 Peeply Private Ltd (Singapore)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2018 Peeply Private Ltd (Singapore)  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Camelot</t>
+          <t>VVS Finance</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dual-liquidity type"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Dual-liquidity type  Each Camelot LP can have its own type, depending on the expected price correlation level between the two tokens of the pair.  Volatile pairs  Volatile pairs are composed of uncorrelated assets, based on the usual UniV2 model, using the standard constant product formula:  x∗y=kx * y = kx∗y=k  Stable pairs  Stable pairs are used for correlated assets, and will try to maintain a 1:1 transfer ratio as much as possible. The formula is based on the well-known Solidly curve:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; V3 AMM  Next-gen yield &amp; incentives  A key feature for Camelot is the introduction of a brand new liquidity approach based on  non-fungible staked positions  These  yield-bearing positions  act as an additional layer on top of the usual LP tokens, adding new features that will benefit both users and protocols:  The handling of locks on staked positions and their associated yield boosts  Significantly improving capital efficiency through the introduction of various custom staking strategies&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Camelot itself  launched  through the  launchpad  , and we, therefore see it as a viable option that allows teams to raise funds and liquidity in a decentralized and community-driven way.  Feature-rich AMM  Camelot's V2 AMM is based on a  dual AMM  able to support both volatile (UniV2) and stable (Curve-like) swaps.  As well as this, we're also introducing  dynamic directional fees</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What makes VVS Finance Unique?  VVS Finance’s unique selling points (USPs) include the following:  Bling Swap  Bling Swap is an algorithmic routing system that enables users to swap tokens across several liquidity pools to obtain a better price for the requested pair. Users can swap tokens for a small fee of 0.3%.  Liquidity Provision&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; VVS facilitates liquidity pools, swaps, and staking and offers an intuitive UI aiming to drive global adoption of DeFi.  Read on for a deep dive into the VVS Finance protocol and its key features.  Executive Summary  VVS Finance is an AMM DEX that facilitates trading with no order books or intermediaries. It implements a smart contract that uses the assets and liquidity offered by liquidity providers.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; VVS Finance primarily directs its attention toward established and audited protocols. It bestows a rather gratifying incentivization program propelled by the VVS Finance token (VVS), the project’s indigenous asset.  The DEX exhibits liquidity pools, each comprising a token pair. Liquidity providers contribute tokens to these pools while traders engage in token swapping.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Modifications:  Copyright (c) 2019 Camelot Developers  Original project:  Copyright (c) 2018 Peeply Private Ltd (Singapore)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2018 Peeply Private Ltd (Singapore)  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Chi Ho Lau, Eric  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VVS Finance</t>
+          <t>Fraxswap v2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What makes VVS Finance Unique?  VVS Finance’s unique selling points (USPs) include the following:  Bling Swap  Bling Swap is an algorithmic routing system that enables users to swap tokens across several liquidity pools to obtain a better price for the requested pair. Users can swap tokens for a small fee of 0.3%.  Liquidity Provision&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; VVS facilitates liquidity pools, swaps, and staking and offers an intuitive UI aiming to drive global adoption of DeFi.  Read on for a deep dive into the VVS Finance protocol and its key features.  Executive Summary  VVS Finance is an AMM DEX that facilitates trading with no order books or intermediaries. It implements a smart contract that uses the assets and liquidity offered by liquidity providers.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; VVS Finance primarily directs its attention toward established and audited protocols. It bestows a rather gratifying incentivization program propelled by the VVS Finance token (VVS), the project’s indigenous asset.  The DEX exhibits liquidity pools, each comprising a token pair. Liquidity providers contribute tokens to these pools while traders engage in token swapping.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Time-weighted average market maker (TWAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Fraxswap is the first constant product automated market maker with an embedded time-weighted average market maker (TWAMM) for conducting large trades over long periods of time trustlessly. It is fully permissionless and the core AMM is based on Uniswap V2. This new AMM helps traders execute large orders efficiently and will be heavily used by the Frax Protocol to increase the stability of the pegs for the FRAX &amp; FPI stablecoins as well as return protocol excess profits to FXS holders through&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Diagram of order flow on a Fraxswap pair with a TWAMM order active.  Core AMM  The Core AMM for Fraxswap is Uniswap V2 and based on the full range xy=k constant product design. Fraxswap has adhered to many of the design decisions of Uniswap V2 as it extended the codebase to support TWAMMs. Fraxswap v2 plans to support concentrated liquidity &amp; correlated asset liquidity in a unique &amp; novel way to allow TWAMM functionality across such pairs as well.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The motivation for building Fraxswap was to create a unique AMM with specialized features for algorithmic stablecoin monetary policy, forward guidance, and large sustained market orders to stabilize the price of one asset by contracting its supply or acquiring a specific collateral over a prolonged period. Specifically, Frax Protocol will use Fraxswap for: buying back and burning FXS with AMO profits, minting new FXS to buy back and burn FRAX stablecoins to stabilize the price peg, minting FRAX</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Chi Ho Lau, Eric  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Fraxswap v2</t>
+          <t>Maiar Exchange</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Time-weighted average market maker (TWAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Fraxswap is the first constant product automated market maker with an embedded time-weighted average market maker (TWAMM) for conducting large trades over long periods of time trustlessly. It is fully permissionless and the core AMM is based on Uniswap V2. This new AMM helps traders execute large orders efficiently and will be heavily used by the Frax Protocol to increase the stability of the pegs for the FRAX &amp; FPI stablecoins as well as return protocol excess profits to FXS holders through&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Diagram of order flow on a Fraxswap pair with a TWAMM order active.  Core AMM  The Core AMM for Fraxswap is Uniswap V2 and based on the full range xy=k constant product design. Fraxswap has adhered to many of the design decisions of Uniswap V2 as it extended the codebase to support TWAMMs. Fraxswap v2 plans to support concentrated liquidity &amp; correlated asset liquidity in a unique &amp; novel way to allow TWAMM functionality across such pairs as well.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The motivation for building Fraxswap was to create a unique AMM with specialized features for algorithmic stablecoin monetary policy, forward guidance, and large sustained market orders to stabilize the price of one asset by contracting its supply or acquiring a specific collateral over a prolonged period. Specifically, Frax Protocol will use Fraxswap for: buying back and burning FXS with AMO profits, minting new FXS to buy back and burn FRAX stablecoins to stabilize the price peg, minting FRAX</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Image: Maiar Exchange works as an Automated Market Maker  Maiar Exchange works as a so called Automated Market Maker (AMM). Sounds complicated, but isn’t. An AMM is a protocol on a decentralized exchange and a core concept of the DeFi ecosystem. Instead of using an order book like a traditional exchange, assets are valued according to a mathematical formula – in this case a pricing algorithm.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; In short, liquidity mining (LM) incentivizes liquidity provisioning through token rewards (MEX). This allows liquidity to flourish and attract greater trading volumes.  Liquidity can create the following feedback loop: More Trading Volume &gt; Higher Market Makers (MM) Profits &gt; More Liquidity Provided &gt; Less Slippage &amp; Tighter Spreads &gt; More Trading Volume.  In order to bootstrap the Maiar Exchange, we will focus on the following factors:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In the world of automated market making users don’t need a counterpart (another trader) to make a trade. Instead, they interact with a smart contract that “makes” the market.  The liquidity in the smart contract is provided by users (liquidity providers) of the exchange in so called liquidity pools. This essentially allows anyone to become a market maker on Maiar Exchange and – that’s the best part – earn fees for providing liquidity.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Maiar Exchange</t>
+          <t>FusionX v3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Image: Maiar Exchange works as an Automated Market Maker  Maiar Exchange works as a so called Automated Market Maker (AMM). Sounds complicated, but isn’t. An AMM is a protocol on a decentralized exchange and a core concept of the DeFi ecosystem. Instead of using an order book like a traditional exchange, assets are valued according to a mathematical formula – in this case a pricing algorithm.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; In short, liquidity mining (LM) incentivizes liquidity provisioning through token rewards (MEX). This allows liquidity to flourish and attract greater trading volumes.  Liquidity can create the following feedback loop: More Trading Volume &gt; Higher Market Makers (MM) Profits &gt; More Liquidity Provided &gt; Less Slippage &amp; Tighter Spreads &gt; More Trading Volume.  In order to bootstrap the Maiar Exchange, we will focus on the following factors:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In the world of automated market making users don’t need a counterpart (another trader) to make a trade. Instead, they interact with a smart contract that “makes” the market.  The liquidity in the smart contract is provided by users (liquidity providers) of the exchange in so called liquidity pools. This essentially allows anyone to become a market maker on Maiar Exchange and – that’s the best part – earn fees for providing liquidity.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; FusionX Finance·Follow  9 min read·Jun 5  --  Listen  Share  Welcome to the future of decentralised finance! We are incredibly excited to announce that FusionX V3 is now live on the Mantle Network, heralding a new epoch in the DeFi world. This landmark platform presents Concentrated Liquidity Automated Market Maker (CLAMM), a transformative feature that is set to redefine industry standards for traders and liquidity providers alike.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; In contrast, FusionX V3 allows liquidity providers to “focus” their capital within smaller price intervals. This means LPs can set a unique price range when they provide liquidity, enabling them to “focus” their resources within the price ranges where the majority of trading happens, thereby making their capital work harder. This is particularly advantageous in stablecoin pools, where the relative prices of the two assets remain largely unchanged, and the capital multiplier can reach up to&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Choose the Right Farm:  FusionX V3 Farms require a liquidity position to enter. Each Farm accepts liquidity positions only from the exact trading pair with a specific fee tier.  Ensure that you select the correct trading pair and fee tier for the Farm you want to participate in. For example, if you’re interested in the FSX-MNT 0.25% Farm, you need to provide liquidity for the FSX-MNT pair while selecting the 0.25% fee tier.  2. Match the Trading Pair and Fee Tier:</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 Shinsu  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>FusionX v3</t>
+          <t>KLAYswap</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; FusionX Finance·Follow  9 min read·Jun 5  --  Listen  Share  Welcome to the future of decentralised finance! We are incredibly excited to announce that FusionX V3 is now live on the Mantle Network, heralding a new epoch in the DeFi world. This landmark platform presents Concentrated Liquidity Automated Market Maker (CLAMM), a transformative feature that is set to redefine industry standards for traders and liquidity providers alike.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; In contrast, FusionX V3 allows liquidity providers to “focus” their capital within smaller price intervals. This means LPs can set a unique price range when they provide liquidity, enabling them to “focus” their resources within the price ranges where the majority of trading happens, thereby making their capital work harder. This is particularly advantageous in stablecoin pools, where the relative prices of the two assets remain largely unchanged, and the capital multiplier can reach up to&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Choose the Right Farm:  FusionX V3 Farms require a liquidity position to enter. Each Farm accepts liquidity positions only from the exact trading pair with a specific fee tier.  Ensure that you select the correct trading pair and fee tier for the Farm you want to participate in. For example, if you’re interested in the FSX-MNT 0.25% Farm, you need to provide liquidity for the FSX-MNT pair while selecting the 0.25% fee tier.  2. Match the Trading Pair and Fee Tier:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How to provide cross-chain asset liquidity to KLAYswap  KLAYswap·Follow  Published inKLAYswap·5 min read·May 20, 2021  --  Listen  Share  The decentralized finances market, as of today, has secured itself in the blockchain-based cryptocurrency ecosystem as one of the most efficient ways of generating profit in a trustless way. It is also the driving force in the latest innovations in liquidity infrastructure, in both liquidity and yield farming.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 10 min read·Jun 14  --  KLAYswap  in  KLAYswap  Using MetaMask for KLAYswapWith our recent support of the MetaMask Wallet, we are very pleased to improve the liquidity environment within Klaytn and provide…  4 min read·Aug 5, 2021  --  KLAYswap  in  KLAYswap  Converting WEMIX Classic (WEMIX) to WEMIX 3.0 (oWEMIX)KLAYswap offers a WEMIX Converter function for 1:1 conversion of WEMIX Classic (WEMIX) to WEMIX 3.0 (oWEMIX). Using this function, users…  3 min read·Aug 29  --  See all from KLAYswap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; As the first liquidity provider, you have to select the ‘Token 1’ and type a contract address of the 'Token 2'  in the red box with the initial exchange ratio. After then, click the ‘Create a pair’ button.  Please, remember creating a new pair requires 100KSP tokens in your wallet.  In KLAYswap, the initial exchange ratio means price.  HOW-TO GUIDES - Previous[Burrito Wallet] How to deposit assets using mobile devices?  Next - HOW-TO GUIDESHow to stake and vote on KLAYswap  Last modified</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 Shinsu  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License    Copyright (c) 2021 Astaria, Corp.    Permission is hereby granted, free of charge, to any person obtaining a copy  of this software and associated documentation files (the "Software"), to deal  in the Software without restriction, including without limitation the rights  to use, copy, modify, merge, publish, distribute, sublicense, and/or sell  copies of the Software, and to permit persons to whom the Software is  furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; furnished to do so, subject to the following conditions:    The above copyright notice and this permission notice shall be included in all  copies or substantial portions of the Software.    THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR  IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY,  FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE  AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER  LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM,  OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE  SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>KLAYswap</t>
+          <t>Bancor Network</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How to provide cross-chain asset liquidity to KLAYswap  KLAYswap·Follow  Published inKLAYswap·5 min read·May 20, 2021  --  Listen  Share  The decentralized finances market, as of today, has secured itself in the blockchain-based cryptocurrency ecosystem as one of the most efficient ways of generating profit in a trustless way. It is also the driving force in the latest innovations in liquidity infrastructure, in both liquidity and yield farming.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 10 min read·Jun 14  --  KLAYswap  in  KLAYswap  Using MetaMask for KLAYswapWith our recent support of the MetaMask Wallet, we are very pleased to improve the liquidity environment within Klaytn and provide…  4 min read·Aug 5, 2021  --  KLAYswap  in  KLAYswap  Converting WEMIX Classic (WEMIX) to WEMIX 3.0 (oWEMIX)KLAYswap offers a WEMIX Converter function for 1:1 conversion of WEMIX Classic (WEMIX) to WEMIX 3.0 (oWEMIX). Using this function, users…  3 min read·Aug 29  --  See all from KLAYswap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; As the first liquidity provider, you have to select the ‘Token 1’ and type a contract address of the 'Token 2'  in the red box with the initial exchange ratio. After then, click the ‘Create a pair’ button.  Please, remember creating a new pair requires 100KSP tokens in your wallet.  In KLAYswap, the initial exchange ratio means price.  HOW-TO GUIDES - Previous[Burrito Wallet] How to deposit assets using mobile devices?  Next - HOW-TO GUIDESHow to stake and vote on KLAYswap  Last modified</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Bancor V3  Bancor is a decentralized network of on-chain automated market makers (AMMs) supporting instant, low-cost trading, as well as Single-Sided Liquidity Provision and Liquidity Protection for any listed token.  You can learn more about the specifications of Bancor Protocol and our implementation, and find various user guides in these docs.  The Bancor V3 technical documentation is a work in progress, however, smart contract functions are set and will NOT change.  Contracts &amp; Functions&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Contracts &amp; Functions  Resources  Bancor Basics  Looking for help? Visit our  Support site  Next - About Bancor NetworkBancor Basics  Last modified   7d ago</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License    Copyright (c) 2021 Astaria, Corp.    Permission is hereby granted, free of charge, to any person obtaining a copy  of this software and associated documentation files (the "Software"), to deal  in the Software without restriction, including without limitation the rights  to use, copy, modify, merge, publish, distribute, sublicense, and/or sell  copies of the Software, and to permit persons to whom the Software is  furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; furnished to do so, subject to the following conditions:    The above copyright notice and this permission notice shall be included in all  copies or substantial portions of the Software.    THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR  IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY,  FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE  AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER  LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM,  OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE  SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bancor Network</t>
+          <t>Katana</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Bancor V3  Bancor is a decentralized network of on-chain automated market makers (AMMs) supporting instant, low-cost trading, as well as Single-Sided Liquidity Provision and Liquidity Protection for any listed token.  You can learn more about the specifications of Bancor Protocol and our implementation, and find various user guides in these docs.  The Bancor V3 technical documentation is a work in progress, however, smart contract functions are set and will NOT change.  Contracts &amp; Functions&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Contracts &amp; Functions  Resources  Bancor Basics  Looking for help? Visit our  Support site  Next - About Bancor NetworkBancor Basics  Last modified   7d ago</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Katana enables exchange by leveraging assets community members like you share within liquidity pools.  Katana allows for anyone to become a liquidity provider when they deposit both sides of a trading pair’s assets into its liquidity pools.  Katana’s Assets  We are proud to make the following assets available for exchange in today’s launch:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To incentivize Katana liquidity, 10% of the total RON supply will be rewarded to liquidity providers who stake their deposits in both SLP/ETH and AXS/ETH.  The rewards for these pools will be activated later this week.  We anticipate that these rewards will create a whirlpool effect, sucking in AXS, SLP, ETH, and USDC to Katana.  Please note that no RON is for sale. Do not get scammed!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Pool Liquidity  Liquidity Provider Fees  Liquidity providers receive 0.25% of each trade that taps into the pool. 0.05% of each swap is sent to the Ronin treasury.  For now, only whitelisted pools can be created.  Getting Started  We’ve put together detailed documentation for using Katana.  How To Use Katana  🌟 Join Axie Discord  🌊 Support  🛠️Axie Creator Guide  🗞️Axie Media Kit</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1581,214 +1581,197 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Katana</t>
+          <t>Swappi</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Katana enables exchange by leveraging assets community members like you share within liquidity pools.  Katana allows for anyone to become a liquidity provider when they deposit both sides of a trading pair’s assets into its liquidity pools.  Katana’s Assets  We are proud to make the following assets available for exchange in today’s launch:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To incentivize Katana liquidity, 10% of the total RON supply will be rewarded to liquidity providers who stake their deposits in both SLP/ETH and AXS/ETH.  The rewards for these pools will be activated later this week.  We anticipate that these rewards will create a whirlpool effect, sucking in AXS, SLP, ETH, and USDC to Katana.  Please note that no RON is for sale. Do not get scammed!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Pool Liquidity  Liquidity Provider Fees  Liquidity providers receive 0.25% of each trade that taps into the pool. 0.05% of each swap is sent to the Ronin treasury.  For now, only whitelisted pools can be created.  Getting Started  We’ve put together detailed documentation for using Katana.  How To Use Katana  🌟 Join Axie Discord  🌊 Support  🛠️Axie Creator Guide  🗞️Axie Media Kit</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; General FAQ  This FAQ page answers some of the commonly asked questions from the Swappi community.  What is Swappi?  Swappi is the first automated market maker (AMM) decentralized exchange (DEX) on Conflux's eSpace network. This is where you can exchange any of the supported tokens in Conflux's eSpace network for another token. In addition, Swappi has Liquidity providing and staking opportunities to increase returns on your tokens.  What wallets are supported by Swappi?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Dynamic Liquidity but Stable Trades  It’s no secret that an exchange requires as much liquidity as it can get its hands on to facilitate fair trades. The deeper a liquidity pool is the harder it is to manipulate price. Some trades tend to have a bias in a certain direction. For this reason, we are developing weighted pools as a feature for Swappi.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Another trading feature that will soon be implemented is a Stableswap. This type of trade is for those trading from one token pegged to a currency or set at a fixed exchange rate (Think USDT to USDC and CFX to xCFX/cCFX). Changes in price between the two assets normally would be immediately met by arbitrageurs to return the price to normal. Adding the Stableswap feature will save you the costs arbitrageurs normally profit off.  Getting Things Straightened Up</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; License set forth [here](http://learn.co/content-license) (http://learn.co/content-license). You must read carefully the terms and conditions contained in the Educational Content License as such terms govern access to and use of the Educational Content.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; in the Educational Content License.  If you do not agree to any or all of the terms of the Educational Content License, you are prohibited from accessing, reviewing or using in any way the Educational Content.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; #Learn.co Educational Content License  Copyright (c) 2015 Flatiron School, Inc</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Swappi</t>
+          <t>Mute</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; General FAQ  This FAQ page answers some of the commonly asked questions from the Swappi community.  What is Swappi?  Swappi is the first automated market maker (AMM) decentralized exchange (DEX) on Conflux's eSpace network. This is where you can exchange any of the supported tokens in Conflux's eSpace network for another token. In addition, Swappi has Liquidity providing and staking opportunities to increase returns on your tokens.  What wallets are supported by Swappi?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Dynamic Liquidity but Stable Trades  It’s no secret that an exchange requires as much liquidity as it can get its hands on to facilitate fair trades. The deeper a liquidity pool is the harder it is to manipulate price. Some trades tend to have a bias in a certain direction. For this reason, we are developing weighted pools as a feature for Swappi.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Another trading feature that will soon be implemented is a Stableswap. This type of trade is for those trading from one token pegged to a currency or set at a fixed exchange rate (Think USDT to USDC and CFX to xCFX/cCFX). Changes in price between the two assets normally would be immediately met by arbitrageurs to return the price to normal. Adding the Stableswap feature will save you the costs arbitrageurs normally profit off.  Getting Things Straightened Up</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the maximum amplified value of the ROI?&lt;br&gt;Possible answer:&lt;br&gt;  - "47.5%"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 30% + ((35%) * (10,000) / (20,000)) = 47.5%.  ROI is capped at the max amplified value. Your Mute is not applied to an individual pair, as your amplified ratio can carry over to as many pairs as you are providing liquidity for in the Farming Program. This incentivizes users earning Mute from farming to hold/stake them to continue to grow their ROI.  These details are subject to change upon release.  Stay Tuned&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 2 min read·Mar 10  --  Mute.io  Maximizing Returns with Mute’s Revolutionary Amplifier SystemLearn about the Mute Amplifier system and how it helps fuel a healthy, stable ecosystem for the Mute Switch Platform.  3 min read·Feb 13  --  Mute.io  Mute’s Model to Revolutionize DeFi with Zero Inflation and Stable FeesDeFi has been rapidly growing in recent years and with that growth, many projects have been implemented to support the development of the…  2 min read·Feb 20  --  Mute.io&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The Mute Switch Amplifier Liquidity Program  Mute.io·Follow  3 min read·Jul 20, 2022  --  Listen  Share  With the upcoming release of the Mute Switch Testnet on zkSync 2.0, we have been working on our farming incentive program for the Switch, and we’d like to share how it will work. We built a system that will reward long term supporters and all around value additions to the network. There are two main aspects to incentivizing liquidity and value into our ecosystem:  Switch Farming dApp Program</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; License set forth [here](http://learn.co/content-license) (http://learn.co/content-license). You must read carefully the terms and conditions contained in the Educational Content License as such terms govern access to and use of the Educational Content.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; in the Educational Content License.  If you do not agree to any or all of the terms of the Educational Content License, you are prohibited from accessing, reviewing or using in any way the Educational Content.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; #Learn.co Educational Content License  Copyright (c) 2015 Flatiron School, Inc</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2017 Akram Hussein &lt;akramhussein@gmail.com&gt;  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2017 Akram Hussein &lt;akramhussein@gmail.com&gt;</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Mute</t>
+          <t>Saber DEX</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the maximum amplified value of the ROI?&lt;br&gt;Possible answer:&lt;br&gt;  - "47.5%"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 30% + ((35%) * (10,000) / (20,000)) = 47.5%.  ROI is capped at the max amplified value. Your Mute is not applied to an individual pair, as your amplified ratio can carry over to as many pairs as you are providing liquidity for in the Farming Program. This incentivizes users earning Mute from farming to hold/stake them to continue to grow their ROI.  These details are subject to change upon release.  Stay Tuned&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 2 min read·Mar 10  --  Mute.io  Maximizing Returns with Mute’s Revolutionary Amplifier SystemLearn about the Mute Amplifier system and how it helps fuel a healthy, stable ecosystem for the Mute Switch Platform.  3 min read·Feb 13  --  Mute.io  Mute’s Model to Revolutionize DeFi with Zero Inflation and Stable FeesDeFi has been rapidly growing in recent years and with that growth, many projects have been implemented to support the development of the…  2 min read·Feb 20  --  Mute.io&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The Mute Switch Amplifier Liquidity Program  Mute.io·Follow  3 min read·Jul 20, 2022  --  Listen  Share  With the upcoming release of the Mute Switch Testnet on zkSync 2.0, we have been working on our farming incentive program for the Switch, and we’d like to share how it will work. We built a system that will reward long term supporters and all around value additions to the network. There are two main aspects to incentivizing liquidity and value into our ecosystem:  Switch Farming dApp Program</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; , Saber offers several  liquidity pools  that act as  automated market makers (AMMs)  . An AMM is an autonomous mechanism that enables crypto trading without a central authority.  For example, if investors want to exchange  Tether (USDT)  for  USD Coin (USDC)  on a DEX, they don't have to wait for another investor willing to transact with them. Instead, they can execute their transaction against the liquidity pool. DEX protocols reward  liquidity providers&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Outstanding features  What is the unique selling point?  Saber’s key functionality is enabled via the Automated Market Maker (AMM) model. AMM-based exchanges do not have to rely on executing each trade by connecting two traders willing to transact.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Partners &amp; Investors  Conclusion  Saber is an AMM DEX platform dedicated to stablecoins of the Solana ecosystem. If DEXs often use the Order-book mechanism, Saber will use the AMM mechanism, which is a mechanism where Liquidity Providers will provide their liquidity into the Pool, allowing Traders to Swap asset.  Find more information about: Saber Protocol  Website: https://saber.so/  Docs: https://docs.saber.so/  Twitter: https://twitter.com/Saber_HQ</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2017 Akram Hussein &lt;akramhussein@gmail.com&gt;  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2017 Akram Hussein &lt;akramhussein@gmail.com&gt;</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Saber DEX</t>
+          <t>Osmosis</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; , Saber offers several  liquidity pools  that act as  automated market makers (AMMs)  . An AMM is an autonomous mechanism that enables crypto trading without a central authority.  For example, if investors want to exchange  Tether (USDT)  for  USD Coin (USDC)  on a DEX, they don't have to wait for another investor willing to transact with them. Instead, they can execute their transaction against the liquidity pool. DEX protocols reward  liquidity providers&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Outstanding features  What is the unique selling point?  Saber’s key functionality is enabled via the Automated Market Maker (AMM) model. AMM-based exchanges do not have to rely on executing each trade by connecting two traders willing to transact.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Partners &amp; Investors  Conclusion  Saber is an AMM DEX platform dedicated to stablecoins of the Solana ecosystem. If DEXs often use the Order-book mechanism, Saber will use the AMM mechanism, which is a mechanism where Liquidity Providers will provide their liquidity into the Pool, allowing Traders to Swap asset.  Find more information about: Saber Protocol  Website: https://saber.so/  Docs: https://docs.saber.so/  Twitter: https://twitter.com/Saber_HQ</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The tools Osmosis provides allow the market participants to self-identify opportunities and allow them to react by adjusting the various parameters. An optimal equilibrium between fee and liquidity can be reached through autonomous experiments and iterations, rather than setting a centrally planned 'most acceptable compromise' value. This extends the addressable market for AMMs and bonding curves beyond simple token swaps, as a limitation on the customizability of liquidity pools may have been&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; As AMMs mostly guarantee a level of constant total value output, those who may disagree with the changes made to the pool are able to withdraw their funds with little to no loss of their principles. As Osmosis expects the market to self-discover the optimal value of each adjustable parameter, if a significant dissenting opinion exists–they are able to start a competing liquidity pool with their own strategy.  AMM as serviced infrastructure​&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To further offset impermanent loss, particularly in the early stages of a protocol when volatility is high, AMMs utilize liquidity mining rewards. Liquidity rewards bootstrap the ecosystem as usage and fee revenues are still ramping up.  Osmosis also has many new features and innovations in development to decrease impermanent loss as well.  Bonded Liquidity Gauges</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Osmosis</t>
+          <t>Sushiswap v3</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The tools Osmosis provides allow the market participants to self-identify opportunities and allow them to react by adjusting the various parameters. An optimal equilibrium between fee and liquidity can be reached through autonomous experiments and iterations, rather than setting a centrally planned 'most acceptable compromise' value. This extends the addressable market for AMMs and bonding curves beyond simple token swaps, as a limitation on the customizability of liquidity pools may have been&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; As AMMs mostly guarantee a level of constant total value output, those who may disagree with the changes made to the pool are able to withdraw their funds with little to no loss of their principles. As Osmosis expects the market to self-discover the optimal value of each adjustable parameter, if a significant dissenting opinion exists–they are able to start a competing liquidity pool with their own strategy.  AMM as serviced infrastructure​&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To further offset impermanent loss, particularly in the early stages of a protocol when volatility is high, AMMs utilize liquidity mining rewards. Liquidity rewards bootstrap the ecosystem as usage and fee revenues are still ramping up.  Osmosis also has many new features and innovations in development to decrease impermanent loss as well.  Bonded Liquidity Gauges</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You can open a position in a concentrated liquidity pool easily via the Pools page, where you can look through all of the available pools filtered by chain; choose the SushiSwap V3 filter to find the concentrated liquidity ones. Selecting an individual pool from this screen will bring you to that pool’s specific page which shows any relevant pool-specific analytics and rewards, as well as options for creating and removing positions within them.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Step 3: From here, adding a concentrated liquidity position is the same as before: there are a ton of different fine tuning options to choose from, all of which you should look at and play around with before submitting your decision. Once you have had a chance to poke around and determine the price range you want to provide liquidity for, use the minimum and maximum inputs to define the bounds of the range and select Provide Liquidity. That’s all there is to it!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Step 2: This time, look through the pools available to see if there is one you’re interested in providing liquidity for; you can search for the specific asset(s) in the search bar above the pools, or utilize the plethora of filtering options provided to make it easier for you to find exactly what you’re looking for. When you find the appropriate pool, you can select it to be brought to that pool’s specific page.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use our General Public Licenses protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License which gives you legal permission to copy, distribute and/or modify the software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The licenses for most software and other practical works are designed to take away your freedom to share and change the works.  By contrast, our General Public Licenses are intended to guarantee your freedom to share and change all versions of a program--to make sure it remains free software for all its users.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sushiswap v3</t>
+          <t>Trader Joe</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You can open a position in a concentrated liquidity pool easily via the Pools page, where you can look through all of the available pools filtered by chain; choose the SushiSwap V3 filter to find the concentrated liquidity ones. Selecting an individual pool from this screen will bring you to that pool’s specific page which shows any relevant pool-specific analytics and rewards, as well as options for creating and removing positions within them.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Step 3: From here, adding a concentrated liquidity position is the same as before: there are a ton of different fine tuning options to choose from, all of which you should look at and play around with before submitting your decision. Once you have had a chance to poke around and determine the price range you want to provide liquidity for, use the minimum and maximum inputs to define the bounds of the range and select Provide Liquidity. That’s all there is to it!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Step 2: This time, look through the pools available to see if there is one you’re interested in providing liquidity for; you can search for the specific asset(s) in the search bar above the pools, or utilize the plethora of filtering options provided to make it easier for you to find exactly what you’re looking for. When you find the appropriate pool, you can select it to be brought to that pool’s specific page.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Liquidity Book Model"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Source: Trader Joe Twitter  Liquidity Book Model  But perhaps, of all the features brought into DeFi by Trader Joe, the Liquidity Book model is the one that DeFi users are most excited by.  The   automated market maker (AMM) model was first pioneered by  Uniswap back in 2018, revolutionizing on-chain trading forever, with their famous&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Written by Trader Joe Updated over a week ago  Liquidity Shapes and Strategies  The Liquidity Book AMM, built by Trader Joe, opens up new yield opportunities for your liquidity. The innovative design of Liquidity Book means that as a liquidity provider, you can achieve maximum capital efficiency through unparalleled levels of flexibility and customization when deploying your liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The AMM model experienced fantastic developments to date, but there are still some notable drawbacks and areas that need solutions and enhancements. Liquidity Book strives to give traders more efficient trades, and liquidity providers enhanced efficiency, mitigation against impermanent loss, and maximum composability of their liquidity.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use our General Public Licenses protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License which gives you legal permission to copy, distribute and/or modify the software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The licenses for most software and other practical works are designed to take away your freedom to share and change the works.  By contrast, our General Public Licenses are intended to guarantee your freedom to share and change all versions of a program--to make sure it remains free software for all its users.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2021 Trader Joe  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Trader Joe</t>
+          <t>Zyberswap v3</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Liquidity Book Model"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Source: Trader Joe Twitter  Liquidity Book Model  But perhaps, of all the features brought into DeFi by Trader Joe, the Liquidity Book model is the one that DeFi users are most excited by.  The   automated market maker (AMM) model was first pioneered by  Uniswap back in 2018, revolutionizing on-chain trading forever, with their famous&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Written by Trader Joe Updated over a week ago  Liquidity Shapes and Strategies  The Liquidity Book AMM, built by Trader Joe, opens up new yield opportunities for your liquidity. The innovative design of Liquidity Book means that as a liquidity provider, you can achieve maximum capital efficiency through unparalleled levels of flexibility and customization when deploying your liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The AMM model experienced fantastic developments to date, but there are still some notable drawbacks and areas that need solutions and enhancements. Liquidity Book strives to give traders more efficient trades, and liquidity providers enhanced efficiency, mitigation against impermanent loss, and maximum composability of their liquidity.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity  Zyberswap v3 = Concentrated Liquidity  What is Concentrated Liquidity?  Сoncentrated liquidity — is the liquidity allocated within a custom price range.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity  With this approach, Zyberswap users can place their assets within specified price intervals, or price ranges, a feat made possible by the ingenious concentrated liquidity technology. This empowers liquidity providers with higher capital efficiency and deeper liquidity. They gain a percentage of trading fees when the asset price remains within the specified range, offering a chance to minimize impermanent loss or prevent it altogether.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The APR is dependent on the TVL of the position, the amount of time that the position has been active, and the width of the range.  v2 vs. v3  Earlier implementations of AMMs used the so-called XYK model, based on the x*y=k price curve. The idea was to maintain constant balance within a liquidity pool so that the total value of one token would always equal the total value of the other token in the pool; regardless of their current price against each other.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2021 Trader Joe  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Zyberswap v3</t>
+          <t>Pangolin</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity  Zyberswap v3 = Concentrated Liquidity  What is Concentrated Liquidity?  Сoncentrated liquidity — is the liquidity allocated within a custom price range.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity  With this approach, Zyberswap users can place their assets within specified price intervals, or price ranges, a feat made possible by the ingenious concentrated liquidity technology. This empowers liquidity providers with higher capital efficiency and deeper liquidity. They gain a percentage of trading fees when the asset price remains within the specified range, offering a chance to minimize impermanent loss or prevent it altogether.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The APR is dependent on the TVL of the position, the amount of time that the position has been active, and the width of the range.  v2 vs. v3  Earlier implementations of AMMs used the so-called XYK model, based on the x*y=k price curve. The idea was to maintain constant balance within a liquidity pool so that the total value of one token would always equal the total value of the other token in the pool; regardless of their current price against each other.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;Possible answers:&lt;br&gt;  - "PNG tokens"&lt;br&gt;  - "Trading fees"&lt;br&gt;  - "Liquidity providers"&lt;br&gt;  - "Other" (If the answer is not one of the above)&lt;br&gt;  - "Cannot determine" (if you can't find the answer)&lt;br&gt;&lt;br&gt;Just answer using a name from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "PNG tokens"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; PNG Litepaper  Introduction  Pangolin  Pangolin is a decentralized exchange (DEX) using the same automated market-making (AMM) model as Uniswap V2*, which utilizes the constant product formula.  Pangolin was launched in February 2021 as a proven concept for AMMs native to the Avalanche network. Pangolin also features a native governance token on the Avalanche network called PNG.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Pangolin uses the same automated market-making (AMM) model as Uniswap, but is built on Avalanche to drastically improve the user experience by reducing fees to a fraction of what they pay today and finalizing trades instantly.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In addition to a significant performance upgrade, Pangolin features a liquidity mining program that enables liquidity providers to yield the native governance token, called PNG. All PNG tokens will be distributed to the community, in a model known as a “fair launch.” There will be no premine and no early access tokens for the team. Pangolin also directs trading fees (0.30%) to liquidity providers.  What makes Pangolin different from other DEXs?</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Pangolin</t>
+          <t>Kujira Fin</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;Possible answers:&lt;br&gt;  - "PNG tokens"&lt;br&gt;  - "Trading fees"&lt;br&gt;  - "Liquidity providers"&lt;br&gt;  - "Other" (If the answer is not one of the above)&lt;br&gt;  - "Cannot determine" (if you can't find the answer)&lt;br&gt;&lt;br&gt;Just answer using a name from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "PNG tokens"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; PNG Litepaper  Introduction  Pangolin  Pangolin is a decentralized exchange (DEX) using the same automated market-making (AMM) model as Uniswap V2*, which utilizes the constant product formula.  Pangolin was launched in February 2021 as a proven concept for AMMs native to the Avalanche network. Pangolin also features a native governance token on the Avalanche network called PNG.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Pangolin uses the same automated market-making (AMM) model as Uniswap, but is built on Avalanche to drastically improve the user experience by reducing fees to a fraction of what they pay today and finalizing trades instantly.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In addition to a significant performance upgrade, Pangolin features a liquidity mining program that enables liquidity providers to yield the native governance token, called PNG. All PNG tokens will be distributed to the community, in a model known as a “fair launch.” There will be no premine and no early access tokens for the team. Pangolin also directs trading fees (0.30%) to liquidity providers.  What makes Pangolin different from other DEXs?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Additionally, with the passing of Proposal 15, Black Whale will begin building their Market-Maker-as-a-Service (MMaS). Market making helps to reduce the bid/ask spread and provides much deeper liquidity in our orderbooks. We look forward to integrating with new builders in the future, onboarding the next billion users to crypto. If you would like to build on Kujira, click here to find more details regarding our future Hackathon.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Trade Execution On AMM/Orderbook “Hybrids”  As this is the topic of my next article, I will introduce this concept very briefly. With the emergence of Kujira recently, you may have seen a number of “orderbook DEXs” appear on your timeline.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; However, a problem arose due to the fact that liquidity (capital available to trade) was often thin, producing large spreads (differences in price) between the lowest sell order and highest buy order. Typically, this isn’t a problem on a CEX since they garner huge amounts of liquidity and so can execute trades at smaller price intervals compared to a DEX with thin liquidity. As a solution, AMM (Automated Market Makers) were introduced.  How AMMs fixed liquidity issues</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kujira Fin</t>
+          <t>SpookySwap</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Additionally, with the passing of Proposal 15, Black Whale will begin building their Market-Maker-as-a-Service (MMaS). Market making helps to reduce the bid/ask spread and provides much deeper liquidity in our orderbooks. We look forward to integrating with new builders in the future, onboarding the next billion users to crypto. If you would like to build on Kujira, click here to find more details regarding our future Hackathon.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Trade Execution On AMM/Orderbook “Hybrids”  As this is the topic of my next article, I will introduce this concept very briefly. With the emergence of Kujira recently, you may have seen a number of “orderbook DEXs” appear on your timeline.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; However, a problem arose due to the fact that liquidity (capital available to trade) was often thin, producing large spreads (differences in price) between the lowest sell order and highest buy order. Typically, this isn’t a problem on a CEX since they garner huge amounts of liquidity and so can execute trades at smaller price intervals compared to a DEX with thin liquidity. As a solution, AMM (Automated Market Makers) were introduced.  How AMMs fixed liquidity issues</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools and Yield Farming in SpookySwap  SpookySwap uses this AMM model, allowing users to trade tokens directly from their wallets. Users can contribute to liquidity pools and become liquidity providers. By providing liquidity to these pools, users receive LP tokens in return. These tokens can then be staked to earn additional rewards in the form of SpookySwap's native token, BOO.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; How Does SpookySwap Work?  SpookySwap is an Automated Market Maker (AMM)-based decentralized exchange. AMMs are a type of decentralized exchange protocol that depends on mathematical formulas to set the price of a token. In contrast to traditional exchanges that use order books to determine prices, AMMs rely on liquidity pools.  How do Automated Market Makers (AMMs) work?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; What is SpookySwap?  SpookySwap is a decentralized exchange (DEX) designed to operate specifically on the Fantom chain. It functions using an Automated Market Maker (AMM) model, which replaces traditional order books with liquidity pools. This design fosters efficiency, fairness, and decentralized governance. SpookySwap's native token, BOO, plays an integral role in the platform's operations and governance.  How Does SpookySwap Work?</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SpookySwap</t>
+          <t>SushiSwap v3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools and Yield Farming in SpookySwap  SpookySwap uses this AMM model, allowing users to trade tokens directly from their wallets. Users can contribute to liquidity pools and become liquidity providers. By providing liquidity to these pools, users receive LP tokens in return. These tokens can then be staked to earn additional rewards in the form of SpookySwap's native token, BOO.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; How Does SpookySwap Work?  SpookySwap is an Automated Market Maker (AMM)-based decentralized exchange. AMMs are a type of decentralized exchange protocol that depends on mathematical formulas to set the price of a token. In contrast to traditional exchanges that use order books to determine prices, AMMs rely on liquidity pools.  How do Automated Market Makers (AMMs) work?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; What is SpookySwap?  SpookySwap is a decentralized exchange (DEX) designed to operate specifically on the Fantom chain. It functions using an Automated Market Maker (AMM) model, which replaces traditional order books with liquidity pools. This design fosters efficiency, fairness, and decentralized governance. SpookySwap's native token, BOO, plays an integral role in the platform's operations and governance.  How Does SpookySwap Work?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You can open a position in a concentrated liquidity pool easily via the Pools page, where you can look through all of the available pools filtered by chain; choose the SushiSwap V3 filter to find the concentrated liquidity ones. Selecting an individual pool from this screen will bring you to that pool’s specific page which shows any relevant pool-specific analytics and rewards, as well as options for creating and removing positions within them.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; You can open a position in a concentrated liquidity pool easily via the Pools page, where you can look through all of the available pools filtered by chain; choose the SushiSwap V3 filter to find the concentrated liquidity ones. Selecting an individual pool from this screen will bring you to that pool’s specific page which shows any relevant pool-specific analytics and rewards, as well as options for creating and removing positions within them.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Learn how to open, manage &amp; close a concentrated liquidity position  0xGenghisGoose  Copy  Become a crypto chef with SushiSwap! Sushi is one of the most used and reliable decentralized exchanges, deployed across 10+ blockchains and supporting thousands of tokens. You can trade, earn, stack yields and safely move assets across chains, all on one decentralized, community-driven platform.  Welcome to the home of DeFi: Sushi</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use our General Public Licenses protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License which gives you legal permission to copy, distribute and/or modify the software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Developers that use our General Public Licenses protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License which gives you legal permission to copy, distribute and/or modify the software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SushiSwap v3</t>
+          <t>Stellarterm</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You can open a position in a concentrated liquidity pool easily via the Pools page, where you can look through all of the available pools filtered by chain; choose the SushiSwap V3 filter to find the concentrated liquidity ones. Selecting an individual pool from this screen will bring you to that pool’s specific page which shows any relevant pool-specific analytics and rewards, as well as options for creating and removing positions within them.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; You can open a position in a concentrated liquidity pool easily via the Pools page, where you can look through all of the available pools filtered by chain; choose the SushiSwap V3 filter to find the concentrated liquidity ones. Selecting an individual pool from this screen will bring you to that pool’s specific page which shows any relevant pool-specific analytics and rewards, as well as options for creating and removing positions within them.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Learn how to open, manage &amp; close a concentrated liquidity position  0xGenghisGoose  Copy  Become a crypto chef with SushiSwap! Sushi is one of the most used and reliable decentralized exchanges, deployed across 10+ blockchains and supporting thousands of tokens. You can trade, earn, stack yields and safely move assets across chains, all on one decentralized, community-driven platform.  Welcome to the home of DeFi: Sushi</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use our General Public Licenses protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License which gives you legal permission to copy, distribute and/or modify the software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Developers that use our General Public Licenses protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License which gives you legal permission to copy, distribute and/or modify the software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Stellarterm</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Let’s look at another example of a market on the Stellar Dex, Citron/Stellar XCT/XLM. This represents people buying XCT and selling XLM. You can see that this market is not balanced and illiquid. The total amount that people/bots want to buy is 355 XLM against the total that people/bots want to sell is 2094610 XLM. The spread is also really big, meaning there’s little chance of buyers and sellers meeting each other to do an actual transaction. This is why a liquid market is important. Illiquid&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; With their liquidity solutions, smart contracts actually take over the process of the trade. Trades are conducted within AMM crypto liquidity pools rather than between users. Each trading pair has its own pool. The pool continuously reorganizes by a ratio as users buy and sell. Liquidity pools incentivize liquidity providers to supply assets. This is what is known as automated market making.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Types of DEX Liquidity: AMM Vs. P2P Order Books  Delton Rhodes  Published: Mar 13, 2021        @@ -1796,38 +1779,55 @@
          Last Updated: Aug 31, 2023  Table of Contents  Table of Contents  Most crypto traders that have interacted with decentralized exchanges are familiar with automated market making protocols like Uniswap and SushiSwap. However, there are actually a few other types of DEX liquidity models that exist. Here's how they compare.  What Is a Market Maker?</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>StellaSwap v3</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity: Highly-Efficient AMM  Spearheaded by Uniswap’s V3 AMM model, concentrated liquidity (CL) has proven to be the most efficient DEX model so far. Right now, the most predominant AMMs are variations of concentrated liquidity deployed by several top DEXes: Uniswap V3, Quickswap V3 on Polygon, Orca on Solana, Trader Joe’s liquidity book on Avalanche, and more. In fact, six out of the top ten biggest DEXes in DeFi has deployed a concentrated liquidity AMM.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Pulsar: Concentrated Liquidity  Introducing StellaSwap's concentrated liquidity AMM&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; While StellaSwap is predicated on a hybrid model of a standard AMM (constant product model) and stable AMM (constant product + constant sum model), it isn’t capital efficient and suffers from high-slippage. This means higher cost of trading to end-users. Additionally, we see an extremely low liquidity utilization rates, ranging from an average of between 5%-10%. This means that for every $10 million of TVL on StellaSwap, only $500k or $1 million trading volume (daily) emanates from the pool,</t>
+        </is>
+      </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>StellaSwap v3</t>
+          <t>Minswap</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity: Highly-Efficient AMM  Spearheaded by Uniswap’s V3 AMM model, concentrated liquidity (CL) has proven to be the most efficient DEX model so far. Right now, the most predominant AMMs are variations of concentrated liquidity deployed by several top DEXes: Uniswap V3, Quickswap V3 on Polygon, Orca on Solana, Trader Joe’s liquidity book on Avalanche, and more. In fact, six out of the top ten biggest DEXes in DeFi has deployed a concentrated liquidity AMM.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Pulsar: Concentrated Liquidity  Introducing StellaSwap's concentrated liquidity AMM&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; While StellaSwap is predicated on a hybrid model of a standard AMM (constant product model) and stable AMM (constant product + constant sum model), it isn’t capital efficient and suffers from high-slippage. This means higher cost of trading to end-users. Additionally, we see an extremely low liquidity utilization rates, ranging from an average of between 5%-10%. This means that for every $10 million of TVL on StellaSwap, only $500k or $1 million trading volume (daily) emanates from the pool,</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Minswap is a Decentralized Exchange (DEX). The purpose of a DEX is to enable permissionless trading of token pairs. For each swap, a fee is taken, which goes to the Liquidity Providers (LPs). Anyone can provide Liquidity as well, hence profits are decentralized. Minswap is a community-centric DEX, in that $MIN tokens are fairly distributed, without any private or VC investment. Minswap has pioneered several ideas in the Cardano ecosystem such as the FISO model (touted as the fairest ISO model&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Q3 2021: Deployed Minswap testnet and gathered invaluable feedback. Launched FISO model, a novel way to distribute tokens to community members. Introduced the MINt token mechanic, ensuring FISO participants are incentivized to partake in the protocol once launched.  Q4 2021: Published Minswap´s solution to concurrency, Laminar, which aims to execute accounting-style smart contracts multiple times in one block.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Launchpool: Minswap is permissionless, meaning anybody can list tokens without needing KYC. For promising Cardano projects that want to use some of the most potent DeFi primitives to bootstrap their liquidity, we have designed the Minswap Launch Bowl.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Minswap</t>
+          <t>ShibaSwap</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Minswap is a Decentralized Exchange (DEX). The purpose of a DEX is to enable permissionless trading of token pairs. For each swap, a fee is taken, which goes to the Liquidity Providers (LPs). Anyone can provide Liquidity as well, hence profits are decentralized. Minswap is a community-centric DEX, in that $MIN tokens are fairly distributed, without any private or VC investment. Minswap has pioneered several ideas in the Cardano ecosystem such as the FISO model (touted as the fairest ISO model&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Q3 2021: Deployed Minswap testnet and gathered invaluable feedback. Launched FISO model, a novel way to distribute tokens to community members. Introduced the MINt token mechanic, ensuring FISO participants are incentivized to partake in the protocol once launched.  Q4 2021: Published Minswap´s solution to concurrency, Laminar, which aims to execute accounting-style smart contracts multiple times in one block.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Launchpool: Minswap is permissionless, meaning anybody can list tokens without needing KYC. For promising Cardano projects that want to use some of the most potent DeFi primitives to bootstrap their liquidity, we have designed the Minswap Launch Bowl.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; So, there we have it. Dig and ShibaSwap’s liquidity explained. I realize there are all kinds of underlying mathematical models to explain these concepts as well but, I don’t think they would be much help here. Having a basic understanding of how these systems interact with each other is a great stepping stone for jumping into the more complicated concepts. Of which, there are a multitude of articles and essays written by people many times smarter than me. I explained how the sausage is made.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools (also known as DIG): providing liquidity to a coin pair allows to earn trading fee rewards (0.3% per each trade) proportionally to the amount provided as liquidity in that coin pair. After adding liquidity to a pool you receive Shiba Swap Liquidity Provider tokens (SSLP tokens). From that 0.3% liquidity providing fee per trade, 0.1% is destined to different pools as liquidity: some go to BONE-ETH or LEASH-ETH as liquidity while others are destined to SHIB/BONE/LEASH staking&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; uses to create a supply for swapping tokens. Having more liquidity on the Swap allows for less slippage for ShibaSwap users when trading tokens. So, how does this work?</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1839,12 +1839,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ShibaSwap</t>
+          <t>ArthSwap</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; So, there we have it. Dig and ShibaSwap’s liquidity explained. I realize there are all kinds of underlying mathematical models to explain these concepts as well but, I don’t think they would be much help here. Having a basic understanding of how these systems interact with each other is a great stepping stone for jumping into the more complicated concepts. Of which, there are a multitude of articles and essays written by people many times smarter than me. I explained how the sausage is made.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools (also known as DIG): providing liquidity to a coin pair allows to earn trading fee rewards (0.3% per each trade) proportionally to the amount provided as liquidity in that coin pair. After adding liquidity to a pool you receive Shiba Swap Liquidity Provider tokens (SSLP tokens). From that 0.3% liquidity providing fee per trade, 0.1% is destined to different pools as liquidity: some go to BONE-ETH or LEASH-ETH as liquidity while others are destined to SHIB/BONE/LEASH staking&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; uses to create a supply for swapping tokens. Having more liquidity on the Swap allows for less slippage for ShibaSwap users when trading tokens. So, how does this work?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The underlying technology behind Arthswap is the Automated Market Maker (AMM) model. This model relies on liquidity pools, which are pools of tokens that users contribute to for trading. Liquidity providers deposit their tokens into these pools, and in return, they receive liquidity pool tokens (LP tokens) representing their share of the pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Arthswap uses the Arth token as its native currency and governance token. It provides users with the ability to participate in key decision-making processes within the platform.+ + When a user wants to make a trade on Arthswap, the AMM algorithm calculates the asset ratio in the liquidity pool and uses a formula to determine the exchange rate. This ensures that trades can always be executed, even when there may be limited liquidity for a particular token.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The functioning of Arthswap involves two main features: swapping and providing liquidity. Swapping allows users to exchange one token for another by selecting the desired token pair and specifying the amount they want to trade. Providing liquidity involves depositing tokens into a liquidity pool to earn fees and help facilitate smooth trading on the platform.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1856,14 +1858,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ArthSwap</t>
+          <t>Nomiswap</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The underlying technology behind Arthswap is the Automated Market Maker (AMM) model. This model relies on liquidity pools, which are pools of tokens that users contribute to for trading. Liquidity providers deposit their tokens into these pools, and in return, they receive liquidity pool tokens (LP tokens) representing their share of the pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Arthswap uses the Arth token as its native currency and governance token. It provides users with the ability to participate in key decision-making processes within the platform.- - When a user wants to make a trade on Arthswap, the AMM algorithm calculates the asset ratio in the liquidity pool and uses a formula to determine the exchange rate. This ensures that trades can always be executed, even when there may be limited liquidity for a particular token.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The functioning of Arthswap involves two main features: swapping and providing liquidity. Swapping allows users to exchange one token for another by selecting the desired token pair and specifying the amount they want to trade. Providing liquidity involves depositing tokens into a liquidity pool to earn fees and help facilitate smooth trading on the platform.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; There are a number of benefits and advantages that the new model of pooling liquidity offers both LPs and traders. Now, LPs can allocate their capital to the preferred price intervals, consolidating their funds to earn more fees. At the same time, traders enjoy deeper liquidity when and where it’s needed most, as well as profit greatly from reduced slippage. And all of that is now available on BSC! Check it out for yourself: https://v3.nomiswap.io/#/swap.  Algebra Commissions&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Binary referral program with 2 types of rewards: a user gets rewards from all activities of thir own direct referrals (who started to use the platform via your referral link). Also, the Nomiswap users can earn rewards from all activities of their whole referral team from all the people they invited — it is called unlimited referral levels.  Sounds quite cool, right? But that is not all!  The Concentrated Liquidity Perfection&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Sounds quite cool, right? But that is not all!  The Concentrated Liquidity Perfection  From the beginning of April, all of Nomiswap users have a chance to experience the power of the Algebra codebase containing everything a DEX needs — concentrated liquidity, adaptive fees, and built-in farming. The Binance Smart Chain requires more fresh DeFi solutions, and Nomiswap is a perfect candidate for that. Let’s see how Nomiswap, as well as its community, benefits from the integration.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1875,267 +1875,267 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Nomiswap</t>
+          <t>DackieSwap</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; There are a number of benefits and advantages that the new model of pooling liquidity offers both LPs and traders. Now, LPs can allocate their capital to the preferred price intervals, consolidating their funds to earn more fees. At the same time, traders enjoy deeper liquidity when and where it’s needed most, as well as profit greatly from reduced slippage. And all of that is now available on BSC! Check it out for yourself: https://v3.nomiswap.io/#/swap.  Algebra Commissions&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Binary referral program with 2 types of rewards: a user gets rewards from all activities of thir own direct referrals (who started to use the platform via your referral link). Also, the Nomiswap users can earn rewards from all activities of their whole referral team from all the people they invited — it is called unlimited referral levels.  Sounds quite cool, right? But that is not all!  The Concentrated Liquidity Perfection&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Sounds quite cool, right? But that is not all!  The Concentrated Liquidity Perfection  From the beginning of April, all of Nomiswap users have a chance to experience the power of the Algebra codebase containing everything a DEX needs — concentrated liquidity, adaptive fees, and built-in farming. The Binance Smart Chain requires more fresh DeFi solutions, and Nomiswap is a perfect candidate for that. Let’s see how Nomiswap, as well as its community, benefits from the integration.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  The Concentrated Liquidity Market Maker (CLMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Exploring the DackieSwap Concentrated Liquidity Market Maker (CLMM) Concept  Gugunjeri·Follow  3 min read·Aug 2  --  Listen  Share  https://mirror.xyz/dackie.eth&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; https://mirror.xyz/dackie.eth  Comparing AMM and CLMM Models:In the AMM paradigm, liquidity is distributed across a broad spectrum, potentially causing inefficiencies in capital deployment. In contrast, CLMM empowers users to allocate liquidity in a focused manner, enhancing capital utilization. Key advantages of CLMM encompass:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Gugunjeri·Follow  3 min read·Aug 2  --  Listen  Share  https://mirror.xyz/dackie.eth  Unveiling the New Era of DackieSwap: Introducing Concentrated Liquidity Market Maker (CLMM) Exciting news from DackieLabs! We are delighted to introduce a significant enhancement to Dackity’s functionality. DackieSwap has undergone a remarkable transformation, evolving into a cutting-edge Concentrated Liquidity Market Maker (CLMM), marking a pivotal milestone for the premier and most reliable Base-native DEX.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DackieSwap</t>
+          <t>iZiSwap</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  The Concentrated Liquidity Market Maker (CLMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Exploring the DackieSwap Concentrated Liquidity Market Maker (CLMM) Concept  Gugunjeri·Follow  3 min read·Aug 2  --  Listen  Share  https://mirror.xyz/dackie.eth&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; https://mirror.xyz/dackie.eth  Comparing AMM and CLMM Models:In the AMM paradigm, liquidity is distributed across a broad spectrum, potentially causing inefficiencies in capital deployment. In contrast, CLMM empowers users to allocate liquidity in a focused manner, enhancing capital utilization. Key advantages of CLMM encompass:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Gugunjeri·Follow  3 min read·Aug 2  --  Listen  Share  https://mirror.xyz/dackie.eth  Unveiling the New Era of DackieSwap: Introducing Concentrated Liquidity Market Maker (CLMM) Exciting news from DackieLabs! We are delighted to introduce a significant enhancement to Dackity’s functionality. DackieSwap has undergone a remarkable transformation, evolving into a cutting-edge Concentrated Liquidity Market Maker (CLMM), marking a pivotal milestone for the premier and most reliable Base-native DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Sum Market Maker (CSMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 2. Discretized Liquidity  In iZiSwap’s design, liquidity as an Automated Market Maker (AMM) is added in a unique and innovative way, which is only at pre-defined discrete price points. This design greatly improves the efficiency and accuracy of the model, and significantly improves the trading experience. The formula is as follows&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The Paradigm Shift of AMMs: An In-depth Analysis of iZiSwap’s Discretized Liquidity Model  Foreword  iZUMi Finance·Follow  11 min read·Jun 2  --  Listen  Share&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In iZiSwap’s trading model, the constant sum formula (CSF, or x+y=k) is adopted as its core trading principle. Notably, this is the first time that CSF principles have been legitimately introduced into an Automated Market Maker (AMM) model. In the previous AMM models, this principle was not fully adopted, but the designers of iZiSwap keenly captured the superiority of this principle and successfully integrated it into their model.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 1. To specify as the Change License the GPL Version 2.0 or any later version,    or a license that is compatible with GPL Version 2.0 or a later version,    where "compatible" means that software provided under the Change License can    be included in a program with software provided under GPL Version 2.0 or a    later version. Licensor may specify additional Change Licenses without    limitation.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If your use of the Licensed Work does not comply with the requirements currently in effect as described in this License, you must purchase a commercial license from the Licensor, its affiliated entities, or authorized resellers, or you must refrain from using the Licensed Work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; -----------------------------------------------------------------------------  Terms  The Licensor hereby grants you the right to copy, modify, create derivative works, redistribute, and make non-production use of the Licensed Work. The Licensor may make an Additional Use Grant, above, permitting limited production use.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>iZiSwap</t>
+          <t>Liquidswap</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Sum Market Maker (CSMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 2. Discretized Liquidity  In iZiSwap’s design, liquidity as an Automated Market Maker (AMM) is added in a unique and innovative way, which is only at pre-defined discrete price points. This design greatly improves the efficiency and accuracy of the model, and significantly improves the trading experience. The formula is as follows&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The Paradigm Shift of AMMs: An In-depth Analysis of iZiSwap’s Discretized Liquidity Model  Foreword  iZUMi Finance·Follow  11 min read·Jun 2  --  Listen  Share&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In iZiSwap’s trading model, the constant sum formula (CSF, or x+y=k) is adopted as its core trading principle. Notably, this is the first time that CSF principles have been legitimately introduced into an Automated Market Maker (AMM) model. In the previous AMM models, this principle was not fully adopted, but the designers of iZiSwap keenly captured the superiority of this principle and successfully integrated it into their model.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 0x05a97986a9d031c4567e15b797be516910cfcb4156312482efc6a19c0a30c948  All pools are unique, so there can't be two pools containing the same coins, and it also works for LP and LP generics.  To avoid confusion, Liquidswap uses a frontend interface with a list of pools already pre-filled and a pools registry to show the users mostly verified pools.  Generics  A set of (X, Y, Curve) uniquely identifies a liquidity pool on the blockchain.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 4. High or stable rewards: Your pick  With 97 liquidity pools to choose from, plus more to come in the future, Binance Liquid Swap has an appropriate pool for your needs. Do you want to benefit from higher APYs (annual percentage yields)? Explore our Innovation Pools and benefit from the potential of double-digit APYs on certain products. Just keep in mind that the high yields are subject to everyday market movements, as these liquidity pools are altcoin-heavy.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In this article, we’ll explain how Liquid Swap is being designed and operated favorably for users.  How does Liquid Swap work?  Liquid Swap is a DEX (decentralized exchange) and yield farming application built on the Binance CEX (centralized exchange). This platform hosts liquidity pools funded by users who have asset management needs and used by swap traders who have buy/sell crypto or arbitrage trading needs.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 1. To specify as the Change License the GPL Version 2.0 or any later version,    or a license that is compatible with GPL Version 2.0 or a later version,    where "compatible" means that software provided under the Change License can    be included in a program with software provided under GPL Version 2.0 or a    later version. Licensor may specify additional Change Licenses without    limitation.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If your use of the Licensed Work does not comply with the requirements currently in effect as described in this License, you must purchase a commercial license from the Licensor, its affiliated entities, or authorized resellers, or you must refrain from using the Licensed Work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; -----------------------------------------------------------------------------  Terms  The Licensor hereby grants you the right to copy, modify, create derivative works, redistribute, and make non-production use of the Licensed Work. The Licensor may make an Additional Use Grant, above, permitting limited production use.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 coming-chat  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Liquidswap</t>
+          <t>MDEX</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 0x05a97986a9d031c4567e15b797be516910cfcb4156312482efc6a19c0a30c948  All pools are unique, so there can't be two pools containing the same coins, and it also works for LP and LP generics.  To avoid confusion, Liquidswap uses a frontend interface with a list of pools already pre-filled and a pools registry to show the users mostly verified pools.  Generics  A set of (X, Y, Curve) uniquely identifies a liquidity pool on the blockchain.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 4. High or stable rewards: Your pick  With 97 liquidity pools to choose from, plus more to come in the future, Binance Liquid Swap has an appropriate pool for your needs. Do you want to benefit from higher APYs (annual percentage yields)? Explore our Innovation Pools and benefit from the potential of double-digit APYs on certain products. Just keep in mind that the high yields are subject to everyday market movements, as these liquidity pools are altcoin-heavy.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In this article, we’ll explain how Liquid Swap is being designed and operated favorably for users.  How does Liquid Swap work?  Liquid Swap is a DEX (decentralized exchange) and yield farming application built on the Binance CEX (centralized exchange). This platform hosts liquidity pools funded by users who have asset management needs and used by swap traders who have buy/sell crypto or arbitrage trading needs.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; AMM is the Automatic Market Maker algorithm. It can be conceived as a primary , automated market maker, which provides quotes between two assets at any time based on a simple pricing algorithm. If AMM has some of x and y tokens, it sets the price for each transaction. The product of the final quantities of x and y it holds equals a constant k, forming the equation x * y = k. Next, we will take an examples to describe the correctness of the AMM algorithm. MDEX will introduce a liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; take an examples to describe the correctness of the AMM algorithm. MDEX will introduce a liquidity optimization protocol to achieve centralized liquidity on AMM. In the context of the description of AMM in Section 3.1.1, suppose that Alice buys a MDX and b BTC in a single transaction, to provide liquidity in the range (0, infinity).Bob buys a' MDX and b' BTC, where a *b &gt;&gt; a' * b'– i.e.Alice invests much more than Bob. Bob expects BTC to fluctuate around ±10,000 in the future, and hopes to earn&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; As MDEX gradually becomes a mature financial market, it will always pursue the principle of no arbitrage and the improvement of capital utilization. Problems may occur by pure application of the AMM mechanism: if the proportion of orders in the trading pool is too large, it could cause excessive transaction slippage, and the listed price seriously deviates from the actual price. Therefore, MDEX has optimized the AMM mechanism. MDEX’s work plan can be summarized as constrained AMM + a fast</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 coming-chat  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MDEX</t>
+          <t>Beethoven X</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; AMM is the Automatic Market Maker algorithm. It can be conceived as a primary , automated market maker, which provides quotes between two assets at any time based on a simple pricing algorithm. If AMM has some of x and y tokens, it sets the price for each transaction. The product of the final quantities of x and y it holds equals a constant k, forming the equation x * y = k. Next, we will take an examples to describe the correctness of the AMM algorithm. MDEX will introduce a liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; take an examples to describe the correctness of the AMM algorithm. MDEX will introduce a liquidity optimization protocol to achieve centralized liquidity on AMM. In the context of the description of AMM in Section 3.1.1, suppose that Alice buys a MDX and b BTC in a single transaction, to provide liquidity in the range (0, infinity).Bob buys a' MDX and b' BTC, where a *b &gt;&gt; a' * b'– i.e.Alice invests much more than Bob. Bob expects BTC to fluctuate around ±10,000 in the future, and hopes to earn&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; As MDEX gradually becomes a mature financial market, it will always pursue the principle of no arbitrage and the improvement of capital utilization. Problems may occur by pure application of the AMM mechanism: if the proportion of orders in the trading pool is too large, it could cause excessive transaction slippage, and the listed price seriously deviates from the actual price. Therefore, MDEX has optimized the AMM mechanism. MDEX’s work plan can be summarized as constrained AMM + a fast</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 4 min read·Sep 6  --  Franzns  in  Beethoven X  Rate manipulation in Balancer Boosted Pools — A Beethoven X perspectivePreface  3 min read·19 hours ago  --  Beethoven X  in  Beethoven X  MetaStable Pools: A vibrant new tune!Cue the music!  6 min read·Sep 1, 2022  --  Beethoven X  Concerto Programme — 83Rise and Shine Maestros,  4 min read·1 day ago  --  See all from Beethoven X  See all from Beethoven X  Recommended from Medium  Lybra Finance&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Beethoven X: Introducing Liquidity Boostrapping Pool Launch Platform  Beethoven X·Follow  Published inBeethoven X·4 min read·Dec 21, 2021  --  Listen  Share  Dear Friends, Dear Ludwigs,  Our favorite thing in the entire world, and throughout our 251 undead years on this planet, is creating something new.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Capital Efficiency — Setting the weights allows the initial price of the token to be magnified by a factor of up to 99 in relation to the initial collateral deposited with it. The initial collateral can be withdrawn in full (provided the launch token does not previously exist outside the LBP, enabling someone to sell into the pool).  Beethoven X is a permissionless platform meaning anybody can create an auction and LBP on the platform.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2020, 2021 Beethoven  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Beethoven X</t>
+          <t>Équilibre</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 4 min read·Sep 6  --  Franzns  in  Beethoven X  Rate manipulation in Balancer Boosted Pools — A Beethoven X perspectivePreface  3 min read·19 hours ago  --  Beethoven X  in  Beethoven X  MetaStable Pools: A vibrant new tune!Cue the music!  6 min read·Sep 1, 2022  --  Beethoven X  Concerto Programme — 83Rise and Shine Maestros,  4 min read·1 day ago  --  See all from Beethoven X  See all from Beethoven X  Recommended from Medium  Lybra Finance&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Beethoven X: Introducing Liquidity Boostrapping Pool Launch Platform  Beethoven X·Follow  Published inBeethoven X·4 min read·Dec 21, 2021  --  Listen  Share  Dear Friends, Dear Ludwigs,  Our favorite thing in the entire world, and throughout our 251 undead years on this planet, is creating something new.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Capital Efficiency — Setting the weights allows the initial price of the token to be magnified by a factor of up to 99 in relation to the initial collateral deposited with it. The initial collateral can be withdrawn in full (provided the launch token does not previously exist outside the LBP, enabling someone to sell into the pool).  Beethoven X is a permissionless platform meaning anybody can create an auction and LBP on the platform.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Summary  Équilibre is pleased to announce the addition of Concentrated Liquidity to its protocol.  During the months of June and July, Équilbre is set to embark on a significant milestone — the integration of the Concentrated Liquidity model into its platform. This integration will usher in a new era for KAVA EVM, as it will provide a highly advanced and superior DEX solution, positioning it as a market leader.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Staking/Rebasing/Bonding or (3,3) game theory — designed by Olympus DAO  Combined, the  mechanism rewards behaviors correlated with Équilibre's success, such as liquidity provision and long-term token holding. Liquidity providers receive  emissions, and  holders receive protocol fees, bribes, rebases, and governance power.  Protocol's flow chart  What makes Equilibre different from Univ2 type AMMs?  Équilibre is a ve(3.3) AMM. Here is a small comparison chart that covers the key differences:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Équilibre brings Concentrated Liquidity to KAVA EVM  Équilibre·Follow  4 min read·May 25  --  Listen  Share  Summary  Équilibre is pleased to announce the addition of Concentrated Liquidity to its protocol.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2020, 2021 Beethoven  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 equilibre-finance  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Équilibre</t>
+          <t>Hermes Protocol</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Summary  Équilibre is pleased to announce the addition of Concentrated Liquidity to its protocol.  During the months of June and July, Équilbre is set to embark on a significant milestone — the integration of the Concentrated Liquidity model into its platform. This integration will usher in a new era for KAVA EVM, as it will provide a highly advanced and superior DEX solution, positioning it as a market leader.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Staking/Rebasing/Bonding or (3,3) game theory — designed by Olympus DAO  Combined, the  mechanism rewards behaviors correlated with Équilibre's success, such as liquidity provision and long-term token holding. Liquidity providers receive  emissions, and  holders receive protocol fees, bribes, rebases, and governance power.  Protocol's flow chart  What makes Equilibre different from Univ2 type AMMs?  Équilibre is a ve(3.3) AMM. Here is a small comparison chart that covers the key differences:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Équilibre brings Concentrated Liquidity to KAVA EVM  Équilibre·Follow  4 min read·May 25  --  Listen  Share  Summary  Équilibre is pleased to announce the addition of Concentrated Liquidity to its protocol.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; HERMES Token  Since Hermes is an AMM and AMMs rely on liquidity providers for the protocols functioning, the overarching aim of the HERMES token is to incentivize liquidity providers. Under the ve(3,3) model, liquidity providers are not paid rewards from fees generated by the pools, they instead get paid from token emissions of HERMES making HERMES integral to the functioning of the protocol.  This aim is achieved through the three main uses of HERMES. They are:  Voting  Staking  Boosting&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Starting with the liquidity pools. Liquidity pools are imperative for the functioning of any AMM. Since Hermes supports pegged and non-pegged assets, it also has two different types of pools. Stable pools and variable pools. The variable pools are the pools used for trading volatile assets such as DAI/ETH or DOGE/USDT for example. This pool follows the standard constant product market maker formula of x*y=k popularised by Uniswap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity Migrator and Zapper — To help new users come to Hermes, the liquidity migration tool can interact with any Uniswap V2-based DEX to migrate liquidity onto Hermes in a single click. Our first migrator will be for HRMS/ONE from ViperSwap. Additionally, the Zapper is an easy way to convert a single token (ie, ONE) into a staked farming position. This contract handles swapping assets, pairing them together, and staking them in Hermes farms in a single click.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 equilibre-finance  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Hermes Protocol</t>
+          <t>Tokenlon</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; HERMES Token  Since Hermes is an AMM and AMMs rely on liquidity providers for the protocols functioning, the overarching aim of the HERMES token is to incentivize liquidity providers. Under the ve(3,3) model, liquidity providers are not paid rewards from fees generated by the pools, they instead get paid from token emissions of HERMES making HERMES integral to the functioning of the protocol.  This aim is achieved through the three main uses of HERMES. They are:  Voting  Staking  Boosting&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Starting with the liquidity pools. Liquidity pools are imperative for the functioning of any AMM. Since Hermes supports pegged and non-pegged assets, it also has two different types of pools. Stable pools and variable pools. The variable pools are the pools used for trading volatile assets such as DAI/ETH or DOGE/USDT for example. This pool follows the standard constant product market maker formula of x*y=k popularised by Uniswap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity Migrator and Zapper — To help new users come to Hermes, the liquidity migration tool can interact with any Uniswap V2-based DEX to migrate liquidity onto Hermes in a single click. Our first migrator will be for HRMS/ONE from ViperSwap. Additionally, the Zapper is an easy way to convert a single token (ie, ONE) into a staked farming position. This contract handles swapping assets, pairing them together, and staking them in Hermes farms in a single click.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How does Tokenlon work?  Tokenlon utilizes a Request for Quotation order matching model, which helps give users the best prices for each trade pair. How this works is it aggregates volume from various other DEXes. Thus far, it has been able to aggregate volume from Uniswap V2, Uniswap V3, Curve and Sushiswap, with plans to aggregate more liquidity pools in the future.  Currently, Tokenlon’s exchange functions are as follows:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What is Tokenlon?  Tokenlon is a DEX, or decentralized exchange and payment settlement protocol. One of the things that sets it apart from other DEX’s is that it utilizes an improved version of something called Request for Quotation (RFQ) architecture.  Tokenlon was founded in 2018 and originally launched as a decentralized trading platform within imToken, a crypto wallet service, seeking to combine the advantages of both centralized and decentralized exchanges.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; What is Tokenlon (LON)?  Poloniex·Follow  Published inThe Poloniex blog·4 min read·Sep 7, 2022  --  Listen  Share  TL;DR  Launched in 2018 as a part of imToken, Tokenlon is a decentralized exchange (DEX) that offers decentralized trading at optimal prices.  What is Tokenlon?</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 ConsenLabs  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Tokenlon</t>
+          <t>SpaceFi</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How does Tokenlon work?  Tokenlon utilizes a Request for Quotation order matching model, which helps give users the best prices for each trade pair. How this works is it aggregates volume from various other DEXes. Thus far, it has been able to aggregate volume from Uniswap V2, Uniswap V3, Curve and Sushiswap, with plans to aggregate more liquidity pools in the future.  Currently, Tokenlon’s exchange functions are as follows:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What is Tokenlon?  Tokenlon is a DEX, or decentralized exchange and payment settlement protocol. One of the things that sets it apart from other DEX’s is that it utilizes an improved version of something called Request for Quotation (RFQ) architecture.  Tokenlon was founded in 2018 and originally launched as a decentralized trading platform within imToken, a crypto wallet service, seeking to combine the advantages of both centralized and decentralized exchanges.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; What is Tokenlon (LON)?  Poloniex·Follow  Published inThe Poloniex blog·4 min read·Sep 7, 2022  --  Listen  Share  TL;DR  Launched in 2018 as a part of imToken, Tokenlon is a decentralized exchange (DEX) that offers decentralized trading at optimal prices.  What is Tokenlon?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The space economy demands a different financial playbook – one that recognizes the sector’s unique needs and long-term nature. For family offices, LPs, and emerging fund managers looking to venture into this brave new world, understanding these alternative paths to liquidity is critical. While SPACs have their place, the future of space finance lies in these innovative strategies that provide both liquidity and long-term growth. As we continue exploring the final frontier, the space economy&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; SpaceFinance Partners  Home  Story  Offerings  Process  Approach  Join Network  LP Portal  October 22, 2022  Unlocking Liquidity in the Space Economy: Alternatives to SPACs  Insights  Exploring innovative liquidity paths in the space economy beyond SPACs, embracing patient capital and unique strategies.  Introduction&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; both liquidity and long-term growth. As we continue exploring the final frontier, the space economy will undoubtedly need more of this creative financial engineering to flourish.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 ConsenLabs  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; For more information, please refer to &lt;http://unlicense.org&gt;&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; This is free and unencumbered software released into the public domain.  Anyone is free to copy, modify, publish, use, compile, sell, or distribute this software, either in source code form or as a compiled binary, for any purpose, commercial or non-commercial, and by any means.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In jurisdictions that recognize copyright laws, the author or authors of this software dedicate any and all copyright interest in the software to the public domain. We make this dedication for the benefit of the public at large and to the detriment of our heirs and successors. We intend this dedication to be an overt act of relinquishment in perpetuity of all present and future rights to this software under copyright law.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SpaceFi</t>
+          <t>Sovryn</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The space economy demands a different financial playbook – one that recognizes the sector’s unique needs and long-term nature. For family offices, LPs, and emerging fund managers looking to venture into this brave new world, understanding these alternative paths to liquidity is critical. While SPACs have their place, the future of space finance lies in these innovative strategies that provide both liquidity and long-term growth. As we continue exploring the final frontier, the space economy&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; SpaceFinance Partners  Home  Story  Offerings  Process  Approach  Join Network  LP Portal  October 22, 2022  Unlocking Liquidity in the Space Economy: Alternatives to SPACs  Insights  Exploring innovative liquidity paths in the space economy beyond SPACs, embracing patient capital and unique strategies.  Introduction&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; both liquidity and long-term growth. As we continue exploring the final frontier, the space economy will undoubtedly need more of this creative financial engineering to flourish.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Other pools employed by Sovryn allow for variable ratios of the two assets in the pool. These are referred to as Sovryn Dynamic Automated Market Makers (DAMMs). The Dynamic aspect of the AMM mitigates impermanent loss through dynamic pool asset ratio balancing. It also enables liquidity providers to provide liquidity in one asset or any ratio of the two assets rather than a 50/50 balance of both.  ¶ Providing liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Some of the AMMs employed by Sovryn use balanced liquidity pools, with 50% of the value held in each asset. Deposits to the pool must be made in both assets with equal values of each. As buying and selling take place, the relative amount of each asset changes in the pool, and the price is adjusted so that the total value of each asset remains balanced at 50% of the total. Sovryn uses the Bancor (v1) pricing formula that maintains a constant product of the amount of each asset. If this pricing&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; While some AMMs require LPs to take on exposure to multiple assets, other pools on Sovryn do not. In these pools any user can provide liquidity to a pool with a single token and maintain 100% exposure to that token. For example, in the RBTC/RUSDT pool, an LP can provide RBTC only or RUSDT only as liquidity to the pool. This allows them to maintain exposure on a single asset while earning fee rewards and any yield farming rewards being offered. This is known as a Sovryn DAMM (Bancor v2) pool.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; For more information, please refer to &lt;http://unlicense.org&gt;&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; This is free and unencumbered software released into the public domain.  Anyone is free to copy, modify, publish, use, compile, sell, or distribute this software, either in source code form or as a compiled binary, for any purpose, commercial or non-commercial, and by any means.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In jurisdictions that recognize copyright laws, the author or authors of this software dedicate any and all copyright interest in the software to the public domain. We make this dedication for the benefit of the public at large and to the detriment of our heirs and successors. We intend this dedication to be an overt act of relinquishment in perpetuity of all present and future rights to this software under copyright law.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 DistributedCollective  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sovryn</t>
+          <t>THENA</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Other pools employed by Sovryn allow for variable ratios of the two assets in the pool. These are referred to as Sovryn Dynamic Automated Market Makers (DAMMs). The Dynamic aspect of the AMM mitigates impermanent loss through dynamic pool asset ratio balancing. It also enables liquidity providers to provide liquidity in one asset or any ratio of the two assets rather than a 50/50 balance of both.  ¶ Providing liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Some of the AMMs employed by Sovryn use balanced liquidity pools, with 50% of the value held in each asset. Deposits to the pool must be made in both assets with equal values of each. As buying and selling take place, the relative amount of each asset changes in the pool, and the price is adjusted so that the total value of each asset remains balanced at 50% of the total. Sovryn uses the Bancor (v1) pricing formula that maintains a constant product of the amount of each asset. If this pricing&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; While some AMMs require LPs to take on exposure to multiple assets, other pools on Sovryn do not. In these pools any user can provide liquidity to a pool with a single token and maintain 100% exposure to that token. For example, in the RBTC/RUSDT pool, an LP can provide RBTC only or RUSDT only as liquidity to the pool. This allows them to maintain exposure on a single asset while earning fee rewards and any yield farming rewards being offered. This is known as a Sovryn DAMM (Bancor v2) pool.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In summary, the Open Marketplace for Liquidity serves as a crucial instrument for DeFi protocols vying for a competitive edge in the bustling BNB Chain environment. With its one-of-a-kind features and adaptive liquidity management capabilities, protocols are increasingly selecting THENA as their preferred liquidity layer. Maximum capital efficiency and flexibility.  Some adjustments has been made from the initial Solidly model:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Demystifying FUSION: A Closer Look at THENA’s Concentrated Liquidity Revolution  Thena.fi·Follow  12 min read·Apr 19  --  Listen  Share  TL;DR  THENA V2 represents a major platform upgrade, featuring enhanced gauges and the integration of FUSION pools.  Concentrated Liquidity (CL) enables LPs to focus their funds within a specific price range, providing deeper liquidity and potentially higher trading fee earnings.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Introduction  As the decentralized finance (DeFi) landscape evolves, innovative solutions like FUSION are emerging to address the challenges and limitations of traditional liquidity models. FUSION, developed in collaboration by THENA, Gamma Strategies, and Algebra, simplifies the management of Concentrated Liquidity (CL) while enhancing capital efficiency and user experience.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 DistributedCollective  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>THENA</t>
+          <t>Jedi Swap</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In summary, the Open Marketplace for Liquidity serves as a crucial instrument for DeFi protocols vying for a competitive edge in the bustling BNB Chain environment. With its one-of-a-kind features and adaptive liquidity management capabilities, protocols are increasingly selecting THENA as their preferred liquidity layer. Maximum capital efficiency and flexibility.  Some adjustments has been made from the initial Solidly model:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Demystifying FUSION: A Closer Look at THENA’s Concentrated Liquidity Revolution  Thena.fi·Follow  12 min read·Apr 19  --  Listen  Share  TL;DR  THENA V2 represents a major platform upgrade, featuring enhanced gauges and the integration of FUSION pools.  Concentrated Liquidity (CL) enables LPs to focus their funds within a specific price range, providing deeper liquidity and potentially higher trading fee earnings.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Introduction  As the decentralized finance (DeFi) landscape evolves, innovative solutions like FUSION are emerging to address the challenges and limitations of traditional liquidity models. FUSION, developed in collaboration by THENA, Gamma Strategies, and Algebra, simplifies the management of Concentrated Liquidity (CL) while enhancing capital efficiency and user experience.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; JediSwap will be the first Automated Market Maker (AMM) to run on StarkNet. This AMM will power an instant exchange of assets. JediSwap uses the constant market-making model (x*y=k) to achieve its goals.  How it works  JediSwap on the Testnet  JediSwap launched its Testnet on StarkNet, where users can test the promising AMM.  You can test the product with the following steps:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Automated Market Makers (AMMs) are part of DEX protocols and rely on a mathematical formula to price digital assets. In the simplest terms, an AMM is like a robot always willing to quote a price between two assets. With an AMM, you can trade trustlessly and provide liquidity to a liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Wrapping up  Decentralized finance has yet to achieve its full potential due to challenges such as scalability. When combined with AMMs such as JediSwap, scaling solutions will make it easy for users to swap and trade tokens effortlessly and economically. We can only wait to see how the product will impact the DeFi landscape once the Mainnet is launched.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 Mesh Finance  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Jedi Swap</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; JediSwap will be the first Automated Market Maker (AMM) to run on StarkNet. This AMM will power an instant exchange of assets. JediSwap uses the constant market-making model (x*y=k) to achieve its goals.  How it works  JediSwap on the Testnet  JediSwap launched its Testnet on StarkNet, where users can test the promising AMM.  You can test the product with the following steps:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Automated Market Makers (AMMs) are part of DEX protocols and rely on a mathematical formula to price digital assets. In the simplest terms, an AMM is like a robot always willing to quote a price between two assets. With an AMM, you can trade trustlessly and provide liquidity to a liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Wrapping up  Decentralized finance has yet to achieve its full potential due to challenges such as scalability. When combined with AMMs such as JediSwap, scaling solutions will make it easy for users to swap and trade tokens effortlessly and economically. We can only wait to see how the product will impact the DeFi landscape once the Mainnet is launched.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Claire utilize the new concentrated liquidity feature in PancakeSwap v3 and created a position with a price range of 2 to 12.5 USDT per CAKE. She deposited 185 USDT and 37 CAKE, worth a total of $370. She is now able to spend the remaining $630 elsewhere, like locking CAKE in the Syrup pool to enjoy high CAKE yield while receiving a series of PancakeSwap ecosystem benefits.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; LP Tokens  As an example, if you deposited  and  into a Liquidity Pool, you'd receive  tokens.  The number of LP tokens you receive represents your portion of the CAKE-BNB Liquidity Pool.  You can also redeem your funds at any time by removing your liquidity.  Earning trading fees  Whenever someone trades on PancakeSwap, for each hop (swap) in each Exchange V2 liquidity pool, the trader pays a fixed 0.25% fee, of which 0.17% is added back to the Liquidity Pool in a form of trading fees.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Here is an example:  Baller and Claire both provided liquidity in CAKE/USDT pool with $1,000 USD worth of token assets. The current price of CAKE is 5 USDT.  Similar to PancakeSwap v2, Baller provided his liquidity across the entire price range. Therefore he deposited all of his capital, 500 USDT and 100 CAKE.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 Mesh Finance  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>WEMIX.Fi</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Claire utilize the new concentrated liquidity feature in PancakeSwap v3 and created a position with a price range of 2 to 12.5 USDT per CAKE. She deposited 185 USDT and 37 CAKE, worth a total of $370. She is now able to spend the remaining $630 elsewhere, like locking CAKE in the Syrup pool to enjoy high CAKE yield while receiving a series of PancakeSwap ecosystem benefits.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; LP Tokens  As an example, if you deposited  and  into a Liquidity Pool, you'd receive  tokens.  The number of LP tokens you receive represents your portion of the CAKE-BNB Liquidity Pool.  You can also redeem your funds at any time by removing your liquidity.  Earning trading fees  Whenever someone trades on PancakeSwap, for each hop (swap) in each Exchange V2 liquidity pool, the trader pays a fixed 0.25% fee, of which 0.17% is added back to the Liquidity Pool in a form of trading fees.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Here is an example:  Baller and Claire both provided liquidity in CAKE/USDT pool with $1,000 USD worth of token assets. The current price of CAKE is 5 USDT.  Similar to PancakeSwap v2, Baller provided his liquidity across the entire price range. Therefore he deposited all of his capital, 500 USDT and 100 CAKE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Jump-Rate V2"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The market utilization rate of WEMIX can be calculated based on the deposit and loan amounts. For instance, if Alice and Bob deposit $100,000 WEMIX each, and Charlie borrows $150,000 WEMIX, the market utilization rate of WEMIX would be calculated as described in the formula mentioned above.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Interest rate model  The Lend &amp; Borrow service offered by WEMIX.Fi adjusts the balance of available funds and uses a "jump interest rate model" in which interest rates increase steeply when utilization exceeds a particular level. The interest rate applied is based on the market utilization rate, with lower rates applied when loan liquidity is high, and higher rates when liquidity is low. The interest earned by depositors and the interest charged on loans are both calculated as compound interest.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; WEMIX.Fi's Lend&amp;Borrow service referenced the Jump-Rate V2 model of the Compound protocol.  The Multiplier, Kink(utilization threshold), Jump Multiplier and Minimum interest rate(Base Rate) used in the protocol's interest rate model are all constant values, the constant values defined in the Lend &amp; Borrow service are:  Token  Multiplier  Kink  Jump Multiplier  Base Rate  Reserve Factor  WEMIX  5%  85%  800%  50%  WEMIX$  5%  90%  500%  50%  stWEMIX  5%  85%  800%  50%  wRFT  5%  85%  800%  50%</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>WEMIX.Fi</t>
+          <t>ApeSwap</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Jump-Rate V2"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The market utilization rate of WEMIX can be calculated based on the deposit and loan amounts. For instance, if Alice and Bob deposit $100,000 WEMIX each, and Charlie borrows $150,000 WEMIX, the market utilization rate of WEMIX would be calculated as described in the formula mentioned above.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Interest rate model  The Lend &amp; Borrow service offered by WEMIX.Fi adjusts the balance of available funds and uses a "jump interest rate model" in which interest rates increase steeply when utilization exceeds a particular level. The interest rate applied is based on the market utilization rate, with lower rates applied when loan liquidity is high, and higher rates when liquidity is low. The interest earned by depositors and the interest charged on loans are both calculated as compound interest.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; WEMIX.Fi's Lend&amp;Borrow service referenced the Jump-Rate V2 model of the Compound protocol.  The Multiplier, Kink(utilization threshold), Jump Multiplier and Minimum interest rate(Base Rate) used in the protocol's interest rate model are all constant values, the constant values defined in the Lend &amp; Borrow service are:  Token  Multiplier  Kink  Jump Multiplier  Base Rate  Reserve Factor  WEMIX  5%  85%  800%  50%  WEMIX$  5%  90%  500%  50%  stWEMIX  5%  85%  800%  50%  wRFT  5%  85%  800%  50%</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 5. Next, consider Liquidity Ownership, which measures the amount of liquidity that a project owns (protocol owned liquidity, or POL).  a. ApeSwap scans top liquidity provider (LP) token holders to see if any LP tokens are held in a locking contract, a gnosis safe, or a burn address. These are best practices, and every project should be doing one of these two things with their POL.  b. If the project shows a “0” in Liquidity Ownership, it could indicate one of two things:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; ApeSwap’s decentralized exchange has leveraged the traditional UniSwap V2 liquidity model since launch. V2 liquidity positions cover the entire range of the constant product formula, meaning all liquidity positions in these liquidity pools are reserved equally over the entire range of the applicable token’s relative prices (from $0 to $infinity). As a result, the assets within the majority of V2 liquidity positions are never put to use, because the relative prices of the tokens are often within&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity  Defi  Dex  --  --  Follow  Written by ApeSwap.finance  20K Followers  ApeSwap is a multichain DeFi Hub offering an accessible, transparent, and secure experience for everyone.  Follow  More from ApeSwap.finance  ApeSwap.finance  ApeSwap Partners With MoonPay To Launch Fiat On-RampMaking it easier for users to take the first step into DeFi  4 min read·Jul 20, 2022  --  ApeSwap.finance  ApeSwap Dev Digest | August 2023 EditionApeSwap’s Dev Digest, Round 2!</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ApeSwap</t>
+          <t>zkSwap Finance</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 5. Next, consider Liquidity Ownership, which measures the amount of liquidity that a project owns (protocol owned liquidity, or POL).  a. ApeSwap scans top liquidity provider (LP) token holders to see if any LP tokens are held in a locking contract, a gnosis safe, or a burn address. These are best practices, and every project should be doing one of these two things with their POL.  b. If the project shows a “0” in Liquidity Ownership, it could indicate one of two things:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; ApeSwap’s decentralized exchange has leveraged the traditional UniSwap V2 liquidity model since launch. V2 liquidity positions cover the entire range of the constant product formula, meaning all liquidity positions in these liquidity pools are reserved equally over the entire range of the applicable token’s relative prices (from $0 to $infinity). As a result, the assets within the majority of V2 liquidity positions are never put to use, because the relative prices of the tokens are often within&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity  Defi  Dex  --  --  Follow  Written by ApeSwap.finance  20K Followers  ApeSwap is a multichain DeFi Hub offering an accessible, transparent, and secure experience for everyone.  Follow  More from ApeSwap.finance  ApeSwap.finance  ApeSwap Partners With MoonPay To Launch Fiat On-RampMaking it easier for users to take the first step into DeFi  4 min read·Jul 20, 2022  --  ApeSwap.finance  ApeSwap Dev Digest | August 2023 EditionApeSwap’s Dev Digest, Round 2!</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the total token supply of zkSwap?&lt;br&gt;Possible answer: 96% of the total token supply is allocated to the community and project development.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidity: Become a DeFi liquidity provider and maximize your earning from trading fees via zkSwap Finance highly efficient liquidity pools on zkSync Era zk rollup.  Earn: Join our Earning Pools for high real yields and juicy rewards from our leading and revolutionary Defi Dex on zkSync Era.  zkFlow Volume Statistics: Track your Wallet &amp; Volume of swap and trade on zkSync Era or Linea protocols via zkFlow feature of zkSwap Finance - the top DeFi Dex on zkSync Era.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity: Become a DeFi liquidity provider and maximize your earning from trading fees via zkSwap Finance highly efficient liquidity pools on zkSync Era zk rollup.  Earn: Join our Earning Pools for high real yields and juicy rewards from our leading and revolutionary Defi Dex on zkSync Era.  zkFlow Volume Statistics: Track your Wallet &amp; Volume of swap and trade on zkSync Era or Linea protocols via zkFlow feature of zkSwap Finance - the top DeFi Dex on zkSync Era.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; and a lot more services are available at zkSwap Finance.  Earn zkSwap token $ZF with any activity:  Swap or add liquidity  Affiliate | Referral  Support projects gaining popularity in the social space: Zealy, Galxe, ...  Support Discord Community  zkSwap Magic Numbers:  100% of Participants are rewarded  96% of the total token supply is allocated to the community and project development  75% of the income generated by the protocol is used for buying back or redistributing to the holders</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2147,12 +2147,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>zkSwap Finance</t>
+          <t>Velodrome</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the total token supply of zkSwap?&lt;br&gt;Possible answer: 96% of the total token supply is allocated to the community and project development.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidity: Become a DeFi liquidity provider and maximize your earning from trading fees via zkSwap Finance highly efficient liquidity pools on zkSync Era zk rollup.  Earn: Join our Earning Pools for high real yields and juicy rewards from our leading and revolutionary Defi Dex on zkSync Era.  zkFlow Volume Statistics: Track your Wallet &amp; Volume of swap and trade on zkSync Era or Linea protocols via zkFlow feature of zkSwap Finance - the top DeFi Dex on zkSync Era.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity: Become a DeFi liquidity provider and maximize your earning from trading fees via zkSwap Finance highly efficient liquidity pools on zkSync Era zk rollup.  Earn: Join our Earning Pools for high real yields and juicy rewards from our leading and revolutionary Defi Dex on zkSync Era.  zkFlow Volume Statistics: Track your Wallet &amp; Volume of swap and trade on zkSync Era or Linea protocols via zkFlow feature of zkSwap Finance - the top DeFi Dex on zkSync Era.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; and a lot more services are available at zkSwap Finance.  Earn zkSwap token $ZF with any activity:  Swap or add liquidity  Affiliate | Referral  Support projects gaining popularity in the social space: Zealy, Galxe, ...  Support Discord Community  zkSwap Magic Numbers:  100% of Participants are rewarded  96% of the total token supply is allocated to the community and project development  75% of the income generated by the protocol is used for buying back or redistributing to the holders</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; uncorrelated — for example $LINK and $CRV  Watch Out For  Competition. The AMM space has some big players who may not let their supremacy get threatened. If they believe, the model of Velodrome is a threat, they may bring it to their protocols.  However, Velodrome is based on Optimism, a layer-2 Ethereum scaling solution. It can take the head on.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Therefore, how can Velodrome, which is strongly influenced by Solidly, prevent a similar outcome? The protocol has altered some of the crucial parameters, such as token distribution, locking mechanism, and emission schedule, in order to attain what Solidly was unable to achieve: Sustainability. Frankly, Velodrome's products really don't have too many differences in terms of business model as well as technical aspects, so the author will focus on analyzing Velodrome's advantages over competitors&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Velodrome an Automated Market Maker (AMM) aims to fill the gaps by providing deep liquidity and low fee/slippage trades. It incentivizes liquidity by giving token stakers the ability to direct the protocol’s emissions to their chosen pairs. So, the ones bribing the voters will not be able to divert the rewards in an unfair manner.  Fair Bribing System</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2164,284 +2164,284 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Velodrome</t>
+          <t>Trader Joe v2</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; uncorrelated — for example $LINK and $CRV  Watch Out For  Competition. The AMM space has some big players who may not let their supremacy get threatened. If they believe, the model of Velodrome is a threat, they may bring it to their protocols.  However, Velodrome is based on Optimism, a layer-2 Ethereum scaling solution. It can take the head on.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Therefore, how can Velodrome, which is strongly influenced by Solidly, prevent a similar outcome? The protocol has altered some of the crucial parameters, such as token distribution, locking mechanism, and emission schedule, in order to attain what Solidly was unable to achieve: Sustainability. Frankly, Velodrome's products really don't have too many differences in terms of business model as well as technical aspects, so the author will focus on analyzing Velodrome's advantages over competitors&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Velodrome an Automated Market Maker (AMM) aims to fill the gaps by providing deep liquidity and low fee/slippage trades. It incentivizes liquidity by giving token stakers the ability to direct the protocol’s emissions to their chosen pairs. So, the ones bribing the voters will not be able to divert the rewards in an unfair manner.  Fair Bribing System</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Compared with Uniswap V3, Trader Joe V2, Izumi, and Maverick are all upgrades to the Concentrated Liquidity Market Maker (CLMM) model, with the primary improvements occurring on the liquidity provider (LP) side. Summing up, a common feature of these protocols is the introduction of customizable price ranges, allowing liquidity providers to select specific price ranges to provide liquidity. Through customized price ranges, liquidity providers can more precisely control the liquidity they offer,&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Trader Joe has facilitated more than $88B of trades since launching its v1 iteration in July 2021, also generating $265M in revenue for liquidity providers and tokenholders. However, Trader Joe notes that its v1 design is hindered by capital inefficiency and divergent loss (also known as impermanent loss) risks for liquidity providers.  AMM Model&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The Liquidity Book design means Joe v2 is not reliant on external oracles like Chainlink for its prices. The Trader Joe team told The Defiant that fair market value will be maintained by arbitrageurs who will step in to take advantage of price discrepancies between assets traded on Joe v2 and other exchanges.  Volatility Accumulator</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Trader Joe v2</t>
+          <t>Loopring Exchange</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Compared with Uniswap V3, Trader Joe V2, Izumi, and Maverick are all upgrades to the Concentrated Liquidity Market Maker (CLMM) model, with the primary improvements occurring on the liquidity provider (LP) side. Summing up, a common feature of these protocols is the introduction of customizable price ranges, allowing liquidity providers to select specific price ranges to provide liquidity. Through customized price ranges, liquidity providers can more precisely control the liquidity they offer,&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Trader Joe has facilitated more than $88B of trades since launching its v1 iteration in July 2021, also generating $265M in revenue for liquidity providers and tokenholders. However, Trader Joe notes that its v1 design is hindered by capital inefficiency and divergent loss (also known as impermanent loss) risks for liquidity providers.  AMM Model&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The Liquidity Book design means Joe v2 is not reliant on external oracles like Chainlink for its prices. The Trader Joe team told The Defiant that fair market value will be maintained by arbitrageurs who will step in to take advantage of price discrepancies between assets traded on Joe v2 and other exchanges.  Volatility Accumulator</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Based on the results of this AMM liquidity mining, we may redesign LRC’s economic model. We envision that Loopring protocol fees will be used as continuous liquidity mining rewards for LRC-related AMM pools and orderbooks. Stay tuned for more details.  AMM Swap Tournament&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; There will be other orderbook liquidity mining campaigns in future as well, just like we used to do on v1. Now, Loopring Exchange v2 has the L2 AMM and orderbooks, which combined provide users with deeper liquidity, and also are attractive to different sorts of liquidity providers (AMM = passive LPs, orderbooks = active market makers).  Orderbook liquidity mining rewards will be distributed together with AMM liquidity mining rewards.  “I can’t wait to begin mining!…”&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. Will Loopring keep offering AMM liquidity mining?  We will continuously adjust our AMM liquidity mining programs according to the goals of the protocol, business, and community. We also welcome projects to work with us and provide project tokens as a reward for liquidity mining of the project’s token pool, so that their communities can benefit by having deep liquidity on L2.  3. Why should I participate in AMM liquidity mining?</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Loopring Exchange</t>
+          <t>UniWswap</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Based on the results of this AMM liquidity mining, we may redesign LRC’s economic model. We envision that Loopring protocol fees will be used as continuous liquidity mining rewards for LRC-related AMM pools and orderbooks. Stay tuned for more details.  AMM Swap Tournament&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; There will be other orderbook liquidity mining campaigns in future as well, just like we used to do on v1. Now, Loopring Exchange v2 has the L2 AMM and orderbooks, which combined provide users with deeper liquidity, and also are attractive to different sorts of liquidity providers (AMM = passive LPs, orderbooks = active market makers).  Orderbook liquidity mining rewards will be distributed together with AMM liquidity mining rewards.  “I can’t wait to begin mining!…”&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. Will Loopring keep offering AMM liquidity mining?  We will continuously adjust our AMM liquidity mining programs according to the goals of the protocol, business, and community. We also welcome projects to work with us and provide project tokens as a reward for liquidity mining of the project’s token pool, so that their communities can benefit by having deep liquidity on L2.  3. Why should I participate in AMM liquidity mining?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 🏠  V1 Protocol  Guides  Pool Liquidity  Helpful?  Formalized Model  Uniswap liquidity pools are autonomous and use the Constant Product Market Maker (x * y = k). This model was formalized and the smart contract implementation passed a lightweight formal verification.  Formalized Specification  Lightweight Verification  Create Exchange​  The createExchange function is used to deploy exchange contracts for ERC20 tokens that do not yet have one.  factory  methods  createExchange  tokenAddress  send&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 🏠  Protocol Concepts  Concentrated Liquidity  Helpful?  Concentrated Liquidity  Introduction​  The defining idea of Uniswap v3 is concentrated liquidity: liquidity that is allocated within a custom price range. In earlier versions, liquidity was distributed uniformly along the price curve between 0 and infinity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Uniswap focuses on the strengths of Ethereum to reimagine token swaps from first principles.  A blockchain-native liquidity protocol should take advantage of the trusted code execution environment, the autonomous and perpetually running virtual machine, and an open, permissionless, and inclusive access model that produces an exponentially growing ecosystem of virtual assets.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>UniWswap</t>
+          <t>MM Finance</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 🏠  V1 Protocol  Guides  Pool Liquidity  Helpful?  Formalized Model  Uniswap liquidity pools are autonomous and use the Constant Product Market Maker (x * y = k). This model was formalized and the smart contract implementation passed a lightweight formal verification.  Formalized Specification  Lightweight Verification  Create Exchange​  The createExchange function is used to deploy exchange contracts for ERC20 tokens that do not yet have one.  factory  methods  createExchange  tokenAddress  send&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 🏠  Protocol Concepts  Concentrated Liquidity  Helpful?  Concentrated Liquidity  Introduction​  The defining idea of Uniswap v3 is concentrated liquidity: liquidity that is allocated within a custom price range. In earlier versions, liquidity was distributed uniformly along the price curve between 0 and infinity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Uniswap focuses on the strengths of Ethereum to reimagine token swaps from first principles.  A blockchain-native liquidity protocol should take advantage of the trusted code execution environment, the autonomous and perpetually running virtual machine, and an open, permissionless, and inclusive access model that produces an exponentially growing ecosystem of virtual assets.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; fees that are accrued via the money market will also go towards building protocol-owned-liquidity for MMF.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity migration  At the core of MM Finance V3, we will be ensuring that liquidity providers between our V2 and V3 implementations will experience a seamless migration, and that none would be left behind. To do so, we have ensured that trades can be aggregated between both V2 and V3 trading pools to ensure a more equitable share of trading fees. For users who choose to migrate from V2 to V3, a migration interface has been built to cater for such a scenario.  Conclusion&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Seeing as MM is historically strong in the NFT space with our MMB, MMT, MMD collections etc, we are confident that it is sensible for us to build a NFT marketplace for which we already have a strong userbase. There’s a chance we can potentially compete with bigger names. This is especially so, given that there’s no dominant NFT marketplace on Aribitrum yet. That said, platform fees generated from our NFT marketplace will also go towards forming protcol-owned-liquidity for MMF.  💵 Money Market</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Hoa Nguyen  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MM Finance</t>
+          <t>Tinyman</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; fees that are accrued via the money market will also go towards building protocol-owned-liquidity for MMF.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity migration  At the core of MM Finance V3, we will be ensuring that liquidity providers between our V2 and V3 implementations will experience a seamless migration, and that none would be left behind. To do so, we have ensured that trades can be aggregated between both V2 and V3 trading pools to ensure a more equitable share of trading fees. For users who choose to migrate from V2 to V3, a migration interface has been built to cater for such a scenario.  Conclusion&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Seeing as MM is historically strong in the NFT space with our MMB, MMT, MMD collections etc, we are confident that it is sensible for us to build a NFT marketplace for which we already have a strong userbase. There’s a chance we can potentially compete with bigger names. This is especially so, given that there’s no dominant NFT marketplace on Aribitrum yet. That said, platform fees generated from our NFT marketplace will also go towards forming protcol-owned-liquidity for MMF.  💵 Money Market</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is an AMM - Automated Market Maker?  Automated market makers (AMM) are a type of decentralized exchange (DEX) that pool liquidity from users and allow digital assets to be traded automatically and without permission. AMMs use smart contracts to provide deep liquidity, low transaction fees, and uninterrupted access for all users. They offer a highly efficient and reliable way to trade digital assets on the blockchain.  Who can use Tinyman?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Flexible Style (FLEX) Liquidity Adding is an alternative method that allows LPs to add any proportion of the two assets to the pool. In this case, Tinyman will perform an implicit swap to match the desired asset proportions, charging the LP a swap fee for this service and subsequently adding the assets to the Pool. Single-asset liquidity adding can also be done with Flexible Style on the web app.  How much do LPs earn from swaps?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; What are the Proportional Style and Flexible (FLEX) Styles?  Please read the previous answer first.  Proportional Style Liquidity Adding is the fundamental process for adding funds to a Tinyman pool, where the liquidity provider (LP) adds assets in the same proportion as that already present in the pool.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Hoa Nguyen  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Fortior Blockchain, LLLP  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Tinyman</t>
+          <t>Pearl v1.5</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is an AMM - Automated Market Maker?  Automated market makers (AMM) are a type of decentralized exchange (DEX) that pool liquidity from users and allow digital assets to be traded automatically and without permission. AMMs use smart contracts to provide deep liquidity, low transaction fees, and uninterrupted access for all users. They offer a highly efficient and reliable way to trade digital assets on the blockchain.  Who can use Tinyman?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Flexible Style (FLEX) Liquidity Adding is an alternative method that allows LPs to add any proportion of the two assets to the pool. In this case, Tinyman will perform an implicit swap to match the desired asset proportions, charging the LP a swap fee for this service and subsequently adding the assets to the Pool. Single-asset liquidity adding can also be done with Flexible Style on the web app.  How much do LPs earn from swaps?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; What are the Proportional Style and Flexible (FLEX) Styles?  Please read the previous answer first.  Proportional Style Liquidity Adding is the fundamental process for adding funds to a Tinyman pool, where the liquidity provider (LP) adds assets in the same proportion as that already present in the pool.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Pearl v1.5: Product and Migration Details  Pearl Exchange·Follow  4 min read·Jul 25  --  Listen  Share  Pearl v1.5 will roll out over the next two weeks. The update includes key improvements to the vote escrow contract and rewards claims, which will improve the user experience and allow a better implementation of Caviar, Tangible’s liquid wrapper for vePEARL.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Pearl will vote during this week with protocol-controlled equity, mirroring emissions allocations from the prior Epoch  MIGRATION  Migrating from Pearl v1 to v1.5 will be simple.  As soon as v1.5 deploys, that will be the primary version that lives at the pearl.exchange URL. Links will be shared and posted in the UI to connect users back to the v1 version.  Both liquidity and vePEARL NFTs will need to be migrated.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Both liquidity and vePEARL NFTs will need to be migrated.  Liquidity migration involves updating USDR and wUSDR to the v3 version before redepositing liquidity into Pearl v1.5. USDR v3 IS REQUIRED TO PROVIDE LIQUIDITY ON v1.5.  vePEARL migration involves a simple NFT swap and updates the vote escrow contracts as noted above, for better compatibility with CAVIAR and n+1 bribe claims  Liquidity Migration:  Unstake and remove liquidity from all Pearl v1 pools</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Fortior Blockchain, LLLP  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Pearl v1.5</t>
+          <t>Horizon Dex</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Pearl v1.5: Product and Migration Details  Pearl Exchange·Follow  4 min read·Jul 25  --  Listen  Share  Pearl v1.5 will roll out over the next two weeks. The update includes key improvements to the vote escrow contract and rewards claims, which will improve the user experience and allow a better implementation of Caviar, Tangible’s liquid wrapper for vePEARL.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Pearl will vote during this week with protocol-controlled equity, mirroring emissions allocations from the prior Epoch  MIGRATION  Migrating from Pearl v1 to v1.5 will be simple.  As soon as v1.5 deploys, that will be the primary version that lives at the pearl.exchange URL. Links will be shared and posted in the UI to connect users back to the v1 version.  Both liquidity and vePEARL NFTs will need to be migrated.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Both liquidity and vePEARL NFTs will need to be migrated.  Liquidity migration involves updating USDR and wUSDR to the v3 version before redepositing liquidity into Pearl v1.5. USDR v3 IS REQUIRED TO PROVIDE LIQUIDITY ON v1.5.  vePEARL migration involves a simple NFT swap and updates the vote escrow contracts as noted above, for better compatibility with CAVIAR and n+1 bribe claims  Liquidity Migration:  Unstake and remove liquidity from all Pearl v1 pools</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What are the benefits of Horizon Dex's liquidity pools?&lt;br&gt;Possible answer:&lt;br&gt; - HorizonDEX's liquidity pools offer enhanced returns for liquidity providers, allowing them to maximize the efficiency of their invested capital. &lt;br&gt; - The concentrated liquidity pools also provide users with improved liquidity and better price discovery. &lt;br&gt; - HorizonDEX's liquidity pools are designed to reduce slippage and increase the speed of transactions. &lt;br&gt; - The platform also offers users the ability to customize their liquidity pools to suit their individual needs.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Experience the Future of Liquidity Provision: HorizonDEX aims to revolutionize the liquidity provision landscape by leveraging concentrated liquidity pools that maximize the efficiency of invested capital. Unlike traditional Automated Market Makers (AMMs), HorizonDEX’s liquidity pools offer enhanced returns for liquidity providers, paving the way for a new era of DeFi liquidity efficiency.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Introducing Horizon Dex: A Deep Dive into Concentrated Liquidity DEX  Ehis·Follow  3 min read·Jul 4  --  Listen  Share  Introduction: HorizonDEX, the first concentrated Liquidity DEX based on ConsenSys’ Linea Layer 2, is excited to welcome clients to investigate and collaborate with their Testnet model. This article will give an outline of the HorizonDEX Testnet, its highlights, and the thrilling open doors it presents for clients in the decentralized finance (DeFi) space.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Interact with the Testnet Prototype: The HorizonDEX Testnet presents users with a unique opportunity to explore the workings of the concentrated liquidity DEX firsthand. By actively participating in the Testnet, users can provide valuable feedback and insights that will help shape the future versions of the platform. HorizonDEX values the ideas and suggestions of its users, emphasizing the importance of community engagement.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 KyberNetwork  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Horizon Dex</t>
+          <t>ZigZag</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What are the benefits of Horizon Dex's liquidity pools?&lt;br&gt;Possible answer:&lt;br&gt; - HorizonDEX's liquidity pools offer enhanced returns for liquidity providers, allowing them to maximize the efficiency of their invested capital. &lt;br&gt; - The concentrated liquidity pools also provide users with improved liquidity and better price discovery. &lt;br&gt; - HorizonDEX's liquidity pools are designed to reduce slippage and increase the speed of transactions. &lt;br&gt; - The platform also offers users the ability to customize their liquidity pools to suit their individual needs.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Experience the Future of Liquidity Provision: HorizonDEX aims to revolutionize the liquidity provision landscape by leveraging concentrated liquidity pools that maximize the efficiency of invested capital. Unlike traditional Automated Market Makers (AMMs), HorizonDEX’s liquidity pools offer enhanced returns for liquidity providers, paving the way for a new era of DeFi liquidity efficiency.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Introducing Horizon Dex: A Deep Dive into Concentrated Liquidity DEX  Ehis·Follow  3 min read·Jul 4  --  Listen  Share  Introduction: HorizonDEX, the first concentrated Liquidity DEX based on ConsenSys’ Linea Layer 2, is excited to welcome clients to investigate and collaborate with their Testnet model. This article will give an outline of the HorizonDEX Testnet, its highlights, and the thrilling open doors it presents for clients in the decentralized finance (DeFi) space.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Interact with the Testnet Prototype: The HorizonDEX Testnet presents users with a unique opportunity to explore the workings of the concentrated liquidity DEX firsthand. By actively participating in the Testnet, users can provide valuable feedback and insights that will help shape the future versions of the platform. HorizonDEX values the ideas and suggestions of its users, emphasizing the importance of community engagement.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools. One of ZigZag’s major milestones will be the launch of the Mammoth Pool this month. Written in Cairo by the brilliant @0xTonysprocket, this Automated Market Maker (AMM) allows anyone to deposit wBTC, ETH, or stablecoins to earn a pro rata share of swap fees. Whitelisted market makers can draw from this pool and place exchange orders without needing to onboard their own liquidity. (Mammoth Pool will be available on the StarkNet implementation of ZigZag only until zkSync 2.0&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; But for many projects, writing market-making bots is a foreign skillset, and the path towards earning one is mined with expensive trading losses. There are few bugs as expensive as market-making bugs.  With the Zig Zag Market Maker, providing liquidity is reduced to a series of copy-pastes — and depending on the demand for the pair you’re trading, it can be quite profitable.  Security Notes&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Open in app  Sign up  Sign In  Write  Sign up  Sign In  How to Provide Liquidity with ZigZag Market Maker  ZigZag Exchange·Follow  4 min read·Feb 2, 2022  --  Listen  Share  Getting setup as a liquidity provider has never been easier with this simple bot.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 KyberNetwork  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ZigZag</t>
+          <t>Deri Protocol</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools. One of ZigZag’s major milestones will be the launch of the Mammoth Pool this month. Written in Cairo by the brilliant @0xTonysprocket, this Automated Market Maker (AMM) allows anyone to deposit wBTC, ETH, or stablecoins to earn a pro rata share of swap fees. Whitelisted market makers can draw from this pool and place exchange orders without needing to onboard their own liquidity. (Mammoth Pool will be available on the StarkNet implementation of ZigZag only until zkSync 2.0&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; But for many projects, writing market-making bots is a foreign skillset, and the path towards earning one is mined with expensive trading losses. There are few bugs as expensive as market-making bugs.  With the Zig Zag Market Maker, providing liquidity is reduced to a series of copy-pastes — and depending on the demand for the pair you’re trading, it can be quite profitable.  Security Notes&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Open in app  Sign up  Sign In  Write  Sign up  Sign In  How to Provide Liquidity with ZigZag Market Maker  ZigZag Exchange·Follow  4 min read·Feb 2, 2022  --  Listen  Share  Getting setup as a liquidity provider has never been easier with this simple bot.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the value of the DERI token?&lt;br&gt;&lt;br&gt;Possible answer:&lt;br&gt;The current value of the DERI token is not available.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How does Deri Protocol work  Liquidity providers deposit funds into Deri Protocol and receive trading fees from traders (supply-side fees).  Who governs Deri Protocol  DERI token holders own and govern the protocol. They currently take a cut of the total trading fees paid by traders (revenue).  Deri Protocol community channels            Key metrics  Daily market cap (fully diluted) vs. daily fees in the past 180 days.  7D  30D  90D  180D  YTD  365D  Max  Cumulative  Customize  Close  Metrics&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Reviews (0)  About  What is Deri Protocol  DeFi  AMM  Derivatives  Deri Protocol is the DeFi way to trade derivatives: to hedge, to speculate, to arbitrage, all on chain. With Deri Protocol, trades are executed under AMM paradigm and positions are tokenized as NFTs, highly composable with other DeFi projects. Having provided an on-chain mechanism to exchange risk exposures precisely and capital-efficiently, Deri Protocol has minted one of the most important blocks of the DeFi infrastructure.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Consolidated liquidity for enhanced trading  Faster execution and reduced gas costs  Expanded symbol offerings, especially for everlasting options  DERI token as base token  Click here for more details of the features.  New listings：  BTCUSD-32000-C  BTCUSD-32000-P  ETHUSD-2200-C  ETHUSD-2200-P  The switch button for Pro and Lite on deri.io has been redesigned into a simpler form.  Deri’s Live Stream/AMAs:  Deri launched a routine community Discord AMA on July 28th.  On-Chain Data</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; THIS SOFTWARE IS PROVIDED BY THE COPYRIGHT HOLDERS AND CONTRIBUTORS "AS IS" AND ANY EXPRESS OR IMPLIED WARRANTIES, INCLUDING, BUT NOT LIMITED TO, THE IMPLIED WARRANTIES OF MERCHANTABILITY AND FITNESS FOR A PARTICULAR PURPOSE ARE DISCLAIMED. IN NO EVENT SHALL THE COPYRIGHT HOLDER OR CONTRIBUTORS BE LIABLE FOR ANY DIRECT, INDIRECT, INCIDENTAL, SPECIAL, EXEMPLARY, OR CONSEQUENTIAL DAMAGES (INCLUDING, BUT NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; * Redistributions in binary form must reproduce the above copyright notice,   this list of conditions and the following disclaimer in the documentation   and/or other materials provided with the distribution.  * Neither the name of the copyright holder nor the names of its   contributors may be used to endorse or promote products derived from   this software without specific prior written permission.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; DAMAGES (INCLUDING, BUT NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR SERVICES; LOSS OF USE, DATA, OR PROFITS; OR BUSINESS INTERRUPTION) HOWEVER CAUSED AND ON ANY THEORY OF LIABILITY, WHETHER IN CONTRACT, STRICT LIABILITY, OR TORT (INCLUDING NEGLIGENCE OR OTHERWISE) ARISING IN ANY WAY OUT OF THE USE OF THIS SOFTWARE, EVEN IF ADVISED OF THE POSSIBILITY OF SUCH DAMAGE.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Deri Protocol</t>
+          <t>OKC Swap</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the value of the DERI token?&lt;br&gt;&lt;br&gt;Possible answer:&lt;br&gt;The current value of the DERI token is not available.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How does Deri Protocol work  Liquidity providers deposit funds into Deri Protocol and receive trading fees from traders (supply-side fees).  Who governs Deri Protocol  DERI token holders own and govern the protocol. They currently take a cut of the total trading fees paid by traders (revenue).  Deri Protocol community channels            Key metrics  Daily market cap (fully diluted) vs. daily fees in the past 180 days.  7D  30D  90D  180D  YTD  365D  Max  Cumulative  Customize  Close  Metrics&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Reviews (0)  About  What is Deri Protocol  DeFi  AMM  Derivatives  Deri Protocol is the DeFi way to trade derivatives: to hedge, to speculate, to arbitrage, all on chain. With Deri Protocol, trades are executed under AMM paradigm and positions are tokenized as NFTs, highly composable with other DeFi projects. Having provided an on-chain mechanism to exchange risk exposures precisely and capital-efficiently, Deri Protocol has minted one of the most important blocks of the DeFi infrastructure.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Consolidated liquidity for enhanced trading  Faster execution and reduced gas costs  Expanded symbol offerings, especially for everlasting options  DERI token as base token  Click here for more details of the features.  New listings：  BTCUSD-32000-C  BTCUSD-32000-P  ETHUSD-2200-C  ETHUSD-2200-P  The switch button for Pro and Lite on deri.io has been redesigned into a simpler form.  Deri’s Live Stream/AMAs:  Deri launched a routine community Discord AMA on July 28th.  On-Chain Data</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; GrowEarnSimple EarnOn-chain EarnStructured ProductsLoanJumpstart  BuildOKB ChainOKT Chain  InstitutionalInstitutional homeLiquid MarketplaceAPIsVIP LoanBroker ProgramManaged Trading Sub-accountsHistorical market data  Learn  MoreProductsPoolOKBSecurity of fundsStatusProof of ReservesOthersRewards centerReferralAffiliatesOKX VenturesBlockchain ExplorerTrade on TradingView  SupportSupport centerMy ticketsConnect with OKXDiscordTelegram  Download OKX app  Scalable &amp; Interoperable&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; SupportSupport centerMy ticketsConnect with OKXDiscordTelegram      ExchangeWallet  Buy cryptoExpress buyP2P tradingThird-party payment  DiscoverMarketsOpportunities  TradeConvertBasic tradingSpotSimple optionsDerivatives &amp; margin tradingPerpetual swapsMarginFuturesOptionsTrading botsMarketplaceCreate a botLiquid Marketplace  GrowEarnSimple EarnOn-chain EarnStructured ProductsLoanJumpstart  BuildOKB ChainOKT Chain&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; full range of contracts and margin productsPerpetual swapsMarginFuturesOptionsTrading botsMultiple strategies to help you trade with easeMarketplaceCreate a botLiquid MarketplaceDeep liquidity on futures spreads, custom multi-leg strategies, and block tradesGrowEarnDon’t just HODL. EarnSimple EarnOn-chain EarnStructured ProductsLoanBorrow to earn, borrow to spendJumpstartDiscover new, high-quality projects around the worldBuildOKB ChainExploreEnter the world of Web3OKB ChainUnleash the Power of</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; THIS SOFTWARE IS PROVIDED BY THE COPYRIGHT HOLDERS AND CONTRIBUTORS "AS IS" AND ANY EXPRESS OR IMPLIED WARRANTIES, INCLUDING, BUT NOT LIMITED TO, THE IMPLIED WARRANTIES OF MERCHANTABILITY AND FITNESS FOR A PARTICULAR PURPOSE ARE DISCLAIMED. IN NO EVENT SHALL THE COPYRIGHT HOLDER OR CONTRIBUTORS BE LIABLE FOR ANY DIRECT, INDIRECT, INCIDENTAL, SPECIAL, EXEMPLARY, OR CONSEQUENTIAL DAMAGES (INCLUDING, BUT NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; * Redistributions in binary form must reproduce the above copyright notice,   this list of conditions and the following disclaimer in the documentation   and/or other materials provided with the distribution.  * Neither the name of the copyright holder nor the names of its   contributors may be used to endorse or promote products derived from   this software without specific prior written permission.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; DAMAGES (INCLUDING, BUT NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR SERVICES; LOSS OF USE, DATA, OR PROFITS; OR BUSINESS INTERRUPTION) HOWEVER CAUSED AND ON ANY THEORY OF LIABILITY, WHETHER IN CONTRACT, STRICT LIABILITY, OR TORT (INCLUDING NEGLIGENCE OR OTHERWISE) ARISING IN ANY WAY OUT OF THE USE OF THIS SOFTWARE, EVEN IF ADVISED OF THE POSSIBILITY OF SUCH DAMAGE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>OKC Swap</t>
+          <t>Netswap</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; GrowEarnSimple EarnOn-chain EarnStructured ProductsLoanJumpstart  BuildOKB ChainOKT Chain  InstitutionalInstitutional homeLiquid MarketplaceAPIsVIP LoanBroker ProgramManaged Trading Sub-accountsHistorical market data  Learn  MoreProductsPoolOKBSecurity of fundsStatusProof of ReservesOthersRewards centerReferralAffiliatesOKX VenturesBlockchain ExplorerTrade on TradingView  SupportSupport centerMy ticketsConnect with OKXDiscordTelegram  Download OKX app  Scalable &amp; Interoperable&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; SupportSupport centerMy ticketsConnect with OKXDiscordTelegram      ExchangeWallet  Buy cryptoExpress buyP2P tradingThird-party payment  DiscoverMarketsOpportunities  TradeConvertBasic tradingSpotSimple optionsDerivatives &amp; margin tradingPerpetual swapsMarginFuturesOptionsTrading botsMarketplaceCreate a botLiquid Marketplace  GrowEarnSimple EarnOn-chain EarnStructured ProductsLoanJumpstart  BuildOKB ChainOKT Chain&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; full range of contracts and margin productsPerpetual swapsMarginFuturesOptionsTrading botsMultiple strategies to help you trade with easeMarketplaceCreate a botLiquid MarketplaceDeep liquidity on futures spreads, custom multi-leg strategies, and block tradesGrowEarnDon’t just HODL. EarnSimple EarnOn-chain EarnStructured ProductsLoanBorrow to earn, borrow to spendJumpstartDiscover new, high-quality projects around the worldBuildOKB ChainExploreEnter the world of Web3OKB ChainUnleash the Power of</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;This answer is helpful because it provides the user with the liquidity model employed by Netswap.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Modifications to the liquidity pools  Initially, the distribution of tokens will be entirely through the liquidity mining pools listed in the previous section. The liquidity mining period will remain active until the pools are altered or another community initiative is accepted as a formal governance proposal. Proposals may add and subtract liquidity mining pools or may allocate NETT directly to a user or a smart contract such as a community treasury.  Activating the swap mining program&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; NETT Governance Model  A big part of the value proposition of NETT’s governance is that it is highly community-driven. Because there are no insiders, such as investors, team members, or other such stakeholders, the development of Netswap remains entirely up to the wider community. Netswap governance will be live three months after launch and will enable several key actions, including but not limited to:  Modifications to the liquidity pools&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Pool  Liquidity pools  How does a liquidity pool work?  Netswap charges 0.3% fee for all trades, of which 0.25% is added to the liquidity pool of the token pair that was traded on.  A liquidity pool (LP) is a pool of two tokens, e.g. Metis and NETT tokens. This pool is what allows users to exchange between the two tokens automatically.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Matteo Casonato  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Netswap</t>
+          <t>SaucerSwap</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;This answer is helpful because it provides the user with the liquidity model employed by Netswap.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Modifications to the liquidity pools  Initially, the distribution of tokens will be entirely through the liquidity mining pools listed in the previous section. The liquidity mining period will remain active until the pools are altered or another community initiative is accepted as a formal governance proposal. Proposals may add and subtract liquidity mining pools or may allocate NETT directly to a user or a smart contract such as a community treasury.  Activating the swap mining program&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; NETT Governance Model  A big part of the value proposition of NETT’s governance is that it is highly community-driven. Because there are no insiders, such as investors, team members, or other such stakeholders, the development of Netswap remains entirely up to the wider community. Netswap governance will be live three months after launch and will enable several key actions, including but not limited to:  Modifications to the liquidity pools&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Pool  Liquidity pools  How does a liquidity pool work?  Netswap charges 0.3% fee for all trades, of which 0.25% is added to the liquidity pool of the token pair that was traded on.  A liquidity pool (LP) is a pool of two tokens, e.g. Metis and NETT tokens. This pool is what allows users to exchange between the two tokens automatically.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;SaucerSwap is employing a "Proactive Market Maker (PMM)" liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Background  SaucerSwap is launching a concentrated liquidity market maker (CLMM) protocol based on Uniswap v3. This CLMM, referred to as “SaucerSwap v2”, gives individual liquidity providers (LPs) granular control over what price ranges their capital is allocated to. Individual positions are aggregated together into a single pool, forming one combined curve for users to trade against.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Background  SaucerSwap is launching a concentrated liquidity market maker (CLMM) protocol based on Uniswap v3. This CLMM, referred to as “SaucerSwap v2”, gives individual liquidity providers (LPs) granular control over what price ranges their capital is allocated to. Individual positions are aggregated together into a single pool, forming one combined curve for users to trade against.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Summary of Proposal  Conclusion  With the opportunity of increased capital efficiency and a shift to real yield incentives, SaucerSwap proposes an updated SAUCE tokenomics model to coincide with the launch of SaucerSwap v2. Built upon the strengths of Uniswap v3, and taking full advantage of the Hedera network, SaucerSwap introduces a next-generation CLMM, enabling increased trading volume and concomitant fees for LPs.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Matteo Casonato  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SaucerSwap</t>
+          <t>Ref Finance</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;SaucerSwap is employing a "Proactive Market Maker (PMM)" liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Background  SaucerSwap is launching a concentrated liquidity market maker (CLMM) protocol based on Uniswap v3. This CLMM, referred to as “SaucerSwap v2”, gives individual liquidity providers (LPs) granular control over what price ranges their capital is allocated to. Individual positions are aggregated together into a single pool, forming one combined curve for users to trade against.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Background  SaucerSwap is launching a concentrated liquidity market maker (CLMM) protocol based on Uniswap v3. This CLMM, referred to as “SaucerSwap v2”, gives individual liquidity providers (LPs) granular control over what price ranges their capital is allocated to. Individual positions are aggregated together into a single pool, forming one combined curve for users to trade against.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Summary of Proposal  Conclusion  With the opportunity of increased capital efficiency and a shift to real yield incentives, SaucerSwap proposes an updated SAUCE tokenomics model to coincide with the launch of SaucerSwap v2. Built upon the strengths of Uniswap v3, and taking full advantage of the Hedera network, SaucerSwap introduces a next-generation CLMM, enabling increased trading volume and concomitant fees for LPs.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; --  Listen  Share  Introduction  The launch of concentrated liquidity AMM is an achievement for Ref Finance and de facto the NEAR ecosystem. First, what is concentrated liquidity? It is the liquidity allocated within a custom price range. With the mechanics of concentrated liquidity, liquidity providers (LPs) can accumulate capital with smaller price intervals than (0, ∞), enabling individualized price curves. Which could potentially improve 4000x higher capital efficiency for traders.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Improved fee structure: Only takers or market makers would pay a fee for an open order. Thus, only LPs (and the protocol itself) can benefit from swap fees.  All this to say that the concentrated liquidity model offers you two options:  To provide liquidity across a full range, in order to spread your assets thin with lower rates of return but lesser risk of falling out of range;  To narrow your range in accordance to the market’s conditions to increase capital efficiency and earn more fees.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; After choosing both assets, click “Request for Quote” to show the price from all markets.  Step 3: Double-check all the details (Swap-rate, fee, price impact) and compare the price between markets  Ref Finance has looked for the optimal price across all liquidity pools on Aurora and NEAR Ecosystem and eventually shows the results along with the comparison between each protocol. In this case, Ref Finance responds at a better rate compared to Trisolaris.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use our General Public Licenses protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License which gives you legal permission to copy, distribute and/or modify the software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The licenses for most software and other practical works are designed to take away your freedom to share and change the works.  By contrast, our General Public Licenses are intended to guarantee your freedom to share and change all versions of a program--to make sure it remains free software for all its users.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ref Finance</t>
+          <t>Clipper</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; --  Listen  Share  Introduction  The launch of concentrated liquidity AMM is an achievement for Ref Finance and de facto the NEAR ecosystem. First, what is concentrated liquidity? It is the liquidity allocated within a custom price range. With the mechanics of concentrated liquidity, liquidity providers (LPs) can accumulate capital with smaller price intervals than (0, ∞), enabling individualized price curves. Which could potentially improve 4000x higher capital efficiency for traders.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Improved fee structure: Only takers or market makers would pay a fee for an open order. Thus, only LPs (and the protocol itself) can benefit from swap fees.  All this to say that the concentrated liquidity model offers you two options:  To provide liquidity across a full range, in order to spread your assets thin with lower rates of return but lesser risk of falling out of range;  To narrow your range in accordance to the market’s conditions to increase capital efficiency and earn more fees.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; After choosing both assets, click “Request for Quote” to show the price from all markets.  Step 3: Double-check all the details (Swap-rate, fee, price impact) and compare the price between markets  Ref Finance has looked for the optimal price across all liquidity pools on Aurora and NEAR Ecosystem and eventually shows the results along with the comparison between each protocol. In this case, Ref Finance responds at a better rate compared to Trisolaris.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Formula Market Maker (FMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Clipper Crew  4 min read  Note: In April 2022, Clipper's architecture was upgraded to a novel Formula Market Maker (FMM) model, which allows for lower gas costs, broader price optimization, and smoother liquidity deposits/withdrawals. As a result, Clipper's liquidity pools are no longer explicitly capped. This article will remain in place for the sake of transparency, but note that the most accurate and up-to-date explanation of how Clipper works can now be found here.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Lock-up period (until July 1, 2022)  Once in the Clipper Liquidity Pool, the tokens will be locked until July 1, 2022 (roughly 9 months). This lock prevents users from withdrawing anything to ensure a stable pool. This is the same timeline as the ILP program.  Diversification via Mixed Asset Exposure&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; We’ve been in the DeFi space long enough to understand that DeFi users are generally put off by restrictions and mandatory lockups. But Clipper’s CLP is specifically configured to maintain a stable liquidity pool, which is the optimal way to ensure that Clipper can offer the best prices for trades valued at ≤$10K.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use our General Public Licenses protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License which gives you legal permission to copy, distribute and/or modify the software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The licenses for most software and other practical works are designed to take away your freedom to share and change the works.  By contrast, our General Public Licenses are intended to guarantee your freedom to share and change all versions of a program--to make sure it remains free software for all its users.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The copyright notices in the Software and this entire statement, including the above license grant, this restriction and the following disclaimer, must be included in all copies of the Software, in whole or in part, and all derivative works of the Software, unless such copies or derivative works are solely in the form of machine-executable object code generated by a source language processor.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Boost Software License - Version 1.0 - August 17th, 2003  Permission is hereby granted, free of charge, to any person or organization obtaining a copy of the software and accompanying documentation covered by this license (the "Software") to use, reproduce, display, distribute, execute, and transmit the Software, and to prepare derivative works of the Software, and to permit third-parties to whom the Software is furnished to do so, all subject to the following:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE AND NON-INFRINGEMENT. IN NO EVENT SHALL THE COPYRIGHT HOLDERS OR ANYONE DISTRIBUTING THE SOFTWARE BE LIABLE FOR ANY DAMAGES OR OTHER LIABILITY, WHETHER IN CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Clipper</t>
+          <t>CherrySwap</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Formula Market Maker (FMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Clipper Crew  4 min read  Note: In April 2022, Clipper's architecture was upgraded to a novel Formula Market Maker (FMM) model, which allows for lower gas costs, broader price optimization, and smoother liquidity deposits/withdrawals. As a result, Clipper's liquidity pools are no longer explicitly capped. This article will remain in place for the sake of transparency, but note that the most accurate and up-to-date explanation of how Clipper works can now be found here.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Lock-up period (until July 1, 2022)  Once in the Clipper Liquidity Pool, the tokens will be locked until July 1, 2022 (roughly 9 months). This lock prevents users from withdrawing anything to ensure a stable pool. This is the same timeline as the ILP program.  Diversification via Mixed Asset Exposure&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; We’ve been in the DeFi space long enough to understand that DeFi users are generally put off by restrictions and mandatory lockups. But Clipper’s CLP is specifically configured to maintain a stable liquidity pool, which is the optimal way to ensure that Clipper can offer the best prices for trades valued at ≤$10K.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Adding Liquidity  1.CherrySwap uses mining mode of LP pledge certificate , so we need to add the supported market making token pair to the fund pool first, and then click【Liquidity】to enter liquidity.  2. Click【Add Liquidity】 to add.  3.Select OKT / CHE (case), set the quantity, and then click 【Approve CHE】 to authorize the first operation.  4.Click【Confirm】 in the pop-up window of MetaMask to complete the first authorization.  5.Click【Supply】 again to send the token.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Official website  Github  Block explorer  Social media  CherrySwap FAQ  What is CHE?  CherrySwap is the first AMM protocol to launch on OKTC. It creates self-driven liquidity pools for users to exchange assets and earn rewards effortlessly. CherrySwap follows a completely community-driven approach that makes it more decentralized and creates a transparent environment for all new participants. CHE is the governance token of the protocol that helps with many operations inside the ecosystem.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; About the founders  CherrySwap aims to create a self-driven AMM that gives participants greater value in high liquidity with no barriers to entry and full community autonomy. CherrySwap raised $3 million in its first strategic investment round. In Mar. 2021, they launched a DApp HyperPay Wallet and announced multiple airdrops to test joint betas with OKX Chain and ONTO wallet.  Learn more about CherrySwap (CHE)  Official website  Github  Block explorer  Social media  CherrySwap FAQ</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The copyright notices in the Software and this entire statement, including the above license grant, this restriction and the following disclaimer, must be included in all copies of the Software, in whole or in part, and all derivative works of the Software, unless such copies or derivative works are solely in the form of machine-executable object code generated by a source language processor.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Boost Software License - Version 1.0 - August 17th, 2003  Permission is hereby granted, free of charge, to any person or organization obtaining a copy of the software and accompanying documentation covered by this license (the "Software") to use, reproduce, display, distribute, execute, and transmit the Software, and to prepare derivative works of the Software, and to permit third-parties to whom the Software is furnished to do so, all subject to the following:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE AND NON-INFRINGEMENT. IN NO EVENT SHALL THE COPYRIGHT HOLDERS OR ANYONE DISTRIBUTING THE SOFTWARE BE LIABLE FOR ANY DAMAGES OR OTHER LIABILITY, WHETHER IN CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2019 NeapolitanSwaps  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CherrySwap</t>
+          <t>MySwap</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Adding Liquidity  1.CherrySwap uses mining mode of LP pledge certificate , so we need to add the supported market making token pair to the fund pool first, and then click【Liquidity】to enter liquidity.  2. Click【Add Liquidity】 to add.  3.Select OKT / CHE (case), set the quantity, and then click 【Approve CHE】 to authorize the first operation.  4.Click【Confirm】 in the pop-up window of MetaMask to complete the first authorization.  5.Click【Supply】 again to send the token.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Official website  Github  Block explorer  Social media  CherrySwap FAQ  What is CHE?  CherrySwap is the first AMM protocol to launch on OKTC. It creates self-driven liquidity pools for users to exchange assets and earn rewards effortlessly. CherrySwap follows a completely community-driven approach that makes it more decentralized and creates a transparent environment for all new participants. CHE is the governance token of the protocol that helps with many operations inside the ecosystem.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; About the founders  CherrySwap aims to create a self-driven AMM that gives participants greater value in high liquidity with no barriers to entry and full community autonomy. CherrySwap raised $3 million in its first strategic investment round. In Mar. 2021, they launched a DApp HyperPay Wallet and announced multiple airdrops to test joint betas with OKX Chain and ONTO wallet.  Learn more about CherrySwap (CHE)  Official website  Github  Block explorer  Social media  CherrySwap FAQ</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; At mySwap, our main goal is to empower users with their assets with no restraints from a centralized authority.That’s why it’s critical for us to allow both mySwap’s liquidity providers, exchange users and new users to get an effortless view of the protocol’s financial dynamics.  That way they can make an educated decision on how to control their assets inside the mySwap protocol.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Starknet  Amm  Dex  Analytics  --  --  Follow  Written by mySwap - StarkNet AMM  37 Followers  mySwap is the original AMM built on top of #StarkNet, an Ethereum L2. Swap and stack ETH, USDC, DAI and WBTC. Join us on https://twitter.com/mySwapxyz  Follow  Recommended from Medium  AL Anany  The ChatGPT Hype Is Over — Now Watch How Google Will Kill ChatGPT.It never happens instantly. The business game is longer than you know.  6 min read·Sep 1  --  480  Muhammad Arslan Tunio&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Let’s first understand what a swap and liquidity means:  Swap: It’s a tool, that helps you(Swapper), when you need to exchange one token into another one. As example, when you have some $USDC tokens, but you need $ETH tokens, you need to trade one asset($USDC) to proportional amount of another asset($ETH) at a fixed price. Cetus can help you with that and below i will show how to do that.  Liquidity: Tokens that are stored in a pool contract and are able to be traded against by traders.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2019 NeapolitanSwaps  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MySwap</t>
+          <t>Honeyswap</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; At mySwap, our main goal is to empower users with their assets with no restraints from a centralized authority.That’s why it’s critical for us to allow both mySwap’s liquidity providers, exchange users and new users to get an effortless view of the protocol’s financial dynamics.  That way they can make an educated decision on how to control their assets inside the mySwap protocol.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Starknet  Amm  Dex  Analytics  --  --  Follow  Written by mySwap - StarkNet AMM  37 Followers  mySwap is the original AMM built on top of #StarkNet, an Ethereum L2. Swap and stack ETH, USDC, DAI and WBTC. Join us on https://twitter.com/mySwapxyz  Follow  Recommended from Medium  AL Anany  The ChatGPT Hype Is Over — Now Watch How Google Will Kill ChatGPT.It never happens instantly. The business game is longer than you know.  6 min read·Sep 1  --  480  Muhammad Arslan Tunio&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Let’s first understand what a swap and liquidity means:  Swap: It’s a tool, that helps you(Swapper), when you need to exchange one token into another one. As example, when you have some $USDC tokens, but you need $ETH tokens, you need to trade one asset($USDC) to proportional amount of another asset($ETH) at a fixed price. Cetus can help you with that and below i will show how to do that.  Liquidity: Tokens that are stored in a pool contract and are able to be traded against by traders.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Community  Discord  Forum  Telegram  Twitter  Launch App  Liquidity Pool  Provide Liqudity Pool  Honeyswap allows you to pool two tokens together that are pooled on the exchange by providing liquidity to get a portion of the trading rewards - which is the same system audited system used by Uniswap. This guide will show you how to add liquidity on Honeyswap, and how to check your liquidity using the analytics page.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Honeyswap Analytics  Honeyswap Analytics  provides an open source interface for analyzing liquidity, volume, and trading history.  Honeyswap Governance  The Honeyswap AMM contracts are not upgradeable. Governance is limited to setting the fee reciever address.  Honeycomb Asset Manager  Honeycomb  provides an open source interface for managing DeFi positions, including depositing and withdrawing from Comb farms.  ✨Projects - PreviousQuests  NextHoneyswap on xDai  Last modified   2yr ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Honeyswap  Honeyswap is network of decentralized exchanges which are supported and maintained by the 1Hive community.  Overview  Honeyswap is comprised of liquidity pool contracts deployed to multiple EVM compatible chains which share common frontend interfaces that are maintained by the 1Hive community. Currently Honeyswap supports xDai and Polygon, but plans to expand support to other EVM chains and rollups in the future.  Honeyswap uses a  to manage the balance between  and</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2453,46 +2453,46 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Honeyswap</t>
+          <t>WingRiders DEX</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Community  Discord  Forum  Telegram  Twitter  Launch App  Liquidity Pool  Provide Liqudity Pool  Honeyswap allows you to pool two tokens together that are pooled on the exchange by providing liquidity to get a portion of the trading rewards - which is the same system audited system used by Uniswap. This guide will show you how to add liquidity on Honeyswap, and how to check your liquidity using the analytics page.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Honeyswap Analytics  Honeyswap Analytics  provides an open source interface for analyzing liquidity, volume, and trading history.  Honeyswap Governance  The Honeyswap AMM contracts are not upgradeable. Governance is limited to setting the fee reciever address.  Honeycomb Asset Manager  Honeycomb  provides an open source interface for managing DeFi positions, including depositing and withdrawing from Comb farms.  ✨Projects - PreviousQuests  NextHoneyswap on xDai  Last modified   2yr ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Honeyswap  Honeyswap is network of decentralized exchanges which are supported and maintained by the 1Hive community.  Overview  Honeyswap is comprised of liquidity pool contracts deployed to multiple EVM compatible chains which share common frontend interfaces that are maintained by the 1Hive community. Currently Honeyswap supports xDai and Polygon, but plans to expand support to other EVM chains and rollups in the future.  Honeyswap uses a  to manage the balance between  and</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; WingRiders is based on the AMM model so it provides automated trading of assets through decentralized execution of smart contracts. User swap requests are executed completely automatically and there is no need to rely on a trusted third party. The AMM model employs so-called liquidity pools. You can think of a liquidity pool as a collection of two kinds of assets. For example, a collection of tokens A and another collection of tokens B make one liquidity pool. WingRiders does not require&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To allow users to execute trades on the WingRiders exchange, it is necessary to have enough tokens in the pools. In other words, pools need to have sufficient liquidity. Token holders can provide this liquidity to the pools and thus become so-called liquidity providers (LPs). Liquidity providers deposit both types of tokens for a given pool. This means, for example, a liquidity provider needs to deposit ADA coins worth $100 and USDC tokens also worth $100 for a pool with the pair ADA/USDC.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Member-only story  How to use WingRiders on Cardano Main-net  Cardanians.io (CRDNS pool)·Follow  Published inCoinmonks·11 min read·Apr 14, 2022  --  Share  WingRiders is an Automated Market Maker (AMM) decentralized exchange (DEX). The exchange has been launched on the Cardano main-net on 12 April 2022. In this article, we will show you all the important steps to help you use the exchange.  Content  How AMM exchange works  Connecting your wallet  Swapping assets  Provision of liquidity</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; ISC License  Copyright 2022 WingRiders  Permission to use, copy, modify, and/or distribute this software for any purpose with or without fee is hereby granted, provided that the above copyright notice and this permission notice appear in all copies.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS" AND THE AUTHOR DISCLAIMS ALL WARRANTIES WITH REGARD TO THIS SOFTWARE INCLUDING ALL IMPLIED WARRANTIES OF MERCHANTABILITY AND FITNESS. IN NO EVENT SHALL THE AUTHOR BE LIABLE FOR ANY SPECIAL, DIRECT, INDIRECT, OR CONSEQUENTIAL DAMAGES OR ANY DAMAGES WHATSOEVER RESULTING FROM LOSS OF USE, DATA OR PROFITS, WHETHER IN AN ACTION OF CONTRACT, NEGLIGENCE OR OTHER TORTIOUS ACTION, ARISING OUT OF OR IN CONNECTION WITH THE USE OR PERFORMANCE OF THIS SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>WingRiders DEX</t>
+          <t>Dfyn Network</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; WingRiders is based on the AMM model so it provides automated trading of assets through decentralized execution of smart contracts. User swap requests are executed completely automatically and there is no need to rely on a trusted third party. The AMM model employs so-called liquidity pools. You can think of a liquidity pool as a collection of two kinds of assets. For example, a collection of tokens A and another collection of tokens B make one liquidity pool. WingRiders does not require&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To allow users to execute trades on the WingRiders exchange, it is necessary to have enough tokens in the pools. In other words, pools need to have sufficient liquidity. Token holders can provide this liquidity to the pools and thus become so-called liquidity providers (LPs). Liquidity providers deposit both types of tokens for a given pool. This means, for example, a liquidity provider needs to deposit ADA coins worth $100 and USDC tokens also worth $100 for a pool with the pair ADA/USDC.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Member-only story  How to use WingRiders on Cardano Main-net  Cardanians.io (CRDNS pool)·Follow  Published inCoinmonks·11 min read·Apr 14, 2022  --  Share  WingRiders is an Automated Market Maker (AMM) decentralized exchange (DEX). The exchange has been launched on the Cardano main-net on 12 April 2022. In this article, we will show you all the important steps to help you use the exchange.  Content  How AMM exchange works  Connecting your wallet  Swapping assets  Provision of liquidity</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity with Unified Pools  Dfyn is also coming with AMM based on concentrated liquidity. Our thesis is that Dfyn, by leveraging the power of concentrated liquidity pools and RFQ orders, will be able to give users a superior trading experience.  Most AMMs followed the XYK model, based on the x*y=k price curve. In which liquidity was distributed evenly, one could trade their assets within the infinite interval (0∞).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; There are different models of concentrated liquidity. One is creating different pools for different tiers, and the other is having one pool but a dynamic fee based on market conditions. In Dfyn, we are going with one pool model with a variable fee structure instead of a separate pool because of the following reasons:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Dfyn Signal  A multi-chain compatible smart trade finding engine capable of finding the best trade for the user by comparing different token paths &amp; different protocols like Dfyn v1, v2, hRFQ &amp; other external Dexes with minimal slippage.  Our USP  re-dfyn' ing trading for web3.0  Advanced AMM  Our AMM is designed in a very capital-efficient manner, catering to both expert traders and retail users - no matter the size of the trade, Dfyn fulfills it at competitive prices with minimal slippage.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; ISC License  Copyright 2022 WingRiders  Permission to use, copy, modify, and/or distribute this software for any purpose with or without fee is hereby granted, provided that the above copyright notice and this permission notice appear in all copies.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS" AND THE AUTHOR DISCLAIMS ALL WARRANTIES WITH REGARD TO THIS SOFTWARE INCLUDING ALL IMPLIED WARRANTIES OF MERCHANTABILITY AND FITNESS. IN NO EVENT SHALL THE AUTHOR BE LIABLE FOR ANY SPECIAL, DIRECT, INDIRECT, OR CONSEQUENTIAL DAMAGES OR ANY DAMAGES WHATSOEVER RESULTING FROM LOSS OF USE, DATA OR PROFITS, WHETHER IN AN ACTION OF CONTRACT, NEGLIGENCE OR OTHER TORTIOUS ACTION, ARISING OUT OF OR IN CONNECTION WITH THE USE OR PERFORMANCE OF THIS SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Dfyn Network</t>
+          <t>Swop.fi</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity with Unified Pools  Dfyn is also coming with AMM based on concentrated liquidity. Our thesis is that Dfyn, by leveraging the power of concentrated liquidity pools and RFQ orders, will be able to give users a superior trading experience.  Most AMMs followed the XYK model, based on the x*y=k price curve. In which liquidity was distributed evenly, one could trade their assets within the infinite interval (0∞).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; There are different models of concentrated liquidity. One is creating different pools for different tiers, and the other is having one pool but a dynamic fee based on market conditions. In Dfyn, we are going with one pool model with a variable fee structure instead of a separate pool because of the following reasons:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Dfyn Signal  A multi-chain compatible smart trade finding engine capable of finding the best trade for the user by comparing different token paths &amp; different protocols like Dfyn v1, v2, hRFQ &amp; other external Dexes with minimal slippage.  Our USP  re-dfyn' ing trading for web3.0  Advanced AMM  Our AMM is designed in a very capital-efficient manner, catering to both expert traders and retail users - no matter the size of the trade, Dfyn fulfills it at competitive prices with minimal slippage.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Swop.fi operates on the AMM model. What is the difference between a traditional order-book exchange and an AMM?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Swop.fi explained  Swop.fi·Follow  Published inSwop.fi·8 min read·Mar 1, 2021  --  Listen  Share  In this article, we are offering your answers to the most interesting questions about Swop.fi asked at recent AMA sessions.  What is the listing process and strategy of Swop.fi to attract more liquidity? What are the criteria for a project to be listed on Swop.fi, and how does Swop.fi choose projects to be listed to compete with other AMM DEXes?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; On an AMM, a user gets better liquidity in exchange for no longer being able to pre-determine the price of their bid. Meanwhile, liquidity providers have an incentive to deposit their coins in a pool and collect rewards.  As a result, AMMs offer a more efficient and financially attractive model that works for anyone, small and big traders alike.  Does Swop.fi offer lower fees and higher speed compared to platforms running on Ethereum?</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2504,190 +2504,190 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Swop.fi</t>
+          <t>BabySwap</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Swop.fi operates on the AMM model. What is the difference between a traditional order-book exchange and an AMM?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Swop.fi explained  Swop.fi·Follow  Published inSwop.fi·8 min read·Mar 1, 2021  --  Listen  Share  In this article, we are offering your answers to the most interesting questions about Swop.fi asked at recent AMA sessions.  What is the listing process and strategy of Swop.fi to attract more liquidity? What are the criteria for a project to be listed on Swop.fi, and how does Swop.fi choose projects to be listed to compete with other AMM DEXes?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; On an AMM, a user gets better liquidity in exchange for no longer being able to pre-determine the price of their bid. Meanwhile, liquidity providers have an incentive to deposit their coins in a pool and collect rewards.  As a result, AMMs offer a more efficient and financially attractive model that works for anyone, small and big traders alike.  Does Swop.fi offer lower fees and higher speed compared to platforms running on Ethereum?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You can also redeem your funds at any time by removing your liquidity.  Providing liquidity is not without risk, as you may be exposed to impermanent loss.  It’s not all bad for liquidity providers as you will also be given a reward in the form of trading fees. For example, whenever someone trades BabySwap, the trader pays a 0.3% fee, of which 0.15% is added to the liquidity pool of the swap pair they traded on.  For example:  10 LP tokens are representing 10 BABY and 10 USDT tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Not sure if you understand, so let’s have a technically speaking:  Daycare is also called ILO — Initial Liquidity Offering, where you add your altcoin’s liquidity to BabySwap for 24 hours to become a liquidity provider. You will get BABY in return after ILO.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Morioh.cls-1{fill:#6366f1;}.cls-2{mask:url(#mask);}.cls-3{mask:url(#mask-2);}.cls-4{mask:url(#mask-3);}.cls-5{mask:url(#mask-4);}.cls-6{filter:url(#luminosity-noclip-4);}.cls-7{filter:url(#luminosity-noclip-3);}.cls-8{filter:url(#luminosity-noclip-2);}.cls-9{filter:url(#luminosity-noclip);}  Login  FeedPopularRecentsVideosQuestionsMessagesTopicsListsGroupsMarketplaceJobs          Crypto Like  2 years ago  Open options  What is BabySwap (BABY) | What is BabySwap token | What is BABY token</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BabySwap</t>
+          <t>WX Network</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You can also redeem your funds at any time by removing your liquidity.  Providing liquidity is not without risk, as you may be exposed to impermanent loss.  It’s not all bad for liquidity providers as you will also be given a reward in the form of trading fees. For example, whenever someone trades BabySwap, the trader pays a 0.3% fee, of which 0.15% is added to the liquidity pool of the swap pair they traded on.  For example:  10 LP tokens are representing 10 BABY and 10 USDT tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Not sure if you understand, so let’s have a technically speaking:  Daycare is also called ILO — Initial Liquidity Offering, where you add your altcoin’s liquidity to BabySwap for 24 hours to become a liquidity provider. You will get BABY in return after ILO.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Morioh.cls-1{fill:#6366f1;}.cls-2{mask:url(#mask);}.cls-3{mask:url(#mask-2);}.cls-4{mask:url(#mask-3);}.cls-5{mask:url(#mask-4);}.cls-6{filter:url(#luminosity-noclip-4);}.cls-7{filter:url(#luminosity-noclip-3);}.cls-8{filter:url(#luminosity-noclip-2);}.cls-9{filter:url(#luminosity-noclip);}  Login  FeedPopularRecentsVideosQuestionsMessagesTopicsListsGroupsMarketplaceJobs          Crypto Like  2 years ago  Open options  What is BabySwap (BABY) | What is BabySwap token | What is BABY token</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the benefits of using liquidity pools.&lt;br&gt;Possible answers:&lt;br&gt;  - Increased liquidity&lt;br&gt;  - Reduced slippage&lt;br&gt;  - Reduced volatility&lt;br&gt;  - Lower trading fees&lt;br&gt;  - Faster transactions&lt;br&gt;  - Improved price discovery&lt;br&gt;  - Other (If the answer is not one of the above)&lt;br&gt;  - Cannot determine (if you can't find the answer)&lt;br&gt;&lt;br&gt;Just answer using a name from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "Lower trading fees"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; A liquidity pool is a smart contract with a pair of tokens on its balance (for example, WX / WAVES), that provides liquidity for WX Network decentralized trading. The liquidity pools facilitate and speed up the trading process by means of AMM (Automated Market Making). The AMM algorithm automatically places orders by using pools liquidity. AMM controls the proportion of tokens in each pool depending on the price change.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; # About Liquidity Pools  WX Network liquidity pools is an investment product that allows users to receive passive income for investing tokens in the pools that provide liquidity for smoother trading on WX Network.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity pools service employs smart contract  (opens new window) technology. Tokens invested in the pools are used by automatic trading algorithms to stabilize the prices of the corresponding token pairs on WX Network. The more liquidity is in the pools, the less the exchange load affects the prices. The service is based on the Waves blockchain that provides high transaction speed and low network fees.  Liquidity Pools APY consists of the following:</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2017 23hp  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>WX Network</t>
+          <t>SaitaSwap</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the benefits of using liquidity pools.&lt;br&gt;Possible answers:&lt;br&gt;  - Increased liquidity&lt;br&gt;  - Reduced slippage&lt;br&gt;  - Reduced volatility&lt;br&gt;  - Lower trading fees&lt;br&gt;  - Faster transactions&lt;br&gt;  - Improved price discovery&lt;br&gt;  - Other (If the answer is not one of the above)&lt;br&gt;  - Cannot determine (if you can't find the answer)&lt;br&gt;&lt;br&gt;Just answer using a name from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "Lower trading fees"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; A liquidity pool is a smart contract with a pair of tokens on its balance (for example, WX / WAVES), that provides liquidity for WX Network decentralized trading. The liquidity pools facilitate and speed up the trading process by means of AMM (Automated Market Making). The AMM algorithm automatically places orders by using pools liquidity. AMM controls the proportion of tokens in each pool depending on the price change.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; # About Liquidity Pools  WX Network liquidity pools is an investment product that allows users to receive passive income for investing tokens in the pools that provide liquidity for smoother trading on WX Network.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity pools service employs smart contract  (opens new window) technology. Tokens invested in the pools are used by automatic trading algorithms to stabilize the prices of the corresponding token pairs on WX Network. The more liquidity is in the pools, the less the exchange load affects the prices. The service is based on the Waves blockchain that provides high transaction speed and low network fees.  Liquidity Pools APY consists of the following:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is shibaswap SSLP?By digging SHIB, Leash and Bone, you receive your token back as a ShibaSwap Liquidity Protocol (SSLP) version of the asset. In digging SHIB, your SHIB temporarily swaps out for SHIB SSLP. SHIB SSLP is a sort of placeholder token which you will then trade back for your SHIB when you want to un-dig it.  Popular futures  Recommended  New Listings: KAS, IQ, MBL, TT, and SC USDT-Margined Perpetual Futures&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What is quickswap (quick)?QuickSwap’s cryptocurrency is called QUICK. You can easily buy and sell it on Binance. You can also swap other tokens for QUICK using QuickSwap’s liquidity pools. Automated Market Makers (AMM) like QuickSwap are hugely popular in Decentralized Finance (DeFi).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; saitaswap  crypto futures  bitcoin futures  ethereum futures  cardano futures  litecoin futures  What is saitaswap?What is Saitaswap is a decentralized exchange (DEX) on the BSC network that employs an automated market maker market cap mechanism to facilitate trading fee token swaps. It was launched in September 2020 by a bunch of anonymous developers.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2017 23hp  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SaitaSwap</t>
+          <t>SundaeSwap</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is shibaswap SSLP?By digging SHIB, Leash and Bone, you receive your token back as a ShibaSwap Liquidity Protocol (SSLP) version of the asset. In digging SHIB, your SHIB temporarily swaps out for SHIB SSLP. SHIB SSLP is a sort of placeholder token which you will then trade back for your SHIB when you want to un-dig it.  Popular futures  Recommended  New Listings: KAS, IQ, MBL, TT, and SC USDT-Margined Perpetual Futures&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What is quickswap (quick)?QuickSwap’s cryptocurrency is called QUICK. You can easily buy and sell it on Binance. You can also swap other tokens for QUICK using QuickSwap’s liquidity pools. Automated Market Makers (AMM) like QuickSwap are hugely popular in Decentralized Finance (DeFi).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; saitaswap  crypto futures  bitcoin futures  ethereum futures  cardano futures  litecoin futures  What is saitaswap?What is Saitaswap is a decentralized exchange (DEX) on the BSC network that employs an automated market maker market cap mechanism to facilitate trading fee token swaps. It was launched in September 2020 by a bunch of anonymous developers.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Written by Artem Wright Updated over a week ago  A decentralized exchange is only as healthy as its liquidity, and maintaining the long-term health of the SundaeSwap DEX is a top priority. Because the initial contributors to the protocol chose an AMM (Automated Market Maker) model, the DEX is able to use yield farming to incentivize and reward stability in its liquidity pools.  In order to participate in yield farming, liquidity MUST be provided to one of the following 4 pools:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Written by Artem Wright Updated over a week ago  Liquidity pools are critical to the function of AMM-based DEXs like the SundaeSwap DEX, where trades (swaps) don’t happen between two parties, but between an individual party and the liquidity pool that hold the tokens the individual wishes to trade.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Go to SundaeSwap Labs, Inc.  Go to SundaeSwap Labs, Inc.  All Collections  Yield Farming  DeFi Education  What are liquidity pools?  Learn more about the backbone of a decentralized exchange: liquidity pools.  Written by Artem Wright Updated over a week ago</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; of the License, and in such case Affirmer hereby affirms that he or she will not (i) exercise any of his or her remaining Copyright and Related Rights in the Work or (ii) assert any associated claims and causes of action with respect to the Work, in either case contrary to Affirmer's express Statement of Purpose.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; person a royalty-free, non transferable, non sublicensable, non exclusive, irrevocable and unconditional license to exercise Affirmer's Copyright and Related Rights in the Work (i) in all territories worldwide, (ii) for the maximum duration provided by applicable law or treaty (including future time extensions), (iii) in any current or future medium and for any number of copies, and (iv) for any purpose whatsoever, including without&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; of copies, and (iv) for any purpose whatsoever, including without limitation commercial, advertising or promotional purposes (the "License"). The License shall be deemed effective as of the date CC0 was applied by Affirmer to the Work. Should any part of the License for any reason be judged legally invalid or ineffective under applicable law, such partial invalidity or ineffectiveness shall not invalidate the remainder of the License, and in such case Affirmer hereby affirms that he or she</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SundaeSwap</t>
+          <t>VyFinance</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Written by Artem Wright Updated over a week ago  A decentralized exchange is only as healthy as its liquidity, and maintaining the long-term health of the SundaeSwap DEX is a top priority. Because the initial contributors to the protocol chose an AMM (Automated Market Maker) model, the DEX is able to use yield farming to incentivize and reward stability in its liquidity pools.  In order to participate in yield farming, liquidity MUST be provided to one of the following 4 pools:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Written by Artem Wright Updated over a week ago  Liquidity pools are critical to the function of AMM-based DEXs like the SundaeSwap DEX, where trades (swaps) don’t happen between two parties, but between an individual party and the liquidity pool that hold the tokens the individual wishes to trade.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Go to SundaeSwap Labs, Inc.  Go to SundaeSwap Labs, Inc.  All Collections  Yield Farming  DeFi Education  What are liquidity pools?  Learn more about the backbone of a decentralized exchange: liquidity pools.  Written by Artem Wright Updated over a week ago</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; VyFi’s main function is its Novel Neural Net Auto Harvester; which enables staking strategies based on returns versus risk parameters in order to deploy the funds across multiple Liquidity Pools to rationalize the difficulties of entering with minimum-maximum range to these pools. This simplification helps users to deposit or withdraw a single token, without giving more time to analyze risk, the rest of it works as usual in the DeFi model. Let’s take a look at product design:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Phase One — A Native Auto-Harvester allows access to strategies that are implemented ONLY on the platform itself. An example of this would be an Auto-Harvester on VyFinance that only provides liquidity to VyFinance. This system would allow users to automate compound strategies on our DEx, with a single transaction. As an example, if we had an AH that specialises in DEx tokens (25% WRT, 25% MIN, 25% MILK, 25% VYFI), the native AH would farm all four of these tokens on the VyFinance DEx.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The platform charges a fee, and liquidity pools incur a fee of 0.3%. Out of this fee, 0.2% gets distributed among liquidity providers, incentivizing them to contribute to maintaining liquidity on the platform.  As per its whitepaper, VyFinanace facilitates user-friendly staking and DEX services that will not haunt away newbies.  How does VyFi work?</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; of the License, and in such case Affirmer hereby affirms that he or she will not (i) exercise any of his or her remaining Copyright and Related Rights in the Work or (ii) assert any associated claims and causes of action with respect to the Work, in either case contrary to Affirmer's express Statement of Purpose.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; person a royalty-free, non transferable, non sublicensable, non exclusive, irrevocable and unconditional license to exercise Affirmer's Copyright and Related Rights in the Work (i) in all territories worldwide, (ii) for the maximum duration provided by applicable law or treaty (including future time extensions), (iii) in any current or future medium and for any number of copies, and (iv) for any purpose whatsoever, including without&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; of copies, and (iv) for any purpose whatsoever, including without limitation commercial, advertising or promotional purposes (the "License"). The License shall be deemed effective as of the date CC0 was applied by Affirmer to the Work. Should any part of the License for any reason be judged legally invalid or ineffective under applicable law, such partial invalidity or ineffectiveness shall not invalidate the remainder of the License, and in such case Affirmer hereby affirms that he or she</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>VyFinance</t>
+          <t>Verse</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; VyFi’s main function is its Novel Neural Net Auto Harvester; which enables staking strategies based on returns versus risk parameters in order to deploy the funds across multiple Liquidity Pools to rationalize the difficulties of entering with minimum-maximum range to these pools. This simplification helps users to deposit or withdraw a single token, without giving more time to analyze risk, the rest of it works as usual in the DeFi model. Let’s take a look at product design:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Phase One — A Native Auto-Harvester allows access to strategies that are implemented ONLY on the platform itself. An example of this would be an Auto-Harvester on VyFinance that only provides liquidity to VyFinance. This system would allow users to automate compound strategies on our DEx, with a single transaction. As an example, if we had an AH that specialises in DEx tokens (25% WRT, 25% MIN, 25% MILK, 25% VYFI), the native AH would farm all four of these tokens on the VyFinance DEx.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The platform charges a fee, and liquidity pools incur a fee of 0.3%. Out of this fee, 0.2% gets distributed among liquidity providers, incentivizing them to contribute to maintaining liquidity on the platform.  As per its whitepaper, VyFinanace facilitates user-friendly staking and DEX services that will not haunt away newbies.  How does VyFi work?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; White paper  Verse DEX  Get app  VERSE is the reward and utility token for the Bitcoin.com ecosystem  VERSE aims at solving crypto's biggest challenge: onboarding new users to self-custodial and decentralized tools. We believe that the custodial model goes against the core principles of crypto by restricting economic freedom and exposing people to systemic counterparty risks.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Verse DEX in detail  Trading  Earning by providing liquidity  Earning by depositing into Farms  Creating a new trading pair  Monitoring analytics  Cross-chain swaps  Buy as little as $30 worth to get startedBuy nowChoose from Bitcoin, Bitcoin Cash, Ethereum, and more  Related guides  Start from here →  What is Verse?  Learn about Bitcoin.com’s official token, ways to earn it, and how to use it in the Bitcoin.com ecosystem and beyond.  Read this article →&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Download  What is Verse DEX?  Verse DEX is Bitcoin.com’s official  decentralized exchange. It provides anyone in the world a secure way to permissionlessly swap cryptocurrencies without having to rely on third-party custodians. You can also earn yield by providing liquidity to the Verse DEX and by depositing liquidity pool (LP) tokens into Verse Farms.  Table of Contents  What is a DEX?  Verse DEX in detail  Trading  Earning by providing liquidity  Earning by depositing into Farms</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Anjany Kumar Sekuboyina  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Verse</t>
+          <t>WigoSwap</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; White paper  Verse DEX  Get app  VERSE is the reward and utility token for the Bitcoin.com ecosystem  VERSE aims at solving crypto's biggest challenge: onboarding new users to self-custodial and decentralized tools. We believe that the custodial model goes against the core principles of crypto by restricting economic freedom and exposing people to systemic counterparty risks.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Verse DEX in detail  Trading  Earning by providing liquidity  Earning by depositing into Farms  Creating a new trading pair  Monitoring analytics  Cross-chain swaps  Buy as little as $30 worth to get startedBuy nowChoose from Bitcoin, Bitcoin Cash, Ethereum, and more  Related guides  Start from here →  What is Verse?  Learn about Bitcoin.com’s official token, ways to earn it, and how to use it in the Bitcoin.com ecosystem and beyond.  Read this article →&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Download  What is Verse DEX?  Verse DEX is Bitcoin.com’s official  decentralized exchange. It provides anyone in the world a secure way to permissionlessly swap cryptocurrencies without having to rely on third-party custodians. You can also earn yield by providing liquidity to the Verse DEX and by depositing liquidity pool (LP) tokens into Verse Farms.  Table of Contents  What is a DEX?  Verse DEX in detail  Trading  Earning by providing liquidity  Earning by depositing into Farms</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 13- Following the confirmation, you are able to view the your added liquidity on  Liquidity  page.  14- Now you have Wigo-LP token that in turn can be staked in the  Wigo Farms  for gaining WIGO tokens as reward.  How to Remove Liquidity:  1- Open the  Liquidity  page.  2- Select the token pair from which you decide to remove the liquidity and then click on the Remove Liquidity button.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; How to Add/Remove Liquidity  Liquidity plays a pivotal role in WigoSwap’s Decentralized Exchange. In order to add liquidity for a particular token pair, you only have to stake the tokens in the platform. Once you add liquidity, you start obtaining rewards in the form of the trading fees generated for that certain token pair you’ve staked. Furthermore, you receive Wigo-LP tokens that in turn can be staked in the Farms for gaining WIGO tokens.  How to Add Liquidity:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 12- Confirm the transaction through your wallet.  13- Adding Wigo-LP tokens to your wallet is optional and you can do this step at any time. If you are using MetaMask, just click on the Add Wigo-LP to Metamask button. If you have other wallets such as TrustWallet, you can add Wigo-LP token to your wallet as a custom token by  Wigo-LP contract address  13- Following the confirmation, you are able to view the your added liquidity on  Liquidity  page.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Anjany Kumar Sekuboyina  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2021 Wigoswap  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>WigoSwap</t>
+          <t>Polkaswap</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 13- Following the confirmation, you are able to view the your added liquidity on  Liquidity  page.  14- Now you have Wigo-LP token that in turn can be staked in the  Wigo Farms  for gaining WIGO tokens as reward.  How to Remove Liquidity:  1- Open the  Liquidity  page.  2- Select the token pair from which you decide to remove the liquidity and then click on the Remove Liquidity button.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; How to Add/Remove Liquidity  Liquidity plays a pivotal role in WigoSwap’s Decentralized Exchange. In order to add liquidity for a particular token pair, you only have to stake the tokens in the platform. Once you add liquidity, you start obtaining rewards in the form of the trading fees generated for that certain token pair you’ve staked. Furthermore, you receive Wigo-LP tokens that in turn can be staked in the Farms for gaining WIGO tokens.  How to Add Liquidity:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 12- Confirm the transaction through your wallet.  13- Adding Wigo-LP tokens to your wallet is optional and you can do this step at any time. If you are using MetaMask, just click on the Add Wigo-LP to Metamask button. If you have other wallets such as TrustWallet, you can add Wigo-LP token to your wallet as a custom token by  Wigo-LP contract address  13- Following the confirmation, you are able to view the your added liquidity on  Liquidity  page.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Thanks to Polkaswap’s unique AMM characteristics, providing liquidity is very simple and rewarding. Liquidity providers are given 0.3% of the value of every trade as transaction fees. Additionally 2.5 million PSWAP are allocated daily as a special strategic reward to liquidity providers that provide at least 1 XOR of liquidity in a pool. Liquidity provided in XOR-ETH, XOR-DAI, XOR-VAL, and XOR-PSWAP pools are entitled to double rewards for this special bonus!  Let’s dive in!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Conclusion  Polkaswap makes it simple and intuitive to trade and pool with style and freedom! And in case you are unsure about what you are doing, you can hover your cursor over the shaded i icon for a quick explanation on the option you have selected. You can also join the Polkaswap Telegram community where we will be happy to help you.  If you need more information on how to pool or have issues connecting your wallet, check out the Wiki article on adding and checking liquidity on Polkaswap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Observers.com·Follow  Published inBlockchain Biz·2 min read·Apr 4  --  Listen  Share  The team behind decentralized exchange Polkaswap introduced a new model to boost the liquidity of smaller, startup project tokens. In a blog post published last month, they proposed to financially match any amount of native tokens that such projects invest in Polkaswap liquidity pools. Polkaspaw team believes that this will help builders to bootstrap their projects and reach new users.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2021 Wigoswap  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Polkaswap</t>
+          <t>Equalizer</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Thanks to Polkaswap’s unique AMM characteristics, providing liquidity is very simple and rewarding. Liquidity providers are given 0.3% of the value of every trade as transaction fees. Additionally 2.5 million PSWAP are allocated daily as a special strategic reward to liquidity providers that provide at least 1 XOR of liquidity in a pool. Liquidity provided in XOR-ETH, XOR-DAI, XOR-VAL, and XOR-PSWAP pools are entitled to double rewards for this special bonus!  Let’s dive in!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Conclusion  Polkaswap makes it simple and intuitive to trade and pool with style and freedom! And in case you are unsure about what you are doing, you can hover your cursor over the shaded i icon for a quick explanation on the option you have selected. You can also join the Polkaswap Telegram community where we will be happy to help you.  If you need more information on how to pool or have issues connecting your wallet, check out the Wiki article on adding and checking liquidity on Polkaswap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Observers.com·Follow  Published inBlockchain Biz·2 min read·Apr 4  --  Listen  Share  The team behind decentralized exchange Polkaswap introduced a new model to boost the liquidity of smaller, startup project tokens. In a blog post published last month, they proposed to financially match any amount of native tokens that such projects invest in Polkaswap liquidity pools. Polkaspaw team believes that this will help builders to bootstrap their projects and reach new users.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Most of the AMM's in the market use a similar fee amount to reward Liquidity Providers. From our detailed research, we have found that this fee is necessary to sustain a healthy environment for attracting liquidity. One should not focus only on the fee amount, but the efficiency of the trade that they can complete on the AMM. For this reason, the Equalizer model is the first of its kind to create a sustainable dex that supports the equilibrium required to maintain an effective balance to LP&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools  Equalizer is an AMM which uses the traditional liquidity pool system to create tradable pairs. The system we have deployed is, in our opinion, an improvement on the uniswap system that uses fees to incentivize these pools. Instead, we use a continuous loop system to utilise tokens tied to the fees to incentivize our system. This system creates an equalized situation which can allow for token utility and growth.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In the rapidly evolving world of DeFi, liquidity is a key driver of success, and finding the right balance between short-term and long-term incentives remains a challenge. Equalizer on Fantom stands out as a Solidly fork that is built with a focus on retail investors and accessibility in mind. By reimagining ve(3,3) model and addressing its limitations, Equalizer introduces unique improvements to enhance liquidity retention. Time will tell how the ve(3,3) model evolves but for now, it surely</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and   may provide additional or different license terms and conditions   for use, reproduction, or distribution of Your modifications, or   for any such Derivative Works as a whole, provided Your use,   reproduction, and distribution of the Work otherwise complies with   the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS  APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following   boilerplate notice, with the fields enclosed by brackets "[]"   replaced with your own identifying information. (Don't include   the brackets!)  The text should be enclosed in the appropriate   comment syntax for the file format. We also recommend that a   file or class name and description of purpose be included on the   same "printed page" as the copyright notice for easier   identification within third-party archives.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Equalizer</t>
+          <t>FlatQube Exchange</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Most of the AMM's in the market use a similar fee amount to reward Liquidity Providers. From our detailed research, we have found that this fee is necessary to sustain a healthy environment for attracting liquidity. One should not focus only on the fee amount, but the efficiency of the trade that they can complete on the AMM. For this reason, the Equalizer model is the first of its kind to create a sustainable dex that supports the equilibrium required to maintain an effective balance to LP&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools  Equalizer is an AMM which uses the traditional liquidity pool system to create tradable pairs. The system we have deployed is, in our opinion, an improvement on the uniswap system that uses fees to incentivize these pools. Instead, we use a continuous loop system to utilise tokens tied to the fees to incentivize our system. This system creates an equalized situation which can allow for token utility and growth.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In the rapidly evolving world of DeFi, liquidity is a key driver of success, and finding the right balance between short-term and long-term incentives remains a challenge. Equalizer on Fantom stands out as a Solidly fork that is built with a focus on retail investors and accessibility in mind. By reimagining ve(3,3) model and addressing its limitations, Equalizer introduces unique improvements to enhance liquidity retention. Time will tell how the ve(3,3) model evolves but for now, it surely</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; liquidity protocol inspired by the leading market solutions. It is based on a constant product formula and offers a non-custodial, decentralized, censorship-resistant and secure way to provide liquidity and exchange pairs of tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; TangoSwap+ + + + Trade, launch, stake, farm, invest, automate, build on the premier DeFi platform of smartBCH. Tango, Moves like Cash. Trade without borders instantly. Fully open-source. 5 second block times, low fees, truly decentralized. Be your own bank. Focus on gaining highest marketshare and providing best...+ + + + See Software  FlatQube Frequently Asked Questions  Q: What kinds of users and organization types does FlatQube work with?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; FlatQube DEX, developed by Broxus, is a decentralized digital asset exchange providing users with a convenient means of exchanging their cryptocurrency. The DEX also provides users with plenty of passive income options through its farming and staking mechanisms. Its underlying network, Everscale, is making decentralized finance (DeFi) an affordable yet inclusive space for all. FlatQube is an automated liquidity protocol inspired by the leading market solutions. It is based on a constant product</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and   may provide additional or different license terms and conditions   for use, reproduction, or distribution of Your modifications, or   for any such Derivative Works as a whole, provided Your use,   reproduction, and distribution of the Work otherwise complies with   the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS  APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following   boilerplate notice, with the fields enclosed by brackets "[]"   replaced with your own identifying information. (Don't include   the brackets!)  The text should be enclosed in the appropriate   comment syntax for the file format. We also recommend that a   file or class name and description of purpose be included on the   same "printed page" as the copyright notice for easier   identification within third-party archives.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>FlatQube Exchange</t>
+          <t>Kava Swap</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; liquidity protocol inspired by the leading market solutions. It is based on a constant product formula and offers a non-custodial, decentralized, censorship-resistant and secure way to provide liquidity and exchange pairs of tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; TangoSwap- - - - Trade, launch, stake, farm, invest, automate, build on the premier DeFi platform of smartBCH. Tango, Moves like Cash. Trade without borders instantly. Fully open-source. 5 second block times, low fees, truly decentralized. Be your own bank. Focus on gaining highest marketshare and providing best...- - - - See Software  FlatQube Frequently Asked Questions  Q: What kinds of users and organization types does FlatQube work with?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; FlatQube DEX, developed by Broxus, is a decentralized digital asset exchange providing users with a convenient means of exchanging their cryptocurrency. The DEX also provides users with plenty of passive income options through its farming and staking mechanisms. Its underlying network, Everscale, is making decentralized finance (DeFi) an affordable yet inclusive space for all. FlatQube is an automated liquidity protocol inspired by the leading market solutions. It is based on a constant product</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Kava Swap is a cross-chain Autonomous Market Making (AMM) protocol designed to provide an efficient and safe way to swap natively between the world’s largest assets. The new protocol is built on the Kava Platform™ and is backed by low fees, high efficiency, and the ability to generate strong returns for liquidity providers. Kava Swap gives both retail and institutional users access to the over $1 billion of on-chain liquidity on the Kava ecosystem to efficiently trade assets, extend earning&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Kava Swap is the third protocol built on the Kava Platform and is an open and permissionless application accessible by anyone, anytime, anywhere in the world. It joins Kava Mint™, which allows users to take out USDX stablecoin loans using their assets as collateral, and Kava Lend™, which allows users to earn rewards by supplying and borrowing assets from money markets. All three protocols come complete with interoperable cross-chain tooling, secure price feeds and institutional-grade safety and&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Introducing Kava Swap - The safest way to grow your cryptocurrency holdings. Kava Swap is a cross-chain Autonomous Market Making (AMM) application designed to provide an efficient and safe way to swap natively between the world’s largest cryptocurrency assets. The new protocol is built on the Kava Platform™ and is backed by low fees, high efficiency, and the ability to generate strong returns for liquidity providers. Kava Swap gives both retail and institutional users access to the over $1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2699,12 +2699,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Kava Swap</t>
+          <t>ArcherSwap</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Kava Swap is a cross-chain Autonomous Market Making (AMM) protocol designed to provide an efficient and safe way to swap natively between the world’s largest assets. The new protocol is built on the Kava Platform™ and is backed by low fees, high efficiency, and the ability to generate strong returns for liquidity providers. Kava Swap gives both retail and institutional users access to the over $1 billion of on-chain liquidity on the Kava ecosystem to efficiently trade assets, extend earning&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Kava Swap is the third protocol built on the Kava Platform and is an open and permissionless application accessible by anyone, anytime, anywhere in the world. It joins Kava Mint™, which allows users to take out USDX stablecoin loans using their assets as collateral, and Kava Lend™, which allows users to earn rewards by supplying and borrowing assets from money markets. All three protocols come complete with interoperable cross-chain tooling, secure price feeds and institutional-grade safety and&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Introducing Kava Swap - The safest way to grow your cryptocurrency holdings. Kava Swap is a cross-chain Autonomous Market Making (AMM) application designed to provide an efficient and safe way to swap natively between the world’s largest cryptocurrency assets. The new protocol is built on the Kava Platform™ and is backed by low fees, high efficiency, and the ability to generate strong returns for liquidity providers. Kava Swap gives both retail and institutional users access to the over $1</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In addition to the Hold-to-Earn mechanism, the team intends to offer several utilities for 4 Token, including staking nodes, NFT Marketplace and collection, compounding crypto asset vaults, DEX, and more.Â&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; By  BSC News  March 26, 2023  MINS  By  BSC News  CORE  The unique Core-based meme token is already moving fast with a lot of exciting updates including ArcherSwap Launch, Token Burn, and more.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; CalendarFollow the crypto ecosystem with our crypto events calendar.  NFTÂ DropsTrack upcoming NFT drops across all chains with our simple dashboard.  All News  Jobs  Download The BSC News App for  EN  ES  DE  HI  AR  ZH  TR  FR  PT  KO  VI  TL  ID  EN  RU  Search  Advertisement  CORE  PROMO  Ignore FUD Successfully Concludes 4Token FairLaunch on ArcherSwap, Records 2000% Gains  By  BSC News  March 26, 2023  MINS  By  BSC News  CORE</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2716,112 +2716,95 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ArcherSwap</t>
+          <t>DeFi Swap</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In addition to the Hold-to-Earn mechanism, the team intends to offer several utilities for 4 Token, including staking nodes, NFT Marketplace and collection, compounding crypto asset vaults, DEX, and more.Â&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; By  BSC News  March 26, 2023  MINS  By  BSC News  CORE  The unique Core-based meme token is already moving fast with a lot of exciting updates including ArcherSwap Launch, Token Burn, and more.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; CalendarFollow the crypto ecosystem with our crypto events calendar.  NFTÂ DropsTrack upcoming NFT drops across all chains with our simple dashboard.  All News  Jobs  Download The BSC News App for  EN  ES  DE  HI  AR  ZH  TR  FR  PT  KO  VI  TL  ID  EN  RU  Search  Advertisement  CORE  PROMO  Ignore FUD Successfully Concludes 4Token FairLaunch on ArcherSwap, Records 2000% Gains  By  BSC News  March 26, 2023  MINS  By  BSC News  CORE</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Uniswap’s model involved the use of the infamous XYK (X*Y=K) mathematical formulae that the Market-Maker used for calculating the weightage of Liquidity Pools. The idea was to have the contract hold X &amp; Y tokens respectively and consistently maintain the constant that X*Y=K (where K is a given constant). A given Liquidity Pool strictly consisted of 50/50 tokens whereby two tokens (X &amp; Y) were provided by Liquidity Providers at a pre-determined, precarious ratio enforced by smart contracts. The&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Every time LP tokens are burnt, a price adjustment is initiated based on a deterministic algorithm, the Automated Market Maker (AMM). The basic liquidity pool uses a constant commodity market maker algorithm, meaning the amount of two tokens remains constant. On top of that, due to the algorithm, the pool will still be liquid regardless of the volume. The main reason is that the algorithm asymptotically increases the token’s price as the target amount increases.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Solidly used the best of both worlds between Curve &amp; Uniswap. It did this by offering the Uniswap V2 constant product AMM (X*Y=K) for volatile swaps and the Curve AMM (X*Y*Z=K) for stable swaps. This enabled users to come to a single dex for the most efficient trading experience regardless of swap type and created deeper liquidity in a unified protocol — no need.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DeFi Swap</t>
+          <t>mimo.exchange</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Uniswap’s model involved the use of the infamous XYK (X*Y=K) mathematical formulae that the Market-Maker used for calculating the weightage of Liquidity Pools. The idea was to have the contract hold X &amp; Y tokens respectively and consistently maintain the constant that X*Y=K (where K is a given constant). A given Liquidity Pool strictly consisted of 50/50 tokens whereby two tokens (X &amp; Y) were provided by Liquidity Providers at a pre-determined, precarious ratio enforced by smart contracts. The&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Every time LP tokens are burnt, a price adjustment is initiated based on a deterministic algorithm, the Automated Market Maker (AMM). The basic liquidity pool uses a constant commodity market maker algorithm, meaning the amount of two tokens remains constant. On top of that, due to the algorithm, the pool will still be liquid regardless of the volume. The main reason is that the algorithm asymptotically increases the token’s price as the target amount increases.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Solidly used the best of both worlds between Curve &amp; Uniswap. It did this by offering the Uniswap V2 constant product AMM (X*Y=K) for volatile swaps and the Curve AMM (X*Y*Z=K) for stable swaps. This enabled users to come to a single dex for the most efficient trading experience regardless of swap type and created deeper liquidity in a unified protocol — no need.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; So far, we have revealed that mimo will be a DAO governed DEX that integrates a vote escrow model. Most of you are curious to know how PICO is allocated and distributed in order to kick start liquidity on mimo. This initial liquidity will power the flywheel effect that dynamically rebalances reward apportionment among Liquidity Pools. The goal is to achieve optimal sustainable rewards for investors while providing greater stability for mimo and the stakeholders involved. Also in last article,&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MachineFi-powered dApps will have their own tokens with unique utility. You will be able to receive tokens for your real world activities such as walk-to-earn, drive-to-earn, and more. Creating liquidity pools (LP) with mimo’s token PICO will increase liquidity depth while lowering slippage for traders.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; while providing greater stability for mimo and the stakeholders involved. Also in last article, we discussed how mimo is adopting the voting escrow token model to reduce incentives for short-term mercenary mining behavior. In this model, liquidity providers will stake (deposit) their LP tokens to LP pools and earn PICO if its gauge is voted.  An additional yield will be earned by staking PICO, which then creates vePICO. Depending on the staking duration, i.e. how long the PICO has been locked,</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>mimo.exchange</t>
+          <t>Velocore</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; So far, we have revealed that mimo will be a DAO governed DEX that integrates a vote escrow model. Most of you are curious to know how PICO is allocated and distributed in order to kick start liquidity on mimo. This initial liquidity will power the flywheel effect that dynamically rebalances reward apportionment among Liquidity Pools. The goal is to achieve optimal sustainable rewards for investors while providing greater stability for mimo and the stakeholders involved. Also in last article,&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MachineFi-powered dApps will have their own tokens with unique utility. You will be able to receive tokens for your real world activities such as walk-to-earn, drive-to-earn, and more. Creating liquidity pools (LP) with mimo’s token PICO will increase liquidity depth while lowering slippage for traders.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; while providing greater stability for mimo and the stakeholders involved. Also in last article, we discussed how mimo is adopting the voting escrow token model to reduce incentives for short-term mercenary mining behavior. In this model, liquidity providers will stake (deposit) their LP tokens to LP pools and earn PICO if its gauge is voted.  An additional yield will be earned by staking PICO, which then creates vePICO. Depending on the staking duration, i.e. how long the PICO has been locked,</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; After the asset bridging process is completed, you can experience Velocore's Swap or Liquidity functions. Taking Swap as an example, like most DEXs, you can select the token you want to trade by clicking or entering the token symbol or contract address. Currently, Velocore supports 12 trading pairs, including stablecoins. Please note that the current gas fees for trading are similar or even higher than those on the mainnet, which may not be very friendly to individual traders.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What are the unique features of Velocore?  As mentioned above, Velocore adopts a new emission model to ensure fair token distribution. This is because the emission model of Solidly has certain drawbacks. For instance, the $SOLID earned by liquidity providers decreases gradually at a rate of 2% per week. This design was intended to incentivize LPs to participate early, but it also resulted in early participants gaining unfair advantages and being unfriendly to later entrants.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; ETH,  BUSD,  USDC,  VC, IBEX, etc. Velocore provides two different liquidity pool types based on token pair needs, stable pools and variable pools, of which:  Stable pools are designed for assets which have little to no volatility (mainly stablecoins), using the liquidity function x³y + y³x ≥ k. This means that even in large trades, users can still complete transactions at a very low slippage.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; THIS SOFTWARE IS PROVIDED BY THE COPYRIGHT HOLDERS AND CONTRIBUTORS "AS IS" AND ANY EXPRESS OR IMPLIED WARRANTIES, INCLUDING, BUT NOT LIMITED TO, THE IMPLIED WARRANTIES OF MERCHANTABILITY AND FITNESS FOR A PARTICULAR PURPOSE ARE DISCLAIMED. IN NO EVENT SHALL THE COPYRIGHT HOLDER OR CONTRIBUTORS BE LIABLE FOR ANY DIRECT, INDIRECT, INCIDENTAL, SPECIAL, EXEMPLARY, OR CONSEQUENTIAL DAMAGES (INCLUDING, BUT NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; * Redistributions in binary form must reproduce the above copyright notice,   this list of conditions and the following disclaimer in the documentation   and/or other materials provided with the distribution.  * Neither the name of the copyright holder nor the names of its   contributors may be used to endorse or promote products derived from   this software without specific prior written permission.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; DAMAGES (INCLUDING, BUT NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR SERVICES; LOSS OF USE, DATA, OR PROFITS; OR BUSINESS INTERRUPTION) HOWEVER CAUSED AND ON ANY THEORY OF LIABILITY, WHETHER IN CONTRACT, STRICT LIABILITY, OR TORT (INCLUDING NEGLIGENCE OR OTHERWISE) ARISING IN ANY WAY OUT OF THE USE OF THIS SOFTWARE, EVEN IF ADVISED OF THE POSSIBILITY OF SUCH DAMAGE.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Velocore</t>
+          <t>DeFi Kingdoms</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; After the asset bridging process is completed, you can experience Velocore's Swap or Liquidity functions. Taking Swap as an example, like most DEXs, you can select the token you want to trade by clicking or entering the token symbol or contract address. Currently, Velocore supports 12 trading pairs, including stablecoins. Please note that the current gas fees for trading are similar or even higher than those on the mainnet, which may not be very friendly to individual traders.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What are the unique features of Velocore?  As mentioned above, Velocore adopts a new emission model to ensure fair token distribution. This is because the emission model of Solidly has certain drawbacks. For instance, the $SOLID earned by liquidity providers decreases gradually at a rate of 2% per week. This design was intended to incentivize LPs to participate early, but it also resulted in early participants gaining unfair advantages and being unfriendly to later entrants.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; ETH,  BUSD,  USDC,  VC, IBEX, etc. Velocore provides two different liquidity pool types based on token pair needs, stable pools and variable pools, of which:  Stable pools are designed for assets which have little to no volatility (mainly stablecoins), using the liquidity function x³y + y³x ≥ k. This means that even in large trades, users can still complete transactions at a very low slippage.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;"CPMM"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Rewards for Providing Liquidity in DeFi Kingdoms&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Complexity and higher barrier of entry for new users.  Need for liquidity.  In DeFi Kingdoms, the DEX is built into the game layer. For example, on Harmony, the DEX can be accessed via the Trader in the Marketplace.  What are Liquidity Pools?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; DeFi Kingdoms Gardens (Liquidity Pools)  DeFi Kingdoms·Follow  Published inDeFi Kingdoms Official·9 min read·Mar 29, 2022  --  Listen  Share  Let’s talk about liquidity pools, how they relate to decentralized exchanges (like those built into DeFi Kingdoms) and how you can earn yield by staking tokens in liquidity pools in the DeFi Kingdoms Gardens!  Decentralized Exchanges and How They Work</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; THIS SOFTWARE IS PROVIDED BY THE COPYRIGHT HOLDERS AND CONTRIBUTORS "AS IS" AND ANY EXPRESS OR IMPLIED WARRANTIES, INCLUDING, BUT NOT LIMITED TO, THE IMPLIED WARRANTIES OF MERCHANTABILITY AND FITNESS FOR A PARTICULAR PURPOSE ARE DISCLAIMED. IN NO EVENT SHALL THE COPYRIGHT HOLDER OR CONTRIBUTORS BE LIABLE FOR ANY DIRECT, INDIRECT, INCIDENTAL, SPECIAL, EXEMPLARY, OR CONSEQUENTIAL DAMAGES (INCLUDING, BUT NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; * Redistributions in binary form must reproduce the above copyright notice,   this list of conditions and the following disclaimer in the documentation   and/or other materials provided with the distribution.  * Neither the name of the copyright holder nor the names of its   contributors may be used to endorse or promote products derived from   this software without specific prior written permission.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; DAMAGES (INCLUDING, BUT NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR SERVICES; LOSS OF USE, DATA, OR PROFITS; OR BUSINESS INTERRUPTION) HOWEVER CAUSED AND ON ANY THEORY OF LIABILITY, WHETHER IN CONTRACT, STRICT LIABILITY, OR TORT (INCLUDING NEGLIGENCE OR OTHERWISE) ARISING IN ANY WAY OUT OF THE USE OF THIS SOFTWARE, EVEN IF ADVISED OF THE POSSIBILITY OF SUCH DAMAGE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 SansegoTek  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 SansegoTek  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>DeFi Kingdoms</t>
+          <t>Tombswap</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;"CPMM"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Rewards for Providing Liquidity in DeFi Kingdoms&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Complexity and higher barrier of entry for new users.  Need for liquidity.  In DeFi Kingdoms, the DEX is built into the game layer. For example, on Harmony, the DEX can be accessed via the Trader in the Marketplace.  What are Liquidity Pools?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; DeFi Kingdoms Gardens (Liquidity Pools)  DeFi Kingdoms·Follow  Published inDeFi Kingdoms Official·9 min read·Mar 29, 2022  --  Listen  Share  Let’s talk about liquidity pools, how they relate to decentralized exchanges (like those built into DeFi Kingdoms) and how you can earn yield by staking tokens in liquidity pools in the DeFi Kingdoms Gardens!  Decentralized Exchanges and How They Work</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 2.“Why is ‘at-peg’ (TWAP between 1.00 and 1.01) the best time to provide liquidity?”  When $TOMB is pegged or close to being pegged to $FTM, it is more akin to having exposure to a single asset (single staking) than to your traditional LP'ing experience, where you would run the risk of impermanent loss if one of the tokens went up in value and the other did not.  3. "Wait, you mean that if $FTM pumps, $TOMB pumps with it?"&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 1.“ELI5: I keep seeing that Tomb will solve Fantom Opera's liquidity issues, but I don't fully understand what that means or its implications.”  You may have read that by pegging to $FTM, $TOMB hopes to become a highly liquid, mirrored asset. What does this actually mean though?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; If $TOMB succeeds in holding the peg, this will create a mirrored, liquid asset that can be moved around and traded without restrictions, all while benefiting from the price appreciation of the native $FTM token. Reaching the peg and holding the peg is crucial, and this will ultimately be what drives the value of $TOMB for investors. In the short term, this would mean attractive APRs for liquidity providers on what would essentially be a stable pair.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 SansegoTek  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 SansegoTek  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Tombswap</t>
+          <t>DOOAR</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 2.“Why is ‘at-peg’ (TWAP between 1.00 and 1.01) the best time to provide liquidity?”  When $TOMB is pegged or close to being pegged to $FTM, it is more akin to having exposure to a single asset (single staking) than to your traditional LP'ing experience, where you would run the risk of impermanent loss if one of the tokens went up in value and the other did not.  3. "Wait, you mean that if $FTM pumps, $TOMB pumps with it?"&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 1.“ELI5: I keep seeing that Tomb will solve Fantom Opera's liquidity issues, but I don't fully understand what that means or its implications.”  You may have read that by pegging to $FTM, $TOMB hopes to become a highly liquid, mirrored asset. What does this actually mean though?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; If $TOMB succeeds in holding the peg, this will create a mirrored, liquid asset that can be moved around and traded without restrictions, all while benefiting from the price appreciation of the native $FTM token. Reaching the peg and holding the peg is crucial, and this will ultimately be what drives the value of $TOMB for investors. In the short term, this would mean attractive APRs for liquidity providers on what would essentially be a stable pair.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>DOOAR</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; CONTINUE  Go Back  Examining offshore dollar liquidity in light of the three phases model    LinkedIn  									@@ -2836,19 +2819,19 @@
  										Facebook      Examining offshore dollar liquidity in light of the three phases model  17-05-2018  Andrew Norelli&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Long-Term Capital Market Assumptions</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>Orion BSC</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; This follows recent B2B partnerships with Polkastarter, MobiePay, PlasmaPay, Fire Protocol, Glitch Finance, Fuse, YFDAI, YOP, Vortex DeFi, DuckDAO, DAOMaker, Polkamarkets, Poolz, and COTI - bringing even more volume and transactions to the Orion network. Each of Orion’s partners have one thing in common: the need for liquidity in order for their project to become sustainable. Clients are hand picked and fully vetted as top quality partners focused on user base growth as a key metric of success.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Orion Protocol will aggregate the liquidity of every crypto exchange into one decentralized platform: providing a decentralized gateway to the entire market. Its liquidity solutions for crypto projects, blockchains, and exchanges now include Orion Launchpad Liquidity for incubators.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Industry (28)          @@ -2885,257 +2868,257 @@
            staking (15)</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Unicly</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; uTokens and the Unicly’s Fractionalization ModeluTokensBidding ProcessUtility of uToken  UNIC Token, Liquidity Farming and GovernanceUNIC TokenLiquidity FarmingGovernance  Conclusion  What is Unicly?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Unicly offers an easy-to-use NFT creator and an automated market maker (AMM) enabled marketplace. This not only allows anyone to create their own digital tokens, but also the best prices for traders whenever they make transactions through the platform.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; on a familiar AMM model. Meanwhile, yield farmers will be incentivized to earn rewards by providing liquidity.</t>
+        </is>
+      </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Leia Fisher  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Unicly</t>
+          <t>YokaiSwap</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; uTokens and the Unicly’s Fractionalization ModeluTokensBidding ProcessUtility of uToken  UNIC Token, Liquidity Farming and GovernanceUNIC TokenLiquidity FarmingGovernance  Conclusion  What is Unicly?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Unicly offers an easy-to-use NFT creator and an automated market maker (AMM) enabled marketplace. This not only allows anyone to create their own digital tokens, but also the best prices for traders whenever they make transactions through the platform.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; on a familiar AMM model. Meanwhile, yield farmers will be incentivized to earn rewards by providing liquidity.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  YokaiSwap employs the Proactive Market Maker (PMM) liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; About Yokai SwapYokaiSwap is a next-generation interoperable, decentralized trading platform and the first to come from the Nervos network. As a DEX (Decentralized Exchange), YokaiSwap will have AMM (Automated Market Maker) protocol integration essential for priced assets to be algorithmically and efficiently swapped for users to smart contract transactions. YokaiSwap also has Yield Farming and Staking so you can earn passive income after trading.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; About Yokai Swap  YokaiSwap is a next-generation interoperable, decentralized trading platform and the first to come from the Nervos network. As a DEX (Decentralized Exchange), YokaiSwap will have AMM (Automated Market Maker) protocol integration essential for priced assets to be algorithmically and efficiently swapped for users to smart contract transactions. YokaiSwap also has Yield Farming and Staking so you can earn passive income after trading.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Yield Farming：YokaiSwap also allows users to yield rewards on their deposited and traded assets via LP (Liquidity Provider) Token Farming. Thus, our community will be able to earn tokens while providing liquidity to the platform.  Yield Farming step-1:Go to the Liquidity page of YokaiSwap（  https://www.yokaiswap.com/liquidity  ） and click on the "Add Liquidity" button.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Leia Fisher  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>YokaiSwap</t>
+          <t>Sushiswap</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  YokaiSwap employs the Proactive Market Maker (PMM) liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; About Yokai SwapYokaiSwap is a next-generation interoperable, decentralized trading platform and the first to come from the Nervos network. As a DEX (Decentralized Exchange), YokaiSwap will have AMM (Automated Market Maker) protocol integration essential for priced assets to be algorithmically and efficiently swapped for users to smart contract transactions. YokaiSwap also has Yield Farming and Staking so you can earn passive income after trading.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; About Yokai Swap  YokaiSwap is a next-generation interoperable, decentralized trading platform and the first to come from the Nervos network. As a DEX (Decentralized Exchange), YokaiSwap will have AMM (Automated Market Maker) protocol integration essential for priced assets to be algorithmically and efficiently swapped for users to smart contract transactions. YokaiSwap also has Yield Farming and Staking so you can earn passive income after trading.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Yield Farming：YokaiSwap also allows users to yield rewards on their deposited and traded assets via LP (Liquidity Provider) Token Farming. Thus, our community will be able to earn tokens while providing liquidity to the platform.  Yield Farming step-1:Go to the Liquidity page of YokaiSwap（  https://www.yokaiswap.com/liquidity  ） and click on the "Add Liquidity" button.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "AMM"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The use of the AMM model enables SushiSwap to solve liquidity problems. In addition to token swap services, SushiSwap offers yield farming, an ability to stake the protocol’s token SUSHI, lending and new token offerings.  History  SushiSwap was launched in August 2020 by anonymous developers hidden behind pseudonyms "Chef Nomi," "OxMaki" and "SushiSwap." Little information on the project’s founders was available, apart from their Twitter accounts.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The use of the AMM model enables SushiSwap to solve liquidity problems. In addition to token swap services, SushiSwap offers yield farming, an ability to stake the protocol’s token SUSHI, lending and new token offerings.  History  SushiSwap was launched in August 2020 by anonymous developers hidden behind pseudonyms "Chef Nomi," "OxMaki" and "SushiSwap." Little information on the project’s founders was available, apart from their Twitter accounts.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To add liquidity, a user needs to go to the pool tab and click on the Add button. While providing liquidity, users are required to pay an equal amount of both tokens that they wish to add to the pool. A user can enter the value of one of the pair’s token, and the value of the other token will be automatically displayed.  Read less  Read less  Roadmap  August 2020  A group of anonymous developers founded SushiSwap. The MasterChef solution enabling the minting of SUSHI tokens was launched.</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sushiswap</t>
+          <t>BakerySwap</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "AMM"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The use of the AMM model enables SushiSwap to solve liquidity problems. In addition to token swap services, SushiSwap offers yield farming, an ability to stake the protocol’s token SUSHI, lending and new token offerings.  History  SushiSwap was launched in August 2020 by anonymous developers hidden behind pseudonyms "Chef Nomi," "OxMaki" and "SushiSwap." Little information on the project’s founders was available, apart from their Twitter accounts.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The use of the AMM model enables SushiSwap to solve liquidity problems. In addition to token swap services, SushiSwap offers yield farming, an ability to stake the protocol’s token SUSHI, lending and new token offerings.  History  SushiSwap was launched in August 2020 by anonymous developers hidden behind pseudonyms "Chef Nomi," "OxMaki" and "SushiSwap." Little information on the project’s founders was available, apart from their Twitter accounts.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To add liquidity, a user needs to go to the pool tab and click on the Add button. While providing liquidity, users are required to pay an equal amount of both tokens that they wish to add to the pool. A user can enter the value of one of the pair’s token, and the value of the other token will be automatically displayed.  Read less  Read less  Roadmap  August 2020  A group of anonymous developers founded SushiSwap. The MasterChef solution enabling the minting of SUSHI tokens was launched.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Similar to other platforms using the AMM model, there is no order book to match buyers and sellers. Instead, users trade against a liquidity pool. The assets in each pool are provided by supporters and users of BakerySwap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What is BakerySwap?  BakerySwap is a decentralized exchange adopting the automated market maker (AMM) model most people know through Uniswap.  The BakerySwap exchange  BakerySwap is one of the first projects to leverage BSC to build an AMM DEX. It is also one of the few DeFi projects on the BNB Smart Chain to offer altcoin liquidity pools.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; BakerySwap liquidity pools  On BakerySwap, stakers of the BAKE token can explore bakery-themed menus. If you select Bread, you can stake BAKE to earn more BAKE. Alternatively, you can stake the corresponding BLP tokens into the pools of baked goods, such as Doughnut, Waffle, Rolls, Croissant, and so forth. Note that the potential ROI is different for each option.  Are you getting hungry yet?  As of November 2020, the supported BEP20 liquidity pools are:  Bread: Stake BAKE to earn BAKE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 NFTSwaps  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BakerySwap</t>
+          <t>Ubeswap</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Similar to other platforms using the AMM model, there is no order book to match buyers and sellers. Instead, users trade against a liquidity pool. The assets in each pool are provided by supporters and users of BakerySwap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What is BakerySwap?  BakerySwap is a decentralized exchange adopting the automated market maker (AMM) model most people know through Uniswap.  The BakerySwap exchange  BakerySwap is one of the first projects to leverage BSC to build an AMM DEX. It is also one of the few DeFi projects on the BNB Smart Chain to offer altcoin liquidity pools.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; BakerySwap liquidity pools  On BakerySwap, stakers of the BAKE token can explore bakery-themed menus. If you select Bread, you can stake BAKE to earn more BAKE. Alternatively, you can stake the corresponding BLP tokens into the pools of baked goods, such as Doughnut, Waffle, Rolls, Croissant, and so forth. Note that the potential ROI is different for each option.  Are you getting hungry yet?  As of November 2020, the supported BEP20 liquidity pools are:  Bread: Stake BAKE to earn BAKE</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How to withdraw liquidity and what to expect  Much like with Uniswap, when you withdraw your liquidity from the Ubeswap pools you will get back a different number of each token than when you started. That is due to the automatic rebalancing that is a core feature of automated market makers (AMM’s).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Finding the right pool to provide liquidity  To find the best rewards on Ubeswap click “Farm” at the top of the page to get to the Farming rewards Menu. Ubeswap has Triple Reward farms (CELO, MOO, and UBE), Double Reward farms, and standard UBE farms. You will need to click the “Add Liquidity” to get to the interface for adding liquidity.  You can also use APY.vision’s pool search feature to discover new pools on Ubeswap. Check it out here.  Steps to add liquidity to Ubeswap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; It is important to note that certain stablecoins and assets have different token tickers based on where they were bridged from. If you need to convert from one to the other, you can use the “Swap” feature on Mobius to do so.  Finding the right pool to provide liquidity</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 NFTSwaps  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Zviad Metreveli  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ubeswap</t>
+          <t>DFX Finance</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How to withdraw liquidity and what to expect  Much like with Uniswap, when you withdraw your liquidity from the Ubeswap pools you will get back a different number of each token than when you started. That is due to the automatic rebalancing that is a core feature of automated market makers (AMM’s).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Finding the right pool to provide liquidity  To find the best rewards on Ubeswap click “Farm” at the top of the page to get to the Farming rewards Menu. Ubeswap has Triple Reward farms (CELO, MOO, and UBE), Double Reward farms, and standard UBE farms. You will need to click the “Add Liquidity” to get to the interface for adding liquidity.  You can also use APY.vision’s pool search feature to discover new pools on Ubeswap. Check it out here.  Steps to add liquidity to Ubeswap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; It is important to note that certain stablecoins and assets have different token tickers based on where they were bridged from. If you need to convert from one to the other, you can use the “Swap” feature on Mobius to do so.  Finding the right pool to provide liquidity</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Overall, the protocol consists of 3 major segments:  DFX AMM: Swap multiple fiat-back stablecoins on Ethereum and Polygon  Liquidity Mining: Yield farming opportunities for liquidity providers  Governance: DFX holders participate in governing the protocol  Continue reading as I break down the DEX, the liquidity pools, and the governance process in-depth and in easy-to-understand language.  How Does the DFX Finance AMM Work?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Apart from swapping various fiat-backed stablecoins, users on DFX Finance can also decide to become market makers and provide liquidity to the protocol. The liquidity added in various liquidity pools enables users on the platform to swap the stablecoins. In return for their liquidity, the liquidity providers are incentivized in two ways:  1.Earn a share of inflationary DFX token rewards  2.Earn a share of the swapping fees paid by the users who swap on the exchange&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; How Does the DFX Finance AMM Work?  The team at DFX Finance have built a purpose-driven AMM, that is optimized for swapping stablecoins, and is not used a generalized AMM design.  Unique features include:  The protocol leverages a data oracle provided by ChainLink to provide external foreign exchange price feeds into the pricing engine. This helps with price accuracy.</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Zviad Metreveli  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2018 Origin  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DFX Finance</t>
+          <t>SwapBased</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Overall, the protocol consists of 3 major segments:  DFX AMM: Swap multiple fiat-back stablecoins on Ethereum and Polygon  Liquidity Mining: Yield farming opportunities for liquidity providers  Governance: DFX holders participate in governing the protocol  Continue reading as I break down the DEX, the liquidity pools, and the governance process in-depth and in easy-to-understand language.  How Does the DFX Finance AMM Work?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Apart from swapping various fiat-backed stablecoins, users on DFX Finance can also decide to become market makers and provide liquidity to the protocol. The liquidity added in various liquidity pools enables users on the platform to swap the stablecoins. In return for their liquidity, the liquidity providers are incentivized in two ways:  1.Earn a share of inflationary DFX token rewards  2.Earn a share of the swapping fees paid by the users who swap on the exchange&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; How Does the DFX Finance AMM Work?  The team at DFX Finance have built a purpose-driven AMM, that is optimized for swapping stablecoins, and is not used a generalized AMM design.  Unique features include:  The protocol leverages a data oracle provided by ChainLink to provide external foreign exchange price feeds into the pricing engine. This helps with price accuracy.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  SwapBased's V3 employs the "Concentrated Liquidity (CL)" liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Compared to V2 AMMs, LPs need to provide less capital.  A pair of stablecoins consistently has the lowest fees, and the fees of more volatile assets depend on the market situation. This is why such management of the commission will allow for balancing the interests of various traders, providing the most effective and favourable conditions.  The most important aspect when providing liquidity on SwapBased’s V3 is that your assets will get converted as the prices move!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Step 3. Put in details for your LP (range, amount)  After deciding on the assets to provide liquidity to SwapBased’s V3, you must carefully set all the conditions for your concentrated liquidity.  As you can check on the UI, you have to set the following:  Choose the two assets. You may also need to define the price relationship between the two assets, ONLY if the platform can’t auto-fetch the price ratio. See step 2.2.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; SwapBased Concentrated Liquidity -powered by Algebra  SwapBased·Follow  9 min read·Oct 15  --  Listen  Share  In this guide, we will explain everything you need to know about how to swap, provide liquidity, and farm on SwapBased’s V3 on Base featuring Algebra’s V3 license!  Firstly, let’s make sure you understand the main differences between the two versions and how they may affect your liquidity — because it’s quite different, and you might be surprised when your holdings change proportions.</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2018 Origin  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SwapBased</t>
+          <t>Swych</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  SwapBased's V3 employs the "Concentrated Liquidity (CL)" liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Compared to V2 AMMs, LPs need to provide less capital.  A pair of stablecoins consistently has the lowest fees, and the fees of more volatile assets depend on the market situation. This is why such management of the commission will allow for balancing the interests of various traders, providing the most effective and favourable conditions.  The most important aspect when providing liquidity on SwapBased’s V3 is that your assets will get converted as the prices move!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Step 3. Put in details for your LP (range, amount)  After deciding on the assets to provide liquidity to SwapBased’s V3, you must carefully set all the conditions for your concentrated liquidity.  As you can check on the UI, you have to set the following:  Choose the two assets. You may also need to define the price relationship between the two assets, ONLY if the platform can’t auto-fetch the price ratio. See step 2.2.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; SwapBased Concentrated Liquidity -powered by Algebra  SwapBased·Follow  9 min read·Oct 15  --  Listen  Share  In this guide, we will explain everything you need to know about how to swap, provide liquidity, and farm on SwapBased’s V3 on Base featuring Algebra’s V3 license!  Firstly, let’s make sure you understand the main differences between the two versions and how they may affect your liquidity — because it’s quite different, and you might be surprised when your holdings change proportions.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Fees  Blog  Chat  @SwychFinance  Do you work for an exchange?  Submit reserve data  About Swych  Swych is a deflationary Decentralized Exchange on the Binance Smart Chain which is based on an AMM model. Swych is designed to help projects create deflation by burning half of the fees that the DEX receive from the Liquidity Pools.  By introducing this feature, Swych aim to lead the Decentralized Exchanges by offering a solution which offer deflation and benefits at the same time.  Read More&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; is handled by immutable smart contracts. This means, no middlemen, no human interference to slow things down or add unnecessary cost, no KYC and low fees in comparison to most centralized exchanges. Plus, a portion of this fee goes to liquidity providers so the exchange can maintain the liquidity that holders so highly prize. The initial SWYCH DEX was launched a few months ago to solve a problem that Titano was having with the third party exchange they were using. Titano had noticed that the&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; succeed. There’s over $4 million in liquidity already established and daily trade volume average more than $30,000. SWYCH is currently onboarding new projects to the DEX, so if you’re looking for a place to launch, raise, and list, this is it! Reach out via the social channels and view the whitepaper today! Find out how you can benefit from this new, powerful DEX model on the BNB Smart Chain! Disclaimer: This is a press release post. Coinpedia does not endorse or is responsible for any content,</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Kartik Verma  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Swych</t>
+          <t>ClaimSwap</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Fees  Blog  Chat  @SwychFinance  Do you work for an exchange?  Submit reserve data  About Swych  Swych is a deflationary Decentralized Exchange on the Binance Smart Chain which is based on an AMM model. Swych is designed to help projects create deflation by burning half of the fees that the DEX receive from the Liquidity Pools.  By introducing this feature, Swych aim to lead the Decentralized Exchanges by offering a solution which offer deflation and benefits at the same time.  Read More&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; is handled by immutable smart contracts. This means, no middlemen, no human interference to slow things down or add unnecessary cost, no KYC and low fees in comparison to most centralized exchanges. Plus, a portion of this fee goes to liquidity providers so the exchange can maintain the liquidity that holders so highly prize. The initial SWYCH DEX was launched a few months ago to solve a problem that Titano was having with the third party exchange they were using. Titano had noticed that the&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; succeed. There’s over $4 million in liquidity already established and daily trade volume average more than $30,000. SWYCH is currently onboarding new projects to the DEX, so if you’re looking for a place to launch, raise, and list, this is it! Reach out via the social channels and view the whitepaper today! Find out how you can benefit from this new, powerful DEX model on the BNB Smart Chain! Disclaimer: This is a press release post. Coinpedia does not endorse or is responsible for any content,</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Automated market makers are smart contracts powering liquidity reserves (or liquidity pools) that users can trade against. These reserves are supplied by liquidity providers in pairs of tokens. As a liquidity provider, you deposit an equivalent value of two coins to a respective pool. For instance, to an ETH/DAI liquidity pool you need to provide the same amount of both coins in USD equivalent.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Note: Anybody in the community has the ability to add pools and any other DEX, but KLAP liquidity mining rewards will initially only go to those that provided liquidity on ClaimSwap.  What will be the initial market cap and circulating supply?  As mentioned before, the community liquidity drop determined the launch price of KLAP.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In exchange for their ETH and DAI, a liquidity provider will receive liquidity provider tokens, or LP tokens, which will be swapped back for ETH and DAI when withdrawing tokens from the pool. Liquidity providers are rewarded by a portion of fees charged on each swap deal in the pool.  On Uniswap, the “constant product” formula is used, expressed as x * y = k. The formula states that trades must not change the product (k) of a pair’s reserve balances (x and y, respectively).</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Kartik Verma  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Claimswap  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ClaimSwap</t>
+          <t>Ramses</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Automated market makers are smart contracts powering liquidity reserves (or liquidity pools) that users can trade against. These reserves are supplied by liquidity providers in pairs of tokens. As a liquidity provider, you deposit an equivalent value of two coins to a respective pool. For instance, to an ETH/DAI liquidity pool you need to provide the same amount of both coins in USD equivalent.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Note: Anybody in the community has the ability to add pools and any other DEX, but KLAP liquidity mining rewards will initially only go to those that provided liquidity on ClaimSwap.  What will be the initial market cap and circulating supply?  As mentioned before, the community liquidity drop determined the launch price of KLAP.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In exchange for their ETH and DAI, a liquidity provider will receive liquidity provider tokens, or LP tokens, which will be swapped back for ETH and DAI when withdrawing tokens from the pool. Liquidity providers are rewarded by a portion of fees charged on each swap deal in the pool.  On Uniswap, the “constant product” formula is used, expressed as x * y = k. The formula states that trades must not change the product (k) of a pair’s reserve balances (x and y, respectively).</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; LPing is fundamentally similar to market making, which is where AMMs get their name from. However, they lack the cutthroat competition of market making in traditional finance. In contrast, with RAMSES CL, much like the environment of traditional exchanges, market participants are propelled to maintain tighter spreads to secure a larger slice of the rewards. This competition cultivates an environment of deep liquidity within these pairs, attracting a surge in trading volumes that surpasses those&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Until now, ve(3,3) DEXs have been making liquidity provisioning competitive by introducing emissions. RAMSES has taken this a step further by incorporating concentrated liquidity and modified fee gauges, thereby creating the most competitive liquidity provision market in the space. This opens up exciting opportunities — specialized market makers can provide liquidity, builders can develop yield or asset management services, and projects can incentivize deeper liquidity by offering bribes to&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Blockchain trading has traditionally demanded a level of expertise exceeding that required for trading on centralized exchanges. A key driver behind this disparity is liquidity. Most traders, by instinct, lean towards markets that offer efficiency, convenience, and, most importantly– ample liquidity. On-chain liquidity provisioning (LPing), while in its early stages, is set for a significant uplift with the advent of RAMSES CL (concentrated liquidity). By intertwining the revolutionary concept</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Claimswap  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 1.12. "Secondary License"     means either the GNU General Public License, Version 2.0, the GNU     Lesser General Public License, Version 2.1, the GNU Affero General     Public License, Version 3.0, or any later versions of those     licenses.  1.13. "Source Code Form"     means the form of the work preferred for making modifications.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If it is impossible for You to comply with any of the terms of this License with respect to some or all of the Covered Software due to statute, judicial order, or regulation then You must: (a) comply with the terms of this License to the maximum extent possible; and (b) describe the limitations and the code they affect. Such description must be placed in a text file included with all distributions of the Covered Software under this License. Except to the extent prohibited by statute&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. License Grants and Conditions --------------------------------  2.1. Grants  Each Contributor hereby grants You a world-wide, royalty-free, non-exclusive license:  (a) under intellectual property rights (other than patent or trademark)     Licensable by such Contributor to use, reproduce, make available,     modify, display, perform, distribute, and otherwise exploit its     Contributions, either on an unmodified basis, with Modifications, or     as part of a Larger Work; and</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Ramses</t>
+          <t>Shadowswap</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; LPing is fundamentally similar to market making, which is where AMMs get their name from. However, they lack the cutthroat competition of market making in traditional finance. In contrast, with RAMSES CL, much like the environment of traditional exchanges, market participants are propelled to maintain tighter spreads to secure a larger slice of the rewards. This competition cultivates an environment of deep liquidity within these pairs, attracting a surge in trading volumes that surpasses those&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Until now, ve(3,3) DEXs have been making liquidity provisioning competitive by introducing emissions. RAMSES has taken this a step further by incorporating concentrated liquidity and modified fee gauges, thereby creating the most competitive liquidity provision market in the space. This opens up exciting opportunities — specialized market makers can provide liquidity, builders can develop yield or asset management services, and projects can incentivize deeper liquidity by offering bribes to&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Blockchain trading has traditionally demanded a level of expertise exceeding that required for trading on centralized exchanges. A key driver behind this disparity is liquidity. Most traders, by instinct, lean towards markets that offer efficiency, convenience, and, most importantly– ample liquidity. On-chain liquidity provisioning (LPing), while in its early stages, is set for a significant uplift with the advent of RAMSES CL (concentrated liquidity). By intertwining the revolutionary concept</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; ShadowSwap is a Decentralized exchange platform that operates on the automated market maker (AMM) model. In fact, it is now the standard and the most convenient way to exchange crypto tokens. The platform runs on the Core Network. This leverages its scalability, security, decentralization, and lower transaction fees to provide a platform for users to exchange native Core tokens. Furthermore, it runs in a truly decentralized fashion, with no intermediaries or single points of failure.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The Functions of Shadowswap Finance&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Basic Token Information  ShadowSwap Finance is a comprehensive decentralized trading protocol. It leverages the security, scalability, and decentralization of the Core blockchain. This allows them to establish a secure and open marketplace for developers, liquidity providers, and traders. Essential information for their token is available on the MEXC Digital asset introduction page. Furthermore, we are listing (SHDW/USDT – Trade it here) on our Innovation Zone! Check it out now!</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 1.12. "Secondary License"     means either the GNU General Public License, Version 2.0, the GNU     Lesser General Public License, Version 2.1, the GNU Affero General     Public License, Version 3.0, or any later versions of those     licenses.  1.13. "Source Code Form"     means the form of the work preferred for making modifications.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If it is impossible for You to comply with any of the terms of this License with respect to some or all of the Covered Software due to statute, judicial order, or regulation then You must: (a) comply with the terms of this License to the maximum extent possible; and (b) describe the limitations and the code they affect. Such description must be placed in a text file included with all distributions of the Covered Software under this License. Except to the extent prohibited by statute&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. License Grants and Conditions --------------------------------  2.1. Grants  Each Contributor hereby grants You a world-wide, royalty-free, non-exclusive license:  (a) under intellectual property rights (other than patent or trademark)     Licensable by such Contributor to use, reproduce, make available,     modify, display, perform, distribute, and otherwise exploit its     Contributions, either on an unmodified basis, with Modifications, or     as part of a Larger Work; and</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Shadowswap</t>
+          <t>Wagmi</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; ShadowSwap is a Decentralized exchange platform that operates on the automated market maker (AMM) model. In fact, it is now the standard and the most convenient way to exchange crypto tokens. The platform runs on the Core Network. This leverages its scalability, security, decentralization, and lower transaction fees to provide a platform for users to exchange native Core tokens. Furthermore, it runs in a truly decentralized fashion, with no intermediaries or single points of failure.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The Functions of Shadowswap Finance&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Basic Token Information  ShadowSwap Finance is a comprehensive decentralized trading protocol. It leverages the security, scalability, and decentralization of the Core blockchain. This allows them to establish a secure and open marketplace for developers, liquidity providers, and traders. Essential information for their token is available on the MEXC Digital asset introduction page. Furthermore, we are listing (SHDW/USDT – Trade it here) on our Innovation Zone! Check it out now!</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 4% of the supply is reserved for liquidity for future Tier-1 Centralized Exchanges  1.93% of the supply is reserved for future advisory roles  100% of the $WAGMIGAMES tokens has been minted and there will be no un-vesting or diluting events in the future of the token.  $WAGMIGAMES Supply Distribution  Previous$WAGMIGAMES Token  NextToken Utility  Last modified   2mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Tokenomics &amp; Supply Allocation  WAGMIGAMES Token Info:  ERC-20 Contract: 0x3B604747ad1720C01ded0455728b62c0d2F100F0  Etherscan: https://etherscan.io/token/0x3B604747ad1720C01ded0455728b62c0d2F100F0​  Price Chart: https://www.dextools.io/app/ether/pair-explorer/0xdf4f3749bb4e96bf91a67c7e873d9c04198d924a​  The $WAGMIGAMES  total supply  is 2.2T tokens. The  circulating supply  is ~1.85T tokens.  0% Transfer Tax  5% Max Wallet (110B tokens)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; circulating supply  is ~1.85T tokens.  0% Transfer Tax  5% Max Wallet (110B tokens)  84.07% of the supply is circulating among existing holders  5% of the supply is reserved for supporting the Game Economy will be released for future tournaments and other play-to-earn aspects of the game  5% of the supply is being held in the Treasury Wallet (back-up reserves)  4% of the supply is reserved for liquidity for future Tier-1 Centralized Exchanges</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright © 2021 CoinJar UK Limited  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Wagmi</t>
+          <t>Baby Doge Swap</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 4% of the supply is reserved for liquidity for future Tier-1 Centralized Exchanges  1.93% of the supply is reserved for future advisory roles  100% of the $WAGMIGAMES tokens has been minted and there will be no un-vesting or diluting events in the future of the token.  $WAGMIGAMES Supply Distribution  Previous$WAGMIGAMES Token  NextToken Utility  Last modified   2mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Tokenomics &amp; Supply Allocation  WAGMIGAMES Token Info:  ERC-20 Contract: 0x3B604747ad1720C01ded0455728b62c0d2F100F0  Etherscan: https://etherscan.io/token/0x3B604747ad1720C01ded0455728b62c0d2F100F0​  Price Chart: https://www.dextools.io/app/ether/pair-explorer/0xdf4f3749bb4e96bf91a67c7e873d9c04198d924a​  The $WAGMIGAMES  total supply  is 2.2T tokens. The  circulating supply  is ~1.85T tokens.  0% Transfer Tax  5% Max Wallet (110B tokens)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; circulating supply  is ~1.85T tokens.  0% Transfer Tax  5% Max Wallet (110B tokens)  84.07% of the supply is circulating among existing holders  5% of the supply is reserved for supporting the Game Economy will be released for future tournaments and other play-to-earn aspects of the game  5% of the supply is being held in the Treasury Wallet (back-up reserves)  4% of the supply is reserved for liquidity for future Tier-1 Centralized Exchanges</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Automated Market Maker (AMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; BabyDogeSwap is a popular decentralized exchange (DEX) allowing BEP-20 token swaps on the BNB Chain. The exchange employs an automated market maker (AMM) model, allowing users to swap against a liquidity pool. You can become a liquidity provider and receive LP tokens, which entitle users to a share of the swap fees.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; LP token holders can also engage in yield farming to earn BabyDoge, the swap's utility token. The token can be staked in so-called ‘Farms’ or Pools with flexible or fixed-term staking. When the BabyDoge token is held in your wallet users receive lower swap fees.  Who Are the BabyDogeSwap Founders? The BabyDogeSwap founders are anonymous. The swap is open-source and has been audited by reputable security firm Certik. This is a community first project.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Submit reserve data  About Baby Doge Swap  What Is BabyDogeSwap? BabyDogeSwap is a popular decentralized exchange (DEX) allowing BEP-20 token swaps on the BNB Chain. It is the biggest exchange of the BNB Chain ecosystem and one of the top community DEXs by the baby doge community. The exchange employs an automated market maker (AMM) model, allowing users to swap against a liquidity pool. You can become a liquidity provider and receive LP tokens, which entitle users to a share of the swap fees.</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright © 2021 CoinJar UK Limited  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Baby Doge Swap</t>
+          <t>Arbswap</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Automated Market Maker (AMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; BabyDogeSwap is a popular decentralized exchange (DEX) allowing BEP-20 token swaps on the BNB Chain. The exchange employs an automated market maker (AMM) model, allowing users to swap against a liquidity pool. You can become a liquidity provider and receive LP tokens, which entitle users to a share of the swap fees.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; LP token holders can also engage in yield farming to earn BabyDoge, the swap's utility token. The token can be staked in so-called ‘Farms’ or Pools with flexible or fixed-term staking. When the BabyDoge token is held in your wallet users receive lower swap fees.  Who Are the BabyDogeSwap Founders? The BabyDogeSwap founders are anonymous. The swap is open-source and has been audited by reputable security firm Certik. This is a community first project.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Submit reserve data  About Baby Doge Swap  What Is BabyDogeSwap? BabyDogeSwap is a popular decentralized exchange (DEX) allowing BEP-20 token swaps on the BNB Chain. It is the biggest exchange of the BNB Chain ecosystem and one of the top community DEXs by the baby doge community. The exchange employs an automated market maker (AMM) model, allowing users to swap against a liquidity pool. You can become a liquidity provider and receive LP tokens, which entitle users to a share of the swap fees.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidity Models  Each Arbitrum LP can have its own type, depending on the expected price correlation level between the two tokens of the pair.  Volatile pairs  Volatile pairs are composed of uncorrelated assets, based on the usual UniV2 model, using the standard constant product formula:  x∗y=k x*y= kx∗y=k  PRODUCTS - PreviousLiquidity  NextAdd Liquidity  Last modified   6mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Centered on this Arbitrum-focused strategy, Arbswap’s Automated Market Maker (AMM) system boasts high levels of customization and flexibility, improved trading efficiency for users, and growth support for new protocols. Arbswap’s V2 includes innovative features such as dual- and multi-liquidity models for pairs.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Centered on this Arbitrum-focused strategy, Arbswap’s Automated Market Maker (AMM) system boasts high levels of customization and flexibility, improved trading efficiency for users, and growth support for new protocols. Arbswap’s V2 includes innovative features such as dual- and multi-liquidity models for pairs.</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 ryu666zaki  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Arbswap</t>
+          <t>Dystopia</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidity Models  Each Arbitrum LP can have its own type, depending on the expected price correlation level between the two tokens of the pair.  Volatile pairs  Volatile pairs are composed of uncorrelated assets, based on the usual UniV2 model, using the standard constant product formula:  x∗y=k x*y= kx∗y=k  PRODUCTS - PreviousLiquidity  NextAdd Liquidity  Last modified   6mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Centered on this Arbitrum-focused strategy, Arbswap’s Automated Market Maker (AMM) system boasts high levels of customization and flexibility, improved trading efficiency for users, and growth support for new protocols. Arbswap’s V2 includes innovative features such as dual- and multi-liquidity models for pairs.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Centered on this Arbitrum-focused strategy, Arbswap’s Automated Market Maker (AMM) system boasts high levels of customization and flexibility, improved trading efficiency for users, and growth support for new protocols. Arbswap’s V2 includes innovative features such as dual- and multi-liquidity models for pairs.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 ryu666zaki  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Dystopia</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Dystopia is a derivative of the Automated Market Maker (AMM) deployed on Polygon. It has implemented a unique take on the protocol, which includes tokennomics improvements, better routing, back &amp; front-end refinement, etc.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Uniswap’s model involved the use of the infamous XYK (X*Y=K) mathematical formulae that the Market-Maker used for calculating the weightage of Liquidity Pools. The idea was to have the contract hold X &amp; Y tokens respectively and consistently maintain the constant that X*Y=K (where K is a given constant). A given Liquidity Pool strictly consisted of 50/50 tokens whereby two tokens (X &amp; Y) were provided by Liquidity Providers at a pre-determined, precarious ratio enforced by smart contracts. The&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; However, Solidly lives on through Dystopia — a derivative of the AMM deployed on Polygon — with its unique take on the protocol that you can read here. The DEX has amassed popularity as enshrining a new generation Solidly AMM with bringing fundamental improvements to the concept such as tokennomics improvements, better routing, back &amp; front-end refinement, etc. It is being used as the hub of Liquidity Provisions with its intention to also serve as a DEX aggregator.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Skip to content  OVERNIGHT BLOG  About Overnight  Community  @@ -3160,72 +3143,89 @@
  Feature request  DAPP  An Analysis of the Various Models of Liquidity Pools within DeFi and how USD+ Compliments Them  June 26, 2022  Introduction</t>
         </is>
       </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Drew Alleman  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SharkSwap</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Inspired by the innovative team Olympus DAO, SharkSwap will be the first AMM to own a portion of its own liquidity. Through partnerships and “Shark Bonds”, the SharkSwap protocol will acquire and hold LP tokens in its treasury. This will make Shark Swap sustainable long term as it aims to become the dominate AMM on SX Chain. This protocol-owned liquidity gives SharkSwap a strong balance sheet of project tokens, providing a floor price on SHARK, and increasing the sustainability of the&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Rather than having a centralized core team or apathetic token voters make decisions on liquidity mining campaigns, bonding discounts, and other key strategic initiatives; SharkSwap is wholly unique in letting prediction markets decide its direction. By hooking into the SX prediction market protocol, SharkSwap can become the world's first intelligent DeFi platform.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; SharkSwap was started with the vision of creating a community-owned decentralized exchange which owns its own liquidity and governs itself via prediction market.</t>
+        </is>
+      </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Drew Alleman  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SharkSwap</t>
+          <t>KyberSwap Classic</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Inspired by the innovative team Olympus DAO, SharkSwap will be the first AMM to own a portion of its own liquidity. Through partnerships and “Shark Bonds”, the SharkSwap protocol will acquire and hold LP tokens in its treasury. This will make Shark Swap sustainable long term as it aims to become the dominate AMM on SX Chain. This protocol-owned liquidity gives SharkSwap a strong balance sheet of project tokens, providing a floor price on SHARK, and increasing the sustainability of the&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Rather than having a centralized core team or apathetic token voters make decisions on liquidity mining campaigns, bonding discounts, and other key strategic initiatives; SharkSwap is wholly unique in letting prediction markets decide its direction. By hooking into the SX prediction market protocol, SharkSwap can become the world's first intelligent DeFi platform.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; SharkSwap was started with the vision of creating a community-owned decentralized exchange which owns its own liquidity and governs itself via prediction market.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Market Maker (DMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; As such, we are proud to announce KyberSwap’s new protocol: KyberSwap Elastic!  KyberSwap’s existing protocol known as KyberDMM will henceforth be renamed to KyberSwap Classic. KyberSwap Classic, the world’s first Dynamic Market Maker, was able to reflect market conditions to dynamically adjust the fees and optimize returns for Liquidity Providers with its extremely capital efficient model.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; KyberSwap Classic was conceived based on the observation that the standard AMM model was inadequate when it came to optimizing capital efficiency and price spreads. A one-size-fits-all pricing curve meant that capital was deployed across all prices regardless of the price correlation between unique token pairs. Moreover, AMM price spreads were market neutral as the same fees were charged regardless of market volatility. Collectively, this lowered LP incentives as the majority of their funds&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Chainsecurity  Audits  Services  About us  Blog  KyberSwap Classic –  Security Audit  Download Audit Report  Summary  The suite of contracts implement a Dynamic Market Maker (DMM) based on UniswapV2. The main changes are the use of an amplification model for the pools inventory function and fees based on the recently traded volume.</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>KyberSwap Classic</t>
+          <t>ArbSwap</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Market Maker (DMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; As such, we are proud to announce KyberSwap’s new protocol: KyberSwap Elastic!  KyberSwap’s existing protocol known as KyberDMM will henceforth be renamed to KyberSwap Classic. KyberSwap Classic, the world’s first Dynamic Market Maker, was able to reflect market conditions to dynamically adjust the fees and optimize returns for Liquidity Providers with its extremely capital efficient model.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; KyberSwap Classic was conceived based on the observation that the standard AMM model was inadequate when it came to optimizing capital efficiency and price spreads. A one-size-fits-all pricing curve meant that capital was deployed across all prices regardless of the price correlation between unique token pairs. Moreover, AMM price spreads were market neutral as the same fees were charged regardless of market volatility. Collectively, this lowered LP incentives as the majority of their funds&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Chainsecurity  Audits  Services  About us  Blog  KyberSwap Classic –  Security Audit  Download Audit Report  Summary  The suite of contracts implement a Dynamic Market Maker (DMM) based on UniswapV2. The main changes are the use of an amplification model for the pools inventory function and fees based on the recently traded volume.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidity Models  Each Arbitrum LP can have its own type, depending on the expected price correlation level between the two tokens of the pair.  Volatile pairs  Volatile pairs are composed of uncorrelated assets, based on the usual UniV2 model, using the standard constant product formula:  x∗y=k x*y= kx∗y=k  PRODUCTS - PreviousLiquidity  NextAdd Liquidity  Last modified   6mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Models  Each Arbitrum LP can have its own type, depending on the expected price correlation level between the two tokens of the pair.  Volatile pairs  Volatile pairs are composed of uncorrelated assets, based on the usual UniV2 model, using the standard constant product formula:  x∗y=k x*y= kx∗y=k  PRODUCTS - PreviousLiquidity  NextAdd Liquidity  Last modified   6mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Centered on this Arbitrum-focused strategy, Arbswap’s Automated Market Maker (AMM) system boasts high levels of customization and flexibility, improved trading efficiency for users, and growth support for new protocols. Arbswap’s V2 includes innovative features such as dual- and multi-liquidity models for pairs.</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 ryu666zaki  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ArbSwap</t>
+          <t>Chronos Exchange</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidity Models  Each Arbitrum LP can have its own type, depending on the expected price correlation level between the two tokens of the pair.  Volatile pairs  Volatile pairs are composed of uncorrelated assets, based on the usual UniV2 model, using the standard constant product formula:  x∗y=k x*y= kx∗y=k  PRODUCTS - PreviousLiquidity  NextAdd Liquidity  Last modified   6mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Models  Each Arbitrum LP can have its own type, depending on the expected price correlation level between the two tokens of the pair.  Volatile pairs  Volatile pairs are composed of uncorrelated assets, based on the usual UniV2 model, using the standard constant product formula:  x∗y=k x*y= kx∗y=k  PRODUCTS - PreviousLiquidity  NextAdd Liquidity  Last modified   6mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Centered on this Arbitrum-focused strategy, Arbswap’s Automated Market Maker (AMM) system boasts high levels of customization and flexibility, improved trading efficiency for users, and growth support for new protocols. Arbswap’s V2 includes innovative features such as dual- and multi-liquidity models for pairs.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What are the rewards for liquidity providers?&lt;br&gt;&lt;br&gt;Possible answer: Liquidity providers can receive $CHR emissions, with base emission rates determined by Chronos gauges, controlled by $veCHR voters.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity Solution:  Chronos V2 CL model introduces next-level capital efficiency by allowing users to focus their funds within a tighter price range, specifically at prices where liquidity is most needed.  Not only will liquidity providers be rewarded more effectively, but traders will also see better price execution.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Chronos Concentrated Liquidity Solution  Chronos 🌀·Follow  5 min read·Aug 14  --  Listen  Share  Concentrated liquidity on Chronos Exchange is LIVE!  With the arrival of this exciting new update, we are pleased to share some valuable insights on this technology!  Technology Overview:  First, we will quickly share how Concentrated Liquidity (CL) pools differ from traditional Chronos V1 liquidity pools.  Traditional Model:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Chronos offers two different types of liquidity pools types based on the tokens being provided:  sAMM - for strongly correlated pairs, such as stablecoins  vAMM - for uncorrelated pairs, such as $CHR and $ETH  Liquidity Provisioning  Users can provide liquidity to Chronos pools in exchange for LP tokens. Staking LP tokens on the platform makes users eligible for $CHR emissions, with base emission rates determined by Chronos gauges, controlled by $veCHR voters.  Maturity-Adjusted LP Returns</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 ryu666zaki  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Chronos Exchange</t>
+          <t>StellaSwap</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What are the rewards for liquidity providers?&lt;br&gt;&lt;br&gt;Possible answer: Liquidity providers can receive $CHR emissions, with base emission rates determined by Chronos gauges, controlled by $veCHR voters.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity Solution:  Chronos V2 CL model introduces next-level capital efficiency by allowing users to focus their funds within a tighter price range, specifically at prices where liquidity is most needed.  Not only will liquidity providers be rewarded more effectively, but traders will also see better price execution.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Chronos Concentrated Liquidity Solution  Chronos 🌀·Follow  5 min read·Aug 14  --  Listen  Share  Concentrated liquidity on Chronos Exchange is LIVE!  With the arrival of this exciting new update, we are pleased to share some valuable insights on this technology!  Technology Overview:  First, we will quickly share how Concentrated Liquidity (CL) pools differ from traditional Chronos V1 liquidity pools.  Traditional Model:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Chronos offers two different types of liquidity pools types based on the tokens being provided:  sAMM - for strongly correlated pairs, such as stablecoins  vAMM - for uncorrelated pairs, such as $CHR and $ETH  Liquidity Provisioning  Users can provide liquidity to Chronos pools in exchange for LP tokens. Staking LP tokens on the platform makes users eligible for $CHR emissions, with base emission rates determined by Chronos gauges, controlled by $veCHR voters.  Maturity-Adjusted LP Returns</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Pulsar: Concentrated Liquidity  Introducing StellaSwap's concentrated liquidity AMM&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; While StellaSwap is predicated on a hybrid model of a standard AMM (constant product model) and stable AMM (constant product + constant sum model), it isn’t capital efficient and suffers from high-slippage. This means higher cost of trading to end-users. Additionally, we see an extremely low liquidity utilization rates, ranging from an average of between 5%-10%. This means that for every $10 million of TVL on StellaSwap, only $500k or $1 million trading volume (daily) emanates from the pool,&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; ⭐️ Maximize Ecosystem Liquidity Utilization: The aforementioned exploits has resulted in dampening of TVL from value depegging and capital leakage. Not only would concentrated liquidity enable unification of liquidity across StellaSwap’s AMM, but it would also maximize liquidity utilization, allowing users to deploy their capital more efficiently and earn substantially greater yields. From a previous benchmark of 5%-10%, StellaSwap aims to achieve a utilization ratio of above 50% within the</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3237,29 +3237,29 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>StellaSwap</t>
+          <t>SpiritSwap</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Pulsar: Concentrated Liquidity  Introducing StellaSwap's concentrated liquidity AMM&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; While StellaSwap is predicated on a hybrid model of a standard AMM (constant product model) and stable AMM (constant product + constant sum model), it isn’t capital efficient and suffers from high-slippage. This means higher cost of trading to end-users. Additionally, we see an extremely low liquidity utilization rates, ranging from an average of between 5%-10%. This means that for every $10 million of TVL on StellaSwap, only $500k or $1 million trading volume (daily) emanates from the pool,&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; ⭐️ Maximize Ecosystem Liquidity Utilization: The aforementioned exploits has resulted in dampening of TVL from value depegging and capital leakage. Not only would concentrated liquidity enable unification of liquidity across StellaSwap’s AMM, but it would also maximize liquidity utilization, allowing users to deploy their capital more efficiently and earn substantially greater yields. From a previous benchmark of 5%-10%, StellaSwap aims to achieve a utilization ratio of above 50% within the</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "vAMM (variable AMM)" and "sAMM: Using stable math to offer support for liquidity pairs that require direct 1:1 pegs with one and other."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Our unique selling point stems from the fact that we have taken the best bits of defi and curated these products and functions into a mega hub of all things DeFi.   In an AMM, liquidity providers simply deposit a pair of tokens and an algorithm automatically makes markets for the token pair. Traders can easily swap between tokens in the AMM and get guaranteed rates for the swaps. Each swap on SpiritSwap incurs a  fee&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; fee  , which gets distributed between partnership protocols, liquidity providers and inSPIRIT holders.  Our SPIRITv2AMM currently curates two AMM types.  1.vAMM (variable AMM): where a 50/50 match of tokens are combined, using the X*Y=K formula for swaps.  2.sAMM: Using stable math to offer support for liquidity pairs that require direct 1:1 pegs with one and other. Our current sAMM is an adapted and improved model of the solidly model.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The traditional AMM approach, called the “x*y = k model”, uses a constant balance between tokens in the pool, resulting in smaller trading fee bonuses for LPs and higher slippage. In contrast, concentrated liquidity allows LPs to open as many positions as they want in a pool, and earn fees when the price enters a specific range. This approach results in LPs earning more fees with less capital and traders benefiting from reduced slippage and deeper liquidity when and where it’s needed most.</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SpiritSwap</t>
+          <t>KnightSwap</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "vAMM (variable AMM)" and "sAMM: Using stable math to offer support for liquidity pairs that require direct 1:1 pegs with one and other."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Our unique selling point stems from the fact that we have taken the best bits of defi and curated these products and functions into a mega hub of all things DeFi.   In an AMM, liquidity providers simply deposit a pair of tokens and an algorithm automatically makes markets for the token pair. Traders can easily swap between tokens in the AMM and get guaranteed rates for the swaps. Each swap on SpiritSwap incurs a  fee&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; fee  , which gets distributed between partnership protocols, liquidity providers and inSPIRIT holders.  Our SPIRITv2AMM currently curates two AMM types.  1.vAMM (variable AMM): where a 50/50 match of tokens are combined, using the X*Y=K formula for swaps.  2.sAMM: Using stable math to offer support for liquidity pairs that require direct 1:1 pegs with one and other. Our current sAMM is an adapted and improved model of the solidly model.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The traditional AMM approach, called the “x*y = k model”, uses a constant balance between tokens in the pool, resulting in smaller trading fee bonuses for LPs and higher slippage. In contrast, concentrated liquidity allows LPs to open as many positions as they want in a pool, and earn fees when the price enters a specific range. This approach results in LPs earning more fees with less capital and traders benefiting from reduced slippage and deeper liquidity when and where it’s needed most.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Mean Market Maker (CMMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Innovative: This type uses a constant mean value AMM model to facilitate the transaction and pricing between two digital tokens or fiat assets. The prices are determined by the exchange rate fluctuations of the tokens, so the rewards for liquidity providers can fluctuate more greatly.  Important Terms in Liquidity Farming  Price: The price swap between the pair in the pool. The final price is based on the proportion of the pair in the liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; KnightSwap is DEX, but it is important to attract liquidity and create a large pool, the more liquidity there is in the pool, the less slippage the orders will have. So, what strategies will you use to attract enough liquidity and thus counteract the slippage of orders?  Nic- There is the standard playbook:  Project adds liquidity, our holders ape in and their token benefits, etc etc  But to avoid repeating the same thing everyone says….  Education is the answer.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Swap  Adding liquidity to a new pool  If the pool you wish to provide liquidity for does not exist, you can simply create it. As the first liquidity provider, you have the honor of setting the initial exchange ratio (price), if one of the tokens in the pair does not exist yet on KNIGHT. The price will correct itself (as long as there is demand) through arbitrage and by more liquidity providers adding to the pool.  You can add LP  here  How to add liquidity</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3271,44 +3271,27 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>KnightSwap</t>
+          <t>YuzuSwap</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Mean Market Maker (CMMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Innovative: This type uses a constant mean value AMM model to facilitate the transaction and pricing between two digital tokens or fiat assets. The prices are determined by the exchange rate fluctuations of the tokens, so the rewards for liquidity providers can fluctuate more greatly.  Important Terms in Liquidity Farming  Price: The price swap between the pair in the pool. The final price is based on the proportion of the pair in the liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; KnightSwap is DEX, but it is important to attract liquidity and create a large pool, the more liquidity there is in the pool, the less slippage the orders will have. So, what strategies will you use to attract enough liquidity and thus counteract the slippage of orders?  Nic- There is the standard playbook:  Project adds liquidity, our holders ape in and their token benefits, etc etc  But to avoid repeating the same thing everyone says….  Education is the answer.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Swap  Adding liquidity to a new pool  If the pool you wish to provide liquidity for does not exist, you can simply create it. As the first liquidity provider, you have the honor of setting the initial exchange ratio (price), if one of the tokens in the pair does not exist yet on KNIGHT. The price will correct itself (as long as there is demand) through arbitrage and by more liquidity providers adding to the pool.  You can add LP  here  How to add liquidity</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 0x21C718C22D52d0F3a789b752D4c2fD5908a8A733  YuzuSwap - profitable staking and mining  It is a decentralized exchange on Oasis Emerald paratime that includes incentives such as liquidity and trade mining. YuzuSwap follows a non-custodial, peer-to-peer, automated market maker model and aims to provide a secure, fast and low-cost token discovery and exchange tool in the Oasis ecosystem. The YuzuSwap platform itself is completely open to Yuzu DAO developers and members.  Contents:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What is Yuzu?  What is Yuzu?  YuzuSwap is a decentralized exchange on the Oasis Emerald paratime that includes incentives like liquidity &amp; and trade mining. YuzuSwap follows a non-custodial, peer-to-peer, automated-market-maker model, and aims to provide a safe, swift, low-cost tool to discover and swap tokens within the Oasis ecosystem. The YuzuSwap platform itself is fully open to developers and members of the Yuzu DAO.  Core Features&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; YuzuSwap  An open, safe, fair DEX ecosystem with high composability built on Oasis  What is Yuzu?  What is Yuzu?</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>YuzuSwap</t>
+          <t>Ezkalibur</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 0x21C718C22D52d0F3a789b752D4c2fD5908a8A733  YuzuSwap - profitable staking and mining  It is a decentralized exchange on Oasis Emerald paratime that includes incentives such as liquidity and trade mining. YuzuSwap follows a non-custodial, peer-to-peer, automated market maker model and aims to provide a secure, fast and low-cost token discovery and exchange tool in the Oasis ecosystem. The YuzuSwap platform itself is completely open to Yuzu DAO developers and members.  Contents:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What is Yuzu?  What is Yuzu?  YuzuSwap is a decentralized exchange on the Oasis Emerald paratime that includes incentives like liquidity &amp; and trade mining. YuzuSwap follows a non-custodial, peer-to-peer, automated-market-maker model, and aims to provide a safe, swift, low-cost tool to discover and swap tokens within the Oasis ecosystem. The YuzuSwap platform itself is fully open to developers and members of the Yuzu DAO.  Core Features&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; YuzuSwap  An open, safe, fair DEX ecosystem with high composability built on Oasis  What is Yuzu?  What is Yuzu?</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Ezkalibur</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; JavaScript is not available.  We’ve detected that JavaScript is disabled in this browser. Please enable JavaScript or switch to a supported browser to continue using twitter.com. You can see a list of supported browsers in our Help Center.  Help Center  Terms of Service        Privacy Policy@@ -3318,6 +3301,23 @@
        © 2023 X Corp.  Something went wrong, but don’t fret — let’s give it another shot.  Try again</t>
         </is>
       </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>DoveSwap v3</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  DoveSwap's innovative staking model&lt;br&gt;Possible answer:&lt;br&gt; - DoveSwap's staking model includes a vesting period, meaning that if you provide in-range liquidity for less than the vesting period, you receive significantly decreased rewards.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; DoveSwap's innovative staking model includes a vesting period, meaning that if you provide in-range liquidity for less than the vesting period, you receive significantly decreased rewards. This means that individuals who attempt the hyper-concentrated short term liquidity strategy outlined above will get virtually no rewards, and in fact their returns will almost certainly be negative due to swapping and slippage costs.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Staking Mechanics  Staking on most DEXs heavily favors short term liquidity providers. The problem is especially exacerbated on Concentrated Liquidity Market Maker(CLMM) DEXs like UniswapV3.   For example, Ribbon Finance ran a short lived incentive program using Uniswap's V3 staker to promote liquidity in their RBN/WETH pool. However, this was exploited by sophisticated individuals setting up an automated strategy that consisted of the following:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 1.Depositing liquidity into the minimum possible range.  2.Exiting the position when it went out of range.  3.Selling the received rewards.  4.Swapping into a new minimum range position around the current price.  The program ended with 77% of the rewards going to just 14 accounts, all using this same strategy. It’s pretty clear that this is not an ideal outcome, both from a liquidity provision perspective, as well as from the perspective of rewarding the RBN community.  Our Solution</t>
+        </is>
+      </c>
       <c r="C163" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
@@ -3327,63 +3327,63 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>DoveSwap v3</t>
+          <t>MagicSwap</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  DoveSwap's innovative staking model&lt;br&gt;Possible answer:&lt;br&gt; - DoveSwap's staking model includes a vesting period, meaning that if you provide in-range liquidity for less than the vesting period, you receive significantly decreased rewards.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; DoveSwap's innovative staking model includes a vesting period, meaning that if you provide in-range liquidity for less than the vesting period, you receive significantly decreased rewards. This means that individuals who attempt the hyper-concentrated short term liquidity strategy outlined above will get virtually no rewards, and in fact their returns will almost certainly be negative due to swapping and slippage costs.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Staking Mechanics  Staking on most DEXs heavily favors short term liquidity providers. The problem is especially exacerbated on Concentrated Liquidity Market Maker(CLMM) DEXs like UniswapV3.   For example, Ribbon Finance ran a short lived incentive program using Uniswap's V3 staker to promote liquidity in their RBN/WETH pool. However, this was exploited by sophisticated individuals setting up an automated strategy that consisted of the following:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 1.Depositing liquidity into the minimum possible range.  2.Exiting the position when it went out of range.  3.Selling the received rewards.  4.Swapping into a new minimum range position around the current price.  The program ended with 77% of the rewards going to just 14 accounts, all using this same strategy. It’s pretty clear that this is not an ideal outcome, both from a liquidity provision perspective, as well as from the perspective of rewarding the RBN community.  Our Solution</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Moreover, the design of the MAGIC mine created uniquely high rewards for users who were willing to lock up their MAGIC for longer periods. These users played a key role in bootstrapping liquidity for the protocol and demonstrated great confidence in its future. This group proved themselves to be the best stewards of the protocol and therefore the best possible trustees of the DAO.  PreviousLiquidity Abstraction  NextHow do I buy $MAGIC?  Last modified   1mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; In addition, MagicSwap has also added a liquidation mechanism. When the asset depreciation reaches the liquidation standard, the governor can obtain the ownership of the mortgaged assets of the project party through a one-off auction method. Under the premise of protecting privacy, avoiding short-selling reasons Liquidation allows investors to share the risk of debt.  The introduction of physical assets is a big step away from reality&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; For investors and project parties who are frequently exposed to liquidation, shorting, and running away in the market today, MagicSwap has concluded that the privacy protection of the blockchain is the ultimate answer and the greatest wealth.</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 Treasure  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MagicSwap</t>
+          <t>Rai Finance</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Moreover, the design of the MAGIC mine created uniquely high rewards for users who were willing to lock up their MAGIC for longer periods. These users played a key role in bootstrapping liquidity for the protocol and demonstrated great confidence in its future. This group proved themselves to be the best stewards of the protocol and therefore the best possible trustees of the DAO.  PreviousLiquidity Abstraction  NextHow do I buy $MAGIC?  Last modified   1mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; In addition, MagicSwap has also added a liquidation mechanism. When the asset depreciation reaches the liquidation standard, the governor can obtain the ownership of the mortgaged assets of the project party through a one-off auction method. Under the premise of protecting privacy, avoiding short-selling reasons Liquidation allows investors to share the risk of debt.  The introduction of physical assets is a big step away from reality&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; For investors and project parties who are frequently exposed to liquidation, shorting, and running away in the market today, MagicSwap has concluded that the privacy protection of the blockchain is the ultimate answer and the greatest wealth.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The name RAI was originated from The Rai Stones, which were basically huge stone wheels used as currency on the island of Yap. They were considered as one of the very first currency model that were used in the human history. We wanted to boost our finance protocol by naming us with this, by connecting various digital currencies in different blockchains powered by Polkadot.  What is Rai Finance Solutions&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Who is our competitor?  Our direct competitors are all the AMM based DeFi applications. However, if we consider the end goal of our product is 2 way interface with AMM and order book type DEX, we think we have distinguished segment at this point of time.  Where is Rai Finance based?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The RAI debt value in USD in the Safe, needs the cover the full LP position value (RAI + DAI) to earn maximum rewards. If the RAI debt is less than the total LP position value, a proportional discount is applied to your reward amount.  How It Works  1.Go to app.reflexer.finance or DeFi Saver and mint some RAI.  2.Go to the RAI/DAI Uniswap v3 pool and add the RAI you minted as liquidity  When choosing the range, make sure to include both the redemption and the market price:</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 Treasure  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) 2020 Chuck Smith  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Rai Finance</t>
+          <t>Fstswap</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The name RAI was originated from The Rai Stones, which were basically huge stone wheels used as currency on the island of Yap. They were considered as one of the very first currency model that were used in the human history. We wanted to boost our finance protocol by naming us with this, by connecting various digital currencies in different blockchains powered by Polkadot.  What is Rai Finance Solutions&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Who is our competitor?  Our direct competitors are all the AMM based DeFi applications. However, if we consider the end goal of our product is 2 way interface with AMM and order book type DEX, we think we have distinguished segment at this point of time.  Where is Rai Finance based?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The RAI debt value in USD in the Safe, needs the cover the full LP position value (RAI + DAI) to earn maximum rewards. If the RAI debt is less than the total LP position value, a proportional discount is applied to your reward amount.  How It Works  1.Go to app.reflexer.finance or DeFi Saver and mint some RAI.  2.Go to the RAI/DAI Uniswap v3 pool and add the RAI you minted as liquidity  When choosing the range, make sure to include both the redemption and the market price:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 日本語  fstswap  crypto futures  bitcoin futures  ethereum futures  cardano futures  litecoin futures  What is fstswap &amp; how does it work?FstSwap is a decentralized exchange (DEX) for BEP-20 token swaps on the BNB Chain. It uses an automated market maker (AMM) model to enable fast, cheap and frictionless trading. Traders get matched by a liquidity pool that liquidity providers can deposit capital into.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; FstSwap Supported Coins List  The exchange supports all BEP-20 tokens. Due to its decentralized nature, users can list new tokens in a permissionless manner, as long as they provide enough liquidity to facilitate trading.  How Much Are FstSwap Fees?  At the time of writing, token swaps incur a 0.30% trading fee. The entire transaction fee is distributed back to the AMM liquidity provider.  Is It Possible To Use Leverage or Margin Trade on FstSwap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; decentralized exchange (DEX) for  BEP-20 token  swaps on the  BNB Chain. It uses an  automated market maker (AMM) model to enable fast, cheap and frictionless trading. Traders get matched by a  liquidity pool that  liquidity providers can deposit capital into. They receive  LP tokens for doing so and get a share of the trading fees based on their LP tokens.</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) 2020 Chuck Smith  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Fstswap</t>
+          <t>Synthswap</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 日本語  fstswap  crypto futures  bitcoin futures  ethereum futures  cardano futures  litecoin futures  What is fstswap &amp; how does it work?FstSwap is a decentralized exchange (DEX) for BEP-20 token swaps on the BNB Chain. It uses an automated market maker (AMM) model to enable fast, cheap and frictionless trading. Traders get matched by a liquidity pool that liquidity providers can deposit capital into.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; FstSwap Supported Coins List  The exchange supports all BEP-20 tokens. Due to its decentralized nature, users can list new tokens in a permissionless manner, as long as they provide enough liquidity to facilitate trading.  How Much Are FstSwap Fees?  At the time of writing, token swaps incur a 0.30% trading fee. The entire transaction fee is distributed back to the AMM liquidity provider.  Is It Possible To Use Leverage or Margin Trade on FstSwap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; decentralized exchange (DEX) for  BEP-20 token  swaps on the  BNB Chain. It uses an  automated market maker (AMM) model to enable fast, cheap and frictionless trading. Traders get matched by a  liquidity pool that  liquidity providers can deposit capital into. They receive  LP tokens for doing so and get a share of the trading fees based on their LP tokens.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Algebra  We would like to take this opportunity to extend our gratitude to Algebra, our partner in bringing the Concentrated Liquidity feature to the Synthswap platform.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; More work for Projects managing their own Liquidity  Additionally, projects looking to manage their own liquidity and engage in market-making activities will need to allocate more time and resources under a CL environment.  ALMs are focused on active management for CL AMMs to maximize fee generation, minimize impermanent loss, and automate the process of rebalancing users' positions.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The APR is dependent on the TVL of the position, the amount of time that the position has been active, and the width of the range.  v2 vs. v3  Earlier implementations of AMMs used the so-called XYK model, based on the x*y=k price curve. The idea was to maintain constant balance within a liquidity pool so that the total value of one token would always equal the total value of the other token in the pool; regardless of their current price against each other.</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3395,44 +3395,27 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Synthswap</t>
+          <t>IDEX</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Algebra  We would like to take this opportunity to extend our gratitude to Algebra, our partner in bringing the Concentrated Liquidity feature to the Synthswap platform.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; More work for Projects managing their own Liquidity  Additionally, projects looking to manage their own liquidity and engage in market-making activities will need to allocate more time and resources under a CL environment.  ALMs are focused on active management for CL AMMs to maximize fee generation, minimize impermanent loss, and automate the process of rebalancing users' positions.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The APR is dependent on the TVL of the position, the amount of time that the position has been active, and the width of the range.  v2 vs. v3  Earlier implementations of AMMs used the so-called XYK model, based on the x*y=k price curve. The idea was to maintain constant balance within a liquidity pool so that the total value of one token would always equal the total value of the other token in the pool; regardless of their current price against each other.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Hybrid Liquidity  IDEX is the first order book exchange to integrate a smart-contract Automated Market Maker (AMM) as a liquidity source.  IDEX Hybrid Liquidity (IDEX HL) is a next generation DEX that combines a traditional order book and matching engine with liquidity pools of an automated market maker (AMM). Traders are seamlessly matched against the best combination of limit orders and pool liquidity for the lowest-cost execution without any additional effort.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; .css-1iqe90x{box-sizing:border-box;margin:0;min-width:0;color:#EAECEF;}IDEX is a peer-to-peer platform that allows crypto traders to make transactions on a decentralized exchange. Unlike other decentralized exchanges, IDEX is a hybrid liquidity DEX that combines an order book model with Automated Market Making (AMM). This unique approach blends the performance and features of a traditional order book model with the security and liquidity of an AMM, resulting in the best features of both&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; .css-1iqe90x{box-sizing:border-box;margin:0;min-width:0;color:#EAECEF;}IDEX is a peer-to-peer platform that allows crypto traders to make transactions on a decentralized exchange. Unlike other decentralized exchanges, IDEX is a hybrid liquidity DEX that combines an order book model with Automated Market Making (AMM). This unique approach blends the performance and features of a traditional order book model with the security and liquidity of an AMM, resulting in the best features of both</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>IDEX</t>
+          <t>Nash</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Hybrid Liquidity  IDEX is the first order book exchange to integrate a smart-contract Automated Market Maker (AMM) as a liquidity source.  IDEX Hybrid Liquidity (IDEX HL) is a next generation DEX that combines a traditional order book and matching engine with liquidity pools of an automated market maker (AMM). Traders are seamlessly matched against the best combination of limit orders and pool liquidity for the lowest-cost execution without any additional effort.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; .css-1iqe90x{box-sizing:border-box;margin:0;min-width:0;color:#EAECEF;}IDEX is a peer-to-peer platform that allows crypto traders to make transactions on a decentralized exchange. Unlike other decentralized exchanges, IDEX is a hybrid liquidity DEX that combines an order book model with Automated Market Making (AMM). This unique approach blends the performance and features of a traditional order book model with the security and liquidity of an AMM, resulting in the best features of both&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; .css-1iqe90x{box-sizing:border-box;margin:0;min-width:0;color:#EAECEF;}IDEX is a peer-to-peer platform that allows crypto traders to make transactions on a decentralized exchange. Unlike other decentralized exchanges, IDEX is a hybrid liquidity DEX that combines an order book model with Automated Market Making (AMM). This unique approach blends the performance and features of a traditional order book model with the security and liquidity of an AMM, resulting in the best features of both</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Nash</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Holmstrom, B., Tirole, J.: Lapm: a liquidity-based asset pricing model. J. Financ. 56(5), 1837–1867 (2001)Article       @@ -3445,225 +3428,242 @@
                      Google Scholar  PJM: PJM 2007 strategic report. Technical report, PJM (2007)</t>
         </is>
       </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2016 Vince Knight  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Forteswap</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  The value of the tokens in the pool.&lt;br&gt;&lt;br&gt;This question cannot be answered based on the provided context.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Innovative: This type uses a constant mean value AMM model to facilitate the transaction and pricing between two digital tokens or fiat assets. The prices are determined by the exchange rate fluctuations of the tokens, so the rewards for liquidity providers can fluctuate more greatly.  Important Terms in Liquidity Farming  Price: The price swap between the pair in the pool. The final price is based on the proportion of the pair in the liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Binance Smart Pool Explained for Beginners  Types of Liquidity Farming  The following are two types of liquidity farming offered by Binance:  Stable: Uses a hybrid constant function of the AMM model to facilitate the transaction and pricing between two stable tokens. It can also provide a low slippage trading experience as the prices of the two tokens in the pool are determined by the exchange rate fluctuations of the stablecoins. In addition, the rewards are more stable than the other type.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Portion of the pool: The estimated shares of the pool after you add liquidity. The portion fluctuates depending on the pool's liquidity at the time of your order.  Pool Portion Composition: The current composites of your portion. The number of the assets will change in real-time based on the current pool condition.  Cost per Portion: Calculated after you add some tokens into the pool (priced in USD).</t>
+        </is>
+      </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2016 Vince Knight  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Forteswap</t>
+          <t>Fraxswap</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  The value of the tokens in the pool.&lt;br&gt;&lt;br&gt;This question cannot be answered based on the provided context.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Innovative: This type uses a constant mean value AMM model to facilitate the transaction and pricing between two digital tokens or fiat assets. The prices are determined by the exchange rate fluctuations of the tokens, so the rewards for liquidity providers can fluctuate more greatly.  Important Terms in Liquidity Farming  Price: The price swap between the pair in the pool. The final price is based on the proportion of the pair in the liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Binance Smart Pool Explained for Beginners  Types of Liquidity Farming  The following are two types of liquidity farming offered by Binance:  Stable: Uses a hybrid constant function of the AMM model to facilitate the transaction and pricing between two stable tokens. It can also provide a low slippage trading experience as the prices of the two tokens in the pool are determined by the exchange rate fluctuations of the stablecoins. In addition, the rewards are more stable than the other type.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Portion of the pool: The estimated shares of the pool after you add liquidity. The portion fluctuates depending on the pool's liquidity at the time of your order.  Pool Portion Composition: The current composites of your portion. The number of the assets will change in real-time based on the current pool condition.  Cost per Portion: Calculated after you add some tokens into the pool (priced in USD).</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Frax ETH employs a "Proactive Market Maker (PMM)" liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Frax ETH, A Novel Liquid Staking Derivative Model  Frax’s dual token model achieves higher staking yields than its competitors– How do they do it?  Juan Pellicer·Follow  Published inIntoTheBlock·7 min read·Jan 17  --  Listen  Share&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; You will arrive at the following page:  Step 2  Write the amount of FRAX you want to add to the liquidity pool, Fraxswap will automatically calculate the equivalent IQ that needs to be added.  Step 3  Click “Supply” .  (NOTE: It is recommended to use enough gas fees to execute the transaction)  A MetaMask transaction will pop-up to approve your spendings.  Click “Confirm” .  Another MetaMask transaction will pop-up to add liquidity.  Click “Confirm” .  Step 4&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Another MetaMask transaction will pop-up to add liquidity.  Click “Confirm” .  Step 4  After waiting for the transaction to be completed, you will receive FRAX-IQ LP tokens, and Fraxswap will display your liquidity status here:  Step 5 (Staking)  Head to FRAX-IQ staking page: https://app.frax.finance/staking/fraxswap-frax-iq-v3  You will arrive at this page:</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; For more information, please refer to &lt;http://unlicense.org/&gt;&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; This is free and unencumbered software released into the public domain.  Anyone is free to copy, modify, publish, use, compile, sell, or distribute this software, either in source code form or as a compiled binary, for any purpose, commercial or non-commercial, and by any means.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In jurisdictions that recognize copyright laws, the author or authors of this software dedicate any and all copyright interest in the software to the public domain. We make this dedication for the benefit of the public at large and to the detriment of our heirs and successors. We intend this dedication to be an overt act of relinquishment in perpetuity of all present and future rights to this software under copyright law.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Fraxswap</t>
+          <t>Dark Knight</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Frax ETH employs a "Proactive Market Maker (PMM)" liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Frax ETH, A Novel Liquid Staking Derivative Model  Frax’s dual token model achieves higher staking yields than its competitors– How do they do it?  Juan Pellicer·Follow  Published inIntoTheBlock·7 min read·Jan 17  --  Listen  Share&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; You will arrive at the following page:  Step 2  Write the amount of FRAX you want to add to the liquidity pool, Fraxswap will automatically calculate the equivalent IQ that needs to be added.  Step 3  Click “Supply” .  (NOTE: It is recommended to use enough gas fees to execute the transaction)  A MetaMask transaction will pop-up to approve your spendings.  Click “Confirm” .  Another MetaMask transaction will pop-up to add liquidity.  Click “Confirm” .  Step 4&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Another MetaMask transaction will pop-up to add liquidity.  Click “Confirm” .  Step 4  After waiting for the transaction to be completed, you will receive FRAX-IQ LP tokens, and Fraxswap will display your liquidity status here:  Step 5 (Staking)  Head to FRAX-IQ staking page: https://app.frax.finance/staking/fraxswap-frax-iq-v3  You will arrive at this page:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Swap  Adding liquidity to a new pool  If the pool you wish to provide liquidity for does not exist, you can simply create it. As the first liquidity provider, you have the honor of setting the initial exchange ratio (price), if one of the tokens in the pair does not exist yet on DARK KNIGHT. The price will correct itself (as long as there is demand) through arbitrage and by more liquidity providers adding to the pool.  You can add LP  here  How to add liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; KNIGHT BSC / DARK KNIGHT FTMThe preeminent (DEX) on BSC &amp; FTM built for reliable &amp; sustainable yields while providing the highest quality…medium.com  How do we know investors are using the platform?  A quick measurement of whether or not investors are using the platform and finding value with the tools being provided is to check the total value locked (TVL).  https://knights.gitbook.io/knightswap/differentiating-factors/the-order-of-the-knight#tvl-achievement-list&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; You can also reference this video  Step-By-Step Guides - PreviousHow To Swap On Dark Knight  Next - Step-By-Step GuidesRemoving Liquidity  Last modified   1yr ago</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; For more information, please refer to &lt;http://unlicense.org/&gt;&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; This is free and unencumbered software released into the public domain.  Anyone is free to copy, modify, publish, use, compile, sell, or distribute this software, either in source code form or as a compiled binary, for any purpose, commercial or non-commercial, and by any means.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In jurisdictions that recognize copyright laws, the author or authors of this software dedicate any and all copyright interest in the software to the public domain. We make this dedication for the benefit of the public at large and to the detriment of our heirs and successors. We intend this dedication to be an overt act of relinquishment in perpetuity of all present and future rights to this software under copyright law.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Dark Knight</t>
+          <t>DeDust</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Swap  Adding liquidity to a new pool  If the pool you wish to provide liquidity for does not exist, you can simply create it. As the first liquidity provider, you have the honor of setting the initial exchange ratio (price), if one of the tokens in the pair does not exist yet on DARK KNIGHT. The price will correct itself (as long as there is demand) through arbitrage and by more liquidity providers adding to the pool.  You can add LP  here  How to add liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; KNIGHT BSC / DARK KNIGHT FTMThe preeminent (DEX) on BSC &amp; FTM built for reliable &amp; sustainable yields while providing the highest quality…medium.com  How do we know investors are using the platform?  A quick measurement of whether or not investors are using the platform and finding value with the tools being provided is to check the total value locked (TVL).  https://knights.gitbook.io/knightswap/differentiating-factors/the-order-of-the-knight#tvl-achievement-list&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; You can also reference this video  Step-By-Step Guides - PreviousHow To Swap On Dark Knight  Next - Step-By-Step GuidesRemoving Liquidity  Last modified   1yr ago</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; FOR DEVELOPERS  Introduction  Concepts  DeDust SDKGetting Started with DeDust SDKSwapsLiquidity ProvisioningAdding new jettonsBuilding advanced mechanics  Powered by   Introduction  Suggest Edits&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; SafePal, Rainbow, and others. Additionally, DeDust launched a community incentives program and distributed rewards to participating liquidity providers.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Megaton Finance currently leads with 53.49% of the network TVL. DeDust and STON.fi, however, experienced a larger increase in their TVL compared to the previous quarter.  Additionally, DeDust is at the forefront in terms of TVL in some of the popular pools with pairs including TON.  Megaton Finance Dashboard  DeDust Dashboard  Flex Dashboard  STON.fi leads by 24hr trading volume followed by Megaton Finance:  Tonalytica.Redoubt.Online</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 ClickoTON Foundation  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>DeDust</t>
+          <t>Defi Kingdoms</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; FOR DEVELOPERS  Introduction  Concepts  DeDust SDKGetting Started with DeDust SDKSwapsLiquidity ProvisioningAdding new jettonsBuilding advanced mechanics  Powered by   Introduction  Suggest Edits&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; SafePal, Rainbow, and others. Additionally, DeDust launched a community incentives program and distributed rewards to participating liquidity providers.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Megaton Finance currently leads with 53.49% of the network TVL. DeDust and STON.fi, however, experienced a larger increase in their TVL compared to the previous quarter.  Additionally, DeDust is at the forefront in terms of TVL in some of the popular pools with pairs including TON.  Megaton Finance Dashboard  DeDust Dashboard  Flex Dashboard  STON.fi leads by 24hr trading volume followed by Megaton Finance:  Tonalytica.Redoubt.Online</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Rewards for Providing Liquidity in DeFi Kingdoms&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Rewards for Providing Liquidity in DeFi Kingdoms&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Complexity and higher barrier of entry for new users.  Need for liquidity.  In DeFi Kingdoms, the DEX is built into the game layer. For example, on Harmony, the DEX can be accessed via the Trader in the Marketplace.  What are Liquidity Pools?</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 ClickoTON Foundation  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 SansegoTek  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 SansegoTek  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 SansegoTek  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Defi Kingdoms</t>
+          <t>Tethys</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Rewards for Providing Liquidity in DeFi Kingdoms&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Rewards for Providing Liquidity in DeFi Kingdoms&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Complexity and higher barrier of entry for new users.  Need for liquidity.  In DeFi Kingdoms, the DEX is built into the game layer. For example, on Harmony, the DEX can be accessed via the Trader in the Marketplace.  What are Liquidity Pools?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Tethys Pre-packaged Equities Algorithms  EMINI (Tethys Minimum Time Execution)  EPEGE (Tethys Synthetic Peg)  EVWAP (Tethys Volume Weighted Average Price)  ETWAP (Tethys Time Weighted Average Price)  ELINE (Tethys Curvilinear)  ESENS (Tethys Sensitive Execution)  EPART (Tethys Volume Participation)  EISFL (Tethys Implementation Shortfall)  ESTLT (Tethys Stealth)  ESCAL (Tethys Scaling Algorithm)  ESPRD (Tethys Spread Trading)  EPORT (Tethys Portfolio Trading)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; TethysALGO Futures  Supported by a quantitative research team with extensive knowledge of market microstructure for global futures, options, equities and FX markets, algorithms for the futures market includes:  EMINI (Tethys Minimum Time Execution)  EVWAP (Tethys Volume Weighted Average Price)  ELINE (Tethys Curvilinear)  ETWAP (Tethys Time Weighted Average Price)  ESENS (Tethys Sensitive Execution)  ESCAL (Tethys Scaling Algorithm)  EPART (Tethys Volume Participation)  ESTLTH (Tethys Stealth)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Alpha Decay  Reversion or Momentum  Benchmark Tracking and Error  Participation Rate  Price Utility  Time Horizon to Completion  “Footprint” Information Leakage  Risk Aversion  The Tethys suite of algorithms is delivered as an algorithmic engine integrated via FIX or API to other applications or other execution management products. Clients can easily utilize existing exchange connections or choose broker DMA (Direct Market Access) pipes.  The TethysALGO Suite  TethysALGO Equities</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 SansegoTek  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 SansegoTek  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 SansegoTek  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; - Redistributions of source code must retain the above copyright notice,  	  this list of conditions and the following disclaimer. 	- Redistributions in binary form must reproduce the above copyright notice, 	  this list of conditions and the following disclaimer in the documentation 	  and/or other materials provided with the distribution.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; THIS SOFTWARE IS PROVIDED BY THE COPYRIGHT HOLDERS AND CONTRIBUTORS "AS IS" AND  ANY EXPRESS OR IMPLIED WARRANTIES, INCLUDING, BUT NOT LIMITED TO, THE IMPLIED  WARRANTIES OF MERCHANTABILITY AND FITNESS FOR A PARTICULAR PURPOSE ARE DISCLAIMED. IN NO EVENT SHALL THE COPYRIGHT HOLDER OR CONTRIBUTORS BE LIABLE FOR ANY DIRECT, INDIRECT, INCIDENTAL, SPECIAL, EXEMPLARY, OR CONSEQUENTIAL DAMAGES (INCLUDING, BUT  NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR SERVICES; LOSS OF USE, DATA, OR&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; BSD 2-Clause License  Copyright (c) 2013, Brigham Young University All rights reserved.  Redistribution and use in source and binary forms, with or without modification, are permitted provided that the following conditions are met:</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Tethys</t>
+          <t>Convergence</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Tethys Pre-packaged Equities Algorithms  EMINI (Tethys Minimum Time Execution)  EPEGE (Tethys Synthetic Peg)  EVWAP (Tethys Volume Weighted Average Price)  ETWAP (Tethys Time Weighted Average Price)  ELINE (Tethys Curvilinear)  ESENS (Tethys Sensitive Execution)  EPART (Tethys Volume Participation)  EISFL (Tethys Implementation Shortfall)  ESTLT (Tethys Stealth)  ESCAL (Tethys Scaling Algorithm)  ESPRD (Tethys Spread Trading)  EPORT (Tethys Portfolio Trading)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; TethysALGO Futures  Supported by a quantitative research team with extensive knowledge of market microstructure for global futures, options, equities and FX markets, algorithms for the futures market includes:  EMINI (Tethys Minimum Time Execution)  EVWAP (Tethys Volume Weighted Average Price)  ELINE (Tethys Curvilinear)  ETWAP (Tethys Time Weighted Average Price)  ESENS (Tethys Sensitive Execution)  ESCAL (Tethys Scaling Algorithm)  EPART (Tethys Volume Participation)  ESTLTH (Tethys Stealth)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Alpha Decay  Reversion or Momentum  Benchmark Tracking and Error  Participation Rate  Price Utility  Time Horizon to Completion  “Footprint” Information Leakage  Risk Aversion  The Tethys suite of algorithms is delivered as an algorithmic engine integrated via FIX or API to other applications or other execution management products. Clients can easily utilize existing exchange connections or choose broker DMA (Direct Market Access) pipes.  The TethysALGO Suite  TethysALGO Equities</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Imagine the equivalent financial product: it would allow simultaneous exposure to debt/equity, long/short positions, public/private markets and with full liquidity available to the widest range of institutional and private investors. It might seem as far-fetched as our non-flying hybrid pig, but as you will discover in this series of articles, there is a trend of convergence towards such structures.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Home » Operational efficiency » Alternatives business models » The Great Convergence  The Great Convergence  In the first article in our series, we will explain what we mean by convergence, exploring the context and highlighting some key topics and considerations.  Operational efficiency  Alternatives business models  Written by  Diarmuid Ryan  Global Head of Liquid Alternatives, Hedge Fund Services at BNP Paribas Securities Services  view profile  Frank Roden&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In this first article, we will explain what we mean by convergence, exploring the context and highlighting some key topics that we elaborate on in future articles.  Going up and down the liquidity spectrum</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; - Redistributions of source code must retain the above copyright notice,  	  this list of conditions and the following disclaimer. 	- Redistributions in binary form must reproduce the above copyright notice, 	  this list of conditions and the following disclaimer in the documentation 	  and/or other materials provided with the distribution.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; THIS SOFTWARE IS PROVIDED BY THE COPYRIGHT HOLDERS AND CONTRIBUTORS "AS IS" AND  ANY EXPRESS OR IMPLIED WARRANTIES, INCLUDING, BUT NOT LIMITED TO, THE IMPLIED  WARRANTIES OF MERCHANTABILITY AND FITNESS FOR A PARTICULAR PURPOSE ARE DISCLAIMED. IN NO EVENT SHALL THE COPYRIGHT HOLDER OR CONTRIBUTORS BE LIABLE FOR ANY DIRECT, INDIRECT, INCIDENTAL, SPECIAL, EXEMPLARY, OR CONSEQUENTIAL DAMAGES (INCLUDING, BUT  NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR SERVICES; LOSS OF USE, DATA, OR&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; BSD 2-Clause License  Copyright (c) 2013, Brigham Young University All rights reserved.  Redistribution and use in source and binary forms, with or without modification, are permitted provided that the following conditions are met:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 autonomousvision  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Convergence</t>
+          <t>SoulSwap</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Imagine the equivalent financial product: it would allow simultaneous exposure to debt/equity, long/short positions, public/private markets and with full liquidity available to the widest range of institutional and private investors. It might seem as far-fetched as our non-flying hybrid pig, but as you will discover in this series of articles, there is a trend of convergence towards such structures.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Home » Operational efficiency » Alternatives business models » The Great Convergence  The Great Convergence  In the first article in our series, we will explain what we mean by convergence, exploring the context and highlighting some key topics and considerations.  Operational efficiency  Alternatives business models  Written by  Diarmuid Ryan  Global Head of Liquid Alternatives, Hedge Fund Services at BNP Paribas Securities Services  view profile  Frank Roden&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In this first article, we will explain what we mean by convergence, exploring the context and highlighting some key topics that we elaborate on in future articles.  Going up and down the liquidity spectrum</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The Double-Edged Sword of Liquidity Mining  Last year, during the onset of “DeFi Summer 2020”, Compound created the traditional ‘Liquidity Mining’ model, which enabled them to quickly bootstrap the protocol in its early stages. This same model has been replicated by the likes of SushiSwap, PancakeSwap, and many others as a means of acquiring consistent liquidity for a protocol.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; I sought to find a way integrate this notion of bonding with a more familiar activity most are actively using daily — ‘farming’ or ‘liquidity mining’. This resulted in a somewhat hybrid model, which we will now review for anyone interest in replicating the concept or participating in the new model. Please do not consider this investment advice and always continue to ask for clarification until you fully-understand your investment endeavors.  How Soul Bonding Works&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In this article, I will compare competing models of liquidity incentives and clarify the key components and differentiating factors utilized in our innovative Protocol-Owned DEX Liquidity model we recently adopted.  The Double-Edged Sword of Liquidity Mining</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 autonomousvision  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) Beefy Finance  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SoulSwap</t>
+          <t>Wagyuswap</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The Double-Edged Sword of Liquidity Mining  Last year, during the onset of “DeFi Summer 2020”, Compound created the traditional ‘Liquidity Mining’ model, which enabled them to quickly bootstrap the protocol in its early stages. This same model has been replicated by the likes of SushiSwap, PancakeSwap, and many others as a means of acquiring consistent liquidity for a protocol.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; I sought to find a way integrate this notion of bonding with a more familiar activity most are actively using daily — ‘farming’ or ‘liquidity mining’. This resulted in a somewhat hybrid model, which we will now review for anyone interest in replicating the concept or participating in the new model. Please do not consider this investment advice and always continue to ask for clarification until you fully-understand your investment endeavors.  How Soul Bonding Works&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In this article, I will compare competing models of liquidity incentives and clarify the key components and differentiating factors utilized in our innovative Protocol-Owned DEX Liquidity model we recently adopted.  The Double-Edged Sword of Liquidity Mining</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The WagyuSwap exchange offers a simple and cost-effective interface for swapping VEP-20 tokens using liquidity pools. For the WagyuSwap exchange to function, there must be liquidity provision. This is because the AMM model uses algorithms and liquidity pools. AMMs are free of intermediaries and operate using smart contracts instead. Further, market makers are replaced by oracles, and a mathematical formula dictates the parameters and rules of trading.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Uniswap is widely considered to be a pioneering AMM. Several popular DEXs emerging throughout the industry get inspiration from the exchange and use the same mathematical formula of “x * y = k”. In this formula, the “x” refers to the amount of a specific token in a pool. The “y” in this formula represents the other token in a trading pair, and the “k” refers to a fixed constant. As an alternative to centralized exchanges (CEXs), AMM-based DEXs have become a staple in decentralized finance&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Aave,  Compound,  Synthetix, and  MakerDAO.  Then, check out our DeFi 201 course to learn about yield farming, liquidity pools, crypto arbitrage, flash loan programming, and crypto hedge funds. Or, see our Technical Analysis 101 course to improve your trading session and build better trading strategies. Start your DeFi journey today with Moralis Academy!  What is WagyuSwap?</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) Beefy Finance  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Wagyuswap</t>
+          <t>Marswap</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The WagyuSwap exchange offers a simple and cost-effective interface for swapping VEP-20 tokens using liquidity pools. For the WagyuSwap exchange to function, there must be liquidity provision. This is because the AMM model uses algorithms and liquidity pools. AMMs are free of intermediaries and operate using smart contracts instead. Further, market makers are replaced by oracles, and a mathematical formula dictates the parameters and rules of trading.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Uniswap is widely considered to be a pioneering AMM. Several popular DEXs emerging throughout the industry get inspiration from the exchange and use the same mathematical formula of “x * y = k”. In this formula, the “x” refers to the amount of a specific token in a pool. The “y” in this formula represents the other token in a trading pair, and the “k” refers to a fixed constant. As an alternative to centralized exchanges (CEXs), AMM-based DEXs have become a staple in decentralized finance&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Aave,  Compound,  Synthetix, and  MakerDAO.  Then, check out our DeFi 201 course to learn about yield farming, liquidity pools, crypto arbitrage, flash loan programming, and crypto hedge funds. Or, see our Technical Analysis 101 course to improve your trading session and build better trading strategies. Start your DeFi journey today with Moralis Academy!  What is WagyuSwap?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MSWAP Token: Harnessing Ecosystem Earnings  At the core of the Marswap ecosystem lies the MSWAP token on the Ethereum chain. This token plays a pivotal role in capturing the earnings generated within the Marswap ecosystem. As users engage in swaps and other activities, a portion of the earnings is allocated to MSWAP token holders. This dynamic directly connects the ecosystem’s success to the appreciation of token value.  Introducing MSWAPF Token: Empowering Liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 🟣 Cryptiq·Follow  2 min read·Sep 5  --  Listen  Share  A Paradigm Shift in Decentralized Swaps  Marswap introduces a fresh perspective to decentralized swaps, setting it apart in an ever-growing sea of blockchain projects. What truly distinguishes Marswap is its unique dual-token approach, introducing new dimensions of earning potential and utility within its ecosystem. Allow me to elaborate on this innovative model:  MSWAP Token: Harnessing Ecosystem Earnings&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Preparing for Swift, Secure, and Efficient Trading  In anticipation of Shibarium’s launch, Marswap plans to leverage its smart routers to facilitate speedy and reliable trading with minimal fees. Users can look forward to trading an array of cryptocurrencies without intermediaries, bolstered by an automated market maker (AMM) model. The model, backed by Solidity-written smart contracts and independent audits, promises uninterrupted trades without the need for order books.</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Marswap</t>
+          <t>Huckleberry</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MSWAP Token: Harnessing Ecosystem Earnings  At the core of the Marswap ecosystem lies the MSWAP token on the Ethereum chain. This token plays a pivotal role in capturing the earnings generated within the Marswap ecosystem. As users engage in swaps and other activities, a portion of the earnings is allocated to MSWAP token holders. This dynamic directly connects the ecosystem’s success to the appreciation of token value.  Introducing MSWAPF Token: Empowering Liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 🟣 Cryptiq·Follow  2 min read·Sep 5  --  Listen  Share  A Paradigm Shift in Decentralized Swaps  Marswap introduces a fresh perspective to decentralized swaps, setting it apart in an ever-growing sea of blockchain projects. What truly distinguishes Marswap is its unique dual-token approach, introducing new dimensions of earning potential and utility within its ecosystem. Allow me to elaborate on this innovative model:  MSWAP Token: Harnessing Ecosystem Earnings&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Preparing for Swift, Secure, and Efficient Trading  In anticipation of Shibarium’s launch, Marswap plans to leverage its smart routers to facilitate speedy and reliable trading with minimal fees. Users can look forward to trading an array of cryptocurrencies without intermediaries, bolstered by an automated market maker (AMM) model. The model, backed by Solidity-written smart contracts and independent audits, promises uninterrupted trades without the need for order books.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;Huckleberry's $FINN?&lt;br&gt;&lt;br&gt;Answer: Cannot determine                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; So, without further ado.  Huckleberry: Mighty free and easy and comfortable  Huckleberry is a brand-new kind of community driven AMM crosschain DEX built on Moonriver usin’ Wanchain’s decentralized crosschain bridges. It is designed for curious drifters like you and me. Huckleberry’s governance reward token is called $FINN, named after yours truly.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; In addition to the standard swappin’ and liquidity providin’ and farmin’ functions offered by all AMM DEXs, Huckleberry uses a “reflect model” to give “Passive Farming” rewards, or “Passive Sailing” rewards, as I like to call ’em, to all $FINN holders. Whenever any amount of $FINN moves from one account to another — be it via regular transaction or smart contract interaction — a 1% fee is automatically taken and distributed to each and every one of you good drifters out there, proportional to&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Huckleberry’s $FINN?  So, what makes Huckleberry different from every other AMM, DEX and farm? Well, in the same way you feel mighty free and easy and comfortable on a raft as it passively flows down rivers a mile wide, Huckleberry takes a more passive approach to farming as well.  Allow me to expound:</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; All are welcome to create personal copies of this repository, and modify its contents for educational use. Please experiment with the code, and see what you can build!  It is forbidden to use these contents in any sort of commercial endeavour, including but not limited to:  • Reselling its contents as part of a different course • Incorporating the code into a pre-existing business or project • Selling your solution to students enrolled in the course&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; # Josh's Course Materials License  Version 1, November 2020 Copyright (c) Josh Comeau, 2020  The files in this repository are meant to be used as part of a paid course, and are not intended for public distribution. They're open-source because it's the simplest form of distribution, and provides the best experience for students enrolled in the course.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Exemptions can be made, on a case-by-case basis. Contact Josh Comeau (me@joshwcomeau.com) for more information.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Huckleberry</t>
+          <t>Elk Finance</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;Huckleberry's $FINN?&lt;br&gt;&lt;br&gt;Answer: Cannot determine                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; So, without further ado.  Huckleberry: Mighty free and easy and comfortable  Huckleberry is a brand-new kind of community driven AMM crosschain DEX built on Moonriver usin’ Wanchain’s decentralized crosschain bridges. It is designed for curious drifters like you and me. Huckleberry’s governance reward token is called $FINN, named after yours truly.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; In addition to the standard swappin’ and liquidity providin’ and farmin’ functions offered by all AMM DEXs, Huckleberry uses a “reflect model” to give “Passive Farming” rewards, or “Passive Sailing” rewards, as I like to call ’em, to all $FINN holders. Whenever any amount of $FINN moves from one account to another — be it via regular transaction or smart contract interaction — a 1% fee is automatically taken and distributed to each and every one of you good drifters out there, proportional to&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Huckleberry’s $FINN?  So, what makes Huckleberry different from every other AMM, DEX and farm? Well, in the same way you feel mighty free and easy and comfortable on a raft as it passively flows down rivers a mile wide, Huckleberry takes a more passive approach to farming as well.  Allow me to expound:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; All liquidity pools on our multi-chain exchange, ElkDex (app.elk.finance), are bonded to ELK. The structural advantage of this approach is that traders are able to transfer funds between chains by swapping their tokens for ELK, migrating over the bridge, and exchanging them at their destination for tokens of their choosing. Cross-chain swaps automate this process, allowing users to trade arbitrary tokens, which are seamlessly exchanged for ELK under the hood.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; ElkNet also solves the exit liquidity problem. Since ELK moves freely over the Elk network, which functions as a storehouse for ELK, exit liquidity is by definition never an issue. ELK is always be transferred in a perfect 1:1 ratio; One ELK goes in, one ELK comes out.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; One theoretical drawback of using ELK as a medium for value transfers is that price impact (slippage) for transfers can be high if there is not sufficient liquidity to facilitate the conversion to ELK tokens during a cross-chain swap. This is the main tradeoff for solving the exit liquidity problem, and it is the reason that pairs on ElkDex are always bonded to ELK.</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; All are welcome to create personal copies of this repository, and modify its contents for educational use. Please experiment with the code, and see what you can build!  It is forbidden to use these contents in any sort of commercial endeavour, including but not limited to:  • Reselling its contents as part of a different course • Incorporating the code into a pre-existing business or project • Selling your solution to students enrolled in the course&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; # Josh's Course Materials License  Version 1, November 2020 Copyright (c) Josh Comeau, 2020  The files in this repository are meant to be used as part of a paid course, and are not intended for public distribution. They're open-source because it's the simplest form of distribution, and provides the best experience for students enrolled in the course.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Exemptions can be made, on a case-by-case basis. Contact Josh Comeau (me@joshwcomeau.com) for more information.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Elk Finance</t>
+          <t>SuiSwap</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; All liquidity pools on our multi-chain exchange, ElkDex (app.elk.finance), are bonded to ELK. The structural advantage of this approach is that traders are able to transfer funds between chains by swapping their tokens for ELK, migrating over the bridge, and exchanging them at their destination for tokens of their choosing. Cross-chain swaps automate this process, allowing users to trade arbitrary tokens, which are seamlessly exchanged for ELK under the hood.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; ElkNet also solves the exit liquidity problem. Since ELK moves freely over the Elk network, which functions as a storehouse for ELK, exit liquidity is by definition never an issue. ELK is always be transferred in a perfect 1:1 ratio; One ELK goes in, one ELK comes out.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; One theoretical drawback of using ELK as a medium for value transfers is that price impact (slippage) for transfers can be high if there is not sufficient liquidity to facilitate the conversion to ELK tokens during a cross-chain swap. This is the main tradeoff for solving the exit liquidity problem, and it is the reason that pairs on ElkDex are always bonded to ELK.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Key Components  1. Traditional Liquidity Pools: Similar to Uniswap, Suiswap will offer decentralized token exchange built on traditional liquidity pools. Users can trade tokens like SUI/USDC in a permissionless and decentralized manner. Liquidity providers (LPs) can contribute assets to the pool, earning a portion of the trading fees generated by the platform.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Key Components  1. Traditional Liquidity Pools  Similar to Uniswap, Suiswap will offer decentralized token exchange built on traditional liquidity pools. Users can trade tokens like SUI/USDC in a permissionless and decentralized manner. Liquidity providers (LPs) can contribute assets to the pool, earning a portion of the trading fees generated by the platform.  2. Stablecoin Liquidity Pools&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The amount obtained after slippage on Suiswap in the swap function is 0.2%, 0.5%, 1%, and 2%, correspondingly, or users may adjust them.  Traditional Liquidity Pools  Suiswap, like Uniswap, will provide a token exchange built on top of established liquidity pools. Users may trade tokens such as SUI/USDC using liquidity provided by liquidity adders. Liquidity providers (LPs) may contribute assets to the pool in exchange for a share of the platform’s trading fees.  Stablecoin Liquidity Pools</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SuiSwap</t>
+          <t>1inch Liquidity Protocol</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Key Components  1. Traditional Liquidity Pools: Similar to Uniswap, Suiswap will offer decentralized token exchange built on traditional liquidity pools. Users can trade tokens like SUI/USDC in a permissionless and decentralized manner. Liquidity providers (LPs) can contribute assets to the pool, earning a portion of the trading fees generated by the platform.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Key Components  1. Traditional Liquidity Pools  Similar to Uniswap, Suiswap will offer decentralized token exchange built on traditional liquidity pools. Users can trade tokens like SUI/USDC in a permissionless and decentralized manner. Liquidity providers (LPs) can contribute assets to the pool, earning a portion of the trading fees generated by the platform.  2. Stablecoin Liquidity Pools&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The amount obtained after slippage on Suiswap in the swap function is 0.2%, 0.5%, 1%, and 2%, correspondingly, or users may adjust them.  Traditional Liquidity Pools  Suiswap, like Uniswap, will provide a token exchange built on top of established liquidity pools. Users may trade tokens such as SUI/USDC using liquidity provided by liquidity adders. Liquidity providers (LPs) may contribute assets to the pool in exchange for a share of the platform’s trading fees.  Stablecoin Liquidity Pools</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; This article will cover:  How to provide liquidity  How to check pool parameters  How to provide liquidity to the 1inch Liquidity Protocol:  go to the ‘earn’ tab and select pools on the 1inch IPFS site.  connect your wallet by clicking on the ‘connect wallet’ button in the upper right corner;  pick up the pool (token pair) you want to provide liquidity to and click on the ‘provide liquidity’ button (the ‘plus’ symbol on the right side of the screen);&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 1inch Liquidity Protocol  Earn with 1inch by providing liquidity to pools and collect extra rewards in 1INCH tokens for participating in liquidity mining programs.  Launch dApp  Receive APY on your staked assets  To receive APY from your crypto assets, you can simply provide liquidity to 1inch liquidity pools. Liquidity providers collect APY and rewards on assets locked in pools.  $6.9B+  Total trading volume  $28M+  Total LP earning  89.9M+  1INCH distributed via liquidity mining programs&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Go to 1inch Network  Go to 1inch Network  Table of contents  All Collections  Guides  How to provide liquidity to the 1inch Liquidity Protocol  Become a liquidity provider and earn rewards with 1inch Network  Written by Matt Updated over a week ago  Table of contents  ***PLEASE NOTE: The 1inch Network Liquidity protocol is only available on the 1inch Network IPFS site. It is no longer available on app.1inch.io.  This article will cover:  How to provide liquidity  How to check pool parameters</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3675,226 +3675,226 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1inch Liquidity Protocol</t>
+          <t>LFGSwap</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; This article will cover:  How to provide liquidity  How to check pool parameters  How to provide liquidity to the 1inch Liquidity Protocol:  go to the ‘earn’ tab and select pools on the 1inch IPFS site.  connect your wallet by clicking on the ‘connect wallet’ button in the upper right corner;  pick up the pool (token pair) you want to provide liquidity to and click on the ‘provide liquidity’ button (the ‘plus’ symbol on the right side of the screen);&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 1inch Liquidity Protocol  Earn with 1inch by providing liquidity to pools and collect extra rewards in 1INCH tokens for participating in liquidity mining programs.  Launch dApp  Receive APY on your staked assets  To receive APY from your crypto assets, you can simply provide liquidity to 1inch liquidity pools. Liquidity providers collect APY and rewards on assets locked in pools.  $6.9B+  Total trading volume  $28M+  Total LP earning  89.9M+  1INCH distributed via liquidity mining programs&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Go to 1inch Network  Go to 1inch Network  Table of contents  All Collections  Guides  How to provide liquidity to the 1inch Liquidity Protocol  Become a liquidity provider and earn rewards with 1inch Network  Written by Matt Updated over a week ago  Table of contents  ***PLEASE NOTE: The 1inch Network Liquidity protocol is only available on the 1inch Network IPFS site. It is no longer available on app.1inch.io.  This article will cover:  How to provide liquidity  How to check pool parameters</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 671  Market Cap:  $1.08T  2.10%  24h Vol:  $27.17B  61.01%  Dominance:  BTC: 49.3% ETH: 18.5%  ETH Gas:  30 Gwei  CoinMarketCap: Read what our contributors have to say. This content is provided by the community. DYOR!  🕶️LFGSwap Governance Token $LFG Economic Model  DeFi  🕶️LFGSwap Governance Token $LFG Economic Model  By LFGSwap  a year ago  2 mins read&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; How to Add/Remove Liquidity  "Liquidity" is central to how LFGSwap's Exchange works. You can add liquidity for any token pair by staking both through the Liquidity page.  In return for adding liquidity, you'll receive trading fees for that pair, and receive LP Tokens you can stake in Farms to earn LFG rewards!  Adding liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 1. Visit the Liquidity page.  2. Click the Add Liquidity button.  3. For the top Input, click 'Select a currency'. Then choose one of the token in the liquidity pair you want to add liquidity to. Here, we are gong to use ETH as an example.  4. For the bottom input, click ‘Select a currency’. And choose the other token in the liquidity pair you want to add liquidity to. Here, we are gong to use LFG as an example.</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>LFGSwap</t>
+          <t>MakiSwap</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 671  Market Cap:  $1.08T  2.10%  24h Vol:  $27.17B  61.01%  Dominance:  BTC: 49.3% ETH: 18.5%  ETH Gas:  30 Gwei  CoinMarketCap: Read what our contributors have to say. This content is provided by the community. DYOR!  🕶️LFGSwap Governance Token $LFG Economic Model  DeFi  🕶️LFGSwap Governance Token $LFG Economic Model  By LFGSwap  a year ago  2 mins read&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; How to Add/Remove Liquidity  "Liquidity" is central to how LFGSwap's Exchange works. You can add liquidity for any token pair by staking both through the Liquidity page.  In return for adding liquidity, you'll receive trading fees for that pair, and receive LP Tokens you can stake in Farms to earn LFG rewards!  Adding liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 1. Visit the Liquidity page.  2. Click the Add Liquidity button.  3. For the top Input, click 'Select a currency'. Then choose one of the token in the liquidity pair you want to add liquidity to. Here, we are gong to use ETH as an example.  4. For the bottom input, click ‘Select a currency’. And choose the other token in the liquidity pair you want to add liquidity to. Here, we are gong to use LFG as an example.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; ” and “  ” and “  ” with each requiring you to “  ” in your wallet as shown in previous steps.  What’s Next?  You have now mastered adding and removing liquidity on MakiSwap. Now you can maximize your returns by staking LP tokens in the MaikSwap Yield Farms:  https://app.makiswap.com/farms  MakiSwap Yield Farming Guide:  https://docs.makiswap.com/jiro-ono/exchange/yield-farming  Products - Previous💸Staking Guide  Next - Products🎰Lottery Guide  Last modified   2yr ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Morioh.cls-1{fill:#6366f1;}.cls-2{mask:url(#mask);}.cls-3{mask:url(#mask-2);}.cls-4{mask:url(#mask-3);}.cls-5{mask:url(#mask-4);}.cls-6{filter:url(#luminosity-noclip-4);}.cls-7{filter:url(#luminosity-noclip-3);}.cls-8{filter:url(#luminosity-noclip-2);}.cls-9{filter:url(#luminosity-noclip);}  Login  FeedPopularRecentsVideosQuestionsMessagesTopicsListsGroupsMarketplaceJobs          Crypto Like  2 years ago  Open options  What is MakiSwap (MAKI) | What is MakiSwap token | What is MAKI token&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; It’s easy to become to a Liquidity Provider on MakiSwap, simply add liquidity into a pool and earn rewards in the form of MAKI tokens. However, unlike Uniswap or other protocols those MAKI tokens will also allow you to earn a portion of the protocol’s fee, accumulated in MAKI, even if you decide that you no longer want to participate in the liquidity provision. As an early adopter to help provider liquidity, you become a significant stakeholder of the protocol.</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Uni  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MakiSwap</t>
+          <t>QuipuSwap</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; ” and “  ” and “  ” with each requiring you to “  ” in your wallet as shown in previous steps.  What’s Next?  You have now mastered adding and removing liquidity on MakiSwap. Now you can maximize your returns by staking LP tokens in the MaikSwap Yield Farms:  https://app.makiswap.com/farms  MakiSwap Yield Farming Guide:  https://docs.makiswap.com/jiro-ono/exchange/yield-farming  Products - Previous💸Staking Guide  Next - Products🎰Lottery Guide  Last modified   2yr ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Morioh.cls-1{fill:#6366f1;}.cls-2{mask:url(#mask);}.cls-3{mask:url(#mask-2);}.cls-4{mask:url(#mask-3);}.cls-5{mask:url(#mask-4);}.cls-6{filter:url(#luminosity-noclip-4);}.cls-7{filter:url(#luminosity-noclip-3);}.cls-8{filter:url(#luminosity-noclip-2);}.cls-9{filter:url(#luminosity-noclip);}  Login  FeedPopularRecentsVideosQuestionsMessagesTopicsListsGroupsMarketplaceJobs          Crypto Like  2 years ago  Open options  What is MakiSwap (MAKI) | What is MakiSwap token | What is MAKI token&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; It’s easy to become to a Liquidity Provider on MakiSwap, simply add liquidity into a pool and earn rewards in the form of MAKI tokens. However, unlike Uniswap or other protocols those MAKI tokens will also allow you to earn a portion of the protocol’s fee, accumulated in MAKI, even if you decide that you no longer want to participate in the liquidity provision. As an early adopter to help provider liquidity, you become a significant stakeholder of the protocol.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; AMM model  QuipuSwap AMM protocol uses the “constant product” formula: x * y = k where x and y are reserve balances and k is the invariant that remained unchanged during the trading operation. The formula determines the exchange price that is slightly affected by fee charges (0.3%). Collected fees are distributed to LP holders proportionally to their shares in the pool.  The price that differs from the external market creates an incentive for arbitrageurs to trade and equalize it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; QuipuSwap under the hood  This section will try to explain how QuipuSwap works and essential governance and baking concepts that are integrated into our exchange.  AMM model&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; According to the simplicity principle, the QuipuSwap core consists of two smart contract types: factory and pair. The factory is used to deploy and register new arbitrary pairs by any user. The pair (also called dex) is responsible for the trading operations, liquidity, and baker delegation management related to the only XTZ-FA token exchange pair. The pairs are the most utilised components in the protocol ecosystem.</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Uni  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Madfish Solutions  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>QuipuSwap</t>
+          <t>Tranquil Finance</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; AMM model  QuipuSwap AMM protocol uses the “constant product” formula: x * y = k where x and y are reserve balances and k is the invariant that remained unchanged during the trading operation. The formula determines the exchange price that is slightly affected by fee charges (0.3%). Collected fees are distributed to LP holders proportionally to their shares in the pool.  The price that differs from the external market creates an incentive for arbitrageurs to trade and equalize it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; QuipuSwap under the hood  This section will try to explain how QuipuSwap works and essential governance and baking concepts that are integrated into our exchange.  AMM model&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; According to the simplicity principle, the QuipuSwap core consists of two smart contract types: factory and pair. The factory is used to deploy and register new arbitrary pairs by any user. The pair (also called dex) is responsible for the trading operations, liquidity, and baker delegation management related to the only XTZ-FA token exchange pair. The pairs are the most utilised components in the protocol ecosystem.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 0.01 TRANQ / second+ 0.03 ONE / second  tq1ETH ​  0xc63AB8c72e636C9961c5e9288b697eC5F0B8E1F7  75%  0.08 TRANQ / second  tq1USDC ​  0xCa3e902eFdb2a410C952Fd3e4ac38d7DBDCB8E96  80%  0.08 TRANQ / second  tq1USDT​  0x7af2430eFa179dB0e76257E5208bCAf2407B2468  80%  0.04 TRANQ / second  tq1DAI ​  0x49d95736FE7f1F32E3ee5deFc26c95bA22834639  80%  0.02 TRANQ / second  Interest Rate Model  The interest rate model for all are derived from the triple slope rate model used by  CREAM Finance&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Next, the second question. Harmony’ biggest lending platform by TVL (Total Value Locked) is called Tranquil Finance. It has a nice website, easy to use. To be honest, when I first checked Harmony, there was not much options there. Tranquil Finance is an obvious choice.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; CREAM Finance  . The interest rate increases linearly as a function of market utilization, but it jumps drastically close to maximum utilization. This spike in interest rates heavily incentivize users to add more liquidity to the market and borrowers to repay their loans.  Used by the  , and  markets.  Used by the 1USDC and 1USDT markets.  Liquidations</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Madfish Solutions  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Tranquil Finance</t>
+          <t>Zenlink</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 0.01 TRANQ / second- 0.03 ONE / second  tq1ETH ​  0xc63AB8c72e636C9961c5e9288b697eC5F0B8E1F7  75%  0.08 TRANQ / second  tq1USDC ​  0xCa3e902eFdb2a410C952Fd3e4ac38d7DBDCB8E96  80%  0.08 TRANQ / second  tq1USDT​  0x7af2430eFa179dB0e76257E5208bCAf2407B2468  80%  0.04 TRANQ / second  tq1DAI ​  0x49d95736FE7f1F32E3ee5deFc26c95bA22834639  80%  0.02 TRANQ / second  Interest Rate Model  The interest rate model for all are derived from the triple slope rate model used by  CREAM Finance&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Next, the second question. Harmony’ biggest lending platform by TVL (Total Value Locked) is called Tranquil Finance. It has a nice website, easy to use. To be honest, when I first checked Harmony, there was not much options there. Tranquil Finance is an obvious choice.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; CREAM Finance  . The interest rate increases linearly as a function of market utilization, but it jumps drastically close to maximum utilization. This spike in interest rates heavily incentivize users to add more liquidity to the market and borrowers to repay their loans.  Used by the  , and  markets.  Used by the 1USDC and 1USDT markets.  Liquidations</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;Zenlink has established a liquidity incentive program.&lt;br&gt;&lt;br&gt;Possible answer:&lt;br&gt;"Yes, Zenlink has established a liquidity incentive program."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Zenlink is currently a DEX based on AMM (automatic market maker) model. It is crucial for DEXs to have a broad and deep liquidity pool in order to create markets for users to trade their tokens, so Zenlink has established a liquidity incentive program. Token holders can obtain the LP Token of the corresponding trading pair by providing liquidity to the Zenlink DEX network. The LP Token represents the voucher to add and remove liquidity, and liquidity incentives can be obtained by staking LP&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Economic Mechanism  In order to promote network growth and ensure a healthy cycle of the entire ecosystem, Zenlink designed the following economic mechanisms for ZLK:  Liquidity Mining&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Community: 50%, of which:  Trading mining: 15%, non-linear unlocked  Liquidity mining: 25%, non-linear unlocked  DAO Treasury: 5%, used on demand for network construction expenses and is jointly controlled by the community and Zenlink team.  Community Incentives: 5%, which is used to reward ZLK active community contributors and parachains that integrate Zenlink DEX Module.  Early investors: 26%, of which:  Seed round: 7%, linearly unlocked every 3 months, 1/8 unlocked each time</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use our General Public Licenses protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License which gives you legal permission to copy, distribute and/or modify the software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The licenses for most software and other practical works are designed to take away your freedom to share and change the works.  By contrast, our General Public Licenses are intended to guarantee your freedom to share and change all versions of a program--to make sure it remains free software for all its users.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Zenlink</t>
+          <t>Voltage Finance</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;Zenlink has established a liquidity incentive program.&lt;br&gt;&lt;br&gt;Possible answer:&lt;br&gt;"Yes, Zenlink has established a liquidity incentive program."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Zenlink is currently a DEX based on AMM (automatic market maker) model. It is crucial for DEXs to have a broad and deep liquidity pool in order to create markets for users to trade their tokens, so Zenlink has established a liquidity incentive program. Token holders can obtain the LP Token of the corresponding trading pair by providing liquidity to the Zenlink DEX network. The LP Token represents the voucher to add and remove liquidity, and liquidity incentives can be obtained by staking LP&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Economic Mechanism  In order to promote network growth and ensure a healthy cycle of the entire ecosystem, Zenlink designed the following economic mechanisms for ZLK:  Liquidity Mining&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Community: 50%, of which:  Trading mining: 15%, non-linear unlocked  Liquidity mining: 25%, non-linear unlocked  DAO Treasury: 5%, used on demand for network construction expenses and is jointly controlled by the community and Zenlink team.  Community Incentives: 5%, which is used to reward ZLK active community contributors and parachains that integrate Zenlink DEX Module.  Early investors: 26%, of which:  Seed round: 7%, linearly unlocked every 3 months, 1/8 unlocked each time</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Essential information for their token is available on the MEXC Digital asset introduction page. Furthermore, we are listing (VOLTAGE/USDT – Trade it here) on our Innovation Zone! Check it out now!  What Exactly is Voltage Finance?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Tokenomics of Voltage Finance  Voltage Finance employs a fixed supply, decaying emission model for VOLT token distribution. The token allocation includes 17% for VCs and private participants in private rounds, which will be subject to a 108-week vesting period. The emission schedule governs the distribution of all tokens, with a 260-week vesting period for the Team and advisors fund, Partnership and LP provision, Foundation fund, Developers fund, and community incentives.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity pools  Voltage Finance is a liquidity pool on the Fuse Network that automatically enables users to exchange between VOLT and Fuse tokens. Users can earn a share of the 0.3% trading fee by depositing a pair of tokens into the LP and receiving an LP token representing their share of the LP.  ZAP Feature</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use our General Public Licenses protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License which gives you legal permission to copy, distribute and/or modify the software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The licenses for most software and other practical works are designed to take away your freedom to share and change the works.  By contrast, our General Public Licenses are intended to guarantee your freedom to share and change all versions of a program--to make sure it remains free software for all its users.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Voltage Finance</t>
+          <t>OpenLeverage</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Essential information for their token is available on the MEXC Digital asset introduction page. Furthermore, we are listing (VOLTAGE/USDT – Trade it here) on our Innovation Zone! Check it out now!  What Exactly is Voltage Finance?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Tokenomics of Voltage Finance  Voltage Finance employs a fixed supply, decaying emission model for VOLT token distribution. The token allocation includes 17% for VCs and private participants in private rounds, which will be subject to a 108-week vesting period. The emission schedule governs the distribution of all tokens, with a 260-week vesting period for the Team and advisors fund, Partnership and LP provision, Foundation fund, Developers fund, and community incentives.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity pools  Voltage Finance is a liquidity pool on the Fuse Network that automatically enables users to exchange between VOLT and Fuse tokens. Users can earn a share of the 0.3% trading fee by depositing a pair of tokens into the LP and receiving an LP token representing their share of the LP.  ZAP Feature</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidators can trigger liquidations to earn rewards based on gas prices if the trade’s collateral ratio falls below the market limit.  How It Works  OpenLeverage is a decentralized lending and margin trading protocol built for EVM-compatible blockchain.  Anyone can create lending pools for a specific pair on a DEX. As an example, someone might be interested in doing leverage trading on the FEI/USDC pair, so they create two lending pools for the FEI/USDC pair of Uniswap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Key features:  Margin Trading with Liquidity on DEX, connecting traders to trade with the most liquid decentralized markets like Uniswap, Pancakeswap, and more.  Risk Isolation Lending Pools, have two separate pools for each pair, and different risk and interest rate parameters for each pool, which allows lenders to invest according to the risk-reward ratio.  Risk Calculation with a Real-time AMM Price, calculates collateral ratio with real-time AMM pricing for any pair available from a DEX.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Real-time pricing from the on-chain AMM model is taken as reference and used in risk calculation and liquidation. This is important for widening and speeding up the leverage trading market in a decentralized environment, as compared to waiting for a Chainlink oracle to be created or updating market data. As Vitalik suggested, prices from a DEX provide native data maintained on-chain, are secured by technical and economical design, and are the defacto oracle for more DeFi use cases, such as</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 1. To specify as the Change License the GPL Version 2.0 or any later version,    or a license that is compatible with GPL Version 2.0 or a later version,    where "compatible" means that software provided under the Change License can    be included in a program with software provided under GPL Version 2.0 or a    later version. Licensor may specify additional Change Licenses without    limitation.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If your use of the Licensed Work does not comply with the requirements currently in effect as described in this License, you must purchase a commercial license from the Licensor, its affiliated entities, or authorized resellers, or you must refrain from using the Licensed Work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. To either: (a) specify an additional grant of rights to use that does not    impose any additional restriction on the right granted in this License, as    the Additional Use Grant; or (b) insert the text "None".  3. To specify a Change Date.  4. Not to modify this License in any other way.  -----------------------------------------------------------------------------  Notice</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>OpenLeverage</t>
+          <t>ViteX</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidators can trigger liquidations to earn rewards based on gas prices if the trade’s collateral ratio falls below the market limit.  How It Works  OpenLeverage is a decentralized lending and margin trading protocol built for EVM-compatible blockchain.  Anyone can create lending pools for a specific pair on a DEX. As an example, someone might be interested in doing leverage trading on the FEI/USDC pair, so they create two lending pools for the FEI/USDC pair of Uniswap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Key features:  Margin Trading with Liquidity on DEX, connecting traders to trade with the most liquid decentralized markets like Uniswap, Pancakeswap, and more.  Risk Isolation Lending Pools, have two separate pools for each pair, and different risk and interest rate parameters for each pool, which allows lenders to invest according to the risk-reward ratio.  Risk Calculation with a Real-time AMM Price, calculates collateral ratio with real-time AMM pricing for any pair available from a DEX.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Real-time pricing from the on-chain AMM model is taken as reference and used in risk calculation and liquidation. This is important for widening and speeding up the leverage trading market in a decentralized environment, as compared to waiting for a Chainlink oracle to be created or updating market data. As Vitalik suggested, prices from a DEX provide native data maintained on-chain, are secured by technical and economical design, and are the defacto oracle for more DeFi use cases, such as</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Market-making as Mining.​  +             Market-making refers to placing orders on ViteX to boost liquidity on the platform. Even without an order execution, traders will be rewarded with VX. If and when the order is executed, users will receive trading-as-mining rewards. See the "Trading as Mining" section above for additional details.  You can find each mining method described in more detail here​​.  Start Mining Now!  How is VX distributed?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Q: How do I get VX?  You can get VX in three ways. The first way is to trade on ViteX (“Trading is Mining”); the second way is to stake VITE and help ViteX receive quota for its operations (“Staking is Mining”); the third way is to list trading pairs (“Listing is Mining”).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Q: Why release VX? Will it affect VITE? What is the relationship between VX and VITE?  VX can be understood as a utility token used on the ViteX platform with its own incentive model (separate from the Vite public chain) to encourage more users to trade on ViteX.</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 1. To specify as the Change License the GPL Version 2.0 or any later version,    or a license that is compatible with GPL Version 2.0 or a later version,    where "compatible" means that software provided under the Change License can    be included in a program with software provided under GPL Version 2.0 or a    later version. Licensor may specify additional Change Licenses without    limitation.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If your use of the Licensed Work does not comply with the requirements currently in effect as described in this License, you must purchase a commercial license from the Licensor, its affiliated entities, or authorized resellers, or you must refrain from using the Licensed Work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. To either: (a) specify an additional grant of rights to use that does not    impose any additional restriction on the right granted in this License, as    the Additional Use Grant; or (b) insert the text "None".  3. To specify a Change Date.  4. Not to modify this License in any other way.  -----------------------------------------------------------------------------  Notice</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 M. Bagher Abiat  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ViteX</t>
+          <t>KSwap</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Market-making as Mining.​  -             Market-making refers to placing orders on ViteX to boost liquidity on the platform. Even without an order execution, traders will be rewarded with VX. If and when the order is executed, users will receive trading-as-mining rewards. See the "Trading as Mining" section above for additional details.  You can find each mining method described in more detail here​​.  Start Mining Now!  How is VX distributed?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Q: How do I get VX?  You can get VX in three ways. The first way is to trade on ViteX (“Trading is Mining”); the second way is to stake VITE and help ViteX receive quota for its operations (“Staking is Mining”); the third way is to list trading pairs (“Listing is Mining”).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Q: Why release VX? Will it affect VITE? What is the relationship between VX and VITE?  VX can be understood as a utility token used on the ViteX platform with its own incentive model (separate from the Vite public chain) to encourage more users to trade on ViteX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;KSwap provides a variety of liquidity models, including Constant Product Market Maker (CPMM), Concentrated Liquidity (CL), synthetic Proactive Market Making (sPMM), Constant Sum Market Maker (CSMM), Constant Mean Market Maker (CMMM), Hybrid Constant Function Market Makers (CFMMs), Dynamic Automated Market Maker (DAMM), Proactive Market Maker (PMM), Virtual Automated Market Makers (vAMM), and other models.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The mobility real product also establishes mobility at KSwap and user habits have been developed during the test period, which should be considered a not insignificant barrier.  Blockchain  Defi  Cryptocurrency  Bitcoin  Technology  --  --  Follow  Written by KSwapFinance  166 Followers  KSwap is an AMM-based token exchange protocol for OKExChain ecosystem.  Follow  More from KSwapFinance  KSwapFinance  KSwap From 2021 to 2022Happy New Year, everyone!  2 min read·Dec 31, 2021  --  KSwapFinance&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Foreword  KSwap.Finance is a decentralized trading product that provides token exchange services for the OKExChain ecosystem, with a variety of mining mechanisms, including single token mining, liquidity mining, transaction mining, etc. It also has an innovative NFT system, and the DEX+NFT model is also a relatively innovative point in the industry. We can observe the data to see the development potential of this product.  The following data is drawn from the chain and can be viewed at:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. The steady upward curve means that more and more users are recognizing KSwap and putting their test tokens into KSwap for liquidity, and more and more project owners are coming to KSwap to establish trading pairs and liquidity.</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 M. Bagher Abiat  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Darryl Wright  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>KSwap</t>
+          <t>SolidLizard</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;KSwap provides a variety of liquidity models, including Constant Product Market Maker (CPMM), Concentrated Liquidity (CL), synthetic Proactive Market Making (sPMM), Constant Sum Market Maker (CSMM), Constant Mean Market Maker (CMMM), Hybrid Constant Function Market Makers (CFMMs), Dynamic Automated Market Maker (DAMM), Proactive Market Maker (PMM), Virtual Automated Market Makers (vAMM), and other models.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The mobility real product also establishes mobility at KSwap and user habits have been developed during the test period, which should be considered a not insignificant barrier.  Blockchain  Defi  Cryptocurrency  Bitcoin  Technology  --  --  Follow  Written by KSwapFinance  166 Followers  KSwap is an AMM-based token exchange protocol for OKExChain ecosystem.  Follow  More from KSwapFinance  KSwapFinance  KSwap From 2021 to 2022Happy New Year, everyone!  2 min read·Dec 31, 2021  --  KSwapFinance&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Foreword  KSwap.Finance is a decentralized trading product that provides token exchange services for the OKExChain ecosystem, with a variety of mining mechanisms, including single token mining, liquidity mining, transaction mining, etc. It also has an innovative NFT system, and the DEX+NFT model is also a relatively innovative point in the industry. We can observe the data to see the development potential of this product.  The following data is drawn from the chain and can be viewed at:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. The steady upward curve means that more and more users are recognizing KSwap and putting their test tokens into KSwap for liquidity, and more and more project owners are coming to KSwap to establish trading pairs and liquidity.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "ve(3,3) system"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Welcome  SolidLizard, permissionless liquidity market, community oriented ve(3,3) dex on Arbitrum.  SolidLizard is a decentralized exchange built on Arbitrum that offers low-cost token exchanges and reduced swap fees, using a governance model called the ve(3,3) system, which was developed by Andre Cronje and introduced in Solidly.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Like many Defi teams, we chose to stay anon while staying transparent with everything related to this project. We are aiming to offer you the best Defi experience on the Arbitrum One chain and will focus on rewarding our long term investors in priority. We are here to build, and don't forget : SolidLizard is just the beginning of our journey!  Next - Get startedWallet Setup  Last modified   7mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Before accessing SolidLizard, it is required to read and agree our  legal disclaimer  The team  We are a multicultural team based in central Europe and Asia. Our members have multiple successful experiences in Web 2.0 and Web 3.0 projects. Our dev team built some multi million TVL projects on the BSC during the last bullrun. That's something we are aiming to do again on Arbitrum, our new home.</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Darryl Wright  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SolidLizard</t>
+          <t>Lydia Finance</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "ve(3,3) system"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Welcome  SolidLizard, permissionless liquidity market, community oriented ve(3,3) dex on Arbitrum.  SolidLizard is a decentralized exchange built on Arbitrum that offers low-cost token exchanges and reduced swap fees, using a governance model called the ve(3,3) system, which was developed by Andre Cronje and introduced in Solidly.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Like many Defi teams, we chose to stay anon while staying transparent with everything related to this project. We are aiming to offer you the best Defi experience on the Arbitrum One chain and will focus on rewarding our long term investors in priority. We are here to build, and don't forget : SolidLizard is just the beginning of our journey!  Next - Get startedWallet Setup  Last modified   7mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Before accessing SolidLizard, it is required to read and agree our  legal disclaimer  The team  We are a multicultural team based in central Europe and Asia. Our members have multiple successful experiences in Web 2.0 and Web 3.0 projects. Our dev team built some multi million TVL projects on the BSC during the last bullrun. That's something we are aiming to do again on Arbitrum, our new home.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; PancakeSwap+ + + + The #1 AMM and yield farm on Binance Smart Chain. PancakeSwap is a decentralized exchange running on Binance Smart Chain, with lots of other features that let you earn and win tokens. It's fast, cheap, and anyone can use it. The exchange is an automated market maker (“AMM”) that allows two...+ + + + See Software  Lydia Finance Frequently Asked Questions  Q: What kinds of users and organization types does Lydia Finance work with?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Lydia Finance offers support via online.  Q: What other applications or services does Lydia Finance integrate with?  Lydia Finance integrates with: Avalanche, Electrum, and MetaMask.  Q: What type of training does Lydia Finance provide?  Lydia Finance provides training in the form of documentation.  Lydia Finance Product Features  Automated Market Makers (AMM)  Decentralized Exchanges (DEX)  Yield Farms  SourceForge  Open Source Software  Business Software  Add Your Software&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Lydia Finance is a decentralized exchange built on the Avalanche blockchain network. It is an automated market maker (“AMM”) that allows two tokens to be exchanged on the Avalanche (AVAX). It is fast, cheap, and allows anyone to participate. On top of that, you can earn LYD tokens with farming, staking, our and earn even more tokens with Electrum pools. The ability to swap many different cryptocurrencies while maintaining custody of your coins is an improvement in safety when compared to using</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Lydia Finance  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Lydia Finance</t>
+          <t>Glide Finance</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; PancakeSwap- - - - The #1 AMM and yield farm on Binance Smart Chain. PancakeSwap is a decentralized exchange running on Binance Smart Chain, with lots of other features that let you earn and win tokens. It's fast, cheap, and anyone can use it. The exchange is an automated market maker (“AMM”) that allows two...- - - - See Software  Lydia Finance Frequently Asked Questions  Q: What kinds of users and organization types does Lydia Finance work with?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Lydia Finance offers support via online.  Q: What other applications or services does Lydia Finance integrate with?  Lydia Finance integrates with: Avalanche, Electrum, and MetaMask.  Q: What type of training does Lydia Finance provide?  Lydia Finance provides training in the form of documentation.  Lydia Finance Product Features  Automated Market Makers (AMM)  Decentralized Exchanges (DEX)  Yield Farms  SourceForge  Open Source Software  Business Software  Add Your Software&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Lydia Finance is a decentralized exchange built on the Avalanche blockchain network. It is an automated market maker (“AMM”) that allows two tokens to be exchanged on the Avalanche (AVAX). It is fast, cheap, and allows anyone to participate. On top of that, you can earn LYD tokens with farming, staking, our and earn even more tokens with Electrum pools. The ability to swap many different cryptocurrencies while maintaining custody of your coins is an improvement in safety when compared to using</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Automated Market Maker (AMM) Design&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The other 0.05% of the fee will be awarded to liquidity providers (LP). The decision to keep LP fees low was made due to the fact that ESC will have few token pairs to incentivize comparative to other ecosystems, as well as the conclusion that incentives in DeFi are heavily derived from token rewards anyways.  The GLIDE Token  GLIDE will be the rewards and governance token for the Glide Finance platform. It will be earned by providing liquidity or staking GLIDE.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The name ‘Glide’ is based on the transition of finance from a legacy system that is inefficient, inaccessible, and often corrupt, to one that is frictionless. Our mascot is the sugar glider, a creature that evolved out of a necessity to avoid predators in all three dimensions and decrease the time and energy required to forage for foods that are irregularly distributed. Our philosophy for finance is much the same: assets should be mobile and be used effectively.</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Lydia Finance  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Glide Finance</t>
+          <t>VaporDex</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Automated Market Maker (AMM) Design&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The other 0.05% of the fee will be awarded to liquidity providers (LP). The decision to keep LP fees low was made due to the fact that ESC will have few token pairs to incentivize comparative to other ecosystems, as well as the conclusion that incentives in DeFi are heavily derived from token rewards anyways.  The GLIDE Token  GLIDE will be the rewards and governance token for the Glide Finance platform. It will be earned by providing liquidity or staking GLIDE.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The name ‘Glide’ is based on the transition of finance from a legacy system that is inefficient, inaccessible, and often corrupt, to one that is frictionless. Our mascot is the sugar glider, a creature that evolved out of a necessity to avoid predators in all three dimensions and decrease the time and energy required to forage for foods that are irregularly distributed. Our philosophy for finance is much the same: assets should be mobile and be used effectively.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MARKET MAKER FUNCTIONS  Many AMMs utilize the Constant Product Market Maker model (x * y = k). This design requires that the total amount of liquidity (k) within the pool remains constant. Liquidity equals the total value of Asset A multiplied by the value of Asset B.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 3.) Token Value of asset A  4.) Token Value of Asset B  VaporDex - PreviousLiquidity Pools  NextWhat are LP Pools &amp; IL  Last modified   9mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The first community member to create a liquidity pool gets to set the initial market value of VAPE! This is done by a community member depositing VAPE tokens and an amount of USDC into a new pool on VaporDEX. The amount of USDC paired with the VAPE is what determines the initial value.</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3906,107 +3906,107 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>VaporDex</t>
+          <t>KibbleSwap</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MARKET MAKER FUNCTIONS  Many AMMs utilize the Constant Product Market Maker model (x * y = k). This design requires that the total amount of liquidity (k) within the pool remains constant. Liquidity equals the total value of Asset A multiplied by the value of Asset B.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 3.) Token Value of asset A  4.) Token Value of Asset B  VaporDex - PreviousLiquidity Pools  NextWhat are LP Pools &amp; IL  Last modified   9mo ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The first community member to create a liquidity pool gets to set the initial market value of VAPE! This is done by a community member depositing VAPE tokens and an amount of USDC into a new pool on VaporDEX. The amount of USDC paired with the VAPE is what determines the initial value.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the current price of KibbleSwap.&lt;br&gt;Possible answer: Cannot determine                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; the minimal and maximal value of 1 coin among other stock exchanges, and volume is the total value of transactions on stock in a day. Thus, you won’t have a question: ‘How much is a KibbleSwap worth?’ All data are thoroughly analyzed and presented for your convenience!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Press Releases  Coin Listing  Check Liquidity  Airdrops  Publish Press Release  Market  Swap Listing+ + + New listing PancakeSwap+ + + New listing SpookySwap+ + + New listing UniSwap  Home  Coins Listing  KibbleSwap( kibbleswap ) info, KibbleSwap( kibbleswap ) chart, market cap, and price  KibbleSwap (kibbleswap)  KibbleSwap (kibbleswap) is a cryptocurrency, deployed on Ethereum(ETH ERC-20)  + Contract:   0x642518b24423904b7dc0e9d807a9342f1db6fb41  Click to Copy&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Due to TheBitTimes.Com, you will be aware of all the latest news. Firstly, everybody can get acquainted with KibbleSwap price today – these data are renewed with a high speed as we appreciate your wish to have up-to-date information at hand. Secondly, you are able to look through the following important aspects: market cap shows the collective value of all sold coins, low/high value demonstrates the minimal and maximal value of 1 coin among other stock exchanges, and volume is the total value</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>KibbleSwap</t>
+          <t>MojitoSwap</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the current price of KibbleSwap.&lt;br&gt;Possible answer: Cannot determine                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; the minimal and maximal value of 1 coin among other stock exchanges, and volume is the total value of transactions on stock in a day. Thus, you won’t have a question: ‘How much is a KibbleSwap worth?’ All data are thoroughly analyzed and presented for your convenience!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Press Releases  Coin Listing  Check Liquidity  Airdrops  Publish Press Release  Market  Swap Listing- - - New listing PancakeSwap- - - New listing SpookySwap- - - New listing UniSwap  Home  Coins Listing  KibbleSwap( kibbleswap ) info, KibbleSwap( kibbleswap ) chart, market cap, and price  KibbleSwap (kibbleswap)  KibbleSwap (kibbleswap) is a cryptocurrency, deployed on Ethereum(ETH ERC-20)  - Contract:   0x642518b24423904b7dc0e9d807a9342f1db6fb41  Click to Copy&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Due to TheBitTimes.Com, you will be aware of all the latest news. Firstly, everybody can get acquainted with KibbleSwap price today – these data are renewed with a high speed as we appreciate your wish to have up-to-date information at hand. Secondly, you are able to look through the following important aspects: market cap shows the collective value of all sold coins, low/high value demonstrates the minimal and maximal value of 1 coin among other stock exchanges, and volume is the total value</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; ALL  CEX  DEX  Spot  Perpetual  Futures  All pairs  Loading data...  Show full width  Disclaimer: This page may contain affiliate links. CoinMarketCap may be compensated if you visit any affiliate links and you take certain actions such as signing up and transacting with these affiliate platforms. Please refer to Affiliate Disclosure.  MojitoSwap news  About MojitoSwap  What Is MojitoSwap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MJT's economic model  The maximum supply of MJT is 100,000,000, and no more new token will be issued. We will conduct two airdrops consecutively, which airdrops will account for 1% of the total supply. Except for marketing, Labs, and a small portion for the team (unlocked in 4 years), 75%, which is 75,000,000 MJT in total, will all be used for liquidity mining.  Where Can I Buy MJT?  Mojito Finance is a decentralized exchange running on KCC，You can buy MJT and other  MojitoSwap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; If you would like to know where to buy MojitoSwap at the current rate, the top cryptocurrency exchanges for trading in MojitoSwap stock are currently KuCoin,  and MojitoSwap. You can find others listed on our crypto exchanges page.  Cryptocurrencies  Tokens  MojitoSwap  Products  Blockchain Explorer  Crypto API  Crypto Indices  Doodles  Sitemap  Company  About us  Terms of use  Privacy Policy  Cookie preferences  Community Rules  Disclaimer  Methodology  CareersWe’re hiring!  Support</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MojitoSwap</t>
+          <t>Swapr</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; ALL  CEX  DEX  Spot  Perpetual  Futures  All pairs  Loading data...  Show full width  Disclaimer: This page may contain affiliate links. CoinMarketCap may be compensated if you visit any affiliate links and you take certain actions such as signing up and transacting with these affiliate platforms. Please refer to Affiliate Disclosure.  MojitoSwap news  About MojitoSwap  What Is MojitoSwap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MJT's economic model  The maximum supply of MJT is 100,000,000, and no more new token will be issued. We will conduct two airdrops consecutively, which airdrops will account for 1% of the total supply. Except for marketing, Labs, and a small portion for the team (unlocked in 4 years), 75%, which is 75,000,000 MJT in total, will all be used for liquidity mining.  Where Can I Buy MJT?  Mojito Finance is a decentralized exchange running on KCC，You can buy MJT and other  MojitoSwap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; If you would like to know where to buy MojitoSwap at the current rate, the top cryptocurrency exchanges for trading in MojitoSwap stock are currently KuCoin,  and MojitoSwap. You can find others listed on our crypto exchanges page.  Cryptocurrencies  Tokens  MojitoSwap  Products  Blockchain Explorer  Crypto API  Crypto Indices  Doodles  Sitemap  Company  About us  Terms of use  Privacy Policy  Cookie preferences  Community Rules  Disclaimer  Methodology  CareersWe’re hiring!  Support</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Cannot determine                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The second exercise looks at the impact of lower repo market liquidity on arbitrage opportunities in swap markets. Figure A depicts the interlinkages of the markets in a transaction where an arbitrage strategy is pursued to exploit a negative swap spread.[10] The market participant first buys a bond in the bond market, funded with liquidity from the repo market,[11] then enters a swap and pays a fixed rate. If, for example, the bond has a yield of 1%, the market participant can enter a swap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The model presented in Jermann, U., Negative Swap Spreads and Limited Arbitrage, The Review of Financial Studies, Vol. 33, No 1, 2020, incorporating frictions for bond holding and repo financing, would predict that lower liquidity in the repo markets at quarter-ends decreases the arbitrage opportunities in the interest rate swap markets and allows the swap spread to decrease, even into negative territory (see also the references in that paper). Similarly, Boyarchenko, N. et al., op. cit.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Theory predicts that frictions in the repo markets will result in a decrease in the swap spread. Recent research would predict that a sudden reduction in repo market liquidity at the end of a quarter decreases arbitrage opportunities in swap markets.[14]</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Swapr</t>
+          <t>AstroSwap</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Cannot determine                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The second exercise looks at the impact of lower repo market liquidity on arbitrage opportunities in swap markets. Figure A depicts the interlinkages of the markets in a transaction where an arbitrage strategy is pursued to exploit a negative swap spread.[10] The market participant first buys a bond in the bond market, funded with liquidity from the repo market,[11] then enters a swap and pays a fixed rate. If, for example, the bond has a yield of 1%, the market participant can enter a swap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The model presented in Jermann, U., Negative Swap Spreads and Limited Arbitrage, The Review of Financial Studies, Vol. 33, No 1, 2020, incorporating frictions for bond holding and repo financing, would predict that lower liquidity in the repo markets at quarter-ends decreases the arbitrage opportunities in the interest rate swap markets and allows the swap spread to decrease, even into negative territory (see also the references in that paper). Similarly, Boyarchenko, N. et al., op. cit.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Theory predicts that frictions in the repo markets will result in a decrease in the swap spread. Recent research would predict that a sudden reduction in repo market liquidity at the end of a quarter decreases arbitrage opportunities in swap markets.[14]</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; AMM liquidity pools powered with Concentrated Liquidity and Stable-swap algorithms. The next version of AshSwap will make AshSwap a powerful exchange that offers a variety of trading products.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Virtual AMM-based perpetual Swaps trading protocol that allows up to 25x leverage with infinite on-chain liquidity. Any crypto asset, long or short, with infinite on-chain liquidity. Our DEX Aggregator allows you to convert multiple tokens into a single asset in one transaction. Built on top the Polygon Network, swap your favorite tokens easily for the best prices Matrixswap is available on Polygon, Polkadot and Cardano.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Market Maker's (HMM) smart pricing mechanism allows liquidity providers to operate like traditional market makers, while minimizing permanent loss and maximising capital efficiency with concentrated liquidity. HydraSwap's cross chain bridge allows you to manage your assets cross-chain, including trading and swapping. It also leverages the high TPS throughput of HydraSwap, almost no gas fees, and lightning fast processing time of Solana.</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 SuperZooper3  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>AstroSwap</t>
+          <t>CroSwap</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; AMM liquidity pools powered with Concentrated Liquidity and Stable-swap algorithms. The next version of AshSwap will make AshSwap a powerful exchange that offers a variety of trading products.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Virtual AMM-based perpetual Swaps trading protocol that allows up to 25x leverage with infinite on-chain liquidity. Any crypto asset, long or short, with infinite on-chain liquidity. Our DEX Aggregator allows you to convert multiple tokens into a single asset in one transaction. Built on top the Polygon Network, swap your favorite tokens easily for the best prices Matrixswap is available on Polygon, Polkadot and Cardano.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Market Maker's (HMM) smart pricing mechanism allows liquidity providers to operate like traditional market makers, while minimizing permanent loss and maximising capital efficiency with concentrated liquidity. HydraSwap's cross chain bridge allows you to manage your assets cross-chain, including trading and swapping. It also leverages the high TPS throughput of HydraSwap, almost no gas fees, and lightning fast processing time of Solana.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;CroSwap incentivizes users to lock their tokens within the CroSwap ecosystem through Liquidity Pools and Yield Farms. Both services will allow users to stake their tokens to receive rewards based on the amount they stake relative to other users.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; SwapV went on to say that incentivizing users to increase Total Value Locked (TVL) in their network is a key goal of the DEX and its ongoing development.  To begin, CroSwap will incentivize users to lock their tokens within the CroSwap ecosystem through Liquidity Pools and Yield Farms. Both services will allow users to stake their tokens to receive rewards based on the amount they stake relative to other users.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools launched on Sept. 29 while Yield Farms are set to launch in the coming days. This will be followed by Harbors later on, which will allow users to easily implement different yield farming strategies.  https://t.co/TqMolLHGRM  #CRO  #crofam  #Cronos  #CroNavy  #CroSwap  pic.twitter.com/yVuOyOtzSz  September 30, 2022  What Is CroSwap:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Trading volume over the first 24 hours reached over $100,000, which is comparable to many other DEXes that have been around much longer. Total volume sits at $205,000 as of Sept. 29.  SwapV, CroSwap's Head of Development, said the team has a lot more planned for the CroSwap ecosystem, with a two-year roadmap that aims to make CroSwap stand out from other DEXes.</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 SuperZooper3  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>CroSwap</t>
+          <t>RCP Swap</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;CroSwap incentivizes users to lock their tokens within the CroSwap ecosystem through Liquidity Pools and Yield Farms. Both services will allow users to stake their tokens to receive rewards based on the amount they stake relative to other users.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; SwapV went on to say that incentivizing users to increase Total Value Locked (TVL) in their network is a key goal of the DEX and its ongoing development.  To begin, CroSwap will incentivize users to lock their tokens within the CroSwap ecosystem through Liquidity Pools and Yield Farms. Both services will allow users to stake their tokens to receive rewards based on the amount they stake relative to other users.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools launched on Sept. 29 while Yield Farms are set to launch in the coming days. This will be followed by Harbors later on, which will allow users to easily implement different yield farming strategies.  https://t.co/TqMolLHGRM  #CRO  #crofam  #Cronos  #CroNavy  #CroSwap  pic.twitter.com/yVuOyOtzSz  September 30, 2022  What Is CroSwap:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Trading volume over the first 24 hours reached over $100,000, which is comparable to many other DEXes that have been around much longer. Total volume sits at $205,000 as of Sept. 29.  SwapV, CroSwap's Head of Development, said the team has a lot more planned for the CroSwap ecosystem, with a two-year roadmap that aims to make CroSwap stand out from other DEXes.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  The value of the liquidity pool is determined by the amount of tokens in the pool. The value of the pool is also affected by the exchange rate fluctuations of the tokens.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Innovative: This type uses a constant mean value AMM model to facilitate the transaction and pricing between two digital tokens or fiat assets. The prices are determined by the exchange rate fluctuations of the tokens, so the rewards for liquidity providers can fluctuate more greatly.  Important Terms in Liquidity Farming  Price: The price swap between the pair in the pool. The final price is based on the proportion of the pair in the liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Binance Smart Pool Explained for Beginners  Types of Liquidity Farming  The following are two types of liquidity farming offered by Binance:  Stable: Uses a hybrid constant function of the AMM model to facilitate the transaction and pricing between two stable tokens. It can also provide a low slippage trading experience as the prices of the two tokens in the pool are determined by the exchange rate fluctuations of the stablecoins. In addition, the rewards are more stable than the other type.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; to purchase, sell, borrow, lend, or swap. The usage of these assets incurs fees, which are then given to the liquidity providers according to their shares in the pool.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4018,48 +4018,48 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>RCP Swap</t>
+          <t>Orion ETH</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  The value of the liquidity pool is determined by the amount of tokens in the pool. The value of the pool is also affected by the exchange rate fluctuations of the tokens.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Innovative: This type uses a constant mean value AMM model to facilitate the transaction and pricing between two digital tokens or fiat assets. The prices are determined by the exchange rate fluctuations of the tokens, so the rewards for liquidity providers can fluctuate more greatly.  Important Terms in Liquidity Farming  Price: The price swap between the pair in the pool. The final price is based on the proportion of the pair in the liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Binance Smart Pool Explained for Beginners  Types of Liquidity Farming  The following are two types of liquidity farming offered by Binance:  Stable: Uses a hybrid constant function of the AMM model to facilitate the transaction and pricing between two stable tokens. It can also provide a low slippage trading experience as the prices of the two tokens in the pool are determined by the exchange rate fluctuations of the stablecoins. In addition, the rewards are more stable than the other type.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; to purchase, sell, borrow, lend, or swap. The usage of these assets incurs fees, which are then given to the liquidity providers according to their shares in the pool.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;User: What is the value of Orion Protocol?&lt;br&gt;&lt;br&gt;Possible answer:&lt;br&gt;&lt;br&gt;The value of Orion Protocol is determined by the market and is subject to change. It is not possible to determine the exact value of Orion Protocol from the given context.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; dApps marketplace+ + Example scenarios  The Orion Protocol  Orion will be open sourcing some of its core components to the Orion Foundation. The Orion Protocol is the name of the underlying protocol on which the Orion platform runs. This will mean standardising the API and architecture of the platform’s liquidity aggregator protocol.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Conclusion:  As the cryptocurrency market is new, so we encounter high volatility regularly. If you can check exchange to exchange, you can find price difference, liquidity difference, downtime, etc. As we know, liquidity plays a vital role in reducing the shard fall of the market, so we need an aggregator like Orion liquidity aggregator that can connect both CEX and DEX to provide us with the best price and liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Orion protocol uses smart-contract to store users’ funds which means funds are very safe, and during maintenance, we will not face any downtime so that no trade will be affected at any cost.  Components of Orion protocol  It plays a crucial role in providing Orion protocol with a unique identity compared to other Liquidity Aggregators, so now let’s discuss components and modules of Orion protocol.  Order Matching Engine:</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 1.12. "Secondary License"     means either the GNU General Public License, Version 2.0, the GNU     Lesser General Public License, Version 2.1, the GNU Affero General     Public License, Version 3.0, or any later versions of those     licenses.  1.13. "Source Code Form"     means the form of the work preferred for making modifications.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If it is impossible for You to comply with any of the terms of this License with respect to some or all of the Covered Software due to statute, judicial order, or regulation then You must: (a) comply with the terms of this License to the maximum extent possible; and (b) describe the limitations and the code they affect. Such description must be placed in a text file included with all distributions of the Covered Software under this License. Except to the extent prohibited by statute&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. License Grants and Conditions --------------------------------  2.1. Grants  Each Contributor hereby grants You a world-wide, royalty-free, non-exclusive license:  (a) under intellectual property rights (other than patent or trademark)     Licensable by such Contributor to use, reproduce, make available,     modify, display, perform, distribute, and otherwise exploit its     Contributions, either on an unmodified basis, with Modifications, or     as part of a Larger Work; and</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Orion ETH</t>
+          <t>JulSwap</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;User: What is the value of Orion Protocol?&lt;br&gt;&lt;br&gt;Possible answer:&lt;br&gt;&lt;br&gt;The value of Orion Protocol is determined by the market and is subject to change. It is not possible to determine the exact value of Orion Protocol from the given context.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; dApps marketplace- - Example scenarios  The Orion Protocol  Orion will be open sourcing some of its core components to the Orion Foundation. The Orion Protocol is the name of the underlying protocol on which the Orion platform runs. This will mean standardising the API and architecture of the platform’s liquidity aggregator protocol.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Conclusion:  As the cryptocurrency market is new, so we encounter high volatility regularly. If you can check exchange to exchange, you can find price difference, liquidity difference, downtime, etc. As we know, liquidity plays a vital role in reducing the shard fall of the market, so we need an aggregator like Orion liquidity aggregator that can connect both CEX and DEX to provide us with the best price and liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Orion protocol uses smart-contract to store users’ funds which means funds are very safe, and during maintenance, we will not face any downtime so that no trade will be affected at any cost.  Components of Orion protocol  It plays a crucial role in providing Orion protocol with a unique identity compared to other Liquidity Aggregators, so now let’s discuss components and modules of Orion protocol.  Order Matching Engine:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; SLP Token Staking: To Farm SLP Tokens you need to provide Liquidity into the selected JulSwap Liquidity Pool. For example, the SLP Staking contract JULb/BNB, you will need to provide Liquidity into the following contract:  https://info.julswap.com/pair/0xccfe1a5b6e4ad16a4e41a9142673dec829f39402  When you provide liquidity, you will receive SLP Tokens back which you can use to stake in our JulSwap Staking contract.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Links:  Presentation: https://docdro.id/2Y656j6  GitHub: https://github.com/justliquidity  Telegram: https://bit.ly/2QVJJwW  Coingecko: https://coingecko.com  CMC: https://bit.ly/3byW4Ri  Web Staking and JulSwap: https://julswap.com  Web Farming: https://justliquidity.org  Staking  Binance  Justliquidity  Julswap  Blockchain  --  --  Follow  Written by JulSwap  23K Followers  https://julswap.com  Follow  More from JulSwap  JulSwap  IMPORTANT NEWS FOR JUL/JULb HOLDERS:Update 15th June 2021&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Join JulSwap Staking with your Project:  If you are a project owner and you’d like to provide your community the possibility to stake their JulSwap SLP Tokens which are generated in your Trading Pair; and you’d like to reward them, then please contact us on Telegram (https://t.me/justliquidity) or Email (support@justliquidity.org) and we’ll help you create a great service for your users.  Links:  Presentation: https://docdro.id/2Y656j6  GitHub: https://github.com/justliquidity</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 1.12. "Secondary License"     means either the GNU General Public License, Version 2.0, the GNU     Lesser General Public License, Version 2.1, the GNU Affero General     Public License, Version 3.0, or any later versions of those     licenses.  1.13. "Source Code Form"     means the form of the work preferred for making modifications.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If it is impossible for You to comply with any of the terms of this License with respect to some or all of the Covered Software due to statute, judicial order, or regulation then You must: (a) comply with the terms of this License to the maximum extent possible; and (b) describe the limitations and the code they affect. Such description must be placed in a text file included with all distributions of the Covered Software under this License. Except to the extent prohibited by statute&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. License Grants and Conditions --------------------------------  2.1. Grants  Each Contributor hereby grants You a world-wide, royalty-free, non-exclusive license:  (a) under intellectual property rights (other than patent or trademark)     Licensable by such Contributor to use, reproduce, make available,     modify, display, perform, distribute, and otherwise exploit its     Contributions, either on an unmodified basis, with Modifications, or     as part of a Larger Work; and</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>JulSwap</t>
+          <t>CronaSwap</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; SLP Token Staking: To Farm SLP Tokens you need to provide Liquidity into the selected JulSwap Liquidity Pool. For example, the SLP Staking contract JULb/BNB, you will need to provide Liquidity into the following contract:  https://info.julswap.com/pair/0xccfe1a5b6e4ad16a4e41a9142673dec829f39402  When you provide liquidity, you will receive SLP Tokens back which you can use to stake in our JulSwap Staking contract.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Links:  Presentation: https://docdro.id/2Y656j6  GitHub: https://github.com/justliquidity  Telegram: https://bit.ly/2QVJJwW  Coingecko: https://coingecko.com  CMC: https://bit.ly/3byW4Ri  Web Staking and JulSwap: https://julswap.com  Web Farming: https://justliquidity.org  Staking  Binance  Justliquidity  Julswap  Blockchain  --  --  Follow  Written by JulSwap  23K Followers  https://julswap.com  Follow  More from JulSwap  JulSwap  IMPORTANT NEWS FOR JUL/JULb HOLDERS:Update 15th June 2021&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Join JulSwap Staking with your Project:  If you are a project owner and you’d like to provide your community the possibility to stake their JulSwap SLP Tokens which are generated in your Trading Pair; and you’d like to reward them, then please contact us on Telegram (https://t.me/justliquidity) or Email (support@justliquidity.org) and we’ll help you create a great service for your users.  Links:  Presentation: https://docdro.id/2Y656j6  GitHub: https://github.com/justliquidity</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; CRONA Tokenomics  CRONA is our native token that powers our AMM+DEX ecosystem.  We explore its use cases below:  You can buy CRONA from our exchange.  Earn CRONA as rewards from staking LP tokens in our Farms.  Stake it in Launch Pools to earn free CRONA tokens.  Use it in yield farms to earn even more CRONA.  Buy lottery tickets in the CronaSwap Lottery.  Vote on proposals relating to the CronaSwap ecosystem.  But that's not all -- there's much more on the horizon for CRONA!  Token Detail&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Burn  Yes (*Deflationary Mechanics)  Emission  ~1.90 per second (~ 164383.5 CRONAs/day)  Out of these 49,950,000 tokens, 3,000,000 CRONA tokens will be used to secure the initial liquidity. This is done to ensure our users can make exchanges and experience all the features of the platform from the very beginning.  Initial supply allocation  The initial mint will be 16.65% of the Total Max Supply and will be broken down as follows:  Allocation Category  % of Max Supply  Number of Tokens&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Allocation Category  % of Max Supply  Number of Tokens  Initial Liquidity  1.00%  3,000,000  Seed Sale  1.20%  3,600,000  Private Sale  3.45%  10,350,000  Public Sale  1.00%  3,000,000  Advisors  3.00%  9,000,000  Community Airdrops  1.00%  3,000,000  Locked Developer Funds  6.00%  18,000,000  If you would like to know more about our Private Sale information, DM us on Telegram:  https://t.me/CronaChef  TimeLock Schedule</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4071,112 +4071,95 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>CronaSwap</t>
+          <t>Birake Network</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; CRONA Tokenomics  CRONA is our native token that powers our AMM+DEX ecosystem.  We explore its use cases below:  You can buy CRONA from our exchange.  Earn CRONA as rewards from staking LP tokens in our Farms.  Stake it in Launch Pools to earn free CRONA tokens.  Use it in yield farms to earn even more CRONA.  Buy lottery tickets in the CronaSwap Lottery.  Vote on proposals relating to the CronaSwap ecosystem.  But that's not all -- there's much more on the horizon for CRONA!  Token Detail&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Burn  Yes (*Deflationary Mechanics)  Emission  ~1.90 per second (~ 164383.5 CRONAs/day)  Out of these 49,950,000 tokens, 3,000,000 CRONA tokens will be used to secure the initial liquidity. This is done to ensure our users can make exchanges and experience all the features of the platform from the very beginning.  Initial supply allocation  The initial mint will be 16.65% of the Total Max Supply and will be broken down as follows:  Allocation Category  % of Max Supply  Number of Tokens&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Allocation Category  % of Max Supply  Number of Tokens  Initial Liquidity  1.00%  3,000,000  Seed Sale  1.20%  3,600,000  Private Sale  3.45%  10,350,000  Public Sale  1.00%  3,000,000  Advisors  3.00%  9,000,000  Community Airdrops  1.00%  3,000,000  Locked Developer Funds  6.00%  18,000,000  If you would like to know more about our Private Sale information, DM us on Telegram:  https://t.me/CronaChef  TimeLock Schedule</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Careers  2 min read  Careers  2 min read  Mar 27, 2019  Q&amp;A with Birake CEO-project interviewYesterday Birake CEO held an interesting interview with Vladimir, the owner of the youtube channel Mr. Hold. https://www.youtube.com/channel/UC-6jMJIcfDBPk-dDIRYsS_Q?reload=9 Below you can find the whole interview with interesting questions, answers and info about Birake.com Reporter Question: For a start, I’m interested in your goals for 2019. …  Blockchain  5 min read  Blockchain  5 min read&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Blockchain  5 min read  Blockchain  5 min read  Mar 7, 2019  Birake Community Coin- Vote!Birake will start a new campaign Birake Community Coin, where we will list ONE FREE COIN per week, for 4 weeks! First step for you is to suggest in the Discord channel#coins-to-vote what coins would you like to participate in our campaign and won a free listing. The coins with…  Blockchain  1 min read  Blockchain  1 min read  Jan 23, 2019&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Blockchain  3 min read  Blockchain  3 min read  Jun 6, 2019  Every 14 days Birake will list the first coin ranked by votes!We decided to let open market for coin listing.  Submit your coin here https://birake.com/coin-listing/ soon the feature will be live.  Depending on your competitors you can list your coin starting from 1 BIR. Coin Listing Program is a new feature that will help community coins to list their favourite coin…  Blockchain  2 min read  Blockchain  2 min read  May 14, 2019</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Birake Network</t>
+          <t>Capital DEX</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Careers  2 min read  Careers  2 min read  Mar 27, 2019  Q&amp;A with Birake CEO-project interviewYesterday Birake CEO held an interesting interview with Vladimir, the owner of the youtube channel Mr. Hold. https://www.youtube.com/channel/UC-6jMJIcfDBPk-dDIRYsS_Q?reload=9 Below you can find the whole interview with interesting questions, answers and info about Birake.com Reporter Question: For a start, I’m interested in your goals for 2019. …  Blockchain  5 min read  Blockchain  5 min read&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Blockchain  5 min read  Blockchain  5 min read  Mar 7, 2019  Birake Community Coin- Vote!Birake will start a new campaign Birake Community Coin, where we will list ONE FREE COIN per week, for 4 weeks! First step for you is to suggest in the Discord channel#coins-to-vote what coins would you like to participate in our campaign and won a free listing. The coins with…  Blockchain  1 min read  Blockchain  1 min read  Jan 23, 2019&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Blockchain  3 min read  Blockchain  3 min read  Jun 6, 2019  Every 14 days Birake will list the first coin ranked by votes!We decided to let open market for coin listing.  Submit your coin here https://birake.com/coin-listing/ soon the feature will be live.  Depending on your competitors you can list your coin starting from 1 BIR. Coin Listing Program is a new feature that will help community coins to list their favourite coin…  Blockchain  2 min read  Blockchain  2 min read  May 14, 2019</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Liquidity Provision (DLP)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; When it comes to the core of the DLP algorithm itself, hedging bets and ensuring market adaptability are central themes. To clarify, traditional AMMs often leave liquidity providers in a tough spot: seek higher yields but accept the greater risks associated with concentrated liquidity pools such as impermanent loss, or play it safe and lose out on potential profits. DLP resolves this dilemma by employing similar techniques to traditional market makers, dynamically allocating liquidity to where&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Traditional AMMs have largely operated under the premise of algorithmically managed pools, the most obvious example being Uniswap V1’s x * y = k algorithm. Conversely, Elektrik’s Dynamic Liquidity Provision (DLP) model makes use of algorithmically managed pools which are constantly changed and updated via market conditions and artificially intelligent systems. These algorithms ensure that liquidity pools are automatically adjusted to meet market demands, providing not only a more efficient&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Hence, the development of Elektrik’s dynamic liquidity provision model, a next generation AMM designed in pursuit of unprecedented capital efficiency.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Capital DEX</t>
+          <t>Planet Finance</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Liquidity Provision (DLP)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; When it comes to the core of the DLP algorithm itself, hedging bets and ensuring market adaptability are central themes. To clarify, traditional AMMs often leave liquidity providers in a tough spot: seek higher yields but accept the greater risks associated with concentrated liquidity pools such as impermanent loss, or play it safe and lose out on potential profits. DLP resolves this dilemma by employing similar techniques to traditional market makers, dynamically allocating liquidity to where&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Traditional AMMs have largely operated under the premise of algorithmically managed pools, the most obvious example being Uniswap V1’s x * y = k algorithm. Conversely, Elektrik’s Dynamic Liquidity Provision (DLP) model makes use of algorithmically managed pools which are constantly changed and updated via market conditions and artificially intelligent systems. These algorithms ensure that liquidity pools are automatically adjusted to meet market demands, providing not only a more efficient&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Hence, the development of Elektrik’s dynamic liquidity provision model, a next generation AMM designed in pursuit of unprecedented capital efficiency.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;Planet Finance does not explicitly mention the liquidity model employed in their rating services. Therefore, we cannot determine the liquidity model employed by Planet Finance.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Composite Ratings a. The benchmark. b. Average value in the sector, allowing the institution to drive its operations in the short and medium term, but without real predictability over the long term. c. Strongly unfavourable situation, than can be harmful to the institution's health even in the short term. e. Extreme cases, when performance in this area represents a real danger for the institution's sustainability, even in the short term.   	Degree of Market Formulation&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Degree of Market Formulation   	Quantitative Measures 	Performance Evaluation   	Active borrowers Conversion ratio (loans lent as a % of applicants or outreach contacts) Percentage of staff time spent on outreach and group formation 	Number of contacts needed to find, screen, and yield clients, or efficiency of staff outreach and marketing   	Development Impact   	Quantitative Measures 	Performance Evaluation&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Objective: PlaNet Finance provides rating services to financial institutions, microfinance institutions, financial backers, supervisors and regulators, as well as auditors and consultants. The financial and organizational performance of MFIs is objectively evaluated, and the results are translated into rating reports, accompanied by a spread on the Internet. A debriefing interview with the institution and the backers is also included.</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 lenlan  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Planet Finance</t>
+          <t>Karura Swap</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;Planet Finance does not explicitly mention the liquidity model employed in their rating services. Therefore, we cannot determine the liquidity model employed by Planet Finance.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Composite Ratings a. The benchmark. b. Average value in the sector, allowing the institution to drive its operations in the short and medium term, but without real predictability over the long term. c. Strongly unfavourable situation, than can be harmful to the institution's health even in the short term. e. Extreme cases, when performance in this area represents a real danger for the institution's sustainability, even in the short term.   	Degree of Market Formulation&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Degree of Market Formulation   	Quantitative Measures 	Performance Evaluation   	Active borrowers Conversion ratio (loans lent as a % of applicants or outreach contacts) Percentage of staff time spent on outreach and group formation 	Number of contacts needed to find, screen, and yield clients, or efficiency of staff outreach and marketing   	Development Impact   	Quantitative Measures 	Performance Evaluation&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Objective: PlaNet Finance provides rating services to financial institutions, microfinance institutions, financial backers, supervisors and regulators, as well as auditors and consultants. The financial and organizational performance of MFIs is objectively evaluated, and the results are translated into rating reports, accompanied by a spread on the Internet. A debriefing interview with the institution and the backers is also included.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Provide Liquidity with Karura Bootstrap  Karura Swap’s novel Bootstrap mechanism allows RMRK, kUSD, and KSM holders to provide one- or two-sided liquidity over a 48-hour period.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; RMRK/KSM  10,000 RMRK / 1,000 KSM  Liquidity Mining Rewards for RMRK, kUSD, and KSM  The RMRK Association and Acala Foundation have created two reward programs for liquidity providers who provision RMRK, kUSD, or KSM to qualifying pairs on Karura Swap. Individuals are eligible for rewards if they provide one- or two-sided liquidity during Bootstrap mode or once trading is enabled. The rewards pools are structured as follows.  LP Rewards funded by Karura  KAR Rewards Pool&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Discover Trustless Trading with Karura Swap  Karura Swap is an automated market maker (AMM)-styled decentralized exchange protocol implemented and deployed as upgradable runtime modules on Karura. With support for both native Substrate tokens and ERC-20 tokens, Karura Swap serves as the gateway and liquidity hub of Kusama with Karura already accumulating over $52 million USD in total value locked via the exchange, kUSD stablecoin protocol, and KSM liquid staking derivative.</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 lenlan  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Karura Swap</t>
+          <t>Velocimeter v2</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Provide Liquidity with Karura Bootstrap  Karura Swap’s novel Bootstrap mechanism allows RMRK, kUSD, and KSM holders to provide one- or two-sided liquidity over a 48-hour period.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; RMRK/KSM  10,000 RMRK / 1,000 KSM  Liquidity Mining Rewards for RMRK, kUSD, and KSM  The RMRK Association and Acala Foundation have created two reward programs for liquidity providers who provision RMRK, kUSD, or KSM to qualifying pairs on Karura Swap. Individuals are eligible for rewards if they provide one- or two-sided liquidity during Bootstrap mode or once trading is enabled. The rewards pools are structured as follows.  LP Rewards funded by Karura  KAR Rewards Pool&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Discover Trustless Trading with Karura Swap  Karura Swap is an automated market maker (AMM)-styled decentralized exchange protocol implemented and deployed as upgradable runtime modules on Karura. With support for both native Substrate tokens and ERC-20 tokens, Karura Swap serves as the gateway and liquidity hub of Kusama with Karura already accumulating over $52 million USD in total value locked via the exchange, kUSD stablecoin protocol, and KSM liquid staking derivative.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Velocimeter presents an attractive platform to over liquidity needs to projects.  Velocimeter was based on Velodrome which had made improvements to the Solidly codebase/logic to carry out the original intended mechanism of allowing voters to fairly compensate LPs for impermanent loss.  Solidly had several key issues that prevented its success in the Fantom ecosystem&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Protocol owned liquidity allows token holders a level of security and stability in price, as well as at certain times give projects the ability to accumulate tokens of another project.  Tokens with voting powers have been know to get alternative token bribes to sway their votes.  Here is a simple Dex Youtube Video (opens in a new tab).  Introducing Velocimeter 🌊  Velocimeter presents an attractive platform to over liquidity needs to projects.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Ceazor  Velocimeter  0x3c5Aac016EF2F178e8699D6208796A2D67557fe2  Dunks  Velocimeter  0x53f3B51FD7F327E1Ec4E6eAa3A049149cB2acaD2  Torbik  Velocimeter  0x0b776552c1Aef1Dc33005DD25AcDA22493b6615d  Motto  Velocimeter  0x78e801136F77805239A7F533521A7a5570F572C8  Coolie  Velocimeter  0x03B88DacB7c21B54cEfEcC297D981E5b721A9dF1  Coming Soon  Degen  0xSuperDegenThatWantsToGoWithTheFlowWithUs</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Velocimeter v2</t>
+          <t>DogSwap</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Velocimeter presents an attractive platform to over liquidity needs to projects.  Velocimeter was based on Velodrome which had made improvements to the Solidly codebase/logic to carry out the original intended mechanism of allowing voters to fairly compensate LPs for impermanent loss.  Solidly had several key issues that prevented its success in the Fantom ecosystem&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Protocol owned liquidity allows token holders a level of security and stability in price, as well as at certain times give projects the ability to accumulate tokens of another project.  Tokens with voting powers have been know to get alternative token bribes to sway their votes.  Here is a simple Dex Youtube Video (opens in a new tab).  Introducing Velocimeter 🌊  Velocimeter presents an attractive platform to over liquidity needs to projects.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Ceazor  Velocimeter  0x3c5Aac016EF2F178e8699D6208796A2D67557fe2  Dunks  Velocimeter  0x53f3B51FD7F327E1Ec4E6eAa3A049149cB2acaD2  Torbik  Velocimeter  0x0b776552c1Aef1Dc33005DD25AcDA22493b6615d  Motto  Velocimeter  0x78e801136F77805239A7F533521A7a5570F572C8  Coolie  Velocimeter  0x03B88DacB7c21B54cEfEcC297D981E5b721A9dF1  Coming Soon  Degen  0xSuperDegenThatWantsToGoWithTheFlowWithUs</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>DogSwap</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Doggy Token Model  100,000,000,000 $DOGS  Pre-Sale  55.000.000,000 $DOGS  Initial liquidity  40.000.000.000 $DOGS  Airdrop Bounty  2.000.000.000 $DOGS  Marketing  3.000.000.000 $DOGS  Doggy Swapis the all-in-one DeFi platform that provides both AMM and NFT Marketplace solutions in one place!  Detail оf Presale оn Bounce  Nаmе Pool: DOGGY SWAP  Contract DOGS: 0xbabd8e432adbfb0fdb3ff4a2b19fe0021d5b5198  Price: 1 BNB= 11.000.000 DOGS  Participants: Public  Nо max/min investment amount&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; DOGGY-SWAP          @@ -4201,6 +4184,23 @@
          Jun 12, 2021  No more next content  See all  Explore topics  Sales  Marketing  Business Administration  HR Management&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; will be awarded to all Doggy-Swap users with all observed uniqueness with great suppliers providing trade-offs for agriculture and trade optimizing this investment for something more profitable. In this platform, both Doggy-Swap and investment suppliers will get and get incentives and liquidity will be maintained in the system which leads to high returns in user finances and strengthens the third network.</t>
         </is>
       </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Bunicorn</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The automated market maker (AMM) protocol has created liquidity pools to decrease risks and improve capital inefficiencies that are common in popular AMM models such as Uniswap and PancakeSwap. Through a single seamless interface, two very capital efficient liquidity pool types are available:  Flexible pools with up to 8 tokens, any weight  Stable pools with super low slippage &amp; high capital efficiency for stablecoins  Bootstrapping Liquidity Pools&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Currently, deep pockets are required to build liquidity in popular AMMs like Uniswap and Pancakeswap that require a 50:50 ratio be maintained in the swap pair. The table below illustrates the corresponding liquidity and slippage for entering a constant-product 50/50 AMM. For instance, a team created token ABC with the initial price of $1 and the price of BNB is $350.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To address this problem, we introduced a new liquidity mining model by wrapping up farming rewards (VBUNI) into NFT collectibles. Users can then use these NFT to convert VBUNI into the actual BUNI tokens after a vesting period. In the meantime, they can also trade/auction these NFT in other well known marketplaces and make them liquidable.  Introduction - PreviousAMM DEX  Next - IntroductionNFT Collectibles  Last modified   2yr ago</t>
+        </is>
+      </c>
       <c r="C212" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
@@ -4210,44 +4210,27 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Bunicorn</t>
+          <t>Velocimeter</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The automated market maker (AMM) protocol has created liquidity pools to decrease risks and improve capital inefficiencies that are common in popular AMM models such as Uniswap and PancakeSwap. Through a single seamless interface, two very capital efficient liquidity pool types are available:  Flexible pools with up to 8 tokens, any weight  Stable pools with super low slippage &amp; high capital efficiency for stablecoins  Bootstrapping Liquidity Pools&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Currently, deep pockets are required to build liquidity in popular AMMs like Uniswap and Pancakeswap that require a 50:50 ratio be maintained in the swap pair. The table below illustrates the corresponding liquidity and slippage for entering a constant-product 50/50 AMM. For instance, a team created token ABC with the initial price of $1 and the price of BNB is $350.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To address this problem, we introduced a new liquidity mining model by wrapping up farming rewards (VBUNI) into NFT collectibles. Users can then use these NFT to convert VBUNI into the actual BUNI tokens after a vesting period. In the meantime, they can also trade/auction these NFT in other well known marketplaces and make them liquidable.  Introduction - PreviousAMM DEX  Next - IntroductionNFT Collectibles  Last modified   2yr ago</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Protocol owned liquidity allows token holders a level of security and stability in price, as well as at certain times give projects the ability to accumulate tokens of another project.  Tokens with voting powers have been know to get alternative token bribes to sway their votes.  Here is a simple Dex Youtube Video (opens in a new tab).  Introducing Velocimeter 🌊  Velocimeter presents an attractive platform to over liquidity needs to projects.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Velocimeter presents an attractive platform to over liquidity needs to projects.  Velocimeter was based on Velodrome which had made improvements to the Solidly codebase/logic to carry out the original intended mechanism of allowing voters to fairly compensate LPs for impermanent loss.  Solidly had several key issues that prevented its success in the Fantom ecosystem&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Ceazor  Velocimeter  0x3c5Aac016EF2F178e8699D6208796A2D67557fe2  Dunks  Velocimeter  0x53f3B51FD7F327E1Ec4E6eAa3A049149cB2acaD2  Torbik  Velocimeter  0x0b776552c1Aef1Dc33005DD25AcDA22493b6615d  Motto  Velocimeter  0x78e801136F77805239A7F533521A7a5570F572C8  Coolie  Velocimeter  0x03B88DacB7c21B54cEfEcC297D981E5b721A9dF1  Coming Soon  Degen  0xSuperDegenThatWantsToGoWithTheFlowWithUs</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Redistribution and use in source and binary forms, with or without modification, are permitted provided that the following conditions are met:  1. Redistributions of source code must retain the above copyright notice, this    list of conditions and the following disclaimer.  2. Redistributions in binary form must reproduce the above copyright notice,    this list of conditions and the following disclaimer in the documentation    and/or other materials provided with the distribution.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 3. Neither the name of the copyright holder nor the names of its    contributors may be used to endorse or promote products derived from    this software without specific prior written permission.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THIS SOFTWARE IS PROVIDED BY THE COPYRIGHT HOLDERS AND CONTRIBUTORS "AS IS" AND ANY EXPRESS OR IMPLIED WARRANTIES, INCLUDING, BUT NOT LIMITED TO, THE IMPLIED WARRANTIES OF MERCHANTABILITY AND FITNESS FOR A PARTICULAR PURPOSE ARE DISCLAIMED. IN NO EVENT SHALL THE COPYRIGHT HOLDER OR CONTRIBUTORS BE LIABLE FOR ANY DIRECT, INDIRECT, INCIDENTAL, SPECIAL, EXEMPLARY, OR CONSEQUENTIAL DAMAGES (INCLUDING, BUT NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Velocimeter</t>
+          <t>Lizard</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Protocol owned liquidity allows token holders a level of security and stability in price, as well as at certain times give projects the ability to accumulate tokens of another project.  Tokens with voting powers have been know to get alternative token bribes to sway their votes.  Here is a simple Dex Youtube Video (opens in a new tab).  Introducing Velocimeter 🌊  Velocimeter presents an attractive platform to over liquidity needs to projects.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Velocimeter presents an attractive platform to over liquidity needs to projects.  Velocimeter was based on Velodrome which had made improvements to the Solidly codebase/logic to carry out the original intended mechanism of allowing voters to fairly compensate LPs for impermanent loss.  Solidly had several key issues that prevented its success in the Fantom ecosystem&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Ceazor  Velocimeter  0x3c5Aac016EF2F178e8699D6208796A2D67557fe2  Dunks  Velocimeter  0x53f3B51FD7F327E1Ec4E6eAa3A049149cB2acaD2  Torbik  Velocimeter  0x0b776552c1Aef1Dc33005DD25AcDA22493b6615d  Motto  Velocimeter  0x78e801136F77805239A7F533521A7a5570F572C8  Coolie  Velocimeter  0x03B88DacB7c21B54cEfEcC297D981E5b721A9dF1  Coming Soon  Degen  0xSuperDegenThatWantsToGoWithTheFlowWithUs</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Redistribution and use in source and binary forms, with or without modification, are permitted provided that the following conditions are met:  1. Redistributions of source code must retain the above copyright notice, this    list of conditions and the following disclaimer.  2. Redistributions in binary form must reproduce the above copyright notice,    this list of conditions and the following disclaimer in the documentation    and/or other materials provided with the distribution.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 3. Neither the name of the copyright holder nor the names of its    contributors may be used to endorse or promote products derived from    this software without specific prior written permission.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THIS SOFTWARE IS PROVIDED BY THE COPYRIGHT HOLDERS AND CONTRIBUTORS "AS IS" AND ANY EXPRESS OR IMPLIED WARRANTIES, INCLUDING, BUT NOT LIMITED TO, THE IMPLIED WARRANTIES OF MERCHANTABILITY AND FITNESS FOR A PARTICULAR PURPOSE ARE DISCLAIMED. IN NO EVENT SHALL THE COPYRIGHT HOLDER OR CONTRIBUTORS BE LIABLE FOR ANY DIRECT, INDIRECT, INCIDENTAL, SPECIAL, EXEMPLARY, OR CONSEQUENTIAL DAMAGES (INCLUDING, BUT NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Lizard</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; JavaScript is not available.  We’ve detected that JavaScript is disabled in this browser. Please enable JavaScript or switch to a supported browser to continue using twitter.com. You can see a list of supported browsers in our Help Center.  Help Center  Terms of Service        Privacy Policy@@ -4257,206 +4240,206 @@
        © 2023 X Corp.  Something went wrong, but don’t fret — let’s give it another shot.  Try again</t>
         </is>
       </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; ====  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Copyright Terry Yin and other contributors  This software consists of voluntary contributions made by many individuals. For exact contribution history, see the revision history.  The following license applies to all parts of this software except as documented below:  ====</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>OpenSwap</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; As noted above, rather than simply refining AMM formulas for modest improvements, OpenSwap’s liquidity queue technology removes the one-size-fits-all approach of current DEXs. instead of a single pricing mechanism. OpenSwap believes that pricing should be based on individual use cases. As such, the liquidity queue base layer technologies can be shaped to create different queue types, with each queue type based on a different pricing mechanism.  Spot Price Queue&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; At the core of all DEX swaps are the pricing mechanism. AMM DEX’s base pricing off of predefined constant product formulas (i.e. x*y=k) and arbitrage traders are incentivized to trade off the pool to keep it pegged to market prices. Although such a mechanism will reflect market pricing, it will only work for small volume trades due to the inherent slippage in the mechanism.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity Queue  Liquidity Queue  OpenSwap’s liquidity queues is a new approach to onchain liquidity that offers traders and market makers a novel and efficient mechanism for carrying out onchain trades.</t>
+        </is>
+      </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; ====  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Copyright Terry Yin and other contributors  This software consists of voluntary contributions made by many individuals. For exact contribution history, see the revision history.  The following license applies to all parts of this software except as documented below:  ====</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>OpenSwap</t>
+          <t>Bored Candy City</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; As noted above, rather than simply refining AMM formulas for modest improvements, OpenSwap’s liquidity queue technology removes the one-size-fits-all approach of current DEXs. instead of a single pricing mechanism. OpenSwap believes that pricing should be based on individual use cases. As such, the liquidity queue base layer technologies can be shaped to create different queue types, with each queue type based on a different pricing mechanism.  Spot Price Queue&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; At the core of all DEX swaps are the pricing mechanism. AMM DEX’s base pricing off of predefined constant product formulas (i.e. x*y=k) and arbitrage traders are incentivized to trade off the pool to keep it pegged to market prices. Although such a mechanism will reflect market pricing, it will only work for small volume trades due to the inherent slippage in the mechanism.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity Queue  Liquidity Queue  OpenSwap’s liquidity queues is a new approach to onchain liquidity that offers traders and market makers a novel and efficient mechanism for carrying out onchain trades.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Protocol Owned Liquidity"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The platform operates on a unique model, where 100% of the fees generated on the exchange are redistributed back to the community. One of the key features of Bored Candy City is its protocol-owned liquidity model, which is derived from a 0.15% trading fee that is used to buy back the protocol’s native $CANDY token.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; ALL  CEX  DEX  Spot  Perpetual  Futures  All pairs  Loading data...  Show full width  Disclaimer: This page may contain affiliate links. CoinMarketCap may be compensated if you visit any affiliate links and you take certain actions such as signing up and transacting with these affiliate platforms. Please refer to Affiliate Disclosure.  Bored Candy City news  About Bored Candy City  Bored Candy is the FIRST AMM &amp; DEX on Cronos Chain that gives back 100% of fees collected to the community.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 0.05% — Buyback of $CANDY to form Protocol Owned Liquidity  MMFinance was the first project in Cronos to introduce Protocol Owned Liquidity and lower the fees. However, Bored Candy will lower the fees even more and give all of it back to the community.  As fellow traders, we think it’s normal for us to sacrifice our revenue to help the community weather the current markets. By allocating all our fees to rewards and buybacks.</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Bored Candy City</t>
+          <t>CRODEX</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Protocol Owned Liquidity"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The platform operates on a unique model, where 100% of the fees generated on the exchange are redistributed back to the community. One of the key features of Bored Candy City is its protocol-owned liquidity model, which is derived from a 0.15% trading fee that is used to buy back the protocol’s native $CANDY token.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; ALL  CEX  DEX  Spot  Perpetual  Futures  All pairs  Loading data...  Show full width  Disclaimer: This page may contain affiliate links. CoinMarketCap may be compensated if you visit any affiliate links and you take certain actions such as signing up and transacting with these affiliate platforms. Please refer to Affiliate Disclosure.  Bored Candy City news  About Bored Candy City  Bored Candy is the FIRST AMM &amp; DEX on Cronos Chain that gives back 100% of fees collected to the community.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 0.05% — Buyback of $CANDY to form Protocol Owned Liquidity  MMFinance was the first project in Cronos to introduce Protocol Owned Liquidity and lower the fees. However, Bored Candy will lower the fees even more and give all of it back to the community.  As fellow traders, we think it’s normal for us to sacrifice our revenue to help the community weather the current markets. By allocating all our fees to rewards and buybacks.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Overview  Welcome to Crodex  Introduction  Crodex is a decentralized exchange (DEX), providing liquidity and enabling peer-to-peer transactions on Cronos.  Crodex works with the same automated market-making (AMM) model as Uniswap which is a game changing tech. Automated market makers allow digital assets to be traded without permission and automatically by using liquidity pools instead of a traditional market of buyers and sellers.  CRX  xCRX  and  MHUB&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; About CRODEX Crodex is a decentralized exchange (DEX), providing liquidity and enabling peer-to-peer transactions on Cronos.  Crodex works with the same automated market-making (AMM) model as Uniswap which is a game changing tech. Automated market makers allow digital assets to be traded without permission and automatically by using liquidity pools instead of a traditional market of buyers and sellers.  Crodex features a native governance token called $CRX.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; LP tokens are native to a special DEX and can not be used to earn swap fees or staking rewards on other DEXs. Only LP tokens created on Crodex can be used for earning rewards on Crodex.  Impermanent Loss  Providing liquidity is not without risk, as you may be exposed to  impermanent loss  How to add liquidity?  Step 1. Click "Trade" in the navigation bar and open the Liquidity tab.  Step 2. Click "Add Liquidity".</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; For more information, please refer to &lt;http://unlicense.org&gt;&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; This is free and unencumbered software released into the public domain.  Anyone is free to copy, modify, publish, use, compile, sell, or distribute this software, either in source code form or as a compiled binary, for any purpose, commercial or non-commercial, and by any means.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In jurisdictions that recognize copyright laws, the author or authors of this software dedicate any and all copyright interest in the software to the public domain. We make this dedication for the benefit of the public at large and to the detriment of our heirs and successors. We intend this dedication to be an overt act of relinquishment in perpetuity of all present and future rights to this software under copyright law.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>CRODEX</t>
+          <t>Newdex</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Overview  Welcome to Crodex  Introduction  Crodex is a decentralized exchange (DEX), providing liquidity and enabling peer-to-peer transactions on Cronos.  Crodex works with the same automated market-making (AMM) model as Uniswap which is a game changing tech. Automated market makers allow digital assets to be traded without permission and automatically by using liquidity pools instead of a traditional market of buyers and sellers.  CRX  xCRX  and  MHUB&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; About CRODEX Crodex is a decentralized exchange (DEX), providing liquidity and enabling peer-to-peer transactions on Cronos.  Crodex works with the same automated market-making (AMM) model as Uniswap which is a game changing tech. Automated market makers allow digital assets to be traded without permission and automatically by using liquidity pools instead of a traditional market of buyers and sellers.  Crodex features a native governance token called $CRX.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; LP tokens are native to a special DEX and can not be used to earn swap fees or staking rewards on other DEXs. Only LP tokens created on Crodex can be used for earning rewards on Crodex.  Impermanent Loss  Providing liquidity is not without risk, as you may be exposed to  impermanent loss  How to add liquidity?  Step 1. Click "Trade" in the navigation bar and open the Liquidity tab.  Step 2. Click "Add Liquidity".</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Feature #1: Concentrated liquidity  Like most modern DEXs, DX25 utilizes the concentrated liquidity model for AMMs. The “concentrated liquidity” model ensures that your liquidity is concentrated in a specific price range instead of being spread across the entire range. LPs only receive rewards if the token price is within that particular range. This CLMM model ensures that your liquidity is allocated efficiently and that the LP earns more fees for fewer tokens deposited.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Also, because the liquidity problem on most DEXs is not stable, there will be more demand for a new type of product, the DEX Aggregator. They are liquidity aggregators from various sources, such as traditional AMMs or CEXs themselves.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Feature #2: Reduced complexity  While the CLMM model has several advantages, it can be extremely complex and require regular management. This increased complexity has driven out casual LPs. DX25 uses a liquidity management pool to reduce operational complexity for non-professional investors. LPs can delegate cumbersome management activities and operations to the pool.  Feature #3: Multiple fee levels</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; For more information, please refer to &lt;http://unlicense.org&gt;&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; This is free and unencumbered software released into the public domain.  Anyone is free to copy, modify, publish, use, compile, sell, or distribute this software, either in source code form or as a compiled binary, for any purpose, commercial or non-commercial, and by any means.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In jurisdictions that recognize copyright laws, the author or authors of this software dedicate any and all copyright interest in the software to the public domain. We make this dedication for the benefit of the public at large and to the detriment of our heirs and successors. We intend this dedication to be an overt act of relinquishment in perpetuity of all present and future rights to this software under copyright law.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Newdex</t>
+          <t>KuSwap</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Feature #1: Concentrated liquidity  Like most modern DEXs, DX25 utilizes the concentrated liquidity model for AMMs. The “concentrated liquidity” model ensures that your liquidity is concentrated in a specific price range instead of being spread across the entire range. LPs only receive rewards if the token price is within that particular range. This CLMM model ensures that your liquidity is allocated efficiently and that the LP earns more fees for fewer tokens deposited.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Also, because the liquidity problem on most DEXs is not stable, there will be more demand for a new type of product, the DEX Aggregator. They are liquidity aggregators from various sources, such as traditional AMMs or CEXs themselves.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Feature #2: Reduced complexity  While the CLMM model has several advantages, it can be extremely complex and require regular management. This increased complexity has driven out casual LPs. DX25 uses a liquidity management pool to reduce operational complexity for non-professional investors. LPs can delegate cumbersome management activities and operations to the pool.  Feature #3: Multiple fee levels</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  KuSwap is transitioning to a RealYield model.&lt;br&gt;&lt;br&gt;Possible answer:&lt;br&gt;"KuSwap is transitioning to a RealYield model, which is a farming model that allows veKUS holders to earn 100% of the fees generated from swaps and provides opportunities for stablecoin farming."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The proposed tokenomics changes in KuSwap v3 pave the way for a more sustainable and predictable ecosystem. By transitioning to a RealYield model, reducing emissions, and establishing clear allocation and distribution mechanisms, KuSwap aims to enhance user experience, incentivize participation, and foster the long-term growth of the platform.  KuSwap Finance  Website  Twitter  Telegram  Announcements  Discord  Linktree  Kus  Kcs  Kcc  Kuswap  V3  --  --  Follow  Written by KuSwap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 2 min read·Aug 18  --  KuSwap  KuSwap Migration Details  2 min read·Jul 1  --  KuSwap  Connecting Metamask to KuCoin Community Chain (KCC).Instructions on installing Metamask and manually adding the KuCoin Community Chain Network.  3 min read·Jun 19, 2021  --  See all from KuSwap  Recommended from Medium  DeepBrainChain&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In line with the previous proposal, KuSwap is undergoing a transition from the Emissions Farming model to the RealYield Farming model. This new model brings forth exciting opportunities for veKUS Holders, as they will now have the opportunity to earn 100% of the fees generated from swaps. Additionally, there will be opportunities for stablecoin farming, subject to community decisions made through on-chain voting. This presents a lucrative income stream for veKUS holders who play a crucial role</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 KuSwap.finance  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>KuSwap</t>
+          <t>Dinosaur Eggs</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  KuSwap is transitioning to a RealYield model.&lt;br&gt;&lt;br&gt;Possible answer:&lt;br&gt;"KuSwap is transitioning to a RealYield model, which is a farming model that allows veKUS holders to earn 100% of the fees generated from swaps and provides opportunities for stablecoin farming."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The proposed tokenomics changes in KuSwap v3 pave the way for a more sustainable and predictable ecosystem. By transitioning to a RealYield model, reducing emissions, and establishing clear allocation and distribution mechanisms, KuSwap aims to enhance user experience, incentivize participation, and foster the long-term growth of the platform.  KuSwap Finance  Website  Twitter  Telegram  Announcements  Discord  Linktree  Kus  Kcs  Kcc  Kuswap  V3  --  --  Follow  Written by KuSwap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 2 min read·Aug 18  --  KuSwap  KuSwap Migration Details  2 min read·Jul 1  --  KuSwap  Connecting Metamask to KuCoin Community Chain (KCC).Instructions on installing Metamask and manually adding the KuCoin Community Chain Network.  3 min read·Jun 19, 2021  --  See all from KuSwap  Recommended from Medium  DeepBrainChain&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; In line with the previous proposal, KuSwap is undergoing a transition from the Emissions Farming model to the RealYield Farming model. This new model brings forth exciting opportunities for veKUS Holders, as they will now have the opportunity to earn 100% of the fees generated from swaps. Additionally, there will be opportunities for stablecoin farming, subject to community decisions made through on-chain voting. This presents a lucrative income stream for veKUS holders who play a crucial role</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; on the agreement. Directly subsidizing liquidity, on the other hand, falls short on both counts. Of course, no token incentive model is perfect and does not need to be adjusted, and the best incentive program must be constantly adjusted as the product and market change, which is perhaps why Dinosaur eggs has made two updates to its incentive weighting parameters within 5 days of launch (see “Project Happenings” above).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; c. No more “liquidity is king”, multiple sets of incentives in parallel  As a fair start-up project, how tokens are distributed is crucial. Trading-based programs, as represented by Pancakeswap, direct their token incentives primarily to liquidity providers and pledgers of Cake tokens (commonly known as “mining themselves”). Dinosaur eggs, on the other hand, is more incentivized by traders (through trading mining) and members (through a membership system).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; b. Import of multiple gaming systems  The core business segments of Dinosaur eggs on Swap can be divided into 4 blocks: market making, trading, membership system, and NFT system. In each of these four business segments, the project side has fully introduced gaming design. Specifically:  Market-making game: the game between market makers through the volume of funds, similar to the logic of traditional market-making, will not be repeated here</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 KuSwap.finance  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Dinosaur Eggs</t>
+          <t>Excalibur</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; on the agreement. Directly subsidizing liquidity, on the other hand, falls short on both counts. Of course, no token incentive model is perfect and does not need to be adjusted, and the best incentive program must be constantly adjusted as the product and market change, which is perhaps why Dinosaur eggs has made two updates to its incentive weighting parameters within 5 days of launch (see “Project Happenings” above).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; c. No more “liquidity is king”, multiple sets of incentives in parallel  As a fair start-up project, how tokens are distributed is crucial. Trading-based programs, as represented by Pancakeswap, direct their token incentives primarily to liquidity providers and pledgers of Cake tokens (commonly known as “mining themselves”). Dinosaur eggs, on the other hand, is more incentivized by traders (through trading mining) and members (through a membership system).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; b. Import of multiple gaming systems  The core business segments of Dinosaur eggs on Swap can be divided into 4 blocks: market making, trading, membership system, and NFT system. In each of these four business segments, the project side has fully introduced gaming design. Specifically:  Market-making game: the game between market makers through the volume of funds, similar to the logic of traditional market-making, will not be repeated here</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Excalibur’s fair launch initial liquidity event will run 3/5/22–3/8/22  Enter Excalibur  Excalibur is a highly flexible and ecosystem-oriented Fantom AMM providing fee mining, swap referrals and customizable fees.  It aims for long-term efficiency and sustainability through advanced shareholding mechanisms, time vault staking &amp; project-owned liquidity. Enter the Holy Grail of DeFi…  Why Excalibur&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; These slots allow users to create custom strategies by mixing locks of varying lengths to create a unique risk profile. Because the locks are also adjustable in length this allows a user finer control over these risk horizons.  Excalibur benefits by retaining access to user liquidity for a guaranteed window of time.  Users receive different rewards based on the assets they stake. Most farms will reward users with EXC. Farms with EXC pairs like EXC/FTM will reward Grail.  Dividends&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The fundamentals of the protocol are quite simple: provide liquidity and earn fees and rewards. Where Excalibur distinguishes itself is its tokenomics and distribution of fees and rewards. Below you will find a diagram that illustrates the flow of fees. As we delve into the protocol this may serve as a useful cheat sheet for developing your own strategies.  Services  Excalibur offers the following services to users:  1. Swapping assets  a) Transaction fee mining</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) Camelot Developers 2018  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Excalibur</t>
+          <t>WaultSwap</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Excalibur’s fair launch initial liquidity event will run 3/5/22–3/8/22  Enter Excalibur  Excalibur is a highly flexible and ecosystem-oriented Fantom AMM providing fee mining, swap referrals and customizable fees.  It aims for long-term efficiency and sustainability through advanced shareholding mechanisms, time vault staking &amp; project-owned liquidity. Enter the Holy Grail of DeFi…  Why Excalibur&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; These slots allow users to create custom strategies by mixing locks of varying lengths to create a unique risk profile. Because the locks are also adjustable in length this allows a user finer control over these risk horizons.  Excalibur benefits by retaining access to user liquidity for a guaranteed window of time.  Users receive different rewards based on the assets they stake. Most farms will reward users with EXC. Farms with EXC pairs like EXC/FTM will reward Grail.  Dividends&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The fundamentals of the protocol are quite simple: provide liquidity and earn fees and rewards. Where Excalibur distinguishes itself is its tokenomics and distribution of fees and rewards. Below you will find a diagram that illustrates the flow of fees. As we delve into the protocol this may serve as a useful cheat sheet for developing your own strategies.  Services  Excalibur offers the following services to users:  1. Swapping assets  a) Transaction fee mining</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; As of March 19th, there are 113 positions with total debt of $140k USD  Below please find the implementation plan:  1.We will upgrade the WaultSwap farming contract to allow for a privileged address (i.e., dev controlled address) to liquidate any WaultSwap’s positions (only for WaultSwap. No change to PCS or MDEX positions.)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; AIP-4.2: Solution to eliminate bad debt risks from remaining Waultswap positions  Background:  With WaultSwap’s migration and tokenomics change that took place in Q3 last year, we have deprecated our LYF integration with the platform and disabled new positions from being opened. Despite warnings and recommendations for users to close their positions, there are still 100+ active LYF positions on WaultSwap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; AIP-4.1: Handling of a recent bad debt on WaultSwap’s position  Background:  With WaultSwap’s migration and tokenomics change that took place in Q3 last year, we have deprecated our LYF integration with the platform and disabled new positions from being opened. Despite warnings and recommendations for users to close their positions, there are still 100+ active LYF positions on WaultSwap.</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) Camelot Developers 2018  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>WaultSwap</t>
+          <t>Spartan Protocol</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; As of March 19th, there are 113 positions with total debt of $140k USD  Below please find the implementation plan:  1.We will upgrade the WaultSwap farming contract to allow for a privileged address (i.e., dev controlled address) to liquidate any WaultSwap’s positions (only for WaultSwap. No change to PCS or MDEX positions.)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; AIP-4.2: Solution to eliminate bad debt risks from remaining Waultswap positions  Background:  With WaultSwap’s migration and tokenomics change that took place in Q3 last year, we have deprecated our LYF integration with the platform and disabled new positions from being opened. Despite warnings and recommendations for users to close their positions, there are still 100+ active LYF positions on WaultSwap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; AIP-4.1: Handling of a recent bad debt on WaultSwap’s position  Background:  With WaultSwap’s migration and tokenomics change that took place in Q3 last year, we have deprecated our LYF integration with the platform and disabled new positions from being opened. Despite warnings and recommendations for users to close their positions, there are still 100+ active LYF positions on WaultSwap.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The SPARTAN AMM algorithm (derived from THORChain)Â  Spartan Protocol's way of optimizing capital efficiency differs from the way that Synthetix and MakerDAO. Spartan Protocol will use their AMM, which uses slip-based fees, to drive value and cater to liquidity providers (just like ThorChain). It will also use a single settlement asset ($SPARTA) and protocol wide incentives to bootstrap liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The Spartan Protocol caters toÂ  all three using collateralized pool shares, instant liquidations, and pool incentives. Anyone can create a synthetic asset, but it has to have an associated price feed. Price feeds can be both internal to the system as well as external (using other AMM price feed).If you want to mint, you must first be a liquidity provider and own liquidity pool shares. These liquidity pool shares are value stabilized (value of their underlying assets), yield-generating (they&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Spartan also attempts to solve the liquid creation of synthetic assets using collateralized pool shares, where positions can be deterministically priced and instantly liquidated.Â</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; not accept this License. Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; For example, if you distribute copies of such a program, whether gratis or for a fee, you must pass on to the recipients the same freedoms that you received. You must make sure that they, too, receive or can get the source code. And you must show them these terms so they know their rights.  Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Spartan Protocol</t>
+          <t>Pandora</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The SPARTAN AMM algorithm (derived from THORChain)Â  Spartan Protocol's way of optimizing capital efficiency differs from the way that Synthetix and MakerDAO. Spartan Protocol will use their AMM, which uses slip-based fees, to drive value and cater to liquidity providers (just like ThorChain). It will also use a single settlement asset ($SPARTA) and protocol wide incentives to bootstrap liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The Spartan Protocol caters toÂ  all three using collateralized pool shares, instant liquidations, and pool incentives. Anyone can create a synthetic asset, but it has to have an associated price feed. Price feeds can be both internal to the system as well as external (using other AMM price feed).If you want to mint, you must first be a liquidity provider and own liquidity pool shares. These liquidity pool shares are value stabilized (value of their underlying assets), yield-generating (they&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Spartan also attempts to solve the liquid creation of synthetic assets using collateralized pool shares, where positions can be deterministically priced and instantly liquidated.Â</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Pandora Protocol: Bringing Real Value To Illiquid Real-World Assets Via Tokenisation  Pushkarr Vohra·Follow  Published inPandora Finance·5 min read·Mar 11, 2021  --  Listen  Share  Tokenisation is on its way to revolutionise the way we invest. Tokenisation has brought disruption across industries due to its potential of bringing billions of dollars of real-world value to real-world assets.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; See all from Pushkarr Vohra  See all from Pandora Finance  Recommended from Medium  Jian Hao Lim  Real World Asset Tokenization: Top 5 Trends to Watch in 2023How will the tokenization of real-world assets shape the future of blockchain and crypto? Discover the top 5 trends to watch in 2023 #RWA  5 min read·Apr 10  --  GPT 360  CHATERIUM NETWORK TESTNET PHASE #2We’re happy to announce that we’ve made progress in developing the Chaterium Protocol  1 min read·May 2  --  Lists&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 4 min read·May 1, 2021  --  Pandora Finance  in  Pandora Finance  Aconomy Ambassador Program — Powered by Pandora FinanceAre you a Web3 enthusiast, a Blockchain believer, or a fan of RWA Tokenization? We’re looking for enthusiasts like you to join us as…  3 min read·Sep 8  --  Pandora Finance  in  Pandora Finance  Insights into Tokenized Real Estate.Tokenization has become a buzzword across industries in recent years, with real estate being one of the sectors greatly impacted by this…</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; not accept this License. Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; For example, if you distribute copies of such a program, whether gratis or for a fee, you must pass on to the recipients the same freedoms that you received. You must make sure that they, too, receive or can get the source code. And you must show them these terms so they know their rights.  Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; either verbatim or with modifications and/or translated into another language.  (Hereinafter, translation is included without limitation in the term "modification".)  Each licensee is addressed as "you".&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 0. This License applies to any program or other work which contains a notice placed by the copyright holder saying it may be distributed under the terms of this General Public License.  The "Program", below, refers to any such program or work, and a "work based on the Program" means either the Program or any derivative work under copyright law: that is to say, a work containing the Program or a portion of it, either verbatim or with modifications and/or translated into another&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 5. You are not required to accept this License, since you have not signed it.  However, nothing else grants you permission to modify or distribute the Program or its derivative works.  These actions are prohibited by law if you do not accept this License.  Therefore, by modifying or distributing the Program (or any work based on the Program), you indicate your acceptance of this License to do so, and all its terms and conditions for copying, distributing or modifying</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Pandora</t>
+          <t>Jswap Finance</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Pandora Protocol: Bringing Real Value To Illiquid Real-World Assets Via Tokenisation  Pushkarr Vohra·Follow  Published inPandora Finance·5 min read·Mar 11, 2021  --  Listen  Share  Tokenisation is on its way to revolutionise the way we invest. Tokenisation has brought disruption across industries due to its potential of bringing billions of dollars of real-world value to real-world assets.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; See all from Pushkarr Vohra  See all from Pandora Finance  Recommended from Medium  Jian Hao Lim  Real World Asset Tokenization: Top 5 Trends to Watch in 2023How will the tokenization of real-world assets shape the future of blockchain and crypto? Discover the top 5 trends to watch in 2023 #RWA  5 min read·Apr 10  --  GPT 360  CHATERIUM NETWORK TESTNET PHASE #2We’re happy to announce that we’ve made progress in developing the Chaterium Protocol  1 min read·May 2  --  Lists&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 4 min read·May 1, 2021  --  Pandora Finance  in  Pandora Finance  Aconomy Ambassador Program — Powered by Pandora FinanceAre you a Web3 enthusiast, a Blockchain believer, or a fan of RWA Tokenization? We’re looking for enthusiasts like you to join us as…  3 min read·Sep 8  --  Pandora Finance  in  Pandora Finance  Insights into Tokenized Real Estate.Tokenization has become a buzzword across industries in recent years, with real estate being one of the sectors greatly impacted by this…</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the percentage of repurchase that will be distributed to the "dividend pool" pledger?&lt;br&gt;&lt;br&gt;Answer: 70%                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Finally, from the design of Jswap's economic model, we would apparently see more hot spots, especially the elevation of the project value by the token economy. As will be mentioned later, all of Jswap’s daily income will be repurchased by smart contracts in the secondary market automatically. 20% of the repurchase will be automatically burned, 70% will be distributed to the "dividend pool" pledger, and 10% will be the promoter’s commission.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Functionalities  Jswap supports all traditional trading functions, and more. Supported functions include Swap Mining, Liquidity Mining, DAO Dividends Pool, Single Token Vault (Machine Gun Pool), Single Token Liquidity Mining (providing liquidity for other swaps spontaneously), Stable Token Exchange, Market Charts and more, to provide a one-stop-shop for all DeFi needs.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; development of other projects, and helps value attach and promotion. Therefore, it would be very attractive for projects to trade in Jswap liquidity pool.</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; either verbatim or with modifications and/or translated into another language.  (Hereinafter, translation is included without limitation in the term "modification".)  Each licensee is addressed as "you".&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 0. This License applies to any program or other work which contains a notice placed by the copyright holder saying it may be distributed under the terms of this General Public License.  The "Program", below, refers to any such program or work, and a "work based on the Program" means either the Program or any derivative work under copyright law: that is to say, a work containing the Program or a portion of it, either verbatim or with modifications and/or translated into another&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 5. You are not required to accept this License, since you have not signed it.  However, nothing else grants you permission to modify or distribute the Program or its derivative works.  These actions are prohibited by law if you do not accept this License.  Therefore, by modifying or distributing the Program (or any work based on the Program), you indicate your acceptance of this License to do so, and all its terms and conditions for copying, distributing or modifying</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2020, 2021 JSwap  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Jswap Finance</t>
+          <t>Pegasys</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the percentage of repurchase that will be distributed to the "dividend pool" pledger?&lt;br&gt;&lt;br&gt;Answer: 70%                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Finally, from the design of Jswap's economic model, we would apparently see more hot spots, especially the elevation of the project value by the token economy. As will be mentioned later, all of Jswap’s daily income will be repurchased by smart contracts in the secondary market automatically. 20% of the repurchase will be automatically burned, 70% will be distributed to the "dividend pool" pledger, and 10% will be the promoter’s commission.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Functionalities  Jswap supports all traditional trading functions, and more. Supported functions include Swap Mining, Liquidity Mining, DAO Dividends Pool, Single Token Vault (Machine Gun Pool), Single Token Liquidity Mining (providing liquidity for other swaps spontaneously), Stable Token Exchange, Market Charts and more, to provide a one-stop-shop for all DeFi needs.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; development of other projects, and helps value attach and promotion. Therefore, it would be very attractive for projects to trade in Jswap liquidity pool.</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2020, 2021 JSwap  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Pegasys</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; An AMM truly built for Syscoin, by the community for the community  Just like current leading DEXs, such as Uniswap, anyone can trade any ERC20 token on Pegasys.  If an asset isn’t currently supported on the platform, users can list any ERC20 token on Pegasys by providing@@ -4465,55 +4448,72 @@
  it’s really important for us to be competitive outside Syscoin as well.</t>
         </is>
       </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2019 Devias  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Alita Finance</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; A Different Approach To Growth  At Alita, we have a different approach when it comes to growing our user base. We believe in the power of connecting and growing together.  Alita is actively searching for centralized trading platforms to build a better future for the trading industry.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Receive rewards in ALI tokens by participating in incentive programs from Alita partners.  Vaults  Our vaults are yield farming aggregators built to optimize DeFi users' yield.  Governance  Platform governance will be gradually transferred to the community.  Secured by  We do our best to ensure the best security for your assets on our platform  A Different Approach To Growth&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Cross-platform Reward System  All activities on the trading platforms in Alita ecosystem are eligible for ALI token rewards.  Beyond Trading  Staking  Participate in our staking programs to earn more while holding your crypto.  Farming  Become liquidity providers on Alita platform to earn high yields from popular trading pairs.  Rewards  Receive rewards in ALI tokens by participating in incentive programs from Alita partners.  Vaults</t>
+        </is>
+      </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2019 Devias  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Alita Finance</t>
+          <t>Gravity Finance</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; A Different Approach To Growth  At Alita, we have a different approach when it comes to growing our user base. We believe in the power of connecting and growing together.  Alita is actively searching for centralized trading platforms to build a better future for the trading industry.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Receive rewards in ALI tokens by participating in incentive programs from Alita partners.  Vaults  Our vaults are yield farming aggregators built to optimize DeFi users' yield.  Governance  Platform governance will be gradually transferred to the community.  Secured by  We do our best to ensure the best security for your assets on our platform  A Different Approach To Growth&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Cross-platform Reward System  All activities on the trading platforms in Alita ecosystem are eligible for ALI token rewards.  Beyond Trading  Staking  Participate in our staking programs to earn more while holding your crypto.  Farming  Become liquidity providers on Alita platform to earn high yields from popular trading pairs.  Rewards  Receive rewards in ALI tokens by participating in incentive programs from Alita partners.  Vaults</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Some of the information above is subject to change. Details will be finalized before commencement of the presale.  Defi  Cryptocurrency  Gravity  Finance  Bitcoin  --  --  Follow  Written by Gravity Finance  986 Followers  Follow  More from Gravity Finance  Gravity Finance  Gravity Finance Auto-Compounding VaultsThe next phase in DeFi Automation  2 min read·5 days ago  --  Gravity Finance  Using MetaMask with PolygonEDIT: We have now added automatic network switching to the website.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Using MetaMask with PolygonEDIT: We have now added automatic network switching to the website.  4 min read·Apr 26, 2021  --  Gravity Finance  Gravity Finance ‘Silos’ — A Ground-breaking DeFi Product Integrating Chainlink AutomationWe’re excited to announce that Gravity Finance have created a first-in-class DeFi automation product called ‘Silos’. Powered by Chainlink…  4 min read·Apr 17  --  Gravity Finance&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 4 min read·Apr 17  --  Gravity Finance  Silos Launch — DeFi 3.0 — The Next Leap ForwardIt is with great pleasure that we are officially announcing the launch of ‘Silos’, our flagship product. The product is live now and can…  6 min read·Apr 17  --  See all from Gravity Finance  Recommended from Medium  GPT 360  CHATERIUM NETWORK TESTNET PHASE #2We’re happy to announce that we’ve made progress in developing the Chaterium Protocol  1 min read·May 2  --  CoinWatchDaily</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Gravity Finance</t>
+          <t>OolongSwap</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Some of the information above is subject to change. Details will be finalized before commencement of the presale.  Defi  Cryptocurrency  Gravity  Finance  Bitcoin  --  --  Follow  Written by Gravity Finance  986 Followers  Follow  More from Gravity Finance  Gravity Finance  Gravity Finance Auto-Compounding VaultsThe next phase in DeFi Automation  2 min read·5 days ago  --  Gravity Finance  Using MetaMask with PolygonEDIT: We have now added automatic network switching to the website.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Using MetaMask with PolygonEDIT: We have now added automatic network switching to the website.  4 min read·Apr 26, 2021  --  Gravity Finance  Gravity Finance ‘Silos’ — A Ground-breaking DeFi Product Integrating Chainlink AutomationWe’re excited to announce that Gravity Finance have created a first-in-class DeFi automation product called ‘Silos’. Powered by Chainlink…  4 min read·Apr 17  --  Gravity Finance&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 4 min read·Apr 17  --  Gravity Finance  Silos Launch — DeFi 3.0 — The Next Leap ForwardIt is with great pleasure that we are officially announcing the launch of ‘Silos’, our flagship product. The product is live now and can…  6 min read·Apr 17  --  See all from Gravity Finance  Recommended from Medium  GPT 360  CHATERIUM NETWORK TESTNET PHASE #2We’re happy to announce that we’ve made progress in developing the Chaterium Protocol  1 min read·May 2  --  CoinWatchDaily</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In AMM model, the person providing liquidity is called the liquidity provider(LP). LP can choose any token pair (eg:USDC and ETH) that he/she would like to provide liquidity to, and deposit both tokens in the designated liquidity pool (or create a new one if it doesn't already exist). Then based on the liquidity of the assets in the pool, the AMM's algorithm will be able to give quotes on the trading prices of different token pairs to the buyers and sellers that come to trade. In exchange, the&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Instead of relying on the traditional order book model, which requires buyers and sellers to specify prices in advance before trading occurs between them, Oolongswap uses the concept known as “liquidity pool”. This method makes the trading process more efficient on the platform.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity  What is providing liquidity:  Unlike the traditional order book model, in which buyers and sellers have to specify prices to trade, the AMM model uses the concept of the liquidity pool to make the trading process more efficient.</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>OolongSwap</t>
+          <t>ThetaSwap</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In AMM model, the person providing liquidity is called the liquidity provider(LP). LP can choose any token pair (eg:USDC and ETH) that he/she would like to provide liquidity to, and deposit both tokens in the designated liquidity pool (or create a new one if it doesn't already exist). Then based on the liquidity of the assets in the pool, the AMM's algorithm will be able to give quotes on the trading prices of different token pairs to the buyers and sellers that come to trade. In exchange, the&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Instead of relying on the traditional order book model, which requires buyers and sellers to specify prices in advance before trading occurs between them, Oolongswap uses the concept known as “liquidity pool”. This method makes the trading process more efficient on the platform.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity  What is providing liquidity:  Unlike the traditional order book model, in which buyers and sellers have to specify prices to trade, the AMM model uses the concept of the liquidity pool to make the trading process more efficient.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;The answer is "Dynamic Automated Market Maker (DAMM)".                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How to create a liquidity pool on ThetaSwap  Overview  Learn about Theta Swap  Suggest Edits  ThetaSwap is the first decentralized exchange built on Theta blockchain, using an open-source smart contract system built based on Automated Market Maker logic similar to that of UniSwap. It allows users to exchange their newly-created TNT20 tokens built on Theta blockchain in a trustless, non-custodial way.  You can find ThetaSwap here: https://swap.thetatoken.org/&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To set up a new trading pair on ThetaSwap, you'll need to create a liquidity pool. A liquidity pool is a pool of TFUEL and a given TNT20 token that allows users to trade against it. As a buyer or seller, I can trade TFUEL for that TNT20 token or vice versa. A liquidity provider that creates the pool earns a fee of 0.3% of each transaction that uses the liquidity they provide. For information on creating a liquidity pool for your token, see here.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Updated over 2 years ago  How to swap tokens  How to create a liquidity pool on ThetaSwap</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4525,44 +4525,27 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ThetaSwap</t>
+          <t>Mars Ecosystem</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;The answer is "Dynamic Automated Market Maker (DAMM)".                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How to create a liquidity pool on ThetaSwap  Overview  Learn about Theta Swap  Suggest Edits  ThetaSwap is the first decentralized exchange built on Theta blockchain, using an open-source smart contract system built based on Automated Market Maker logic similar to that of UniSwap. It allows users to exchange their newly-created TNT20 tokens built on Theta blockchain in a trustless, non-custodial way.  You can find ThetaSwap here: https://swap.thetatoken.org/&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To set up a new trading pair on ThetaSwap, you'll need to create a liquidity pool. A liquidity pool is a pool of TFUEL and a given TNT20 token that allows users to trade against it. As a buyer or seller, I can trade TFUEL for that TNT20 token or vice versa. A liquidity provider that creates the pool earns a fee of 0.3% of each transaction that uses the liquidity they provide. For information on creating a liquidity pool for your token, see here.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Updated over 2 years ago  How to swap tokens  How to create a liquidity pool on ThetaSwap</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Mars Ecosystem Token  The value capture model of Mars Ecosystem Token  XMS includes the following :  Mintage control mechanism. The mintage control mechanism ensures that the market value of XMS is at least 2.5 times the circulating supply of USDm. If the market demand for USDm is 100 million, then the market value of XMS should be at least 250 million USD.  If this is not the case then the circulating supply of USDm cannot reach 100 million (at the given moment).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Mars Ecosystem solves this problem by integrating the creation and the use of stablecoin into one ecosystem. The relationship between Mars Stablecoin and Mars DeFi primitives constitute a positive feedback loop and generates flywheel effect.  Mars Stablecoin&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Mars Stablecoin  Mars Stablecoin is price stable, capital efficient, scalable and decentralized. It is an over-backing stablecoin: the redeemability of Mars Stablecoin is backed by the Mars Ecosystem Governance Token (XMS) and the market cap of XMS is always multiple times the market cap of Mars Stablecoin.  Mars Swap</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 Boris Sauterey  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Mars Ecosystem</t>
+          <t>Kaddex</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Mars Ecosystem Token  The value capture model of Mars Ecosystem Token  XMS includes the following :  Mintage control mechanism. The mintage control mechanism ensures that the market value of XMS is at least 2.5 times the circulating supply of USDm. If the market demand for USDm is 100 million, then the market value of XMS should be at least 250 million USD.  If this is not the case then the circulating supply of USDm cannot reach 100 million (at the given moment).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Mars Ecosystem solves this problem by integrating the creation and the use of stablecoin into one ecosystem. The relationship between Mars Stablecoin and Mars DeFi primitives constitute a positive feedback loop and generates flywheel effect.  Mars Stablecoin&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Mars Stablecoin  Mars Stablecoin is price stable, capital efficient, scalable and decentralized. It is an over-backing stablecoin: the redeemability of Mars Stablecoin is backed by the Mars Ecosystem Governance Token (XMS) and the market cap of XMS is always multiple times the market cap of Mars Stablecoin.  Mars Swap</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 Boris Sauterey  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Kaddex</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Dapps  Hi y'all,  I am providing liquidity to KDA/KDX pair. When I click on 'Rewards', it is showing this message: Participate in the liquidity mining program to activate boosted rewards.  Is there an alternative to check my rewards?  Thanks in advance :)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Online                  @@ -4600,6 +4583,23 @@
                  Members</t>
         </is>
       </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Jetswap</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is Fantom Jetswap?  Fantom Jetswap is Jetfuel.Finance’s DEX AMM (Decentralized Automated Market Maker) built on the EVM Compatible Fantom Blockchain.  What is fWINGS?  Fwings is the liquidity incentive and governance token for Fantom Jetswap. fWINGS can be earned through yield farming, staking, lotteries, and so much more!  fWINGS Contract Address: 0x3D8f1ACCEe8e263F837138829B6C4517473d0688  How do you access Fantom Jetswap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What is Fantom Jetswap?  Fantom Jetswap is Jetfuel.Finance’s DEX AMM (Decentralized Automated Market Maker) built on the EVM Compatible Fantom Blockchain.  What is fWINGS?  Fwings is the liquidity incentive and governance token for Fantom Jetswap. fWINGS can be earned through yield farming, staking, lotteries, and so much more!  fWINGS Contract Address: 0x3D8f1ACCEe8e263F837138829B6C4517473d0688  How do you access Fantom Jetswap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 0.05% is sent to the Jetswap Treasury  Polygon swap fees are only 0.1%!  0.05% goes to the liquidity providers (income!)  0.05% is sent to the Jetswap Treasury  Liquidity Pools  Jetswap pools  allow you to provide liquidity by adding your tokens to liquidity pools.  When you add your token to a liquidity pool you will receive Liquidity Pool (LP) tokens.  As an example, if you deposited  and  into a liquidity pool, you would receive  tokens.</t>
+        </is>
+      </c>
       <c r="C233" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
@@ -4609,27 +4609,10 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Jetswap</t>
+          <t>BenSwap</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is Fantom Jetswap?  Fantom Jetswap is Jetfuel.Finance’s DEX AMM (Decentralized Automated Market Maker) built on the EVM Compatible Fantom Blockchain.  What is fWINGS?  Fwings is the liquidity incentive and governance token for Fantom Jetswap. fWINGS can be earned through yield farming, staking, lotteries, and so much more!  fWINGS Contract Address: 0x3D8f1ACCEe8e263F837138829B6C4517473d0688  How do you access Fantom Jetswap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; What is Fantom Jetswap?  Fantom Jetswap is Jetfuel.Finance’s DEX AMM (Decentralized Automated Market Maker) built on the EVM Compatible Fantom Blockchain.  What is fWINGS?  Fwings is the liquidity incentive and governance token for Fantom Jetswap. fWINGS can be earned through yield farming, staking, lotteries, and so much more!  fWINGS Contract Address: 0x3D8f1ACCEe8e263F837138829B6C4517473d0688  How do you access Fantom Jetswap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 0.05% is sent to the Jetswap Treasury  Polygon swap fees are only 0.1%!  0.05% goes to the liquidity providers (income!)  0.05% is sent to the Jetswap Treasury  Liquidity Pools  Jetswap pools  allow you to provide liquidity by adding your tokens to liquidity pools.  When you add your token to a liquidity pool you will receive Liquidity Pool (LP) tokens.  As an example, if you deposited  and  into a liquidity pool, you would receive  tokens.</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>BenSwap</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; PancakeSwap              @@ -4653,189 +4636,189 @@
  4. BenSwap, one of the most popular SmartBCH projects, has been listed on many platforms such as vfat.tools and CoinMarketCap. CoinGecko, DefiLlama and MyToken to provide users with analytical statistics.</t>
         </is>
       </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Arbidex</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; delve into the groundbreaking Quantum Concentrated Liquidity model, which gives Arbidex's QUANTUM a significant edge over traditional liquidity pools. So, buckle up and let's explore the future of DeFi together!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; QUANTUM takes liquidity provision to the next level with its Concentrated Liquidity model. Users can allocate their capital within specific price ranges, ensuring optimal utilization of all funds, unlike classic liquidity pools where 90% of the funds are never utilized. With lower tick ranges and dynamic fees, liquidity providers can earn higher rewards with less capital. Moreover, the model can outperform Uniswap V3 and other DEXs on Arbitrum in terms of capital efficiency and fees. Read more&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Quantum Concentrated Liquidity</t>
+        </is>
+      </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Arbidex</t>
+          <t>OreoSwap</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; delve into the groundbreaking Quantum Concentrated Liquidity model, which gives Arbidex's QUANTUM a significant edge over traditional liquidity pools. So, buckle up and let's explore the future of DeFi together!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; QUANTUM takes liquidity provision to the next level with its Concentrated Liquidity model. Users can allocate their capital within specific price ranges, ensuring optimal utilization of all funds, unlike classic liquidity pools where 90% of the funds are never utilized. With lower tick ranges and dynamic fees, liquidity providers can earn higher rewards with less capital. Moreover, the model can outperform Uniswap V3 and other DEXs on Arbitrum in terms of capital efficiency and fees. Read more&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Quantum Concentrated Liquidity</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Automated Market-Making (AMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; OreoSwap is a decentralized exchange that operates on the Arbitrum Chain using the automated market-making (AMM) model, similar to UniSwap. However, OreoSwap has been designed to be free of the flaws present in existing platforms, allowing it to function as a proper money market and providing a safe, positive-yield approach to liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; One of the reasons why OreoSwap is well-positioned to become the next best DEX on Arbitrum is because it utilizes the Arbitrum platform, which is known for its speed and scalability. Arbitrum also provides tools to easily integrate existing dApps, a detailed system of staking rewards, and a set of built-in decentralized finance (DeFi) tools.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; OreoSwap receive  OREO for providing liquidity or can farm LP tokens to earn  OREO. By owning  OREO Chads NFTs, users will also receive  OREO rewards as the  NFTs are automatically staked.  OreoSwap charges a 0.25% fee on every trade, and these fees are distributed as follows: 0.17% will be distributed to Liquidity providers, 0.03% will be distributed to OreoSwap Treasury, and…  --  --  Follow  Written by 0xJiuJitsuJerry  123 Followers</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Oreoswap-BSC  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>OreoSwap</t>
+          <t>KAIDEX v3</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Automated Market-Making (AMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; OreoSwap is a decentralized exchange that operates on the Arbitrum Chain using the automated market-making (AMM) model, similar to UniSwap. However, OreoSwap has been designed to be free of the flaws present in existing platforms, allowing it to function as a proper money market and providing a safe, positive-yield approach to liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; One of the reasons why OreoSwap is well-positioned to become the next best DEX on Arbitrum is because it utilizes the Arbitrum platform, which is known for its speed and scalability. Arbitrum also provides tools to easily integrate existing dApps, a detailed system of staking rewards, and a set of built-in decentralized finance (DeFi) tools.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; OreoSwap receive  OREO for providing liquidity or can farm LP tokens to earn  OREO. By owning  OREO Chads NFTs, users will also receive  OREO rewards as the  NFTs are automatically staked.  OreoSwap charges a 0.25% fee on every trade, and these fees are distributed as follows: 0.17% will be distributed to Liquidity providers, 0.03% will be distributed to OreoSwap Treasury, and…  --  --  Follow  Written by 0xJiuJitsuJerry  123 Followers</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You will receive KLP tokens (KAIDEX Liquidity Provider tokens) as proof of contribution once you have provided liquidity. A user that puts $KDX and $KAI into a pool, for example, would receive KDX-KAI KLP tokens. These tokens reflect your share of assets within the pool. You can always withdraw your funds by removing your liquidity.  Adding liquidity to an existing pool&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Adding liquidity to a new pool  If the pool you wish to provide liquidity to does not exist, you can create it of course! As the first liquidity provider, you set the initial exchange ratio (price) if one of the tokens in the pair has not appeared on KAIDEX. This often quickly corrects itself through arbitrage and by more liquidity providers adding to the pool.  How to add liquidity  By adding liquidity, you are putting equal USD value of 2 ingredients to make LP tokens.  Here's how to do it:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; KAIDEX — The best of both worlds  KAIDEX mechanism aims to provide a complete decentralised solution with a CEX experience. Users can have full control of their privacy, own their assets, and reduce the risk of a security breach. Furthermore, KAIDEX performance is of CEX with fast settlements, high liquidity, and transparent audit. It is to bring the best benefits for users. Such hybrid solutions are in high demand on the market as DEXes and DeFi are becoming more trending than ever.</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Oreoswap-BSC  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>KAIDEX v3</t>
+          <t>Balanced</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You will receive KLP tokens (KAIDEX Liquidity Provider tokens) as proof of contribution once you have provided liquidity. A user that puts $KDX and $KAI into a pool, for example, would receive KDX-KAI KLP tokens. These tokens reflect your share of assets within the pool. You can always withdraw your funds by removing your liquidity.  Adding liquidity to an existing pool&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Adding liquidity to a new pool  If the pool you wish to provide liquidity to does not exist, you can create it of course! As the first liquidity provider, you set the initial exchange ratio (price) if one of the tokens in the pair has not appeared on KAIDEX. This often quickly corrects itself through arbitrage and by more liquidity providers adding to the pool.  How to add liquidity  By adding liquidity, you are putting equal USD value of 2 ingredients to make LP tokens.  Here's how to do it:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; KAIDEX — The best of both worlds  KAIDEX mechanism aims to provide a complete decentralised solution with a CEX experience. Users can have full control of their privacy, own their assets, and reduce the risk of a security breach. Furthermore, KAIDEX performance is of CEX with fast settlements, high liquidity, and transparent audit. It is to bring the best benefits for users. Such hybrid solutions are in high demand on the market as DEXes and DeFi are becoming more trending than ever.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Solution  The correct answer is C.  A balanced liquidity management strategy offers a versatile approach to address liquidity demands. By using a combination of liquidating readily available assets and borrowing, ATB can meet liquidity requirements without overly compromising its asset portfolio or assuming excessive borrowing risk. Furthermore, it grants the bank flexibility in dealing with liquidity needs, making it the most prudent choice in the current circumstances.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; C. Combine both asset and liability management approaches to create a balanced liquidity management strategy.  D. Secure additional capital from investors while maintaining the current asset-liability structure.  Solution  The correct answer is C.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The bank’s liquidity manager might prepare the following forecasting model:  The estimated change in the total loans for the coming period is a function of:  Projected growth in the economy.  Projected quarterly corporate earnings.  The current rate of growth in the money supply.  Projected prime loan rate or CD rate.  The estimated rate of inflation.  The estimated change in total deposits for the coming period is a function of:  Projected growth in personal income in the economy.</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Redistribution and use in source and binary forms, with or without modification, are permitted provided that the following conditions are met: 1. Redistributions of source code must retain the above copyright    notice, this list of conditions and the following disclaimer. 2. Redistributions in binary form must reproduce the above copyright    notice, this list of conditions and the following disclaimer in the    documentation and/or other materials provided with the distribution.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.  BSD License</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Balanced</t>
+          <t>LuaSwap</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Solution  The correct answer is C.  A balanced liquidity management strategy offers a versatile approach to address liquidity demands. By using a combination of liquidating readily available assets and borrowing, ATB can meet liquidity requirements without overly compromising its asset portfolio or assuming excessive borrowing risk. Furthermore, it grants the bank flexibility in dealing with liquidity needs, making it the most prudent choice in the current circumstances.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; C. Combine both asset and liability management approaches to create a balanced liquidity management strategy.  D. Secure additional capital from investors while maintaining the current asset-liability structure.  Solution  The correct answer is C.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The bank’s liquidity manager might prepare the following forecasting model:  The estimated change in the total loans for the coming period is a function of:  Projected growth in the economy.  Projected quarterly corporate earnings.  The current rate of growth in the money supply.  Projected prime loan rate or CD rate.  The estimated rate of inflation.  The estimated change in total deposits for the coming period is a function of:  Projected growth in personal income in the economy.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In the traditional order book model, you can see a list of outstanding buy and sell orders. The AMM model in general including LuaSwap automatically adjusts the price of the tokens using the pool model without an order book. The advantage of this model is more liquidity and lower slippage. The downside is more slippage for larger orders. Additionally, each pool needs to have enough liquidity to support a decent volume of trades. LuaSwap solves this critical issue by supporting limit orders on&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; B, Add/Remove Liquidity (Now available)  Liquidity Providers can add and remove liquidity directly on LuaSwap.  A withdrawal fee of 0.1% is applied when an LP chooses to remove liquidity and exit. This fee is used to encourage long-term LPs and to create a healthier liquidity environment for LuaSwap users.  C, LuaSafe for Staking LUA (Coming this February)  LuaSafe is LuaSwap’s LUA-specific staking pool, where LUA holders can stake LUA to earn passive income.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; A market order is an order to buy or sell a token with the best available price in the current market. This is the default order type on AMMs and LuaSwap right now, it is the quickest way to execute your trade and your token will be swapped immediately. A limit order is an order to buy or sell a token at a specific price.</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Redistribution and use in source and binary forms, with or without modification, are permitted provided that the following conditions are met: 1. Redistributions of source code must retain the above copyright    notice, this list of conditions and the following disclaimer. 2. Redistributions in binary form must reproduce the above copyright    notice, this list of conditions and the following disclaimer in the    documentation and/or other materials provided with the distribution.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.  BSD License</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>LuaSwap</t>
+          <t>Baryon Network</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In the traditional order book model, you can see a list of outstanding buy and sell orders. The AMM model in general including LuaSwap automatically adjusts the price of the tokens using the pool model without an order book. The advantage of this model is more liquidity and lower slippage. The downside is more slippage for larger orders. Additionally, each pool needs to have enough liquidity to support a decent volume of trades. LuaSwap solves this critical issue by supporting limit orders on&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; B, Add/Remove Liquidity (Now available)  Liquidity Providers can add and remove liquidity directly on LuaSwap.  A withdrawal fee of 0.1% is applied when an LP chooses to remove liquidity and exit. This fee is used to encourage long-term LPs and to create a healthier liquidity environment for LuaSwap users.  C, LuaSafe for Staking LUA (Coming this February)  LuaSafe is LuaSwap’s LUA-specific staking pool, where LUA holders can stake LUA to earn passive income.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; A market order is an order to buy or sell a token with the best available price in the current market. This is the default order type on AMMs and LuaSwap right now, it is the quickest way to execute your trade and your token will be swapped immediately. A limit order is an order to buy or sell a token at a specific price.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Baryon Network  Your trusted DEX on BNB Smart Chain to swap, stake, farm, and build on top.  Baryon Network is a BNB Chain-based Premier Suite of DeFi Products, containing three fundamental pillars: BaryonSwap (AMM), BaryonFarm, and BaryonStake.  BaryonSwap  BaryonSwap is a decentralized automated liquidity pool built on the BNB Chain, allowing users to exchange BEP20 tokens. Besides, BaryonSwap will also aggregate liquidity from other plentiful sources to offer users the best trading prices.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; BaryonFarm  BaryonFarm enables users to maximize gains on LP tokens with additional reward tokens provided by projects, which is a vehicle for builders to support their liquidity providers.  BaryonStake  BaryonStake allows the project team to reward their loyal holders with the staking feature. Rewards are compounded automatically so users don't need to do anything besides clicking the stake button.  Next - ProductBaryonSwap  Last modified   5mo ago</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Baryon Network</t>
+          <t>BeamSwap</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Baryon Network  Your trusted DEX on BNB Smart Chain to swap, stake, farm, and build on top.  Baryon Network is a BNB Chain-based Premier Suite of DeFi Products, containing three fundamental pillars: BaryonSwap (AMM), BaryonFarm, and BaryonStake.  BaryonSwap  BaryonSwap is a decentralized automated liquidity pool built on the BNB Chain, allowing users to exchange BEP20 tokens. Besides, BaryonSwap will also aggregate liquidity from other plentiful sources to offer users the best trading prices.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; BaryonFarm  BaryonFarm enables users to maximize gains on LP tokens with additional reward tokens provided by projects, which is a vehicle for builders to support their liquidity providers.  BaryonStake  BaryonStake allows the project team to reward their loyal holders with the staking feature. Rewards are compounded automatically so users don't need to do anything besides clicking the stake button.  Next - ProductBaryonSwap  Last modified   5mo ago</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Press enter to begin your search  Close Search  Beamswap  View Website  About the Project  Beamswap is a decentralized exchange (DEX) with an automated market maker (AMM), providing liquidity and peer-to-peer transactions. The DeFi hub provides an array of services and features supporting the DeFi and Web3 spaces, including crypto swaps, staking, and yield farming, and serves as a launch platform for new and exciting projects built on the Moonbeam Network.  About the Integration&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Built on Moonbeam, Beamswap has curated a DeFi hub with important DeFi features, including Lending &amp; Borrowing, Beamswap Docks IDO Launchpad, Yield Farming, Liquidity Pools, Beamswap Liquidity Offering (BLO), Zap, and more. Beamswap DEX works as peer-to-peer trading on the Moonbeam network, enabled through automated market-making (AMM) processes and benefits from supply liquidity. This makes swapping on Beamswap fast, affordable and easy, as it connects directly to the user wallet.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Announcing BLO — Beamswap Liquidity Offering  Boosted liquidity of bridged assets on Moonbeam means better prices and higher traffic.  Beamswap·Follow  Published inBeamswap·4 min read·Jan 27, 2022  --  20  Listen  Share  Supporting the liquidity of the Beamswap DEX and incentivizing cross-chain exchange of tokens, our DeFi hub has just become richer for a new feature — Beamswap Liquidity Offering (BLO).  What is BLO and why does it matter?  How does it work?  Liquidity distribution models</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>BeamSwap</t>
+          <t>Zyberswap</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Press enter to begin your search  Close Search  Beamswap  View Website  About the Project  Beamswap is a decentralized exchange (DEX) with an automated market maker (AMM), providing liquidity and peer-to-peer transactions. The DeFi hub provides an array of services and features supporting the DeFi and Web3 spaces, including crypto swaps, staking, and yield farming, and serves as a launch platform for new and exciting projects built on the Moonbeam Network.  About the Integration&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Built on Moonbeam, Beamswap has curated a DeFi hub with important DeFi features, including Lending &amp; Borrowing, Beamswap Docks IDO Launchpad, Yield Farming, Liquidity Pools, Beamswap Liquidity Offering (BLO), Zap, and more. Beamswap DEX works as peer-to-peer trading on the Moonbeam network, enabled through automated market-making (AMM) processes and benefits from supply liquidity. This makes swapping on Beamswap fast, affordable and easy, as it connects directly to the user wallet.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Announcing BLO — Beamswap Liquidity Offering  Boosted liquidity of bridged assets on Moonbeam means better prices and higher traffic.  Beamswap·Follow  Published inBeamswap·4 min read·Jan 27, 2022  --  20  Listen  Share  Supporting the liquidity of the Beamswap DEX and incentivizing cross-chain exchange of tokens, our DeFi hub has just become richer for a new feature — Beamswap Liquidity Offering (BLO).  What is BLO and why does it matter?  How does it work?  Liquidity distribution models</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity  Zyberswap v3 = Concentrated Liquidity  What is Concentrated Liquidity?  Сoncentrated liquidity — is the liquidity allocated within a custom price range.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Zyberswap’s commitment to delivering innovative solutions like Concentrated Liquidity and a range of value-added features demonstrates its dedication to creating a sustainable and profitable ecosystem for its users and investors.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Key Features of Zyberswap  Zyberswap has quickly emerged as the leading DEX on Arbitrum since its launch on January 2023. The implementation of Concentrated Liquidity (CL), a unique and advanced feature that most of its competitors do not offer (excluding Uniswap), has played a vital role in this success. Concentrated Liquidity is a behind-the-scenes optimization that enables Zyberswap to perform like a world-class DEX, significantly boosting liquidity providers’ earnings potential.</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Zyberswap</t>
+          <t>Solidly</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Concentrated Liquidity  Zyberswap v3 = Concentrated Liquidity  What is Concentrated Liquidity?  Сoncentrated liquidity — is the liquidity allocated within a custom price range.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Zyberswap’s commitment to delivering innovative solutions like Concentrated Liquidity and a range of value-added features demonstrates its dedication to creating a sustainable and profitable ecosystem for its users and investors.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Key Features of Zyberswap  Zyberswap has quickly emerged as the leading DEX on Arbitrum since its launch on January 2023. The implementation of Concentrated Liquidity (CL), a unique and advanced feature that most of its competitors do not offer (excluding Uniswap), has played a vital role in this success. Concentrated Liquidity is a behind-the-scenes optimization that enables Zyberswap to perform like a world-class DEX, significantly boosting liquidity providers’ earnings potential.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; We now have plenty of data to analyze concentrated liquidity efficacy as both an AMM operating through various (extreme) market conditions, and also as a source of yield of liquidity providers.  At the same time, the ve(3,3) Solidly model has also gained traction since the start of 2023, and has now amassed over $500M in TVL.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; challenges associated with concentrated liquidity V3 pools for long-tail assets will provide a market for traditional vAMM and sAMM pools which the ve(3,3) model optimizes through incentive alignment and bribe market  competition challenges for Uniswap V3 LPs can be overcome with managed CL pools on ve(3,3) exchanges, allowing for greater profitable LPs and overall TVL&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; One of Uniswaps main innovations in the AMM model was the democratization of access to liquidity provisioning to the general public, allowing for anyone to participate and increase overall liquidity in markets. With V3 pools, the model has regressed to just professional market makers being profitable, similar to orderbook style exchanges.</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) 2015 Wildbit  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Solidly</t>
+          <t>WingSwap</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; We now have plenty of data to analyze concentrated liquidity efficacy as both an AMM operating through various (extreme) market conditions, and also as a source of yield of liquidity providers.  At the same time, the ve(3,3) Solidly model has also gained traction since the start of 2023, and has now amassed over $500M in TVL.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; challenges associated with concentrated liquidity V3 pools for long-tail assets will provide a market for traditional vAMM and sAMM pools which the ve(3,3) model optimizes through incentive alignment and bribe market  competition challenges for Uniswap V3 LPs can be overcome with managed CL pools on ve(3,3) exchanges, allowing for greater profitable LPs and overall TVL&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; One of Uniswaps main innovations in the AMM model was the democratization of access to liquidity provisioning to the general public, allowing for anyone to participate and increase overall liquidity in markets. With V3 pools, the model has regressed to just professional market makers being profitable, similar to orderbook style exchanges.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the unique selling point of WingSwap?&lt;br&gt;Possible answer: The unique selling point of WingSwap is its decentralized exchange (DEX) built on the Fantom Opera Chain following the automated market-making model (AMM) with creative improvements, such as liquidity pools, yield farming, stablecoin pools, NFT integration, DEX smart trading, and staking.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is the unique selling point?  Decentralized Exchange  WingSwap is the AMM-based Decentralized Exchange on the Fantom Opera network and it is designed to exchange one token for another directly, bypassing trading platforms and other intermediaries.  Process&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Information  Type  Automated Market Maker  Blockchain  Fantom  Currency  WIS  Platform  Windows, macOS  Publisher  WingSwap Team  Version  Version 2.0  FAQ  What is WingSwap?  Wingswap is a decentralized exchange (DEX) built on the Fantom Opera Chain following the automated market-making model (AMM) popularized by UniSwap with creative improvements.  What makes WingSwap special?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; With WingSwap, there is no such thing. Exchange activities are automated, fast, and decentralized using the Automated Market Maker – AMM mechanism. Trades can be carried out automatically and users can stake their idle funds in the liquidity pool to gain a high return on their investment.  WingSwap offers several features that support decentralized trading:  Decentralized Exchange  Liquidity pools  Yield Farming  Stablecoin Pools  NFT Integration  DEX Smart Trading  Staking  WingSwap’s Vision</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) 2015 Wildbit  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; know their rights.      Developers that use the GNU GPL protect your rights with two steps:  (1) assert copyright on the software, and (2) offer you this License  giving you legal permission to copy, distribute and/or modify it.      For the developers' and authors' protection, the GPL clearly explains  that there is no warranty for this free software.  For both users' and  authors' sake, the GPL requires that modified versions be marked as&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; them if you wish), that you receive source code or can get it if you  want it, that you can change the software or use pieces of it in new  free programs, and that you know you can do these things.      To protect your rights, we need to prevent others from denying you  these rights or asking you to surrender the rights.  Therefore, you have  certain responsibilities if you distribute copies of the software, or if  you modify it: responsibilities to respect the freedom of others.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; the Program, the only way you could satisfy both those terms and this  License would be to refrain entirely from conveying the Program.      13. Use with the GNU Affero General Public License.      Notwithstanding any other provision of this License, you have  permission to link or combine any covered work with a work licensed  under version 3 of the GNU Affero General Public License into a single  combined work, and to convey the resulting work.  The terms of this</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>WingSwap</t>
+          <t>AUX Exchange</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the unique selling point of WingSwap?&lt;br&gt;Possible answer: The unique selling point of WingSwap is its decentralized exchange (DEX) built on the Fantom Opera Chain following the automated market-making model (AMM) with creative improvements, such as liquidity pools, yield farming, stablecoin pools, NFT integration, DEX smart trading, and staking.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is the unique selling point?  Decentralized Exchange  WingSwap is the AMM-based Decentralized Exchange on the Fantom Opera network and it is designed to exchange one token for another directly, bypassing trading platforms and other intermediaries.  Process&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Information  Type  Automated Market Maker  Blockchain  Fantom  Currency  WIS  Platform  Windows, macOS  Publisher  WingSwap Team  Version  Version 2.0  FAQ  What is WingSwap?  Wingswap is a decentralized exchange (DEX) built on the Fantom Opera Chain following the automated market-making model (AMM) popularized by UniSwap with creative improvements.  What makes WingSwap special?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; With WingSwap, there is no such thing. Exchange activities are automated, fast, and decentralized using the Automated Market Maker – AMM mechanism. Trades can be carried out automatically and users can stake their idle funds in the liquidity pool to gain a high return on their investment.  WingSwap offers several features that support decentralized trading:  Decentralized Exchange  Liquidity pools  Yield Farming  Stablecoin Pools  NFT Integration  DEX Smart Trading  Staking  WingSwap’s Vision</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; know their rights.      Developers that use the GNU GPL protect your rights with two steps:  (1) assert copyright on the software, and (2) offer you this License  giving you legal permission to copy, distribute and/or modify it.      For the developers' and authors' protection, the GPL clearly explains  that there is no warranty for this free software.  For both users' and  authors' sake, the GPL requires that modified versions be marked as&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; them if you wish), that you receive source code or can get it if you  want it, that you can change the software or use pieces of it in new  free programs, and that you know you can do these things.      To protect your rights, we need to prevent others from denying you  these rights or asking you to surrender the rights.  Therefore, you have  certain responsibilities if you distribute copies of the software, or if  you modify it: responsibilities to respect the freedom of others.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; the Program, the only way you could satisfy both those terms and this  License would be to refrain entirely from conveying the Program.      13. Use with the GNU Affero General Public License.      Notwithstanding any other provision of this License, you have  permission to link or combine any covered work with a work licensed  under version 3 of the GNU Affero General Public License into a single  combined work, and to convey the resulting work.  The terms of this</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>AUX Exchange</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Table of Content  AUX  Introduction Fees and Rebates Start Trading Typescript SDK Addresses Contributing to AUX  Quickstart Deployment  Introduction  AUX is a decentralized exchange powered by Aptos. We support the following features:  Liquidity pools (AMM)  Central limit order book (CLOB)  Router for best execution between AMM and CLOB  Fees and Rebates&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Central limit order book (CLOB)  Router for best execution between AMM and CLOB  Fees and Rebates  Liquidity pool fees are set by the pool creator. AUX expects fees to range from 0 bps to 30 bps. All fees are retained by the liquidity providers.  Central limit order book fees are 0 bps for both maker and taker sides.  The AUX router does not charge any fees on top of the underlying liquidity pool or central limit order book fees.  Start Trading  Navigate to our web app to start trading.  Aptos&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 3 min de lecture  Next  					@@ -4846,55 +4829,72 @@
  https://www.linkedin.com/in/louis-denis-crypto-trader/  Sign Up for Our Newsletters</t>
         </is>
       </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 East Rock Labs  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>RadioShack</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Two dynamics are responsible for slippage:  1.High Swap Volume  2.Low Liquidity  RadioShack has an elegant solution to minimize slippage.  The logical place to start is to own extremely deep liquidity pools.  In general, the deeper the liquidity pool, the lower the slippage. Therefore, users (and DEX aggregators) route swaps through the deepest liquidity pools to achieve the optimal outcome for their swap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; DEX 1.0 and Rented Liquidity  DEX 1.0 and the double-edged sword of rented liquidity pools  For RadioShack to win in the current decentralized swap game (henceforth referred to as DEX 1.0), it must convince users &amp; aggregators to use the RadioShack swap.  To win that, customer slippage must be extremely low.  Slippage is the price difference between the submitted transaction and the actual completed transaction on the blockchain. Swap users find high slippage to be anathema.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; RadioShack’s plan to mainstream DeFi involves a partnership with Atlas USV to guarantee liquidity. And wouldn’t you know it, Atlas USV is a Lopez venture. Atlas is relatively new to the DeFi space, which is worth factoring in when you consider that RadioShack plans to issue 10 billion tokens. Right now, there seems to be no public code or repositories. Finally, the white paper reads a bit more like a pitch deck. I will follow up more on these questions in a later post or posts:</t>
+        </is>
+      </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 East Rock Labs  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; either verbatim or with modifications and/or translated into another language.  (Hereinafter, translation is included without limitation in the term "modification".)  Each licensee is addressed as "you".&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 0. This License applies to any program or other work which contains a notice placed by the copyright holder saying it may be distributed under the terms of this General Public License.  The "Program", below, refers to any such program or work, and a "work based on the Program" means either the Program or any derivative work under copyright law: that is to say, a work containing the Program or a portion of it, either verbatim or with modifications and/or translated into another&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 5. You are not required to accept this License, since you have not signed it.  However, nothing else grants you permission to modify or distribute the Program or its derivative works.  These actions are prohibited by law if you do not accept this License.  Therefore, by modifying or distributing the Program (or any work based on the Program), you indicate your acceptance of this License to do so, and all its terms and conditions for copying, distributing or modifying</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>RadioShack</t>
+          <t>Wanswap</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Two dynamics are responsible for slippage:  1.High Swap Volume  2.Low Liquidity  RadioShack has an elegant solution to minimize slippage.  The logical place to start is to own extremely deep liquidity pools.  In general, the deeper the liquidity pool, the lower the slippage. Therefore, users (and DEX aggregators) route swaps through the deepest liquidity pools to achieve the optimal outcome for their swap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; DEX 1.0 and Rented Liquidity  DEX 1.0 and the double-edged sword of rented liquidity pools  For RadioShack to win in the current decentralized swap game (henceforth referred to as DEX 1.0), it must convince users &amp; aggregators to use the RadioShack swap.  To win that, customer slippage must be extremely low.  Slippage is the price difference between the submitted transaction and the actual completed transaction on the blockchain. Swap users find high slippage to be anathema.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; RadioShack’s plan to mainstream DeFi involves a partnership with Atlas USV to guarantee liquidity. And wouldn’t you know it, Atlas USV is a Lopez venture. Atlas is relatively new to the DeFi space, which is worth factoring in when you consider that RadioShack plans to issue 10 billion tokens. Right now, there seems to be no public code or repositories. Finally, the white paper reads a bit more like a pitch deck. I will follow up more on these questions in a later post or posts:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The liquidity pool token for WanSwap is WSLP, in WanSwap you can use your WSLP to withdraw your assets from the pool and it can be used for mining governance tokens: WASP.  Liquidity mechanics  I will explain the mechanics by using an example. Let’s say you want to provide liquidity in the WAN-wanUSDT pool. The way the pools work is you have to deposit an equal value of WAN and the token that you want to participate with, in this case, wanUSDT.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The liquidity pool token for WanSwap is WSLP, in WanSwap you can use your WSLP to withdraw your assets from the pool and it can be used for mining governance tokens: WASP.  Liquidity mechanics  I will explain the mechanics by using an example. Let’s say you want to provide liquidity in the WAN-wanUSDT pool. The way the pools work is you have to deposit an equal value of WAN and the token that you want to participate with, in this case, wanUSDT.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Once you added liquidity to the pool and someone makes a swap on the pair, your liquidity will be tapped into. Based on the trade, your amount in the pool will shift towards more WAN or more wanUSDT. So if someone would have traded WAN for wanUSDC, your wanUSDC liquidity will shrink but your WAN liquidity will increase. It works like a scale, you should always come out to the same combined value as you put in.</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; either verbatim or with modifications and/or translated into another language.  (Hereinafter, translation is included without limitation in the term "modification".)  Each licensee is addressed as "you".&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 0. This License applies to any program or other work which contains a notice placed by the copyright holder saying it may be distributed under the terms of this General Public License.  The "Program", below, refers to any such program or work, and a "work based on the Program" means either the Program or any derivative work under copyright law: that is to say, a work containing the Program or a portion of it, either verbatim or with modifications and/or translated into another&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 5. You are not required to accept this License, since you have not signed it.  However, nothing else grants you permission to modify or distribute the Program or its derivative works.  These actions are prohibited by law if you do not accept this License.  Therefore, by modifying or distributing the Program (or any work based on the Program), you indicate your acceptance of this License to do so, and all its terms and conditions for copying, distributing or modifying</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Shu Ding  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Wanswap</t>
+          <t>Morpheus Swap</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The liquidity pool token for WanSwap is WSLP, in WanSwap you can use your WSLP to withdraw your assets from the pool and it can be used for mining governance tokens: WASP.  Liquidity mechanics  I will explain the mechanics by using an example. Let’s say you want to provide liquidity in the WAN-wanUSDT pool. The way the pools work is you have to deposit an equal value of WAN and the token that you want to participate with, in this case, wanUSDT.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The liquidity pool token for WanSwap is WSLP, in WanSwap you can use your WSLP to withdraw your assets from the pool and it can be used for mining governance tokens: WASP.  Liquidity mechanics  I will explain the mechanics by using an example. Let’s say you want to provide liquidity in the WAN-wanUSDT pool. The way the pools work is you have to deposit an equal value of WAN and the token that you want to participate with, in this case, wanUSDT.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Once you added liquidity to the pool and someone makes a swap on the pair, your liquidity will be tapped into. Based on the trade, your amount in the pool will shift towards more WAN or more wanUSDT. So if someone would have traded WAN for wanUSDC, your wanUSDC liquidity will shrink but your WAN liquidity will increase. It works like a scale, you should always come out to the same combined value as you put in.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is Morpheus Swap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The liquidity staking pool will function similar to centralised exchanges by giving a form of incentive back to stakers from the trader fee. In our liquidity pool, stakers will receive earnings from the Morpheus staking pool in addition to a small share of the transaction fee from the trader. In short, the DEN/BUSD staking pool will give DEN as interest to stakers depending on the trading volume, duration of staking, and the token steam flow from the staking pool of Morpheus.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Morpheus Swap is a farming and aggregator platform on the Fantom Protocol that promises profitability, safety, and stability. In using the platform, users must utilize the MetaMask wallet and despite only supporting Ethereum, Morpheus will initiate a configuration to connect them to the Fantom Opera Network. The Morpheus team aims to turn the project into a 100% decentralized system to provide users with more secure services and compete better with other yield farming projects.</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Shu Ding  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Morpheus Swap</t>
+          <t>SkullSwap</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is Morpheus Swap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The liquidity staking pool will function similar to centralised exchanges by giving a form of incentive back to stakers from the trader fee. In our liquidity pool, stakers will receive earnings from the Morpheus staking pool in addition to a small share of the transaction fee from the trader. In short, the DEN/BUSD staking pool will give DEN as interest to stakers depending on the trading volume, duration of staking, and the token steam flow from the staking pool of Morpheus.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Morpheus Swap is a farming and aggregator platform on the Fantom Protocol that promises profitability, safety, and stability. In using the platform, users must utilize the MetaMask wallet and despite only supporting Ethereum, Morpheus will initiate a configuration to connect them to the Fantom Opera Network. The Morpheus team aims to turn the project into a 100% decentralized system to provide users with more secure services and compete better with other yield farming projects.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Along with that, we are aiming at changing the DEX landscape dramatically, helping various projects across different blockchains to gain more users thanks to the efficiency of our technologies.  Thus, SkullSwap has officially acquired the license for a concentrated liquidity AMM provided by us, in order to improve its functionality, and start using their liquidity wisely.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Part of the Skull Order Ecosystem, SkullSwap was born to meet all the needs of Fantom when it comes to swapping and staking of crypto assets for spot trades, with the lowest fees, via Algebra’s Concentrated Liquidity tech. Skull Order Ecosystem is additionally comprised by Cranium Exchange, a Dex targeted for leverage trading as well as spot, although not as efficient as Skullswap, and Depeg Finance, a stablecoin depeg insurance protocol in the reworks to integrate the ecosystem in its full&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Skullswap Integration Conditions  As always, the main goal of the integration is to upgrade a DEX — this time it is the Fantom-based decentralized exchange SkullSwap — with a superior Concentrated Liquidity tech. This directly affects the capital efficiency of an exchange, as well as changes the way it operates, improving the user experience.</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4906,29 +4906,29 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>SkullSwap</t>
+          <t>WoofSwap</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Along with that, we are aiming at changing the DEX landscape dramatically, helping various projects across different blockchains to gain more users thanks to the efficiency of our technologies.  Thus, SkullSwap has officially acquired the license for a concentrated liquidity AMM provided by us, in order to improve its functionality, and start using their liquidity wisely.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Part of the Skull Order Ecosystem, SkullSwap was born to meet all the needs of Fantom when it comes to swapping and staking of crypto assets for spot trades, with the lowest fees, via Algebra’s Concentrated Liquidity tech. Skull Order Ecosystem is additionally comprised by Cranium Exchange, a Dex targeted for leverage trading as well as spot, although not as efficient as Skullswap, and Depeg Finance, a stablecoin depeg insurance protocol in the reworks to integrate the ecosystem in its full&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Skullswap Integration Conditions  As always, the main goal of the integration is to upgrade a DEX — this time it is the Fantom-based decentralized exchange SkullSwap — with a superior Concentrated Liquidity tech. This directly affects the capital efficiency of an exchange, as well as changes the way it operates, improving the user experience.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the purpose of the emissions growth function?&lt;br&gt;&lt;br&gt;Possible answer: The purpose of the emissions growth function is to calibrate rewards for both early and late entrants, ensuring that early participants secure a larger portion of rewards while preserving enticing incentives for new users joining WoofSwap.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Refined emissions growth function: The formula (veWOOF.totalSupply ÷ WOOF.totalsupply)³ × 0.5 × Emissions has been employed to calibrate rewards for both early and late entrants. This adjustment guarantees that early participants secure a larger portion of rewards while preserving enticing incentives for new users joining WoofSwap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Protocol Overview  WoofSwap is a cutting-edge Decentralized Exchange (DEX) built on the Shibarium network, seamlessly combining liquidity, voting, and rewards to create an unparalleled DeFi experience. Offering fast, cost-effective transactions and a robust ve(3,3) incentivization model, WoofSwap empowers its community through permissionless pool creation, democratic voting, and fee accumulation for ve lockers.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; These enhancements aim to foster a more productive and efficient environment within the WoofSwap protocol, ensuring emissions are directed toward beneficial liquidity sources.  Prolonged Emissions Decay:  To strike a balance between rewarding early adopters and maintaining the protocol’s appeal for future participants, WoofSwap has implemented several measures that extend the emissions decay process:</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>WoofSwap</t>
+          <t>WardenSwap</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the purpose of the emissions growth function?&lt;br&gt;&lt;br&gt;Possible answer: The purpose of the emissions growth function is to calibrate rewards for both early and late entrants, ensuring that early participants secure a larger portion of rewards while preserving enticing incentives for new users joining WoofSwap.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Refined emissions growth function: The formula (veWOOF.totalSupply ÷ WOOF.totalsupply)³ × 0.5 × Emissions has been employed to calibrate rewards for both early and late entrants. This adjustment guarantees that early participants secure a larger portion of rewards while preserving enticing incentives for new users joining WoofSwap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Protocol Overview  WoofSwap is a cutting-edge Decentralized Exchange (DEX) built on the Shibarium network, seamlessly combining liquidity, voting, and rewards to create an unparalleled DeFi experience. Offering fast, cost-effective transactions and a robust ve(3,3) incentivization model, WoofSwap empowers its community through permissionless pool creation, democratic voting, and fee accumulation for ve lockers.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; These enhancements aim to foster a more productive and efficient environment within the WoofSwap protocol, ensuring emissions are directed toward beneficial liquidity sources.  Prolonged Emissions Decay:  To strike a balance between rewarding early adopters and maintaining the protocol’s appeal for future participants, WoofSwap has implemented several measures that extend the emissions decay process:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What are the DEXs integrated into WardenSwap?&lt;br&gt;&lt;br&gt;Possible answer:&lt;br&gt;  - PancakeSwap&lt;br&gt;  - BakerySwap&lt;br&gt;  - JulSwap&lt;br&gt;  - Ellipsis&lt;br&gt;  - Value DeFi&lt;br&gt;  - Spartan Protocol&lt;br&gt;  - ACryptoS&lt;br&gt;  - Nerve Finance&lt;br&gt;  - Definix&lt;br&gt;  - MDex&lt;br&gt;&lt;br&gt;Just answer using a name from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "PancakeSwap"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How does WardenSwap find the best rate for its traders?  WardenSwap is powered by an Automated Market Maker or AMM protocol. Fundamentally, an AMM protocol allows token holders to contribute their assets as liquidity into the pools. This solves one of the biggest problems for the DEXs that struggle with liquidity issues. For contributing to the liquidity, the traders are incentivized with a portion of the transaction fees on every transaction made to that pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; So basically, instead of an order book, the AMM uses an algorithm to get the trading price of a particular asset. While AMM solves the liquidity issues for DEXs and DEX users, it has its own set of issues. These include:  High Slippage  Impermanent Loss (IL) for liquidity providers.  Both these issues increase the cost of trading on DEXs and that is what WardenSwap or WardeSwap clone script based DEXs solve.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; DEX aggregation  When we build DeFi exchange like WardenSwap using a clone script it inherently integrates 10 DEXs into it. These are PancakeSwap, BakerySwap, JulSwap, Ellipsis, Value DeFi, Spartan Protocol, ACryptoS, Nerve Finance, Definix, and MDex. If you wish to integrate any more DEXs or want to replace some with a DEX of your choice, we can customize the clone script to do so.  Best rate Wardenswap clone script features</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4940,266 +4940,266 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>WardenSwap</t>
+          <t>ProtoFi</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What are the DEXs integrated into WardenSwap?&lt;br&gt;&lt;br&gt;Possible answer:&lt;br&gt;  - PancakeSwap&lt;br&gt;  - BakerySwap&lt;br&gt;  - JulSwap&lt;br&gt;  - Ellipsis&lt;br&gt;  - Value DeFi&lt;br&gt;  - Spartan Protocol&lt;br&gt;  - ACryptoS&lt;br&gt;  - Nerve Finance&lt;br&gt;  - Definix&lt;br&gt;  - MDex&lt;br&gt;&lt;br&gt;Just answer using a name from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "PancakeSwap"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; How does WardenSwap find the best rate for its traders?  WardenSwap is powered by an Automated Market Maker or AMM protocol. Fundamentally, an AMM protocol allows token holders to contribute their assets as liquidity into the pools. This solves one of the biggest problems for the DEXs that struggle with liquidity issues. For contributing to the liquidity, the traders are incentivized with a portion of the transaction fees on every transaction made to that pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; So basically, instead of an order book, the AMM uses an algorithm to get the trading price of a particular asset. While AMM solves the liquidity issues for DEXs and DEX users, it has its own set of issues. These include:  High Slippage  Impermanent Loss (IL) for liquidity providers.  Both these issues increase the cost of trading on DEXs and that is what WardenSwap or WardeSwap clone script based DEXs solve.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; DEX aggregation  When we build DeFi exchange like WardenSwap using a clone script it inherently integrates 10 DEXs into it. These are PancakeSwap, BakerySwap, JulSwap, Ellipsis, Value DeFi, Spartan Protocol, ACryptoS, Nerve Finance, Definix, and MDex. If you wish to integrate any more DEXs or want to replace some with a DEX of your choice, we can customize the clone script to do so.  Best rate Wardenswap clone script features</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; At its core, it’s really just an Automated Market Maker, not too different from other DEXes. The unique feature about ProtoFi is its Governance token model. 2 tokens are involved here, Proton (PROTO) and Electron (ELCT). This isn’t new at a glance as other protocols have already started using the xSushi model where users can stake their farmed governance tokens to farm more governance tokens or benefit from protocol buybacks/revenue distribution. The thing that sets ELCT apart is that you can’t&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Fission  The Fission pool is one of the core innovations of the ProtoFi protocol and the current method used for dividend distribution. It allows investors to deposit ELCT and earn interest in StableCoins, which represent a share in the protocol and entitles its holders to receive dividends. In the near future, it will also enable to actively participate in the protocol’s governance model which aims to be the first to be truly operated by its users.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; equivalent would be FTM/SPIRIT and on Beethoven X the FTM/BEETS pool. These tokens while used for governance can also be viewed as farm tokens where they act as bonus incentives for providing liquidity for other pairs. For instance, if you provide USDC-FTM liquidity on Spookyswap, your APR figure on Spookyswap will be partly due to swap fees and partly due to BOO token rewards which you can compound (sell) to create more USDC-FTM LP.</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; do not modify the License. You may add Your own attribution            notices within Derivative Works that You distribute, alongside            or as an addendum to the NOTICE text from the Work, provided            that such additional attribution notices cannot be construed            as modifying the License.          You may add Your own copyright statement to Your modifications and        may provide additional or different license terms and conditions&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Work and such Derivative Works in Source or Object form.       3. Grant of Patent License. Subject to the terms and conditions of        this License, each Contributor hereby grants to You a perpetual,        worldwide, non-exclusive, no-charge, royalty-free, irrevocable        (except as stated in this section) patent license to make, have made,        use, offer to sell, sell, import, and otherwise transfer the Work,&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Work or Derivative Works thereof in any medium, with or without        modifications, and in Source or Object form, provided that You        meet the following conditions:          (a) You must give any other recipients of the Work or            Derivative Works a copy of this License; and          (b) You must cause any modified files to carry prominent notices            stating that You changed the files; and          (c) You must retain, in the Source form of any Derivative Works</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ProtoFi</t>
+          <t>FlairDex</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; At its core, it’s really just an Automated Market Maker, not too different from other DEXes. The unique feature about ProtoFi is its Governance token model. 2 tokens are involved here, Proton (PROTO) and Electron (ELCT). This isn’t new at a glance as other protocols have already started using the xSushi model where users can stake their farmed governance tokens to farm more governance tokens or benefit from protocol buybacks/revenue distribution. The thing that sets ELCT apart is that you can’t&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Fission  The Fission pool is one of the core innovations of the ProtoFi protocol and the current method used for dividend distribution. It allows investors to deposit ELCT and earn interest in StableCoins, which represent a share in the protocol and entitles its holders to receive dividends. In the near future, it will also enable to actively participate in the protocol’s governance model which aims to be the first to be truly operated by its users.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; equivalent would be FTM/SPIRIT and on Beethoven X the FTM/BEETS pool. These tokens while used for governance can also be viewed as farm tokens where they act as bonus incentives for providing liquidity for other pairs. For instance, if you provide USDC-FTM liquidity on Spookyswap, your APR figure on Spookyswap will be partly due to swap fees and partly due to BOO token rewards which you can compound (sell) to create more USDC-FTM LP.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; market maker (AMM) model. In this article, we’ll take a closer look at Flair DEX and what it has to offer.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; One of the key features of Flair DEX is its hybrid order book and AMM model. This means that users can choose to trade assets either by placing limit orders on the order book, or by trading directly against the liquidity pool provided by the AMM. This approach is designed to provide greater flexibility and liquidity for traders.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; One of the key features of Flair DEX is its hybrid order book and AMM model. This means that users can choose to trade assets either by placing limit orders on the order book or by trading directly against the liquidity pool provided by the AMM. This approach is designed to provide greater flexibility and liquidity for traders.</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; do not modify the License. You may add Your own attribution            notices within Derivative Works that You distribute, alongside            or as an addendum to the NOTICE text from the Work, provided            that such additional attribution notices cannot be construed            as modifying the License.          You may add Your own copyright statement to Your modifications and        may provide additional or different license terms and conditions&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Work and such Derivative Works in Source or Object form.       3. Grant of Patent License. Subject to the terms and conditions of        this License, each Contributor hereby grants to You a perpetual,        worldwide, non-exclusive, no-charge, royalty-free, irrevocable        (except as stated in this section) patent license to make, have made,        use, offer to sell, sell, import, and otherwise transfer the Work,&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Work or Derivative Works thereof in any medium, with or without        modifications, and in Source or Object form, provided that You        meet the following conditions:          (a) You must give any other recipients of the Work or            Derivative Works a copy of this License; and          (b) You must cause any modified files to carry prominent notices            stating that You changed the files; and          (c) You must retain, in the Source form of any Derivative Works</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>FlairDex</t>
+          <t>BinarySwap</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; market maker (AMM) model. In this article, we’ll take a closer look at Flair DEX and what it has to offer.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; One of the key features of Flair DEX is its hybrid order book and AMM model. This means that users can choose to trade assets either by placing limit orders on the order book, or by trading directly against the liquidity pool provided by the AMM. This approach is designed to provide greater flexibility and liquidity for traders.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; One of the key features of Flair DEX is its hybrid order book and AMM model. This means that users can choose to trade assets either by placing limit orders on the order book or by trading directly against the liquidity pool provided by the AMM. This approach is designed to provide greater flexibility and liquidity for traders.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Cannot determine                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The liquidity model&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Who prepares the liquidity model?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; As we said initially, the liquidity model is a more detailed model. It is not valid for this analysis to start from long-term hypotheses that have not been contrasted or confirmed. The objective of the liquidity model is to make a much more exhaustive analysis and with real information available in the short term. Where does this information come from? Generally, real information is used, that is, it is the primary task of the person in charge of the liquidity model to reach the appropriate</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2018 Gump  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>BinarySwap</t>
+          <t>YetiSwap</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Cannot determine                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The liquidity model&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Who prepares the liquidity model?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; As we said initially, the liquidity model is a more detailed model. It is not valid for this analysis to start from long-term hypotheses that have not been contrasted or confirmed. The objective of the liquidity model is to make a much more exhaustive analysis and with real information available in the short term. Where does this information come from? Generally, real information is used, that is, it is the primary task of the person in charge of the liquidity model to reach the appropriate</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What are the benefits of using YetiSwap?&lt;br&gt;&lt;br&gt;Possible answer:&lt;br&gt;The benefits of using YetiSwap include fast and cheap trades, and a fair and open token distribution.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; same automated market-making (AMM) model as Uniswap  , features a native governance token called YTS that is fully community distributed and is capable of trading all tokens issued on Ethereum and Avalanche. In a crowded marketplace with multiple contenders, YetiSwap offers three critically important benefits: fast and cheap trades, and a fair and open token distribution.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; YetiSwap Introduction  IntroductionYetiSwap is a decentralized exchange (DEX) which runs on Avalanche, uses thesame automated market-making (AMM) model as Uniswap, features a native governance token called YTS  Introduction  YetiSwap is a decentralized exchange (DEX) which runs on Avalanche, uses the  same automated market-making (AMM) model as Uniswap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Users of existing AMMs, such as Pangolin, Uniswap, and Sushiswap, are already familiar with their mechanism of action. Therefore, the rest of this post does not discuss how YetiSwap achieves its trading capabilities. Instead, we discuss the YTS token in more detail, including its distribution mechanism and governance rules.  YTS Distribution  We will be community-driven in the future...  Distribution Breakdown</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2018 Gump  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>YetiSwap</t>
+          <t>Hakuswap</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What are the benefits of using YetiSwap?&lt;br&gt;&lt;br&gt;Possible answer:&lt;br&gt;The benefits of using YetiSwap include fast and cheap trades, and a fair and open token distribution.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; same automated market-making (AMM) model as Uniswap  , features a native governance token called YTS that is fully community distributed and is capable of trading all tokens issued on Ethereum and Avalanche. In a crowded marketplace with multiple contenders, YetiSwap offers three critically important benefits: fast and cheap trades, and a fair and open token distribution.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; YetiSwap Introduction  IntroductionYetiSwap is a decentralized exchange (DEX) which runs on Avalanche, uses thesame automated market-making (AMM) model as Uniswap, features a native governance token called YTS  Introduction  YetiSwap is a decentralized exchange (DEX) which runs on Avalanche, uses the  same automated market-making (AMM) model as Uniswap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Users of existing AMMs, such as Pangolin, Uniswap, and Sushiswap, are already familiar with their mechanism of action. Therefore, the rest of this post does not discuss how YetiSwap achieves its trading capabilities. Instead, we discuss the YTS token in more detail, including its distribution mechanism and governance rules.  YTS Distribution  We will be community-driven in the future...  Distribution Breakdown</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Event Duration: Feb. 11th (9:00 UTC) — Feb. 18th (9:00 UTC)  Task:  1）Install ONTO Wallet2）Add AVAX-HAKU liquidity in Haku Swap dApp within ONTO.  3）Stake at least $10 AVAX-HAKU LP in the AVAX-HAKU farming pool of Haku Swap dApp in ONTO.  Haku Swap Liquidity Mining  Haku Swap has set up an AVAX-HAKU farming pool, where you can add liquidity and stake LP to earn HAKU rewards.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; ONTO and Haku Swap Team Up for a $4,000 Liquidity Mining Campaign!  ONTO is excited to host a liquidity mining campaign with Haku Swap, a crypto world for users to trade, earn, and game on the Avalanche Chain!  The ONTO Team·Follow  Published inONTO Wallet·3 min read·Feb 11, 2022  --  Listen  Share&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The ONTO Team·Follow  Published inONTO Wallet·3 min read·Feb 11, 2022  --  Listen  Share  ONTO is hosting a liquidity mining campaign with Haku Swap! This will be the first ONTO event on the Avalanche Chain. A prize pool of $4,000 worth of HAKU is offered to all participants who complete the tasks. Don’t miss out!  To be eligible for the big prize, please follow the rules below.  Event Duration: Feb. 11th (9:00 UTC) — Feb. 18th (9:00 UTC)  Task:</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Hakuswap</t>
+          <t>MistSwap</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Event Duration: Feb. 11th (9:00 UTC) — Feb. 18th (9:00 UTC)  Task:  1）Install ONTO Wallet2）Add AVAX-HAKU liquidity in Haku Swap dApp within ONTO.  3）Stake at least $10 AVAX-HAKU LP in the AVAX-HAKU farming pool of Haku Swap dApp in ONTO.  Haku Swap Liquidity Mining  Haku Swap has set up an AVAX-HAKU farming pool, where you can add liquidity and stake LP to earn HAKU rewards.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; ONTO and Haku Swap Team Up for a $4,000 Liquidity Mining Campaign!  ONTO is excited to host a liquidity mining campaign with Haku Swap, a crypto world for users to trade, earn, and game on the Avalanche Chain!  The ONTO Team·Follow  Published inONTO Wallet·3 min read·Feb 11, 2022  --  Listen  Share&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The ONTO Team·Follow  Published inONTO Wallet·3 min read·Feb 11, 2022  --  Listen  Share  ONTO is hosting a liquidity mining campaign with Haku Swap! This will be the first ONTO event on the Avalanche Chain. A prize pool of $4,000 worth of HAKU is offered to all participants who complete the tasks. Don’t miss out!  To be eligible for the big prize, please follow the rules below.  Event Duration: Feb. 11th (9:00 UTC) — Feb. 18th (9:00 UTC)  Task:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Cropper+ + + + Cropper is an automated market maker (AMM) built on the Solana blockchain which leverages the central order book of the Serum decentralized exchange (DEX) to enable lightning-fast trades, shared liquidity and new features for earning yield. By farmers, for farmers. With low fees and high-impact...+ + + + See Software  MistSwap Frequently Asked Questions  Q: What kinds of users and organization types does MistSwap work with?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Start for Free  Product Details  Platforms  Type of Training  MistSwap Features and Options  Decentralized Exchanges (DEX)  DApps  Yield Farms  DeFi Projects  Automated Market Makers (AMM)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; MistSwap integrates with: MetaMask, smartBCH, and WalletConnect.  Q: What type of training does MistSwap provide?  MistSwap provides training in the form of documentation.  MistSwap Product Features  Automated Market Makers (AMM)  DApps  DeFi Projects  Decentralized Exchanges (DEX)  Yield Farms  SourceForge  Open Source Software  Business Software  Add Your Software  Business Software Advertising  Company  About  Team</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2020, 2021 SushiSwap  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>MistSwap</t>
+          <t>Zipswap</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Cropper- - - - Cropper is an automated market maker (AMM) built on the Solana blockchain which leverages the central order book of the Serum decentralized exchange (DEX) to enable lightning-fast trades, shared liquidity and new features for earning yield. By farmers, for farmers. With low fees and high-impact...- - - - See Software  MistSwap Frequently Asked Questions  Q: What kinds of users and organization types does MistSwap work with?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Start for Free  Product Details  Platforms  Type of Training  MistSwap Features and Options  Decentralized Exchanges (DEX)  DApps  Yield Farms  DeFi Projects  Automated Market Makers (AMM)&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; MistSwap integrates with: MetaMask, smartBCH, and WalletConnect.  Q: What type of training does MistSwap provide?  MistSwap provides training in the form of documentation.  MistSwap Product Features  Automated Market Makers (AMM)  DApps  DeFi Projects  Decentralized Exchanges (DEX)  Yield Farms  SourceForge  Open Source Software  Business Software  Add Your Software  Business Software Advertising  Company  About  Team</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "veCRV-esque model (using the ZIP token)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In the optimistic case, more swaps due to incentives lead to → higher LP fees → higher returns to LP → eventually, liquidity providing remains profitable even in the absence of incentives for users and liquidity providers. On the pure liquidity incentivization side, it’s likely a veCRV-esque model (using the ZIP token) will be introduced in the future after the initial OP distribution, which will serve to attract stickier TVL to Zipswap (and therefore Optimism).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; L2 Recipient Address: 0x8602EE2f8AaEb671E409b26d48E36DD8Cc3B7ED7  Proposal for Token Distribution:  Background:  Zipswap is a DEX designed to reduce gas fees on optimistic rollups by compressing calldata. Development and incentives are currently active only on the Optimism chain.  We are working to implement Optimism-native novel AMM mechanisms and innovative tokenomics, which seek to:  better enable market-driven price discovery  deepen liquidity across the network&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; How much will your project match in co-incentives?  At the moment, ZIP tokens are continuously rewarded as an incentive to liquidity providers. This will continue throughout the OP rebate process. Our co-incentives will greatly ramp up as we finish up our initial post-OP distro and enter the era of veZIP liquidity incentives.  23 Likes  Voting Cycle #1: Roundup  OP grants through Season 2: where has the OP gone?  pama01</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2020, 2021 SushiSwap  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Zipswap</t>
+          <t>AnimeSwap</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "veCRV-esque model (using the ZIP token)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In the optimistic case, more swaps due to incentives lead to → higher LP fees → higher returns to LP → eventually, liquidity providing remains profitable even in the absence of incentives for users and liquidity providers. On the pure liquidity incentivization side, it’s likely a veCRV-esque model (using the ZIP token) will be introduced in the future after the initial OP distribution, which will serve to attract stickier TVL to Zipswap (and therefore Optimism).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; L2 Recipient Address: 0x8602EE2f8AaEb671E409b26d48E36DD8Cc3B7ED7  Proposal for Token Distribution:  Background:  Zipswap is a DEX designed to reduce gas fees on optimistic rollups by compressing calldata. Development and incentives are currently active only on the Optimism chain.  We are working to implement Optimism-native novel AMM mechanisms and innovative tokenomics, which seek to:  better enable market-driven price discovery  deepen liquidity across the network&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; How much will your project match in co-incentives?  At the moment, ZIP tokens are continuously rewarded as an incentive to liquidity providers. This will continue throughout the OP rebate process. Our co-incentives will greatly ramp up as we finish up our initial post-OP distro and enter the era of veZIP liquidity incentives.  23 Likes  Voting Cycle #1: Roundup  OP grants through Season 2: where has the OP gone?  pama01</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the value of AnimeSwap?&lt;br&gt;&lt;br&gt;Possible answer: Cannot determine. The value of AnimeSwap cannot be determined from the provided context.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Earn: earn with automated market maker in a easiest way, more profit, less loss.  Build: as a public protocol that every DApp, every tools  and every one could connect, as a infrastructure to improve on-chain liquidity.  The Model​  x * y = k  AnimeSwap not including multiple model in one protocol, only using one model, and the model is the core of the protocol.  x * y = k AMM model is widely used because of Uniswap v2, its a very generic AMM model and amolst suitable for  all scenarios.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Introducing AnimeSwap v1  Azard·D·Scarlet  AnimeSwap v1 is a protocol of decentralized exchange (DEX) and automated market maker (AMM) runs on Move Virtual Machine. Anyone could interact with the protocol for swaping coins and earn coins.  AnimeSwap protocol has three basic usages:  Swap: create a completely free trading experience for everyone.  Earn: earn with automated market maker in a easiest way, more profit, less loss.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; For more details about DAO usages check here.  Flash Swap​  AnimeSwap supports Flash Swap, here is Flash Swap example.  Flash Swap is a very important feature of AMM, it could be used for arbitrage, liquidation, and other scenarios.  A person can use pool funds to arbitrage or repay loans in a single transaction without additional principal.  Simply put, it can better improve the efficiency of liquidity utilization and provide liquidity providers with higher rewards.</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>AnimeSwap</t>
+          <t>DogeSwap</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the value of AnimeSwap?&lt;br&gt;&lt;br&gt;Possible answer: Cannot determine. The value of AnimeSwap cannot be determined from the provided context.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Earn: earn with automated market maker in a easiest way, more profit, less loss.  Build: as a public protocol that every DApp, every tools  and every one could connect, as a infrastructure to improve on-chain liquidity.  The Model​  x * y = k  AnimeSwap not including multiple model in one protocol, only using one model, and the model is the core of the protocol.  x * y = k AMM model is widely used because of Uniswap v2, its a very generic AMM model and amolst suitable for  all scenarios.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Introducing AnimeSwap v1  Azard·D·Scarlet  AnimeSwap v1 is a protocol of decentralized exchange (DEX) and automated market maker (AMM) runs on Move Virtual Machine. Anyone could interact with the protocol for swaping coins and earn coins.  AnimeSwap protocol has three basic usages:  Swap: create a completely free trading experience for everyone.  Earn: earn with automated market maker in a easiest way, more profit, less loss.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; For more details about DAO usages check here.  Flash Swap​  AnimeSwap supports Flash Swap, here is Flash Swap example.  Flash Swap is a very important feature of AMM, it could be used for arbitrage, liquidation, and other scenarios.  A person can use pool funds to arbitrage or repay loans in a single transaction without additional principal.  Simply put, it can better improve the efficiency of liquidity utilization and provide liquidity providers with higher rewards.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; PieDAO+ + + + Carefully handpicked by a decentralized community of economically incentivised talent. Maximize returns with active yield-generating strategies behind the scenes. Staking, lending, yield-farming - completely automated. Accessible. Save 97% of the minting gas costs by using the community Oven....+ + + + See Software  DogeSwap Frequently Asked Questions  Q: What kinds of users and organization types does DogeSwap work with?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; and Traders. DeFi’s first multi-chain DMM and the latest protocol powered by Kyber. Trade crypto at the best prices and earn more fees and rewards as a liquidity provider. Swap tokens at the best prices. Liquidity is aggregated from different decentralized exchanges to achieve the best price for any token swap on supported chains. Fees adjust based on market conditions (trade volume and price volatility) to reduce the impact of impermanent loss and maximise returns for liquidity providers.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Q: What other applications or services does DogeSwap integrate with?  DogeSwap integrates with: AnCrypto Wallet, Bitget Wallet, Coinbase Wallet, Ethereum, Fortmatic, MetaMask, Portis, and WalletConnect.  Q: What type of training does DogeSwap provide?  DogeSwap provides training in the form of documentation.  DogeSwap Product Features  Automated Market Makers (AMM)  DApps  DeFi Projects  Decentralized Exchanges (DEX)  Yield Farms  SourceForge  Open Source Software  Business Software</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) 2018 Truffle  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>DogeSwap</t>
+          <t>BXH</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; PieDAO- - - - Carefully handpicked by a decentralized community of economically incentivised talent. Maximize returns with active yield-generating strategies behind the scenes. Staking, lending, yield-farming - completely automated. Accessible. Save 97% of the minting gas costs by using the community Oven....- - - - See Software  DogeSwap Frequently Asked Questions  Q: What kinds of users and organization types does DogeSwap work with?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; and Traders. DeFi’s first multi-chain DMM and the latest protocol powered by Kyber. Trade crypto at the best prices and earn more fees and rewards as a liquidity provider. Swap tokens at the best prices. Liquidity is aggregated from different decentralized exchanges to achieve the best price for any token swap on supported chains. Fees adjust based on market conditions (trade volume and price volatility) to reduce the impact of impermanent loss and maximise returns for liquidity providers.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Q: What other applications or services does DogeSwap integrate with?  DogeSwap integrates with: AnCrypto Wallet, Bitget Wallet, Coinbase Wallet, Ethereum, Fortmatic, MetaMask, Portis, and WalletConnect.  Q: What type of training does DogeSwap provide?  DogeSwap provides training in the form of documentation.  DogeSwap Product Features  Automated Market Makers (AMM)  DApps  DeFi Projects  Decentralized Exchanges (DEX)  Yield Farms  SourceForge  Open Source Software  Business Software</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; BXH-HKD  BX-USD  BXH-EUR  BXH-SGD  C-USD  CH-EUR  CH-GBP  D2-USD  D3-USD  DH-EUR  EH-EUR  F-USD  FH-EUR  I-USD  IBH-GBP  IBX-USD  IBXH-SGD  IE-USD  IH-EUR  IH-GBP  ZBH-AUD  ZH-EUR  Class and codes  Asset class:  Bonds  ISIN:  LU2066015665  Bloomberg:  ROCBXHH LX  Reference index  Bloomberg Customized BBB-BB rated Global Corporate index, 1-7 years (Hedged into HKD)  Sustainability-related information  Sustainability-related information&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Focusing on providing users with capabilities in these core areas: DeFi aggregated financial management services, an advantageous trading DEX platform, and a variety of ways to play including decentralized digital trading, liquidity mining, staking dividends, etc., BXH is leading the way in providing an accessible entrance and platform for historically complicated processes.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; significant resources to the security and risk management of these two processes.  Furthermore, the cross-chain mechanism will adopt a new risk management model to ensure the security of cross-chain assets, while the BXH exchange will be launched in the near future.</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) 2018 Truffle  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2021 BXH  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>BXH</t>
+          <t>Firebird Finance</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; BXH-HKD  BX-USD  BXH-EUR  BXH-SGD  C-USD  CH-EUR  CH-GBP  D2-USD  D3-USD  DH-EUR  EH-EUR  F-USD  FH-EUR  I-USD  IBH-GBP  IBX-USD  IBXH-SGD  IE-USD  IH-EUR  IH-GBP  ZBH-AUD  ZH-EUR  Class and codes  Asset class:  Bonds  ISIN:  LU2066015665  Bloomberg:  ROCBXHH LX  Reference index  Bloomberg Customized BBB-BB rated Global Corporate index, 1-7 years (Hedged into HKD)  Sustainability-related information  Sustainability-related information&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Focusing on providing users with capabilities in these core areas: DeFi aggregated financial management services, an advantageous trading DEX platform, and a variety of ways to play including decentralized digital trading, liquidity mining, staking dividends, etc., BXH is leading the way in providing an accessible entrance and platform for historically complicated processes.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; significant resources to the security and risk management of these two processes.  Furthermore, the cross-chain mechanism will adopt a new risk management model to ensure the security of cross-chain assets, while the BXH exchange will be launched in the near future.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Firebird Finance·Follow  3 min read·Sep 13, 2021  --  Listen  Share  Firebird Finance’ new profit-sharing model  As Firebird Finance continues to grow into a multi-chain DeFi powerhouse, we remain focused on delivering the best value to our users, therefore we have decided to  restructure our profit-sharing model of our Swap pools and OneSwap pools.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Current profit-sharing model  Currently, 75% of swap fees from Firebird Swap go to stakers of mHOPE as profit-share. While the remaining 25% goes to liquidity providers in the pool.  For Oneswap pools, 100% of the fees go to mHOPE stakers, leaving only additional incentives as rewards to liquidity providers.  Updated profit-sharing model  In an effort to generate an optimal distribution we are going to implement the following changes:Firebird Swap fees are broken down as follows:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2 min read·Aug 17, 2021  --  See all from Firebird Finance  Recommended from Medium  AL Anany  The ChatGPT Hype Is Over — Now Watch How Google Will Kill ChatGPT.It never happens instantly. The business game is longer than you know.  6 min read·Sep 1  --  236  Jian Hao Lim  Real World Asset Tokenization: Top 5 Trends to Watch in 2023How will the tokenization of real-world assets shape the future of blockchain and crypto? Discover the top 5 trends to watch in 2023 #RWA  5 min read·Apr 10  --</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2021 BXH  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Crypto Cake  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Firebird Finance</t>
+          <t>RocketSwap</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Firebird Finance·Follow  3 min read·Sep 13, 2021  --  Listen  Share  Firebird Finance’ new profit-sharing model  As Firebird Finance continues to grow into a multi-chain DeFi powerhouse, we remain focused on delivering the best value to our users, therefore we have decided to  restructure our profit-sharing model of our Swap pools and OneSwap pools.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Current profit-sharing model  Currently, 75% of swap fees from Firebird Swap go to stakers of mHOPE as profit-share. While the remaining 25% goes to liquidity providers in the pool.  For Oneswap pools, 100% of the fees go to mHOPE stakers, leaving only additional incentives as rewards to liquidity providers.  Updated profit-sharing model  In an effort to generate an optimal distribution we are going to implement the following changes:Firebird Swap fees are broken down as follows:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2 min read·Aug 17, 2021  --  See all from Firebird Finance  Recommended from Medium  AL Anany  The ChatGPT Hype Is Over — Now Watch How Google Will Kill ChatGPT.It never happens instantly. The business game is longer than you know.  6 min read·Sep 1  --  236  Jian Hao Lim  Real World Asset Tokenization: Top 5 Trends to Watch in 2023How will the tokenization of real-world assets shape the future of blockchain and crypto? Discover the top 5 trends to watch in 2023 #RWA  5 min read·Apr 10  --</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Open in app  Sign up  Sign In  Write  Sign up  Sign In  Project Highlight: Rocketswap  Glen·Follow  Published inLamden·2 min read·Dec 16, 2021  --  Listen  Share  Rocketswap is a community-developed decentralized exchange (DEX) and automated market maker (AMM) that debuted on the Lamden network on March 23, 2021. The platform utilizes the $RSWP token which can be used to reduce transaction fees or staked in yield farms to earn a variety of tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Rocketswap is one of the first widely used dApps on the Lamden network allowing users to perform swaps from one token to another, provide liquidity, and earn yield via yield farms. The team also supplies a robust library of APIs for other developers to integrate the Rocketswap services into their applications.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; GOLD LP – GOLD has another layer to it. Here you are not submitting GOLD to the contract, rather the LP “Pool Tokens” issued to you when you enter into the GOLD:TAU Liquidity Pool. Again the amount of tokens you earn in each farm is relative to the total tokens or pool tokens in each farm/contract.  These farms should be visible on Rocketswap within the next few days. So run your numbers and see which farm will earn you the most GOLD.  – Goldtoshi  Lamden  Rocketswap  --  --  Follow</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Crypto Cake  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>RocketSwap</t>
+          <t>GemSwap</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Open in app  Sign up  Sign In  Write  Sign up  Sign In  Project Highlight: Rocketswap  Glen·Follow  Published inLamden·2 min read·Dec 16, 2021  --  Listen  Share  Rocketswap is a community-developed decentralized exchange (DEX) and automated market maker (AMM) that debuted on the Lamden network on March 23, 2021. The platform utilizes the $RSWP token which can be used to reduce transaction fees or staked in yield farms to earn a variety of tokens.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Rocketswap is one of the first widely used dApps on the Lamden network allowing users to perform swaps from one token to another, provide liquidity, and earn yield via yield farms. The team also supplies a robust library of APIs for other developers to integrate the Rocketswap services into their applications.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; GOLD LP – GOLD has another layer to it. Here you are not submitting GOLD to the contract, rather the LP “Pool Tokens” issued to you when you enter into the GOLD:TAU Liquidity Pool. Again the amount of tokens you earn in each farm is relative to the total tokens or pool tokens in each farm/contract.  These farms should be visible on Rocketswap within the next few days. So run your numbers and see which farm will earn you the most GOLD.  – Goldtoshi  Lamden  Rocketswap  --  --  Follow</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 💱Exchange  GemSwap is an Automated Market Maker (AMM), and the Exchange is the main product of GemSwap. Another common term for AMM would be Decentralized Exchange (DEX).  The GemSwap Exchange offers several features that support decentralized trading:  Swapping/Trading&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools  The GemSwap exchange can only operate when there's enough liquidity to support trades; if nobody wanted to sell you KCS for example, then it wouldn't matter how much you wanted to trade for some.  Providing liquidity will get you LP Tokens, which will earn you rewards in the form of trading fees for making sure there's always liquidity for the exchange to use.  Yield Farming&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; GemSwap Quartzpaper v1.0  GemSwap.org·Follow  3 min read·Sep 25, 2020  --  Listen  Share  What is GemSwap? 💎  GemSwap is an AMM (automated market maker) exchange forked from UniSwap &amp; SushiSwap. There is no pre-mine and no dev grant. Unlike SushiSwap, GemSwap is deflationary.</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 Amit Ishairzay  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>GemSwap</t>
+          <t>Yoshi Exchange</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 💱Exchange  GemSwap is an Automated Market Maker (AMM), and the Exchange is the main product of GemSwap. Another common term for AMM would be Decentralized Exchange (DEX).  The GemSwap Exchange offers several features that support decentralized trading:  Swapping/Trading&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools  The GemSwap exchange can only operate when there's enough liquidity to support trades; if nobody wanted to sell you KCS for example, then it wouldn't matter how much you wanted to trade for some.  Providing liquidity will get you LP Tokens, which will earn you rewards in the form of trading fees for making sure there's always liquidity for the exchange to use.  Yield Farming&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; GemSwap Quartzpaper v1.0  GemSwap.org·Follow  3 min read·Sep 25, 2020  --  Listen  Share  What is GemSwap? 💎  GemSwap is an AMM (automated market maker) exchange forked from UniSwap &amp; SushiSwap. There is no pre-mine and no dev grant. Unlike SushiSwap, GemSwap is deflationary.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; liquidity Positions  Connect to a wallet  WalletConnect  Wrong network  Please, connect Venom Wallet.  Install Venom  Your Wallet  View on  Logout  Switching network...  Loading  My liquidity  Fantom DEX  Ethereum DEX  BSC DEX  My liquidity positions  Liquidity Provider Rewards  Liquidity providers earn a 0.25% fee on all trades proportional to their share of the pool. Fees are added to the pool, accrue in real-time, and can be claimed by withdrawing your liquidity  Connect to a wallet&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Connect to a wallet  WalletConnect</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2023 Amit Ishairzay  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Yoshi Exchange</t>
+          <t>Core Dao Swap</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; liquidity Positions  Connect to a wallet  WalletConnect  Wrong network  Please, connect Venom Wallet.  Install Venom  Your Wallet  View on  Logout  Switching network...  Loading  My liquidity  Fantom DEX  Ethereum DEX  BSC DEX  My liquidity positions  Liquidity Provider Rewards  Liquidity providers earn a 0.25% fee on all trades proportional to their share of the pool. Fees are added to the pool, accrue in real-time, and can be claimed by withdrawing your liquidity  Connect to a wallet&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Connect to a wallet  WalletConnect</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Cryptocurrencies/  Coins/  Core DAO (CORE)  Core DAO(CORE)  Add to Watchlist  $0.384733  (-8.91%)  0.00001422 BTC  Market Cap (Rank#295)  $61,485,216  2,273 BTC  Vol 24h  $6,914,238  255.589 BTC  Circulating Supply  159,812,892.78  Max Supply  2,100,000,000  Chart  Markets  Related news  Widgets  Swap  One-click cross-chain swap  Swap any of 15500+ tokens across 20 blockchains, in one click.  About Core DAO?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Though listed on multiple exchanges like MEXC, Huobi, and OKX, questions still need to be answered about the absence of $CORE on leading platforms such as Binance and Coinbase.  Ecosystem Update: Expanding DeFi Services  Recently, Core announced its integration with SushiSwap, a leading Decentralized Exchange (DEX). This collaboration introduces features like concentrated liquidity pools, cross-chain swaps, and a DEX aggregator.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Circulating Supply  159,812,892.78 CORE  Max Supply  2,100,000,000 CORE  Yesterday's Market Cap  67,351,301.80 USD  Yesterday's Open / Close  0.419706 USD / 0.421729 USD  Yesterday's High / Low  0.426372 USD / 0.412829 USD  Yesterday's Change  0.00% ( 0.002023 USD )  Yesterday's Volume  4,352,957.02 USD  Select...  Select...  Powered by    Sorry, no liquidity for this pair  Website  www.coredao.org  Related Coins  [email protected]  v 5.4.41  ©   2017 - 2023 COIN360.com. All Rights Reserved.</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5211,12 +5211,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Core Dao Swap</t>
+          <t>Energiswap</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Cryptocurrencies/  Coins/  Core DAO (CORE)  Core DAO(CORE)  Add to Watchlist  $0.384733  (-8.91%)  0.00001422 BTC  Market Cap (Rank#295)  $61,485,216  2,273 BTC  Vol 24h  $6,914,238  255.589 BTC  Circulating Supply  159,812,892.78  Max Supply  2,100,000,000  Chart  Markets  Related news  Widgets  Swap  One-click cross-chain swap  Swap any of 15500+ tokens across 20 blockchains, in one click.  About Core DAO?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Though listed on multiple exchanges like MEXC, Huobi, and OKX, questions still need to be answered about the absence of $CORE on leading platforms such as Binance and Coinbase.  Ecosystem Update: Expanding DeFi Services  Recently, Core announced its integration with SushiSwap, a leading Decentralized Exchange (DEX). This collaboration introduces features like concentrated liquidity pools, cross-chain swaps, and a DEX aggregator.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Circulating Supply  159,812,892.78 CORE  Max Supply  2,100,000,000 CORE  Yesterday's Market Cap  67,351,301.80 USD  Yesterday's Open / Close  0.419706 USD / 0.421729 USD  Yesterday's High / Low  0.426372 USD / 0.412829 USD  Yesterday's Change  0.00% ( 0.002023 USD )  Yesterday's Volume  4,352,957.02 USD  Select...  Select...  Powered by    Sorry, no liquidity for this pair  Website  www.coredao.org  Related Coins  [email protected]  v 5.4.41  ©   2017 - 2023 COIN360.com. All Rights Reserved.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the liquidity model employed by Energiswap.&lt;br&gt;Possible answers:&lt;br&gt;  - "Constant Product Market Maker (CPMM)"&lt;br&gt;  - "Concentrated Liquidity (CL)"&lt;br&gt;  - "synthetic Proactive Market Making (sPMM)"&lt;br&gt;  - "Constant Sum Market Maker (CSMM)"&lt;br&gt;  - "Constant Mean Market Maker (CMMM)"&lt;br&gt;  - "Hybrid Constant Function Market Makers (CFMMs)"&lt;br&gt;  - "Dynamic Automated Market Maker (DAMM)"&lt;br&gt;  - "Proactive Market Maker (PMM)"&lt;br&gt;  - "Virtual Automated Market Makers (vAMM)"&lt;br&gt;  - "Other" (If the answer is not one of the above)&lt;br&gt;  - "Cannot determine" (if you can't find the answer)&lt;br&gt;&lt;br&gt;Just answer using a name from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Energiswap offers support via 24/7 live support.  Q: What other applications or services does Energiswap integrate with?  Energiswap integrates with: Energi and MetaMask.  Energiswap Product Features  Automated Market Makers (AMM)  Decentralized Exchanges (DEX)  Page Already Claimed. Claim Again?  SourceForge  Open Source Software  Business Software  Add Your Software  Business Software Advertising  Company  About  Team&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Like the protocol it’s based on, Energiswap functions as a decentralized exchange for swapping any ERC20-compatible token with any other ERC20-compatible token. Using the constant product equation, Energiswap manages liquidity pools of token pairs to allow them to be traded. This removes the need for buyers and sellers to generate demand, locking the pair into a price match determined by the available liquidity that allows for tokens to be easily swapped directly with each other.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; EazySwap+ + + + One of the most professional and advanced semi-decentralized matching Protocols. EazySwap, Sub-Platform of BitForex Cryptocurrency Exchange. All the trading records and details are available on the ERC20 Blockchain system. EazySwap provides the most user-friendly structure designed to solve the...+ + + + See Software  Energiswap Frequently Asked Questions  Q: What kinds of users and organization types does Energiswap work with?</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5228,207 +5236,199 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Energiswap</t>
+          <t>Minter</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the liquidity model employed by Energiswap.&lt;br&gt;Possible answers:&lt;br&gt;  - "Constant Product Market Maker (CPMM)"&lt;br&gt;  - "Concentrated Liquidity (CL)"&lt;br&gt;  - "synthetic Proactive Market Making (sPMM)"&lt;br&gt;  - "Constant Sum Market Maker (CSMM)"&lt;br&gt;  - "Constant Mean Market Maker (CMMM)"&lt;br&gt;  - "Hybrid Constant Function Market Makers (CFMMs)"&lt;br&gt;  - "Dynamic Automated Market Maker (DAMM)"&lt;br&gt;  - "Proactive Market Maker (PMM)"&lt;br&gt;  - "Virtual Automated Market Makers (vAMM)"&lt;br&gt;  - "Other" (If the answer is not one of the above)&lt;br&gt;  - "Cannot determine" (if you can't find the answer)&lt;br&gt;&lt;br&gt;Just answer using a name from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Energiswap offers support via 24/7 live support.  Q: What other applications or services does Energiswap integrate with?  Energiswap integrates with: Energi and MetaMask.  Energiswap Product Features  Automated Market Makers (AMM)  Decentralized Exchanges (DEX)  Page Already Claimed. Claim Again?  SourceForge  Open Source Software  Business Software  Add Your Software  Business Software Advertising  Company  About  Team&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Like the protocol it’s based on, Energiswap functions as a decentralized exchange for swapping any ERC20-compatible token with any other ERC20-compatible token. Using the constant product equation, Energiswap manages liquidity pools of token pairs to allow them to be traded. This removes the need for buyers and sellers to generate demand, locking the pair into a price match determined by the available liquidity that allows for tokens to be easily swapped directly with each other.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; EazySwap- - - - One of the most professional and advanced semi-decentralized matching Protocols. EazySwap, Sub-Platform of BitForex Cryptocurrency Exchange. All the trading records and details are available on the ERC20 Blockchain system. EazySwap provides the most user-friendly structure designed to solve the...- - - - See Software  Energiswap Frequently Asked Questions  Q: What kinds of users and organization types does Energiswap work with?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;Cannot determine                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The AMM mechanism implies that when the coin/token is bought, it's added to the pool; when sold, it's removed from it. Hence, with the quantity of both coins/tokens inside the pool being balanced, their price changes as well.  Price for 1 unit of Coin A = Amount of Coin B inside the pool / Amount of Coin A inside the pool  Price for 1 unit of Coin B = Amount of Coin A inside the pool / Amount of Coin B inside the pool  Liquidity providers&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Yes  Ticker symbol fees  10—100 000 USD  10—100 000 USD  Pay fees  Yes  Yes  Recreation  Yes  Yes  Liquidity pools  Introduction  A liquidity pool is a trading pair of coins/tokens with locked-up funds of liquidity providers that guarantee swappability. Buying or selling a coin through a liquidity pool, a trader uses funds that have been locked into the pool. The process is carried out using Automated Market Maker (AMM).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Roles  You can assume any of the three value distribution roles in the Minter network — a Validator who verifies transactions and receives block rewards, a Coiner who creates custom coins and uses the Minter network as a backend for achieving their business goals, or a Delegator who enjoys the ease and speed of Minter transactions along with the innate liquidity of the coins and entrusts the Validators with their holdings through the process known as bonding.</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 codeSTACKr  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Minter</t>
+          <t>DAO Swap</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;Cannot determine                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The AMM mechanism implies that when the coin/token is bought, it's added to the pool; when sold, it's removed from it. Hence, with the quantity of both coins/tokens inside the pool being balanced, their price changes as well.  Price for 1 unit of Coin A = Amount of Coin B inside the pool / Amount of Coin A inside the pool  Price for 1 unit of Coin B = Amount of Coin A inside the pool / Amount of Coin B inside the pool  Liquidity providers&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Yes  Ticker symbol fees  10—100 000 USD  10—100 000 USD  Pay fees  Yes  Yes  Recreation  Yes  Yes  Liquidity pools  Introduction  A liquidity pool is a trading pair of coins/tokens with locked-up funds of liquidity providers that guarantee swappability. Buying or selling a coin through a liquidity pool, a trader uses funds that have been locked into the pool. The process is carried out using Automated Market Maker (AMM).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Roles  You can assume any of the three value distribution roles in the Minter network — a Validator who verifies transactions and receives block rewards, a Coiner who creates custom coins and uses the Minter network as a backend for achieving their business goals, or a Delegator who enjoys the ease and speed of Minter transactions along with the innate liquidity of the coins and entrusts the Validators with their holdings through the process known as bonding.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Protocol owned liquidity is likely to be an ongoing feature of the DeFi landscape, with protocols utilising a mix of the protocol owned liquidity model and traditional liquidity pools for trading on DEXs.  Context: Automated Market Makers, Liquidity Pools and Liquidity Providers&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Solution: Protocol Owned Liquidity  A potential solution to the mercenary liquidity problem comes in the form of protocol owned liquidity, a model pioneered by Olympus DAO. Protocol owned liquidity bypasses the need for external liquidity providers, instead resulting in the protocol itself providing liquidity to their own trading pair on DEXs. The key innovation to enable this is the “bonding process”.  Bonding process&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Noting however that protocols can still utilise the protocol owned liquidity model without aiming or intending to create a reserve currency.  Liquidity-as-a-service (LaaS)  Perhaps a more enduring legacy of Olympus DAO is the concept of LaaS, launched through the Olympus Pro platform. This enables protocols to easily utilise the protocol owned liquidity model.  Extract of bonds listed on Olympus Pro’s marketplace</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 codeSTACKr  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 aptosheros  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>DAO Swap</t>
+          <t>XCAD DEX</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Protocol owned liquidity is likely to be an ongoing feature of the DeFi landscape, with protocols utilising a mix of the protocol owned liquidity model and traditional liquidity pools for trading on DEXs.  Context: Automated Market Makers, Liquidity Pools and Liquidity Providers&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Solution: Protocol Owned Liquidity  A potential solution to the mercenary liquidity problem comes in the form of protocol owned liquidity, a model pioneered by Olympus DAO. Protocol owned liquidity bypasses the need for external liquidity providers, instead resulting in the protocol itself providing liquidity to their own trading pair on DEXs. The key innovation to enable this is the “bonding process”.  Bonding process&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Noting however that protocols can still utilise the protocol owned liquidity model without aiming or intending to create a reserve currency.  Liquidity-as-a-service (LaaS)  Perhaps a more enduring legacy of Olympus DAO is the concept of LaaS, launched through the Olympus Pro platform. This enables protocols to easily utilise the protocol owned liquidity model.  Extract of bonds listed on Olympus Pro’s marketplace</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In the box underneath you must choose the token you would like to receive, as you can see in the example, I have chosen XCAD as the token I would like to receive. The DEX will automatically calculate the amount of XCAD I am going to receive in our swap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Where to Stake?  The XCAD DEX offers multiple staking pools both for liquidity pools &amp; single assets. The currently available pools are shown in the image below.  LP Farms:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; There are currently 3 single asset staking pools on the XCAD DEX. All 3 of these pools require you to have dXCAD to stake. Please note there is currently a minimum lock-up period of 10 days. If you choose to unstake before the 10 days are up, you will have to pay a 20% penalty fee on your tokens.  Firstly, go to the single asset staking page which can be found here.</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 aptosheros  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>XCAD DEX</t>
+          <t>BlueMove</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In the box underneath you must choose the token you would like to receive, as you can see in the example, I have chosen XCAD as the token I would like to receive. The DEX will automatically calculate the amount of XCAD I am going to receive in our swap.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Where to Stake?  The XCAD DEX offers multiple staking pools both for liquidity pools &amp; single assets. The currently available pools are shown in the image below.  LP Farms:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; There are currently 3 single asset staking pools on the XCAD DEX. All 3 of these pools require you to have dXCAD to stake. Please note there is currently a minimum lock-up period of 10 days. If you choose to unstake before the 10 days are up, you will have to pay a 20% penalty fee on your tokens.  Firstly, go to the single asset staking page which can be found here.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In other words, possessing BLUES tokens will allow individuals to not only influence the selection of cryptocurrencies that liquidity portfolios are composed of — but also other parameters as well.  Virtual Pairs  Virtual pairs replace the standard use of DeFi 1.0 trading pairs. During a swap, virtual pairs are constructed to minimize impermanent loss and price slippage.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Example pairs:  ADA&lt;&gt;BLUES  BLUES&lt;&gt;ETH  ETH&lt;&gt;AGIX  By combining these pairs, we get a virtual pair ADA&lt;&gt;AGIX, that might have a different and better price for either ADA or AGIX compared to the standard ADA&lt;&gt;AGIX pair.  The creation of the optimal virtual pairs, providing key benefits to Blueshift users, is largely affected by Blueshift’s Reserve Model which facilitates arbitrage with reduced reserves.  Blueshift Reserve Model&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Since such a concept implies that a net positive arbitrage can occur when a price difference is less than 0,3 % between assets, as that is the trading fee that is being forfeited, the Blueshift team expects high utilization, and consequently high benefits for Liquidity Providers.  Aside from benefits provided to Arbitrageurs, Liquidity Providers gain through this mechanism as their Impermanent Losses are significantly reduced when Arbitrageurs utilize the Blueshift’s Reserve Model.  Previous</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 GetRektOnBlock  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>BlueMove</t>
+          <t>MilkySwap</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In other words, possessing BLUES tokens will allow individuals to not only influence the selection of cryptocurrencies that liquidity portfolios are composed of — but also other parameters as well.  Virtual Pairs  Virtual pairs replace the standard use of DeFi 1.0 trading pairs. During a swap, virtual pairs are constructed to minimize impermanent loss and price slippage.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Example pairs:  ADA&lt;&gt;BLUES  BLUES&lt;&gt;ETH  ETH&lt;&gt;AGIX  By combining these pairs, we get a virtual pair ADA&lt;&gt;AGIX, that might have a different and better price for either ADA or AGIX compared to the standard ADA&lt;&gt;AGIX pair.  The creation of the optimal virtual pairs, providing key benefits to Blueshift users, is largely affected by Blueshift’s Reserve Model which facilitates arbitrage with reduced reserves.  Blueshift Reserve Model&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Since such a concept implies that a net positive arbitrage can occur when a price difference is less than 0,3 % between assets, as that is the trading fee that is being forfeited, the Blueshift team expects high utilization, and consequently high benefits for Liquidity Providers.  Aside from benefits provided to Arbitrageurs, Liquidity Providers gain through this mechanism as their Impermanent Losses are significantly reduced when Arbitrageurs utilize the Blueshift’s Reserve Model.  Previous</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MilkySwap takes security of user funds seriously, and as such has a multi-pronged approach in setting a solid foundation to build off of. They achieve this by adapting off of Sushiswap for the core AMM DEX logic itself, adopting off of CurveDAO’s farming model for the rewards mechanisms, and topping it all off with an upcoming audit by well respected security firms (Certik and Peckshield).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 4. After you successfully added liquidity to a token pair, it will provide you MilkySwap LP tokens. With these tokens, you may stake them to earn $MILKY. To learn more, follow our tutorial on  farming  the platform - PreviousLiquidity Providing  Next - the platformFarming  Last modified   1yr ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 3. After you have added liquidity to a token pair, you will receive MilkySwap LP tokens. These tokens are essentially a receipt that keep track of how much of the pool you own.  Method 2: Farming Page  1.Locate a pair that you wish to add liquidity to  2. Add the amount of liquidity that you wish to provide.  Click "Confirm Adding Liquidity", follow the prompts, and pay the associated gas fees.</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 GetRektOnBlock  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>MilkySwap</t>
+          <t>ViperSwap</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MilkySwap takes security of user funds seriously, and as such has a multi-pronged approach in setting a solid foundation to build off of. They achieve this by adapting off of Sushiswap for the core AMM DEX logic itself, adopting off of CurveDAO’s farming model for the rewards mechanisms, and topping it all off with an upcoming audit by well respected security firms (Certik and Peckshield).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 4. After you successfully added liquidity to a token pair, it will provide you MilkySwap LP tokens. With these tokens, you may stake them to earn $MILKY. To learn more, follow our tutorial on  farming  the platform - PreviousLiquidity Providing  Next - the platformFarming  Last modified   1yr ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 3. After you have added liquidity to a token pair, you will receive MilkySwap LP tokens. These tokens are essentially a receipt that keep track of how much of the pool you own.  Method 2: Farming Page  1.Locate a pair that you wish to add liquidity to  2. Add the amount of liquidity that you wish to provide.  Click "Confirm Adding Liquidity", follow the prompts, and pay the associated gas fees.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; ViperSwap is based on a mashup of Uniswap and SushiSwap smart contracts and features an automated market maker model where users trade against liquidity pools.  The pool liquidity is deposited by users who want to earn trading fees as well as staking rewards for providing the liquidity. After depositing funds the users earn a liquidity provider (LP) token called VENOM-LP which can be staked to earn additional rewards besides trading fees.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; tokenomic model based on aggregate locked liquidity, supported by swap fees across a growing number of DEX deployments.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; and Traders. DeFi’s first multi-chain DMM and the latest protocol powered by Kyber. Trade crypto at the best prices and earn more fees and rewards as a liquidity provider. Swap tokens at the best prices. Liquidity is aggregated from different decentralized exchanges to achieve the best price for any token swap on supported chains. Fees adjust based on market conditions (trade volume and price volatility) to reduce the impact of impermanent loss and maximise returns for liquidity providers.</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2020 SushiSwap  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ViperSwap</t>
+          <t>Mento</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; ViperSwap is based on a mashup of Uniswap and SushiSwap smart contracts and features an automated market maker model where users trade against liquidity pools.  The pool liquidity is deposited by users who want to earn trading fees as well as staking rewards for providing the liquidity. After depositing funds the users earn a liquidity provider (LP) token called VENOM-LP which can be staked to earn additional rewards besides trading fees.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; tokenomic model based on aggregate locked liquidity, supported by swap fees across a growing number of DEX deployments.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; and Traders. DeFi’s first multi-chain DMM and the latest protocol powered by Kyber. Trade crypto at the best prices and earn more fees and rewards as a liquidity provider. Swap tokens at the best prices. Liquidity is aggregated from different decentralized exchanges to achieve the best price for any token swap on supported chains. Fees adjust based on market conditions (trade volume and price volatility) to reduce the impact of impermanent loss and maximise returns for liquidity providers.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Double provisions liquidity through the pairing of token projects with capital suppliers."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Bolster on-chain liquidity for key protocols as @nraghuveera suggests  Hold (or delegate) a portion of tokens for Mento to seed future liquidity pools with digital environmental assets (eg. for carbon offsets tokenized by company X, Mento could seed the CELO portion of trading pair XCO2-CELO). This will bootstrap on-chain liquidity for key natural capital assets, which is a prerequisite for Mento onboarding these assets into the reserve itself&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Double provisions liquidity through the pairing of token projects with capital suppliers. In this situation Mento is providing the Capital token and Impact Market is depositing an equal amount of tokens into Double’s Token Vault to support Mento’s position. When Mento creates a position in Double they are then borrowing those tokens from Double’s Token Vault and have their ownership in a 100% capital position. Mento benefits from this deal by earning both fee rewards and DDJ tokens. They also&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; position. Mento benefits from this deal by earning both fee rewards and DDJ tokens. They also are keeping their investment entirely in either stable coins cUSD, or L1 infrastructure (Celo) Tokens which de-risks impermanent loss. Since Mento is borrowing 50% of the position, this also frees up 50% of the capital to essentially “double-down” on their position and gain more exposure. Impact Market doesn’t make any fee rewards from Mento’s position, but they benefit by increasing the liquidity of</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2020 SushiSwap  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Mento</t>
+          <t>Alien.Fi</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Double provisions liquidity through the pairing of token projects with capital suppliers."                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Bolster on-chain liquidity for key protocols as @nraghuveera suggests  Hold (or delegate) a portion of tokens for Mento to seed future liquidity pools with digital environmental assets (eg. for carbon offsets tokenized by company X, Mento could seed the CELO portion of trading pair XCO2-CELO). This will bootstrap on-chain liquidity for key natural capital assets, which is a prerequisite for Mento onboarding these assets into the reserve itself&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Double provisions liquidity through the pairing of token projects with capital suppliers. In this situation Mento is providing the Capital token and Impact Market is depositing an equal amount of tokens into Double’s Token Vault to support Mento’s position. When Mento creates a position in Double they are then borrowing those tokens from Double’s Token Vault and have their ownership in a 100% capital position. Mento benefits from this deal by earning both fee rewards and DDJ tokens. They also&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; position. Mento benefits from this deal by earning both fee rewards and DDJ tokens. They also are keeping their investment entirely in either stable coins cUSD, or L1 infrastructure (Celo) Tokens which de-risks impermanent loss. Since Mento is borrowing 50% of the position, this also frees up 50% of the capital to essentially “double-down” on their position and gain more exposure. Impact Market doesn’t make any fee rewards from Mento’s position, but they benefit by increasing the liquidity of</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What about the cash markets? Is there a pure agency model that will be viable? We have written about some of the work to create marketplaces that centralize FI liquidity (see “Corporate bond liquidity and new trading venues: will it matter?”, May 15, 2014). Have any reached a critical mass yet? Do investors believe that there will be liquidity when they need it (read: when markets are stressed)? We are skeptical about that.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If the definition of an agency model is intermediation with using balance sheet, then calling CCP cleared derivatives a pure agency model has some holes in it. Use of central limit order books (CLOBs) is not grabbing the hearts and minds of investors, at least not yet. Much is still executed by calling directly to dealers for swap quotes.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; What is the right business model for FI: agency, principal or a mix of both?  Jonathan Cooper  Earlier in November there was an interesting article in IFR by Christopher Whittall, “Fixed income trading enters new era”. It was focused on the principal versus agency models in fixed income. It is an understatement to say the fixed income trading and distribution business has undergone dramatic change, driven by cost and regulatory considerations. But not everyone has reacted the same way.</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Aemelo123  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Alien.Fi</t>
+          <t>Swapsicle</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What about the cash markets? Is there a pure agency model that will be viable? We have written about some of the work to create marketplaces that centralize FI liquidity (see “Corporate bond liquidity and new trading venues: will it matter?”, May 15, 2014). Have any reached a critical mass yet? Do investors believe that there will be liquidity when they need it (read: when markets are stressed)? We are skeptical about that.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; If the definition of an agency model is intermediation with using balance sheet, then calling CCP cleared derivatives a pure agency model has some holes in it. Use of central limit order books (CLOBs) is not grabbing the hearts and minds of investors, at least not yet. Much is still executed by calling directly to dealers for swap quotes.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; What is the right business model for FI: agency, principal or a mix of both?  Jonathan Cooper  Earlier in November there was an interesting article in IFR by Christopher Whittall, “Fixed income trading enters new era”. It was focused on the principal versus agency models in fixed income. It is an understatement to say the fixed income trading and distribution business has undergone dramatic change, driven by cost and regulatory considerations. But not everyone has reacted the same way.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Swapsicle’s AMM system works by using a mathematical algorithm to determine the price of a particular cryptocurrency based on the supply and demand of the asset. This allows Swapsicle to provide liquidity for traders without the need for a centralized order book, which can often be susceptible to manipulation.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Algebra x Swapsicle: The Concentrated Liquidity Perfection  Algebra Protocol sparks innovation on Telos Network via a groundbreaking partnership with Swapsicle. We invite CL tech platforms, like Automated Liquidity Managers, Cross-Chain Aggregators and many others, to join us in building the future with Swapsicle!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Algebra has already demonstrated its efficiency with V1, adopted by the majority of partners. Utilizing our concentrated liquidity approach with dynamic fees, Algebra powered DEXes across various chains, maximizing their profit. But what sets this integration apart? The answer lies in combining cutting-edge technology with Swapsicle: Algebra ‘Integral’.  What’s Algebra ‘Integral’?</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 Aemelo123  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020-2021 SushiSwap  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Swapsicle</t>
+          <t>Arbiswap</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Swapsicle’s AMM system works by using a mathematical algorithm to determine the price of a particular cryptocurrency based on the supply and demand of the asset. This allows Swapsicle to provide liquidity for traders without the need for a centralized order book, which can often be susceptible to manipulation.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Algebra x Swapsicle: The Concentrated Liquidity Perfection  Algebra Protocol sparks innovation on Telos Network via a groundbreaking partnership with Swapsicle. We invite CL tech platforms, like Automated Liquidity Managers, Cross-Chain Aggregators and many others, to join us in building the future with Swapsicle!&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Algebra has already demonstrated its efficiency with V1, adopted by the majority of partners. Utilizing our concentrated liquidity approach with dynamic fees, Algebra powered DEXes across various chains, maximizing their profit. But what sets this integration apart? The answer lies in combining cutting-edge technology with Swapsicle: Algebra ‘Integral’.  What’s Algebra ‘Integral’?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Wallet support. We’re also excited to announce that we’ve added new wallet integrations. Arbiswap works with three wallets: Metamask, Fortmatic and Portis. We thank the teams at Magic and Portis for their support, and we’re actively working on adding support for other wallets as well. Stay tuned for upcoming announcements.  Your app next!  So the Arbiswap demo was cool, and you want to port your app to Arbitrum. But surely you have some questions.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Source  CoinDesk  ArbiSwap’s native ARBI tokens fell from $1.5 to a fraction of a cent in the past 24 hours. This was possible as the rogue developers controlled the project's liquidity pools. Liquidity pools refer to the token pairs held by smart contracts on decentralized exchanges, with developers initially seeding both sides of a token pair.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Blockchain data from DEXTools shows just $4 million in liquidity on ArbiSwap in European morning hours on Thursday. The service was launched in February and quickly grew to $4.4 million in total locked value (TVL).  ArbiSwap offered swapping of various cryptocurrencies for low fees on its platform and advertised giving back 100% of all generated revenue to holders of ARBI, which likely piqued the quick interest for ArbiSwap among users. headtopics.com  shauryamalwa Tf is arbi swap?</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020-2021 SushiSwap  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Arbiswap</t>
+          <t>W3Swap</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Wallet support. We’re also excited to announce that we’ve added new wallet integrations. Arbiswap works with three wallets: Metamask, Fortmatic and Portis. We thank the teams at Magic and Portis for their support, and we’re actively working on adding support for other wallets as well. Stay tuned for upcoming announcements.  Your app next!  So the Arbiswap demo was cool, and you want to port your app to Arbitrum. But surely you have some questions.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Source  CoinDesk  ArbiSwap’s native ARBI tokens fell from $1.5 to a fraction of a cent in the past 24 hours. This was possible as the rogue developers controlled the project's liquidity pools. Liquidity pools refer to the token pairs held by smart contracts on decentralized exchanges, with developers initially seeding both sides of a token pair.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Blockchain data from DEXTools shows just $4 million in liquidity on ArbiSwap in European morning hours on Thursday. The service was launched in February and quickly grew to $4.4 million in total locked value (TVL).  ArbiSwap offered swapping of various cryptocurrencies for low fees on its platform and advertised giving back 100% of all generated revenue to holders of ARBI, which likely piqued the quick interest for ArbiSwap among users. headtopics.com  shauryamalwa Tf is arbi swap?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Announcement on W3W LP Token Airdrop and Trading AvailabilityTo the Global PG Consensus Community: At 15:00 (SGT) on June 5, W3W will officially launch the W3swap-LP token airdrop, and simultaneously open the W3W trading window. The system will airdrop a corresponding amount of W3W LP tokens based on the wallet addresses and actual participation amounts of the previous IWO participants. The airdrop will be carried out on the PEGO chain, at which time relevant users should prepare their wallet&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; will be carried out on the PEGO chain, at which time relevant users should prepare their wallet configurations. Once users receive the W3W-LP tokens, they can redeem them for trading on the PEGO chain’s W3swap. W3W token contract address (on PEGO chain): 0x5AbD5f6Bbe0B48E9179F6307eAea032d998B4a7e&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; will be carried out on the PEGO chain, at which time relevant users should prepare their wallet configurations. Once users receive the W3W-LP tokens, they can redeem them for trading on the PEGO chain’s W3swap. W3B token contract address (on PEGO chain): 0xe28489df1c10465934Ac9FDF755a6cDF86cC1559</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>W3Swap</t>
+          <t>CrescentSwap</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Announcement on W3W LP Token Airdrop and Trading AvailabilityTo the Global PG Consensus Community: At 15:00 (SGT) on June 5, W3W will officially launch the W3swap-LP token airdrop, and simultaneously open the W3W trading window. The system will airdrop a corresponding amount of W3W LP tokens based on the wallet addresses and actual participation amounts of the previous IWO participants. The airdrop will be carried out on the PEGO chain, at which time relevant users should prepare their wallet&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; will be carried out on the PEGO chain, at which time relevant users should prepare their wallet configurations. Once users receive the W3W-LP tokens, they can redeem them for trading on the PEGO chain’s W3swap. W3W token contract address (on PEGO chain): 0x5AbD5f6Bbe0B48E9179F6307eAea032d998B4a7e&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; will be carried out on the PEGO chain, at which time relevant users should prepare their wallet configurations. Once users receive the W3W-LP tokens, they can redeem them for trading on the PEGO chain’s W3swap. W3B token contract address (on PEGO chain): 0xe28489df1c10465934Ac9FDF755a6cDF86cC1559</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Based on the Uni-v3 model, CrescentSwap's AMM model is highly optimized and feature-rich. For trading pairs, it includes dynamic directional fees that enable different charge rates and swap modification based on the direction of the swap. StableSwap, a Curve Finance AMM implementation that enables trading stable pairs with less slippage, is also introduced on the site. CrescentSwap further provides projects with a launchpad to permissionlessly jumpstart their token launches and liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; both centralized exchanges and AMMs focusing on stablecoins.➤ Active Liquidity - When market prices fall outside of an LP's defined price range, their liquidity is essentially withdrawn from the pool and no longer earns fees.➤ Liquidity Range Orders - CrescentSwap's take on the V3 model includes LP customizability that enables a new order capability, dubbed 'range orders,' to supplement market orders.➤ Non Fungible Liquidity - Liquidity is represented by NFTs, allowing LPs to participate while&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The CrescentSwap AMM is at the heart of our ecosystem-focused strategy, and it was created with the following concepts in mind: ‍- A great degree of adaptability and personalization - Users benefit from improved trading efficiency- Supporting protocol growth by adjusting to their requirementsCrescentSwap is a decentralized exchange following UniSwap's v3 model that will be exclusive to the Moonlight ecosystem, being the protocol's flagship exchange, offering native tokens the deepest liquidity</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5440,12 +5440,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CrescentSwap</t>
+          <t>DuckyDefi</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Based on the Uni-v3 model, CrescentSwap's AMM model is highly optimized and feature-rich. For trading pairs, it includes dynamic directional fees that enable different charge rates and swap modification based on the direction of the swap. StableSwap, a Curve Finance AMM implementation that enables trading stable pairs with less slippage, is also introduced on the site. CrescentSwap further provides projects with a launchpad to permissionlessly jumpstart their token launches and liquidity.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; both centralized exchanges and AMMs focusing on stablecoins.➤ Active Liquidity - When market prices fall outside of an LP's defined price range, their liquidity is essentially withdrawn from the pool and no longer earns fees.➤ Liquidity Range Orders - CrescentSwap's take on the V3 model includes LP customizability that enables a new order capability, dubbed 'range orders,' to supplement market orders.➤ Non Fungible Liquidity - Liquidity is represented by NFTs, allowing LPs to participate while&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The CrescentSwap AMM is at the heart of our ecosystem-focused strategy, and it was created with the following concepts in mind: ‍- A great degree of adaptability and personalization - Users benefit from improved trading efficiency- Supporting protocol growth by adjusting to their requirementsCrescentSwap is a decentralized exchange following UniSwap's v3 model that will be exclusive to the Moonlight ecosystem, being the protocol's flagship exchange, offering native tokens the deepest liquidity</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In contrast, in Decentralized Finance (DeFi), Automated Market Maker (AMM) model or sometimes referred to as a Constant Function Market Maker is used to replace the order book.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; This leads to the creation of DEX, allowing people to exchange these low-cap tokens.  The idea of ​​​​ DEX is to let everything work automatically, buyers and sellers connect themselves and automatically trade at available prices, without placing buy orders, sell orders, and agreements like on centralized exchange (CEX). Therefore, people call that mechanism as Automated Market Makers (AMM).  DEX’s Liquidity  So what is the meaning of holding tokens for the long-term?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The underlying model is based on: constant_product = prv_liquidity_pool * uscd_liquidity_pool = 100 * 100 = 10 000  And since: prv_price = usdc_liquidity_pool / prv_liquidity_pool = 100 / 100 = 1.00  Combining the above to equations we have: prv_liquidity_pool = sqrt(constant_product / prv_price) = 100.00 usdc_liquidity_pool = sqrt(constant_product * prv_price) = 100.00  Later, the price changes, so 1 PRV = 1.2 USDC. The liquidity pools must change, since the constant cannot:</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5457,112 +5457,95 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>DuckyDefi</t>
+          <t>MuesliSwap</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In contrast, in Decentralized Finance (DeFi), Automated Market Maker (AMM) model or sometimes referred to as a Constant Function Market Maker is used to replace the order book.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; This leads to the creation of DEX, allowing people to exchange these low-cap tokens.  The idea of ​​​​ DEX is to let everything work automatically, buyers and sellers connect themselves and automatically trade at available prices, without placing buy orders, sell orders, and agreements like on centralized exchange (CEX). Therefore, people call that mechanism as Automated Market Makers (AMM).  DEX’s Liquidity  So what is the meaning of holding tokens for the long-term?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The underlying model is based on: constant_product = prv_liquidity_pool * uscd_liquidity_pool = 100 * 100 = 10 000  And since: prv_price = usdc_liquidity_pool / prv_liquidity_pool = 100 / 100 = 1.00  Combining the above to equations we have: prv_liquidity_pool = sqrt(constant_product / prv_price) = 100.00 usdc_liquidity_pool = sqrt(constant_product * prv_price) = 100.00  Later, the price changes, so 1 PRV = 1.2 USDC. The liquidity pools must change, since the constant cannot:</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the value of the tokens in the liquidity pool.&lt;br&gt;&lt;br&gt;Answer: Cannot determine                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Before providing liquidity, it is useful to estimate both potential gains based on the pool's volume, and potential losses based on the tokens' volatility. The resulting profit or loss is then a sum of these two percentages. For the latter, one can use an online tool such as:  https://dailydefi.org/tools/impermanent-loss-calculator/  Liquidity Pools on MuesliSwap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; https://dailydefi.org/tools/impermanent-loss-calculator/  Liquidity Pools on MuesliSwap  For security reasons, the creation of liquidity pools is currently permissioned. If you want to create a new liquidity pool for your token, please feel free to reach out to us.  A list of all available liquidity pools can be found at:  https://muesliswap.com/earn/liquidity  Add Liquidity  To add liquidity for a token pair, press the "Add Liquidity" button for the relevant liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity pools 101  We are happy to announce that liquidity pools are now a part of MuesliSwap's Hybrid DEX. This page aims to explain the concept of liquidity pools from user's perspective in simple terms. Please note this is not investment advice.  We recommend that liquidity providers familiarize themselves with the following concepts before interacting with liquidity pools.</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; "The Program" refers to any copyrightable work licensed under this License.  Each licensee is addressed as "you".  "Licensees" and "recipients" may be individuals or organizations.    To "modify" a work means to copy from or adapt all or part of the work in a fashion requiring copyright permission, other than the making of an exact copy.  The resulting work is called a "modified version" of the earlier work or a work "based on" the earlier work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The licenses for most software and other practical works are designed to take away your freedom to share and change the works.  By contrast, the GNU General Public License is intended to guarantee your freedom to share and change all versions of a program--to make sure it remains free software for all its users.  We, the Free Software Foundation, use the GNU General Public License for most of our software; it applies also to</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>MuesliSwap</t>
+          <t>PlasmaSwap</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Extract the value of the tokens in the liquidity pool.&lt;br&gt;&lt;br&gt;Answer: Cannot determine                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Before providing liquidity, it is useful to estimate both potential gains based on the pool's volume, and potential losses based on the tokens' volatility. The resulting profit or loss is then a sum of these two percentages. For the latter, one can use an online tool such as:  https://dailydefi.org/tools/impermanent-loss-calculator/  Liquidity Pools on MuesliSwap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; https://dailydefi.org/tools/impermanent-loss-calculator/  Liquidity Pools on MuesliSwap  For security reasons, the creation of liquidity pools is currently permissioned. If you want to create a new liquidity pool for your token, please feel free to reach out to us.  A list of all available liquidity pools can be found at:  https://muesliswap.com/earn/liquidity  Add Liquidity  To add liquidity for a token pair, press the "Add Liquidity" button for the relevant liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity pools 101  We are happy to announce that liquidity pools are now a part of MuesliSwap's Hybrid DEX. This page aims to explain the concept of liquidity pools from user's perspective in simple terms. Please note this is not investment advice.  We recommend that liquidity providers familiarize themselves with the following concepts before interacting with liquidity pools.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; For users, this means you can use authentic data across 700+ token markets (to start, it will soon grow to 1,000+) to make informed decisions about your next yield strategy. For projects, this means when you choose to put your liquidity on PlasmaSwap, you can apply to have an objective metric assessment and not hope you make it on some other centralized list based on arbitrary, non-transparent rules.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Spaceport Settings Contract.  Liquidity Mining and Staking for your project on Plasma.Finance  Each project can launch its own liquidity mining contract for DEX liquidity pair on PlasmaSwap or Staking contract, which will be listed under Plasma.Finance Saving Page and available for all users with UI and analytics. To create an incentivization program on Plasma.Finance platform, please customize and deploy the relevant contracts from our GitHub  Plasma Staking Factory&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; "ko": "Plasma.Finance is a cross-chain DeFi aggregator and portfolio management platform.",  "nl": "Plasma.Finance is a cross-chain DeFi aggregator and portfolio management platform.",  "pl": "Plasma.Finance is a cross-chain DeFi aggregator and portfolio management platform.",  "pt": "Plasma.Finance is a cross-chain DeFi aggregator and portfolio management platform.",  "ro": "Plasma.Finance is a cross-chain DeFi aggregator and portfolio management platform.",</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; "The Program" refers to any copyrightable work licensed under this License.  Each licensee is addressed as "you".  "Licensees" and "recipients" may be individuals or organizations.    To "modify" a work means to copy from or adapt all or part of the work in a fashion requiring copyright permission, other than the making of an exact copy.  The resulting work is called a "modified version" of the earlier work or a work "based on" the earlier work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; The licenses for most software and other practical works are designed to take away your freedom to share and change the works.  By contrast, the GNU General Public License is intended to guarantee your freedom to share and change all versions of a program--to make sure it remains free software for all its users.  We, the Free Software Foundation, use the GNU General Public License for most of our software; it applies also to</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>PlasmaSwap</t>
+          <t>FusionX v2</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; For users, this means you can use authentic data across 700+ token markets (to start, it will soon grow to 1,000+) to make informed decisions about your next yield strategy. For projects, this means when you choose to put your liquidity on PlasmaSwap, you can apply to have an objective metric assessment and not hope you make it on some other centralized list based on arbitrary, non-transparent rules.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Spaceport Settings Contract.  Liquidity Mining and Staking for your project on Plasma.Finance  Each project can launch its own liquidity mining contract for DEX liquidity pair on PlasmaSwap or Staking contract, which will be listed under Plasma.Finance Saving Page and available for all users with UI and analytics. To create an incentivization program on Plasma.Finance platform, please customize and deploy the relevant contracts from our GitHub  Plasma Staking Factory&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; "ko": "Plasma.Finance is a cross-chain DeFi aggregator and portfolio management platform.",  "nl": "Plasma.Finance is a cross-chain DeFi aggregator and portfolio management platform.",  "pl": "Plasma.Finance is a cross-chain DeFi aggregator and portfolio management platform.",  "pt": "Plasma.Finance is a cross-chain DeFi aggregator and portfolio management platform.",  "ro": "Plasma.Finance is a cross-chain DeFi aggregator and portfolio management platform.",</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Fusionx Finance  --  --  Follow  Written by Gugunjeri  1 Follower  Follow  More from Gugunjeri  Gugunjeri  Exploring the DackieSwap Concentrated Liquidity Market Maker (CLMM) ConceptUnveiling the New Era of DackieSwap: Introducing Concentrated Liquidity Market Maker (CLMM) Exciting news from DackieLabs! We are delighted…  3 min read·Aug 2  --  Gugunjeri&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The Mechanics of SSL  In an SSL model, your contributed liquidity initially resides either to the left or right of the current spot price. This means your liquidity is ‘inactive’ or dormant until market conditions move the spot price into your predetermined range.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; How It’s Different  The traditional liquidity pool models, like Full-Range and Concentrated positions, often require depositing two distinct assets. This can be a hurdle if your portfolio predominantly contains only one type of asset. SSL simplifies this process, making liquidity provision more accessible than ever.  The Mechanics of SSL</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>FusionX v2</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Fusionx Finance  --  --  Follow  Written by Gugunjeri  1 Follower  Follow  More from Gugunjeri  Gugunjeri  Exploring the DackieSwap Concentrated Liquidity Market Maker (CLMM) ConceptUnveiling the New Era of DackieSwap: Introducing Concentrated Liquidity Market Maker (CLMM) Exciting news from DackieLabs! We are delighted…  3 min read·Aug 2  --  Gugunjeri&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The Mechanics of SSL  In an SSL model, your contributed liquidity initially resides either to the left or right of the current spot price. This means your liquidity is ‘inactive’ or dormant until market conditions move the spot price into your predetermined range.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; How It’s Different  The traditional liquidity pool models, like Full-Range and Concentrated positions, often require depositing two distinct assets. This can be a hurdle if your portfolio predominantly contains only one type of asset. SSL simplifies this process, making liquidity provision more accessible than ever.  The Mechanics of SSL</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The Liquidity of the E3 Token Economy (written by Andrew Wong and Dr. VK Liew)  E3T (E3 Token)·Follow  7 min read·Oct 27, 2019  --  Listen  Share  Preamble&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; c. E3 Global Marketplace  The E3 blockchain platform is not only minting tokens but also includes a global E3 marketplace that allows members to trade digital and non-digital products and services and pay using E3T via the E3 payment gateway. Transfer of asset ownership will be done based on smart contracts and it can be tracked and traced using E3T block explorer to avoid dispute.  d. Sharing Economy Powered by E3T&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Utilisation of E3T  The list of token utilisation in the E3 Digital Economy Platform is non-exhaustive. Among services that we want to provide on the E3 Digital Economy Platform are:  a. E3T is an Internal Cryptocurrency of the E3 Platform</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Permission is hereby granted, free of charge, to any person obtaining a copy  of this software and associated documentation files (the "Software"), to deal  in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the  Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE  SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>Leonicorn Swap</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  10/10                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The Liquidity of the E3 Token Economy (written by Andrew Wong and Dr. VK Liew)  E3T (E3 Token)·Follow  7 min read·Oct 27, 2019  --  Listen  Share  Preamble&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; c. E3 Global Marketplace  The E3 blockchain platform is not only minting tokens but also includes a global E3 marketplace that allows members to trade digital and non-digital products and services and pay using E3T via the E3 payment gateway. Transfer of asset ownership will be done based on smart contracts and it can be tracked and traced using E3T block explorer to avoid dispute.  d. Sharing Economy Powered by E3T&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Utilisation of E3T  The list of token utilisation in the E3 Digital Economy Platform is non-exhaustive. Among services that we want to provide on the E3 Digital Economy Platform are:  a. E3T is an Internal Cryptocurrency of the E3 Platform</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Leonicorn Swap is an advanced Automated Market Maker AMM-based,  decentralised exchange (DEX)  with multifunctional features. Our aim is to deliver the next generation of efficient  DeFi  solutions built on  blockchain  technology. A user-friendly and security-focused DeFi solution built for, and run for, you - with access to unparalleled live support and vibrant online communities.  Lowest Fees&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; ECOSYSTEMS  Multichain NFT MARKETPLACE  In Leonicorn Swap Exchange, you can Trade, Provide Liquidity for your project and others, Buy and Sell NFT, and raise funds for your projects via the IDO/IFO model. It's a complete solution for Users and Traders.  GameFi Reward Sharing AMM  Leonicorn Swap is the first GameFi Reward Sharing AMM in Binance smart chain. TON chain, APTOS chain, SUI chain, OKC chain, SEI chain and Kucoin Chain. Users can play Games with $LEONS and can earn passive income.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Multichain Dex Aggregator  In Leonicorn Swap Exchange, you can Trade, Provide Liquidity for your project and others. In Leonicorn Swap, you can trade in 21 Chain with Deep Liquidity, whereas in one DEX, you can trade both EVM and Non-EVM Blockchains.  USECASES  The DEX Native Token (LEONS)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Permission is hereby granted, free of charge, to any person obtaining a copy  of this software and associated documentation files (the "Software"), to deal  in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the  Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE  SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Leonicorn Swap</t>
+          <t>Noah</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Leonicorn Swap is an advanced Automated Market Maker AMM-based,  decentralised exchange (DEX)  with multifunctional features. Our aim is to deliver the next generation of efficient  DeFi  solutions built on  blockchain  technology. A user-friendly and security-focused DeFi solution built for, and run for, you - with access to unparalleled live support and vibrant online communities.  Lowest Fees&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; ECOSYSTEMS  Multichain NFT MARKETPLACE  In Leonicorn Swap Exchange, you can Trade, Provide Liquidity for your project and others, Buy and Sell NFT, and raise funds for your projects via the IDO/IFO model. It's a complete solution for Users and Traders.  GameFi Reward Sharing AMM  Leonicorn Swap is the first GameFi Reward Sharing AMM in Binance smart chain. TON chain, APTOS chain, SUI chain, OKC chain, SEI chain and Kucoin Chain. Users can play Games with $LEONS and can earn passive income.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Multichain Dex Aggregator  In Leonicorn Swap Exchange, you can Trade, Provide Liquidity for your project and others. In Leonicorn Swap, you can trade in 21 Chain with Deep Liquidity, whereas in one DEX, you can trade both EVM and Non-EVM Blockchains.  USECASES  The DEX Native Token (LEONS)</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Noah</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; [6] S. T. Rachev, S. Mittnik. Stable Paretian Models in Finance, WILEY, 2000; ISBN: 978-0-471-95314-2  [7] Wim Schoutens, Lévy Processes in Finance: Pricing Financial Derivatives, WILEY 2003, ISBN-13: 978-0470851562  [8] B. Fredrickson, A functional genomic perspective on human well-being, Proc Natl Acad Sci U S A. 2013 Aug 13; 110(33): 13684–13689. https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3746929/#r57  [1] FactSet MAC optimizer is expected to be released in June 2020.  Post Comment&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Referencing my previous article, the Noah Effect accounts for Tails Risk and Structure breaks. The probabilistic modeling paradigm discussions in academia have started as early as the beginning of the century [6], and continue to be some of the most exciting areas of quantitative mathematics [3], [7]. Some may argue that the Tails Risks as described can be modeled by a Levy process with infinite intensity, while Structural breaks can be represented in the form of compound Poisson processes&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Quantitative Research                    @@ -5579,37 +5562,37 @@
                      Portfolio Management &amp; Trading</t>
         </is>
       </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Sharkyswap</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  SharkySwap employs the "Proactive Market Maker (PMM)" liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Features of SharkySwap  The trading features that Sharkyswap possess are  Zap:  Creating a SHARKY-{ERC-20.token}, from an ERC-20 and earn daily income. Users previously needed to manually acquire both tokens of a Liquidity Pool pair before being able to merge them into a single SHARKY-Liquidity Pool token. Using Zap, users may instantly convert one asset in their wallet (say, BUSD) into another asset (say, SHARKY-ETH) by exchanging them with one click.  Stake, Pool and Farm:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To ensure the safety of its customers, Sharky Swap uses Know Your Customer (KYC) compliance, security audits, and open-source code review. The team’s identities will be checked by KYC. The team will perform in-depth security assessments to identify and address flaws in the platform’s source code. The code can be reviewed by the community without any interference, which increases confidence in the platform. These enhancements will strengthen Sharky Swap and make it safer to use.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; SharkySwap: A Decentralized Exchange to watch out for?          Advertisement  Education  Sybil Attacks and the Fight for Proof of Innocence          Education  Tickie: An AI-blockchain platform that aims to transform ticketing          Education+ FEATURED  Uniswap's dismissed Class Action lawsuit: What it means for DeFi          Education  Is the Modular Stack really an Application-Centric Powerhouse?          Education</t>
+        </is>
+      </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; END OF TERMS AND CONDITIONS     APPENDIX: How to apply the Apache License to your work.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; To apply the Apache License to your work, attach the following       boilerplate notice, with the fields enclosed by brackets "[]"       replaced with your own identifying information. (Don't include       the brackets!)  The text should be enclosed in the appropriate       comment syntax for the file format. We also recommend that a       file or class name and description of purpose be included on the       same "printed page" as the copyright notice for easier</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Sharkyswap</t>
+          <t>Symmetric</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  SharkySwap employs the "Proactive Market Maker (PMM)" liquidity model.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Features of SharkySwap  The trading features that Sharkyswap possess are  Zap:  Creating a SHARKY-{ERC-20.token}, from an ERC-20 and earn daily income. Users previously needed to manually acquire both tokens of a Liquidity Pool pair before being able to merge them into a single SHARKY-Liquidity Pool token. Using Zap, users may instantly convert one asset in their wallet (say, BUSD) into another asset (say, SHARKY-ETH) by exchanging them with one click.  Stake, Pool and Farm:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; To ensure the safety of its customers, Sharky Swap uses Know Your Customer (KYC) compliance, security audits, and open-source code review. The team’s identities will be checked by KYC. The team will perform in-depth security assessments to identify and address flaws in the platform’s source code. The code can be reviewed by the community without any interference, which increases confidence in the platform. These enhancements will strengthen Sharky Swap and make it safer to use.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; SharkySwap: A Decentralized Exchange to watch out for?          Advertisement  Education  Sybil Attacks and the Fight for Proof of Innocence          Education  Tickie: An AI-blockchain platform that aims to transform ticketing          Education- FEATURED  Uniswap's dismissed Class Action lawsuit: What it means for DeFi          Education  Is the Modular Stack really an Application-Centric Powerhouse?          Education</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Symmetric</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Imbedded in liquidity measures is an implicit assumption of symmetry. Although market microstructure models rely on this assumption, there may be directional pressure that creates differences in buy and sell liquidity. This paper develops methods of assessing asymmetric liquidity and empirically examines a sample of newly listed Internet and technology stocks that are hypothesized to be especially subject to asymmetry due to the rapid inflation and deflation of the Internet bubble. Evidence of&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Dolfin M, Leonida L, Muzzupappa E.  A Kinetic Theory Model of the Dynamics of Liquidity Profiles on Interbank Networks. Symmetry. 2021; 13(2):363.@@ -5621,110 +5604,110 @@
  Note that from the first issue of 2016, this journal uses article numbers instead of page numbers. See further details   here.  Article Metrics  No  No  Article Access Statistics  For more information on the journal statistics, click  here.</t>
         </is>
       </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) 2015-2020 drduh  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Kwikswap</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is Kwikswap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Kwikswap Features&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Kwikswap is a new type of protocol that is designed to offer developers, as well as liquidity providers, and traders, the opportunity to engage with a decentralized financial marketplace. This allows these individuals the opportunity to join in with the DeFi movement that is continuing to take over the market and that is also continuing to drive more and more people away from the traditional financial market. It’s creating the wave of the future, and with Kwikswap it becomes even more powerful</t>
+        </is>
+      </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) 2015-2020 drduh  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Kwikswap</t>
+          <t>DefySwap</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; What is Kwikswap?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Kwikswap Features&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Kwikswap is a new type of protocol that is designed to offer developers, as well as liquidity providers, and traders, the opportunity to engage with a decentralized financial marketplace. This allows these individuals the opportunity to join in with the DeFi movement that is continuing to take over the market and that is also continuing to drive more and more people away from the traditional financial market. It’s creating the wave of the future, and with Kwikswap it becomes even more powerful</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the total supply of DFY?&lt;br&gt;Answer: 3,703,982.849037                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; They describe themselves as being "The most advanced trading platform on Fantom Opera Chain". Defy believes in decentralizing finance. They also believe they have spotted the disadvantages of most decentralized exchanges and decided to launch DEFYSWAP, a model where the issues identified are being taken care of while maintaining all of the usual features you've come to expect from any DEX (Automated Market Making AMM, Swapping/Trading, Liquidity Pools, Yield Farming &amp; Pools).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; While maintaining all of the usual features you've come to expect from any DEX (Automated Market Making AMM, Swapping/Trading, Liquidity Pools, Yield Farming &amp; Pools). There are a few other unique features we have looked to integrate to insure one of the strongest user experiences possible for all around future viability and user utility.  Activity  Twitter  Followers:  2 107  MEDIUM  Tweets:  398  HIGH  30 Days Growth:  16  Telegram  Members:  595  LOW  30 Days Growth:  35  DefySwap Last News&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; DefySwap  DEX with Limit Order and CEX-like interface. Trade Safe, Trade Secure, Trade Advanced.  Crypto Details  DeFi Details  About  Roadmap  Activity  Team  News  Comments  EDIT  Select widget+ + + + + + + + + + + + + + + + + + + + + + + + + + WIDGET  Notification icon+ Created using Figma+ + + + + + + + + + + 1+ + FOLLOW  Token Price  Charts  Historical  Token Details  Ticker  DFY  Total supply  3,703,982.849037  Additional Details  Categories  Platform  About DefySwap</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; MIT License  &lt;&lt;&lt;&lt;&lt;&lt;&lt; HEAD Copyright (c) 2020 Noah Zinsmeister ======= Copyright (c) 2021 Defy Farm &gt;&gt;&gt;&gt;&gt;&gt;&gt; e803ffca080260bf7e182486ea415d01fb2d4f6c</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>DefySwap</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  What is the total supply of DFY?&lt;br&gt;Answer: 3,703,982.849037                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; They describe themselves as being "The most advanced trading platform on Fantom Opera Chain". Defy believes in decentralizing finance. They also believe they have spotted the disadvantages of most decentralized exchanges and decided to launch DEFYSWAP, a model where the issues identified are being taken care of while maintaining all of the usual features you've come to expect from any DEX (Automated Market Making AMM, Swapping/Trading, Liquidity Pools, Yield Farming &amp; Pools).&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; While maintaining all of the usual features you've come to expect from any DEX (Automated Market Making AMM, Swapping/Trading, Liquidity Pools, Yield Farming &amp; Pools). There are a few other unique features we have looked to integrate to insure one of the strongest user experiences possible for all around future viability and user utility.  Activity  Twitter  Followers:  2 107  MEDIUM  Tweets:  398  HIGH  30 Days Growth:  16  Telegram  Members:  595  LOW  30 Days Growth:  35  DefySwap Last News&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; DefySwap  DEX with Limit Order and CEX-like interface. Trade Safe, Trade Secure, Trade Advanced.  Crypto Details  DeFi Details  About  Roadmap  Activity  Team  News  Comments  EDIT  Select widget- - - - - - - - - - - - - - - - - - - - - - - - - - WIDGET  Notification icon- Created using Figma- - - - - - - - - - - 1- - FOLLOW  Token Price  Charts  Historical  Token Details  Ticker  DFY  Total supply  3,703,982.849037  Additional Details  Categories  Platform  About DefySwap</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Here’s what you’ll be doing as a Senior ALM Manager:  Prudently managing our liquidity profile on a day-to-day basis  Overseeing short-term investments and FX arbitrage  Negotiating and enhancing commercial terms with counterparties  Managing treasury-related risks (interest rate risk, FX risk, etc.)  Building models and other analytical tools to help increase portfolio returns and risk management capabilities, contributing towards model-based portfolio optimisation&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The Treasury Team is an integral part of the TransferGo business and a unique position has arisen to drive our ALM Management particularly focussed on FX trading and liquidity.  Driving our FX arbitrage you will also manage excess liquidity with the goal of generating excess margin above the risk-free rate all the while whilst staying within tight risk limits and performing model-based treasury optimisation.  Here’s what you’ll be doing as a Senior ALM Manager:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Here’s what we’d love from our new Senior ALM Manager:  Significant Front Office Treasury experience at major bank or neobank (FX/IR swaps, bonds, money markets, hedging etc.)  Excellent academics in Business/Economics (minimum BA/BSc)  Strong analytical and technical skills, and ability to create complex financial models in Excel  The ability to understand complex financial concepts and break them into smaller pieces  And if you can also do this stuff, even better:</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; MIT License  &lt;&lt;&lt;&lt;&lt;&lt;&lt; HEAD Copyright (c) 2020 Noah Zinsmeister ======= Copyright (c) 2021 Defy Farm &gt;&gt;&gt;&gt;&gt;&gt;&gt; e803ffca080260bf7e182486ea415d01fb2d4f6c</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2013 Adrian Bautista  MIT License  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Diffusion Finance</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Here’s what you’ll be doing as a Senior ALM Manager:  Prudently managing our liquidity profile on a day-to-day basis  Overseeing short-term investments and FX arbitrage  Negotiating and enhancing commercial terms with counterparties  Managing treasury-related risks (interest rate risk, FX risk, etc.)  Building models and other analytical tools to help increase portfolio returns and risk management capabilities, contributing towards model-based portfolio optimisation&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The Treasury Team is an integral part of the TransferGo business and a unique position has arisen to drive our ALM Management particularly focussed on FX trading and liquidity.  Driving our FX arbitrage you will also manage excess liquidity with the goal of generating excess margin above the risk-free rate all the while whilst staying within tight risk limits and performing model-based treasury optimisation.  Here’s what you’ll be doing as a Senior ALM Manager:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Here’s what we’d love from our new Senior ALM Manager:  Significant Front Office Treasury experience at major bank or neobank (FX/IR swaps, bonds, money markets, hedging etc.)  Excellent academics in Business/Economics (minimum BA/BSc)  Strong analytical and technical skills, and ability to create complex financial models in Excel  The ability to understand complex financial concepts and break them into smaller pieces  And if you can also do this stuff, even better:</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2013 Adrian Bautista  MIT License  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Diffusion Finance</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Marszk A, Lechman E.  Application of Diffusion Models in the Analysis of Financial Markets: Evidence on Exchange Traded Funds in Europe. Risks. 2020; 8(1):18.@@ -5738,21 +5721,38 @@
  Published by MDPI  RSS  Content Alert  Further Information  Article Processing Charges  Pay an Invoice  Open Access Policy&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; DeMarzo, Peter, and Darrell Duffie. 1999. A liquidity-based model of security design. Econometrica 67: 65–99. [Google Scholar] [CrossRef]  Diaz-Rainey, Ivan, and Gbenga Ibikunle. 2012. A Taxonomy of the ‘Dark Side’ of Financial Innovation: The Cases of High Frequency Trading and Exchange Traded Funds. International Journal of Entrepreneurship and Innovation Management 16: 51–72. [Google Scholar] [CrossRef][Green Version]</t>
         </is>
       </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 9. You are not required to accept this License, since you have not signed it.  However, nothing else grants you permission to modify or distribute the Library or its derivative works.  These actions are prohibited by law if you do not accept this License.  Therefore, by modifying or distributing the Library (or any work based on the Library), you indicate your acceptance of this License to do so, and all its terms and conditions for copying, distributing or modifying&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; It may happen that this requirement contradicts the license restrictions of other proprietary libraries that do not normally accompany the operating system.  Such a contradiction means you cannot use both them and the Library together in an executable that you distribute.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 0. This License Agreement applies to any software library or other program which contains a notice placed by the copyright holder or other authorized party saying it may be distributed under the terms of this Lesser General Public License (also called "this License"). Each licensee is addressed as "you".</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>NeutroSwap</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  The value of the tokens in the liquidity pool. This is determined by the exchange rate of the tokens and the amount of tokens in the pool.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Innovative: This type uses a constant mean value AMM model to facilitate the transaction and pricing between two digital tokens or fiat assets. The prices are determined by the exchange rate fluctuations of the tokens, so the rewards for liquidity providers can fluctuate more greatly.  Important Terms in Liquidity Farming  Price: The price swap between the pair in the pool. The final price is based on the proportion of the pair in the liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Neutroswap is an automated market-maker (AMM) built on EOS EVM. It offers low fees for asset swapping and provides attractive rewards for staking and yield farming. Neutroswap emphasizes community involvement and allows users to participate in decision-making through Governance Voting. Its goal is to create a user-friendly platform for decentralized trading, prioritizing affordability and delivering a seamless and rewarding experience. The team has announced it will be releasing Neutroswap V2&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity pools are decentralized pools of tokens locked into a smart contract on a blockchain network. They are a core component of automated market makers (AMMs) used in decentralized exchanges (DEXs). Users can deposit their tokens to the pool and receive liquidity pool tokens representing their share in the pool, enabling them to participate in the trading activity on the DEX. The smart contract executes trades based on the tokens in the liquidity pool and an automated algorithm that</t>
+        </is>
+      </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "No"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 9. You are not required to accept this License, since you have not signed it.  However, nothing else grants you permission to modify or distribute the Library or its derivative works.  These actions are prohibited by law if you do not accept this License.  Therefore, by modifying or distributing the Library (or any work based on the Library), you indicate your acceptance of this License to do so, and all its terms and conditions for copying, distributing or modifying&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; It may happen that this requirement contradicts the license restrictions of other proprietary libraries that do not normally accompany the operating system.  Such a contradiction means you cannot use both them and the Library together in an executable that you distribute.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 0. This License Agreement applies to any software library or other program which contains a notice placed by the copyright holder or other authorized party saying it may be distributed under the terms of this Lesser General Public License (also called "this License"). Each licensee is addressed as "you".</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>NeutroSwap</t>
+          <t>CantoSwap</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  The value of the tokens in the liquidity pool. This is determined by the exchange rate of the tokens and the amount of tokens in the pool.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Innovative: This type uses a constant mean value AMM model to facilitate the transaction and pricing between two digital tokens or fiat assets. The prices are determined by the exchange rate fluctuations of the tokens, so the rewards for liquidity providers can fluctuate more greatly.  Important Terms in Liquidity Farming  Price: The price swap between the pair in the pool. The final price is based on the proportion of the pair in the liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Neutroswap is an automated market-maker (AMM) built on EOS EVM. It offers low fees for asset swapping and provides attractive rewards for staking and yield farming. Neutroswap emphasizes community involvement and allows users to participate in decision-making through Governance Voting. Its goal is to create a user-friendly platform for decentralized trading, prioritizing affordability and delivering a seamless and rewarding experience. The team has announced it will be releasing Neutroswap V2&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Liquidity pools are decentralized pools of tokens locked into a smart contract on a blockchain network. They are a core component of automated market makers (AMMs) used in decentralized exchanges (DEXs). Users can deposit their tokens to the pool and receive liquidity pool tokens representing their share in the pool, enabling them to participate in the trading activity on the DEX. The smart contract executes trades based on the tokens in the liquidity pool and an automated algorithm that</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;The value of Canto DEX is that it has no transaction fees and is permanently non-upgradable. Liquidity providers can only receive the Canto native asset $CANTO incentive bonus and cannot earn transaction fees from it.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Canto DEX  Canto Lending Market (CLM)  $NOTE  Canto DEX  Canto DEX is an AMM DEX developed by the Canto team, where a x+y=k formula is used for stablecoin pairs that require concentrated liquidity and a x*y=k formula is used for assets that require unlimited liquidity. In addition, Canto DEX is designed to have no transaction fees and is permanently non-upgradable. Liquidity providers can only receive the Canto native asset $CANTO incentive bonus and cannot earn transaction fees from it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Canto Lending Market (CLM)  CLM is a lending market forked from Compound v2, with governance in the hands of $CANTO stakers. LP tokens obtained by providing liquidity to Canto DEX can be used as collateral to deposit in the CLM and borrow other assets. However, LP tokens themselves cannot be lent out.  $NOTE&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; DEX  Official: CantoSwap, Canto Lending, which together account for over 95% of the TVL market share on the Canto.  Forteswap  Forteswap is one of the oldest DEXs on the Canto, currently supporting the trading functions of BELIEVE, NOTE, ENC, RAB, CANTO, USDC, USDT, etc. Forteswap also provides liquidity functions while supporting trading functions, making it a more functional DEX on the Canto.  CantoSwap</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5764,112 +5764,95 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>CantoSwap</t>
+          <t>Sterling Finance</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;The value of Canto DEX is that it has no transaction fees and is permanently non-upgradable. Liquidity providers can only receive the Canto native asset $CANTO incentive bonus and cannot earn transaction fees from it.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Canto DEX  Canto Lending Market (CLM)  $NOTE  Canto DEX  Canto DEX is an AMM DEX developed by the Canto team, where a x+y=k formula is used for stablecoin pairs that require concentrated liquidity and a x*y=k formula is used for assets that require unlimited liquidity. In addition, Canto DEX is designed to have no transaction fees and is permanently non-upgradable. Liquidity providers can only receive the Canto native asset $CANTO incentive bonus and cannot earn transaction fees from it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Canto Lending Market (CLM)  CLM is a lending market forked from Compound v2, with governance in the hands of $CANTO stakers. LP tokens obtained by providing liquidity to Canto DEX can be used as collateral to deposit in the CLM and borrow other assets. However, LP tokens themselves cannot be lent out.  $NOTE&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; DEX  Official: CantoSwap, Canto Lending, which together account for over 95% of the TVL market share on the Canto.  Forteswap  Forteswap is one of the oldest DEXs on the Canto, currently supporting the trading functions of BELIEVE, NOTE, ENC, RAB, CANTO, USDC, USDT, etc. Forteswap also provides liquidity functions while supporting trading functions, making it a more functional DEX on the Canto.  CantoSwap</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; H��W˒����+��	�"!4�XNdOʩPr4L\)9��"A�Ŀ�����Hj�T�\�F�}�{��3)�b�GA%"�\����{?�������K?R���sB��C{{��I[��~� ���Rz;|h����l���q����O�-ߏ] ��_�Ӧ�����]����'���7���R�,���,A&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 158 0 R 159 0 R 160 0 R 161 0 R 162 0 R 163 0 R 164 0 R 165 0 R 166 0 R 167 0 R 168 0 R 169 0 R 170 0 R 171 0 R 172 0 R 173 0 R 174 0 R 175 0 R] /Count 168 &gt;&gt; endobj 3 0 obj &lt;&lt; /Length 237 /Type /Metadata /Subtype /XML &gt;&gt; stream&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 108 0 R 109 0 R 110 0 R 111 0 R 112 0 R 113 0 R 114 0 R 115 0 R 116 0 R 117 0 R 118 0 R 119 0 R 120 0 R 121 0 R 122 0 R 123 0 R 124 0 R 125 0 R 126 0 R 127 0 R 128 0 R 129 0 R 130 0 R 131 0 R 132 0 R 133 0 R 134 0 R 135 0 R 136 0 R 137 0 R 138 0 R 139 0 R 140 0 R 141 0 R 142 0 R 143 0 R 144 0 R 145 0 R 146 0 R 147 0 R 148 0 R 149 0 R 150 0 R 151 0 R 152 0 R 153 0 R 154 0 R 155 0 R 156 0 R 157 0 R 158 0 R 159 0 R 160 0 R 161 0 R 162 0 R 163 0 R 164 0 R 165 0 R 166 0 R 167 0 R</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Jacob Felknor  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Sterling Finance</t>
+          <t>KAIDEX</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; H��W˒����+��	�"!4�XNdOʩPr4L\)9��"A�Ŀ�����Hj�T�\�F�}�{��3)�b�GA%"�\����{?�������K?R���sB��C{{��I[��~� ���Rz;|h����l���q����O�-ߏ] ��_�Ӧ�����]����'���7���R�,���,A&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 158 0 R 159 0 R 160 0 R 161 0 R 162 0 R 163 0 R 164 0 R 165 0 R 166 0 R 167 0 R 168 0 R 169 0 R 170 0 R 171 0 R 172 0 R 173 0 R 174 0 R 175 0 R] /Count 168 &gt;&gt; endobj 3 0 obj &lt;&lt; /Length 237 /Type /Metadata /Subtype /XML &gt;&gt; stream&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 108 0 R 109 0 R 110 0 R 111 0 R 112 0 R 113 0 R 114 0 R 115 0 R 116 0 R 117 0 R 118 0 R 119 0 R 120 0 R 121 0 R 122 0 R 123 0 R 124 0 R 125 0 R 126 0 R 127 0 R 128 0 R 129 0 R 130 0 R 131 0 R 132 0 R 133 0 R 134 0 R 135 0 R 136 0 R 137 0 R 138 0 R 139 0 R 140 0 R 141 0 R 142 0 R 143 0 R 144 0 R 145 0 R 146 0 R 147 0 R 148 0 R 149 0 R 150 0 R 151 0 R 152 0 R 153 0 R 154 0 R 155 0 R 156 0 R 157 0 R 158 0 R 159 0 R 160 0 R 161 0 R 162 0 R 163 0 R 164 0 R 165 0 R 166 0 R 167 0 R</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You will receive KLP tokens (KAIDEX Liquidity Provider tokens) as proof of contribution once you have provided liquidity. A user that puts $KDX and $KAI into a pool, for example, would receive KDX-KAI KLP tokens. These tokens reflect your share of assets within the pool. You can always withdraw your funds by removing your liquidity.  Adding liquidity to an existing pool&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Adding liquidity to a new pool  If the pool you wish to provide liquidity to does not exist, you can create it of course! As the first liquidity provider, you set the initial exchange ratio (price) if one of the tokens in the pair has not appeared on KAIDEX. This often quickly corrects itself through arbitrage and by more liquidity providers adding to the pool.  How to add liquidity  By adding liquidity, you are putting equal USD value of 2 ingredients to make LP tokens.  Here's how to do it:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; KAIDEX — The best of both worlds  KAIDEX mechanism aims to provide a complete decentralised solution with a CEX experience. Users can have full control of their privacy, own their assets, and reduce the risk of a security breach. Furthermore, KAIDEX performance is of CEX with fast settlements, high liquidity, and transparent audit. It is to bring the best benefits for users. Such hybrid solutions are in high demand on the market as DEXes and DeFi are becoming more trending than ever.</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Jacob Felknor  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 phidangnguyen  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>KAIDEX</t>
+          <t>Woof Finance</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You will receive KLP tokens (KAIDEX Liquidity Provider tokens) as proof of contribution once you have provided liquidity. A user that puts $KDX and $KAI into a pool, for example, would receive KDX-KAI KLP tokens. These tokens reflect your share of assets within the pool. You can always withdraw your funds by removing your liquidity.  Adding liquidity to an existing pool&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Adding liquidity to a new pool  If the pool you wish to provide liquidity to does not exist, you can create it of course! As the first liquidity provider, you set the initial exchange ratio (price) if one of the tokens in the pair has not appeared on KAIDEX. This often quickly corrects itself through arbitrage and by more liquidity providers adding to the pool.  How to add liquidity  By adding liquidity, you are putting equal USD value of 2 ingredients to make LP tokens.  Here's how to do it:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; KAIDEX — The best of both worlds  KAIDEX mechanism aims to provide a complete decentralised solution with a CEX experience. Users can have full control of their privacy, own their assets, and reduce the risk of a security breach. Furthermore, KAIDEX performance is of CEX with fast settlements, high liquidity, and transparent audit. It is to bring the best benefits for users. Such hybrid solutions are in high demand on the market as DEXes and DeFi are becoming more trending than ever.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "synthetic Proactive Market Making (sPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; WOOFi Swap features a new innovation called synthetic proactive market-making, or sPMM. sPMM is an algorithm that simulates a CeFi order book by connecting to a custom on-chain market data feed. This feed pushes market data from the WOO Network order book in frequent intervals directly to the blockchain. According to recent tests, the sPMM can achieve higher capital efficiency (i.e. volume-to-liquidity ratio) than all other DEXes on the BSC market, which enables WOOFi to charge lower swap fees&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; WOOFi Swap features a new innovation called synthetic proactive market-making, or sPMM. sPMM is an algorithm that simulates a CeFi order book by connecting to a custom on-chain market data feed. This feed pushes market data from the WOO Network order book in frequent intervals directly to the blockchain. According to recent tests, the sPMM can achieve higher capital efficiency (i.e. volume-to-liquidity ratio) than all other DEXes on the BSC market, which enables WOOFi to charge lower swap fees&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; WOO Network is proud to announce the alpha launch of WOOFi Swap, a new decentralized exchange platform running on Binance Smart Chain. For WOOFi Swap, we developed a brand new on-chain market-making algorithm called Synthetic Proactive Market Making (sPMM). The algorithm is designed for professional market makers to provide on-chain liquidity in a way that better simulates the price, spread, and depth of an order book on centralized exchanges. Learn more details about WOOFi Swap on our GitBook</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2021 phidangnguyen  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Woof Finance</t>
+          <t>EvmoSwap</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "synthetic Proactive Market Making (sPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; WOOFi Swap features a new innovation called synthetic proactive market-making, or sPMM. sPMM is an algorithm that simulates a CeFi order book by connecting to a custom on-chain market data feed. This feed pushes market data from the WOO Network order book in frequent intervals directly to the blockchain. According to recent tests, the sPMM can achieve higher capital efficiency (i.e. volume-to-liquidity ratio) than all other DEXes on the BSC market, which enables WOOFi to charge lower swap fees&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; WOO Network is proud to announce the alpha launch of WOOFi Swap, a new decentralized exchange platform running on Binance Smart Chain. For WOOFi Swap, we developed a brand new on-chain market-making algorithm called Synthetic Proactive Market Making (sPMM). The algorithm is designed for professional market makers to provide on-chain liquidity in a way that better simulates the price, spread, and depth of an order book on centralized exchanges. Learn more details about WOOFi Swap on our GitBook&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; integration. After the alpha testing period, as the product scales to more chains and assets, WOO Network may look to add more decentralized methods of sourcing liquidity. Long-term, WOOFi Swap will look to add additional analytics, support for more blockchains and assets, more utility for WOO tokens, and yield opportunities to users in the WOO Network ecosystem. The goal of WOOFi is to ultimately, along with WOO X, become a one-stop shop for liquidity spanning CeFi and all the major DeFi</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;The value of liquidity farming is determined by the amount of liquidity in the pool, the exchange rate fluctuations of the tokens, and the rewards for liquidity providers.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Innovative: This type uses a constant mean value AMM model to facilitate the transaction and pricing between two digital tokens or fiat assets. The prices are determined by the exchange rate fluctuations of the tokens, so the rewards for liquidity providers can fluctuate more greatly.  Important Terms in Liquidity Farming  Price: The price swap between the pair in the pool. The final price is based on the proportion of the pair in the liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Binance Smart Pool Explained for Beginners  Types of Liquidity Farming  The following are two types of liquidity farming offered by Binance:  Stable: Uses a hybrid constant function of the AMM model to facilitate the transaction and pricing between two stable tokens. It can also provide a low slippage trading experience as the prices of the two tokens in the pool are determined by the exchange rate fluctuations of the stablecoins. In addition, the rewards are more stable than the other type.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; How to Remove Liquidity  1. On the liquidity page, click "Remove".  2. Choose the liquidity pool that you wish to remove and then enter the amount along with the type of token that you want to redeem. The system will then automatically calculate the result based on the current price, portion of the pool, the pool size, and your current portion. Before you confirm the order, make sure to read the details carefully and then click "Remove".</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>EvmoSwap</t>
+          <t>Daylight Protocol</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;The value of liquidity farming is determined by the amount of liquidity in the pool, the exchange rate fluctuations of the tokens, and the rewards for liquidity providers.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Innovative: This type uses a constant mean value AMM model to facilitate the transaction and pricing between two digital tokens or fiat assets. The prices are determined by the exchange rate fluctuations of the tokens, so the rewards for liquidity providers can fluctuate more greatly.  Important Terms in Liquidity Farming  Price: The price swap between the pair in the pool. The final price is based on the proportion of the pair in the liquidity pool.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Binance Smart Pool Explained for Beginners  Types of Liquidity Farming  The following are two types of liquidity farming offered by Binance:  Stable: Uses a hybrid constant function of the AMM model to facilitate the transaction and pricing between two stable tokens. It can also provide a low slippage trading experience as the prices of the two tokens in the pool are determined by the exchange rate fluctuations of the stablecoins. In addition, the rewards are more stable than the other type.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; How to Remove Liquidity  1. On the liquidity page, click "Remove".  2. Choose the liquidity pool that you wish to remove and then enter the amount along with the type of token that you want to redeem. The system will then automatically calculate the result based on the current price, portion of the pool, the pool size, and your current portion. Before you confirm the order, make sure to read the details carefully and then click "Remove".</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In addition to the reports available through AMI, at the end of each business day CMS generates a report for each institution that has elected to receive a statement of their collateral holdings via e-mail.64 Institutions can determine the frequency with which they receive this report, such as daily, weekly, or monthly. The report lists an institution's collateral holdings at the CUSIP level as of the previous business day.  Return to contents  IV. Daylight Overdraft Monitoring and Management&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; and conform to file formatting requirements. CMS will price and apply any necessary margin adjustments to these securities net of customer funding amounts to arrive at a value for in-transit collateral for each minute of the day.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Institutions may view their value of collateral available for daylight overdraft purposes, which is the value of their Federal Reserve collateral less outstanding discount window advances, during the day through AMI or ABMS.63 Because the collateral available for daylight overdraft purposes is used in the pricing calculation for daylight overdrafts, it is displayed in AMI with the institution's balance information, and institutions may view in near-real-time their collateralized and</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Noah Zinsmeister  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 sparkworld-io  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Daylight Protocol</t>
+          <t>Archly Finance</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; In addition to the reports available through AMI, at the end of each business day CMS generates a report for each institution that has elected to receive a statement of their collateral holdings via e-mail.64 Institutions can determine the frequency with which they receive this report, such as daily, weekly, or monthly. The report lists an institution's collateral holdings at the CUSIP level as of the previous business day.  Return to contents  IV. Daylight Overdraft Monitoring and Management&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; and conform to file formatting requirements. CMS will price and apply any necessary margin adjustments to these securities net of customer funding amounts to arrive at a value for in-transit collateral for each minute of the day.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Institutions may view their value of collateral available for daylight overdraft purposes, which is the value of their Federal Reserve collateral less outstanding discount window advances, during the day through AMI or ABMS.63 Because the collateral available for daylight overdraft purposes is used in the pricing calculation for daylight overdrafts, it is displayed in AMI with the institution's balance information, and institutions may view in near-real-time their collateralized and</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2022 sparkworld-io  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Archly Finance</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
         <is>
           <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Liquidity Pools  The core functionality of Archly Finance is to allow users to trade  digital assets in a secure way, with very low fees and low slippage.  Slippage is the difference between the current market price of an asset and the@@ -5880,55 +5863,72 @@
  Pools and Volatile Pools.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Chat  @ArchlyFinance  Do you work for an exchange?  Submit reserve data  About Archly Finance  Archly Finance, at its core, is a solution for protocols on Telos EVM to properly incentivize liquidity for their own use cases. Building on top of the groundwork laid out by Solidly, our team has addressed that first iteration's core issues to realize its full potential.  Read More   Markets  Spot  Perpetual  Futures  Pair  All  Currency  Pair  Price  +2% Depth  2% Depth  Volume  Volume %  USD Coin</t>
         </is>
       </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal with the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Redistributions of source code must retain the above copyright notice, this list of conditions and the following disclaimers.  Redistributions in binary form must reproduce the above copyright notice, this list of conditions and the following disclaimers in the documentation and/or other materials provided with the distribution.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Neither the names of Kevin Sheppard, nor the names of its contributors may be used to endorse or promote products derived from this Software without specific prior written permission.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>IslandSwap</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  IslandSwap Token&lt;br&gt;&lt;br&gt;Possible answers:&lt;br&gt;  - "Utility token"&lt;br&gt;  - "Security token"&lt;br&gt;  - "Stablecoin"&lt;br&gt;  - "Other" (If the answer is not one of the above)&lt;br&gt;  - "Cannot determine" (if you can't find the answer)&lt;br&gt;&lt;br&gt;Just answer using a name from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "Utility token"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Users will drive the development of the world view, and the team will interact with users in real-time. Of course, in addition to the playability, I believe that players are also concerned about our economic model. We studied lots of excellent games and created a great mining mechanism to ensure the benefits of all the players. Also, IslandSwap has a shorter payoff period, and OKC also helps to achieve low investment and high return with its low handling fee.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Türkçe  日本語  简体中文  繁體中文  Select Currency  Fiat currencies  CrypoCurrencies  No results for ""  We couldn't find anything matching your search.Try again with a different term.  Cryptocurrencies  Islandswap Token  Islandswap TokenISL  Token  www.islandswap.com  www.oklink.com  Whitepaper  Tags:  Gaming  Metaverse  OEC Ecosystem  DeFi  Collectibles &amp; NFTs  Contracts:  OKChain:0x1e9F...7aB8F19  Islandswap Token Links  Website  www.islandswap.com  Explorers  www.oklink.com  Whitepaper  Whitepaper&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Community-driven: Based on the IslandSwap Token's issuance and economic model, decentralized governance and community-driven development will be realized.  Metaverse: IslandSwap improves players' engagement and entertainment through unique gameplay and allows them to play to earn.  Multi-chain: On OEC now and has been planned to be on BSC, HECO, and more.  How to get Islandswap Token(ISL)?  Airdrops: Users can get airdrops through early participation and community contributions.</t>
+        </is>
+      </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal with the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Redistributions of source code must retain the above copyright notice, this list of conditions and the following disclaimers.  Redistributions in binary form must reproduce the above copyright notice, this list of conditions and the following disclaimers in the documentation and/or other materials provided with the distribution.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Neither the names of Kevin Sheppard, nor the names of its contributors may be used to endorse or promote products derived from this Software without specific prior written permission.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>IslandSwap</t>
+          <t>Decaswap</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  IslandSwap Token&lt;br&gt;&lt;br&gt;Possible answers:&lt;br&gt;  - "Utility token"&lt;br&gt;  - "Security token"&lt;br&gt;  - "Stablecoin"&lt;br&gt;  - "Other" (If the answer is not one of the above)&lt;br&gt;  - "Cannot determine" (if you can't find the answer)&lt;br&gt;&lt;br&gt;Just answer using a name from the list above between two quotation marks.&lt;br&gt;Example of a helpful answer : "Utility token"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Users will drive the development of the world view, and the team will interact with users in real-time. Of course, in addition to the playability, I believe that players are also concerned about our economic model. We studied lots of excellent games and created a great mining mechanism to ensure the benefits of all the players. Also, IslandSwap has a shorter payoff period, and OKC also helps to achieve low investment and high return with its low handling fee.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Türkçe  日本語  简体中文  繁體中文  Select Currency  Fiat currencies  CrypoCurrencies  No results for ""  We couldn't find anything matching your search.Try again with a different term.  Cryptocurrencies  Islandswap Token  Islandswap TokenISL  Token  www.islandswap.com  www.oklink.com  Whitepaper  Tags:  Gaming  Metaverse  OEC Ecosystem  DeFi  Collectibles &amp; NFTs  Contracts:  OKChain:0x1e9F...7aB8F19  Islandswap Token Links  Website  www.islandswap.com  Explorers  www.oklink.com  Whitepaper  Whitepaper&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Community-driven: Based on the IslandSwap Token's issuance and economic model, decentralized governance and community-driven development will be realized.  Metaverse: IslandSwap improves players' engagement and entertainment through unique gameplay and allows them to play to earn.  Multi-chain: On OEC now and has been planned to be on BSC, HECO, and more.  How to get Islandswap Token(ISL)?  Airdrops: Users can get airdrops through early participation and community contributions.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 369 0 obj &lt;&lt; /Names 366 0 R /OpenAction 490 0 R /Outlines 477 0 R /PageMode /UseOutlines /Pages 476 0 R /Type /Catalog &gt;&gt; endobj 370 0 obj &lt;&lt; /Filter /FlateDecode /S 229 /O 308 /Length 269 &gt;&gt; stream x�c```b`�g`2�� �f�2�L`�����6|`H��PV�y��ò�I�Ѭaڂ��'&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; %PDF-1.5 %���� 367 0 obj &lt;&lt; /Linearized 1 /L 247516 /H [ 2175 357 ] /O 371 /E 125918 /N 19 /T 245043 &gt;&gt; endobj                                                                                                          368 0 obj &lt;&lt; /Type /XRef /Length 113 /Filter /FlateDecode /DecodeParms &lt;&lt; /Columns 5 /Predictor 12 &gt;&gt; /W [ 1 3 1 ] /Index [ 367 215 ] /Info 47 0 R /Root 369 0 R /Size 582 /Prev 245044                /ID [] &gt;&gt; stream x�cbd`�g`b``8	"��@$c#�L�m ��D�� �r� R^D2CH]i&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; stream x�cbd`�g`b``8	"��@$c#�L�m ��D�� �r� R^D2CH]i $����r ҵlr1X��d��!�+0)"101�W\	v�(9J�C2.x7��C� O�� endstream endobj</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Decaswap</t>
+          <t>FlameSwap</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 369 0 obj &lt;&lt; /Names 366 0 R /OpenAction 490 0 R /Outlines 477 0 R /PageMode /UseOutlines /Pages 476 0 R /Type /Catalog &gt;&gt; endobj 370 0 obj &lt;&lt; /Filter /FlateDecode /S 229 /O 308 /Length 269 &gt;&gt; stream x�c```b`�g`2�� �f�2�L`�����6|`H��PV�y��ò�I�Ѭaڂ��'&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; %PDF-1.5 %���� 367 0 obj &lt;&lt; /Linearized 1 /L 247516 /H [ 2175 357 ] /O 371 /E 125918 /N 19 /T 245043 &gt;&gt; endobj                                                                                                          368 0 obj &lt;&lt; /Type /XRef /Length 113 /Filter /FlateDecode /DecodeParms &lt;&lt; /Columns 5 /Predictor 12 &gt;&gt; /W [ 1 3 1 ] /Index [ 367 215 ] /Info 47 0 R /Root 369 0 R /Size 582 /Prev 245044                /ID [] &gt;&gt; stream x�cbd`�g`b``8	"��@$c#�L�m ��D�� �r� R^D2CH]i&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; stream x�cbd`�g`b``8	"��@$c#�L�m ��D�� �r� R^D2CH]i $����r ҵlr1X��d��!�+0)"101�W\	v�(9J�C2.x7��C� O�� endstream endobj</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Their Official site text:  Cryptocurrency Websites Like Flame Swap  BACK TO HOME  1.Tip Coin  2.Star Wars  3.DarkMeta  4.Real Smurf Cat  5.L7 DEX  6.Yama Inu Coin  7.Sally  8.BEAR AI  9.PEPURAI  10.Neutrinos Blockchain  11.CoinMarketPrime CMP  12.Sorcery Finance  » VIEW ALL THE Best Cryptocurrency SITES (13) «  My blog&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 1 min read  1 min read  Mar 8  Flame Protocol IntroWhat is the Flame Protocol and why is the Sui blockchain used? The Flame Protocol is built on top of SUI. Leading AMM/DEX and protocol. Offers truly cheap transaction fees and radically brings capital efficiency to users and liquidity providers with many exciting new features. …  2 min read  2 min read&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 1 min read  1 min read  May 4  Flame Protocol IDO Upcoming !🔥Flame Protocol is built on the Sui Network by the Flame Labs team, and it is the first NFT AMM Swap &amp; Coin Swap with GameFi ecological infrastructure as its core. Thanks to the inherent compatibility of the Objects model with NFT assets, as well as the high TPS concurrent…  2 min read  2 min read  Apr 30</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>FlameSwap</t>
+          <t>Cronus Finance</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Their Official site text:  Cryptocurrency Websites Like Flame Swap  BACK TO HOME  1.Tip Coin  2.Star Wars  3.DarkMeta  4.Real Smurf Cat  5.L7 DEX  6.Yama Inu Coin  7.Sally  8.BEAR AI  9.PEPURAI  10.Neutrinos Blockchain  11.CoinMarketPrime CMP  12.Sorcery Finance  » VIEW ALL THE Best Cryptocurrency SITES (13) «  My blog&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 1 min read  1 min read  Mar 8  Flame Protocol IntroWhat is the Flame Protocol and why is the Sui blockchain used? The Flame Protocol is built on top of SUI. Leading AMM/DEX and protocol. Offers truly cheap transaction fees and radically brings capital efficiency to users and liquidity providers with many exciting new features. …  2 min read  2 min read&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 1 min read  1 min read  May 4  Flame Protocol IDO Upcoming !🔥Flame Protocol is built on the Sui Network by the Flame Labs team, and it is the first NFT AMM Swap &amp; Coin Swap with GameFi ecological infrastructure as its core. Thanks to the inherent compatibility of the Objects model with NFT assets, as well as the high TPS concurrent…  2 min read  2 min read  Apr 30</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Virtual Automated Market Makers (vAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The Cronus Finance AMM will launch first, giving the opportunity for users to swap and provide liquidity on Evmos. One week (+/-) after the AMM launch, our token Cronus ($CRN) will be launched following the IDO. Along with the token, farms will be available to stake LP tokens in return for mining rewards, and staking will be available for Cronus holders to earn UST rewards. In the coming weeks, we will also introduce 2 new features that we have worked on that are ready for deployment (deployed&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity &amp; Staking Guide  Adding Liquidity to Existing Pools  To add liquidity to Chronos's existing pools, first navigate to the "Liquidity" tab at the top of the screen. Here, you'll see a list of all of Chronos's active LPs. Individual tokens can be searched for using the search bar, and will display a list of all active pools that contain that token.  Please note that Chronos uses two different types of pools:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Please note that Chronos uses two different types of pools:  SAMM Pools are for stable pairs, meaning their price does not change relative to one another. Examples include USDC/USDT, frxETH/WETH, or spCHR/CHR.  VAMM Pools are for volatile pairs, meaning their prices move independently of one another. Examples include CHR/WETH, TAROT/USDC, and ARB/WETH</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5940,29 +5940,29 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Cronus Finance</t>
+          <t>LeetSwap</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Virtual Automated Market Makers (vAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The Cronus Finance AMM will launch first, giving the opportunity for users to swap and provide liquidity on Evmos. One week (+/-) after the AMM launch, our token Cronus ($CRN) will be launched following the IDO. Along with the token, farms will be available to stake LP tokens in return for mining rewards, and staking will be available for Cronus holders to earn UST rewards. In the coming weeks, we will also introduce 2 new features that we have worked on that are ready for deployment (deployed&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Liquidity &amp; Staking Guide  Adding Liquidity to Existing Pools  To add liquidity to Chronos's existing pools, first navigate to the "Liquidity" tab at the top of the screen. Here, you'll see a list of all of Chronos's active LPs. Individual tokens can be searched for using the search bar, and will display a list of all active pools that contain that token.  Please note that Chronos uses two different types of pools:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Please note that Chronos uses two different types of pools:  SAMM Pools are for stable pairs, meaning their price does not change relative to one another. Examples include USDC/USDT, frxETH/WETH, or spCHR/CHR.  VAMM Pools are for volatile pairs, meaning their prices move independently of one another. Examples include CHR/WETH, TAROT/USDC, and ARB/WETH</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The exchange, which is known for its decentralized trading services, revealed on X, formerly Twitter, that it had detected a potential compromise in some of its liquidity pools. LeetSwap said it had “temporarily stopped trading to investigate” the incident, expressing its commitment to resolving the issue promptly and transparently.  As our DEX is forked from Solidly, our factory had a security pause function.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; As our DEX is forked from Solidly, our factory had a security pause function.  We noticed that some pool liquidity might have been compromised and we temporarily stopped the trading to investigate.  — LeetSwap (@LeetSwap) August 1, 2023&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; — LeetSwap (@LeetSwap) August 1, 2023  The Exchange asserted that it is working closely with on-chain security experts to assess the extent of the exploit and take necessary steps to recover any locked liquidity. The exchange’s commitment to collaborate with security experts showcases the importance of community involvement and robust security measures within the decentralized finance (DeFi) ecosystem.</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>LeetSwap</t>
+          <t>Kwenta</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The exchange, which is known for its decentralized trading services, revealed on X, formerly Twitter, that it had detected a potential compromise in some of its liquidity pools. LeetSwap said it had “temporarily stopped trading to investigate” the incident, expressing its commitment to resolving the issue promptly and transparently.  As our DEX is forked from Solidly, our factory had a security pause function.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; As our DEX is forked from Solidly, our factory had a security pause function.  We noticed that some pool liquidity might have been compromised and we temporarily stopped the trading to investigate.  — LeetSwap (@LeetSwap) August 1, 2023&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; — LeetSwap (@LeetSwap) August 1, 2023  The Exchange asserted that it is working closely with on-chain security experts to assess the extent of the exploit and take necessary steps to recover any locked liquidity. The exchange’s commitment to collaborate with security experts showcases the importance of community involvement and robust security measures within the decentralized finance (DeFi) ecosystem.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Frequently Asked Questions  Kwenta is built on the Synthetix protocol, so the Synth liquidity traders can access on Kwenta is entirely created by SNX stakers on Synthetix.  There are no direct counterparties for each trade in the Synthetix protocol, but it does use a counterparty-like model in which SNX stakers assume a proportion of the Synthetix debt pool when they mint sUSD. For more details, see the Synthetix   litepaper.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; FAQ  Frequently Asked Questions  Where does the liquidity come from?  Kwenta is built on the Synthetix protocol, so the liquidity traders can access on Kwenta is entirely created by SNX stakers on Synthetix.  How does trading work if there are no counterparts?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; As computation is the slow, expensive part of using Ethereum, Optimistic rollups can offer up to 10-100x improvements in scalability dependent on the transaction. This number will increase even more with the introduction of shard chains as more data will be available if a transaction is disputed.  Type of Collateral accepted on Kwenta?  Kwenta currently denotes its quote asset in sUSD, anyone trading on Kwenta must deposit sUSD to begin trading.  How do I deposit sUSD?</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5974,63 +5974,63 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Kwenta</t>
+          <t>CoinSwap Space</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Frequently Asked Questions  Kwenta is built on the Synthetix protocol, so the Synth liquidity traders can access on Kwenta is entirely created by SNX stakers on Synthetix.  There are no direct counterparties for each trade in the Synthetix protocol, but it does use a counterparty-like model in which SNX stakers assume a proportion of the Synthetix debt pool when they mint sUSD. For more details, see the Synthetix   litepaper.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; FAQ  Frequently Asked Questions  Where does the liquidity come from?  Kwenta is built on the Synthetix protocol, so the liquidity traders can access on Kwenta is entirely created by SNX stakers on Synthetix.  How does trading work if there are no counterparts?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; As computation is the slow, expensive part of using Ethereum, Optimistic rollups can offer up to 10-100x improvements in scalability dependent on the transaction. This number will increase even more with the introduction of shard chains as more data will be available if a transaction is disputed.  Type of Collateral accepted on Kwenta?  Kwenta currently denotes its quote asset in sUSD, anyone trading on Kwenta must deposit sUSD to begin trading.  How do I deposit sUSD?</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Furthermore, the CoinSwap Space platform has the ability to launch new pools, as it is an automated market maker that utilizes smart routing that gives its clients the best swapping rate, slippage, and price impact available.  The liquidity provided to the swap comes from Liquidity Providers ("LPs") who stake their tokens in "Pools". In exchange for this, they get CS-LP (CoinSwap-LiquidityProvider) tokens, which can also be staked to earn CSS tokens in the "farm."&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; So, what about CoinSwap Space? Founded on April 2021, CoinSwap Space is a decentralized exchange or DEX created for swapping BEP20 tokens on the Binance Smart Chain. CoinSwap Space uses an automated market maker (AMM) model where users can trade against a liquidity pool. Those pools are filled with users’ funds. They deposit them into the pool, receiving liquidity provider (or LP) tokens in exchange. Now, they can use those tokens to reclaim their share, plus a portion of the trading fees.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Introduction  Welcome to Coinswap Space!  Coinswap Space is a decentralized exchange or DEX created for swapping BEP20 tokens on BNB Chain. Coinswap Space uses an Automated Market Maker (AMM) model where users can trade against a liquidity pool. Those pools are filled with users’ funds. They deposit them into the pool, receiving liquidity provider (or LP) tokens in exchange. Now, they can use those tokens to reclaim their share, plus a portion of the trading fees.</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>CoinSwap Space</t>
+          <t>ZilSwap</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Furthermore, the CoinSwap Space platform has the ability to launch new pools, as it is an automated market maker that utilizes smart routing that gives its clients the best swapping rate, slippage, and price impact available.  The liquidity provided to the swap comes from Liquidity Providers ("LPs") who stake their tokens in "Pools". In exchange for this, they get CS-LP (CoinSwap-LiquidityProvider) tokens, which can also be staked to earn CSS tokens in the "farm."&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; So, what about CoinSwap Space? Founded on April 2021, CoinSwap Space is a decentralized exchange or DEX created for swapping BEP20 tokens on the Binance Smart Chain. CoinSwap Space uses an automated market maker (AMM) model where users can trade against a liquidity pool. Those pools are filled with users’ funds. They deposit them into the pool, receiving liquidity provider (or LP) tokens in exchange. Now, they can use those tokens to reclaim their share, plus a portion of the trading fees.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Introduction  Welcome to Coinswap Space!  Coinswap Space is a decentralized exchange or DEX created for swapping BEP20 tokens on BNB Chain. Coinswap Space uses an Automated Market Maker (AMM) model where users can trade against a liquidity pool. Those pools are filled with users’ funds. They deposit them into the pool, receiving liquidity provider (or LP) tokens in exchange. Now, they can use those tokens to reclaim their share, plus a portion of the trading fees.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Provide Liquidity  ZilSwap pools  allow you to earn fees and rewards by providing liquidity to the protocol.  When adding your tokens to the Liquidity Pools, you will be rewarded 0.3% on trades for the pool, proportional to your % share of the pool. Fees are distributed to all LPs immediately after each trade.  Additionally, ZWAP tokens may be rewarded for some pools in our  Liquidity Mining Program&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Additionally, ZWAP tokens may be rewarded for some pools in our  Liquidity Mining Program  . ZWAP tokens are distributed to LPs at the end of each epoch. An epoch lasts for one week. Rewards can be claimed by accessing the menu on the top right of the interface.  Video Tutorial  Watch this quick video tutorial on how to become a liquidity provider!  How To - PreviousSwap Tokens  NextPotential Risk: Impermanent Loss  Last modified   1yr ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; ZILO (33%): 3,300,000  Initial liquidity (12%): 1,200,000  Liquidity rewards (20%): 2,000,000 (linearly decreasing curve, over 36 months)  Marketing &amp; operations (15%): 1,500,000 (Vested monthly over 24 months)  Team (15%): 1,500,000 (Vested quarterly over 24 months)  Advisor (5%): 500,000 (Vested quarterly over 24 months)  Launch Details  Start time: 8am UTC, Thursday, 10 February 2022  End time: 8am UTC, Friday, 11 February 2022  Amount to be raised: $660,000 USD</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Switcheo  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ZilSwap</t>
+          <t>Hebeswap</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Proactive Market Maker (PMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Provide Liquidity  ZilSwap pools  allow you to earn fees and rewards by providing liquidity to the protocol.  When adding your tokens to the Liquidity Pools, you will be rewarded 0.3% on trades for the pool, proportional to your % share of the pool. Fees are distributed to all LPs immediately after each trade.  Additionally, ZWAP tokens may be rewarded for some pools in our  Liquidity Mining Program&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Additionally, ZWAP tokens may be rewarded for some pools in our  Liquidity Mining Program  . ZWAP tokens are distributed to LPs at the end of each epoch. An epoch lasts for one week. Rewards can be claimed by accessing the menu on the top right of the interface.  Video Tutorial  Watch this quick video tutorial on how to become a liquidity provider!  How To - PreviousSwap Tokens  NextPotential Risk: Impermanent Loss  Last modified   1yr ago&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; ZILO (33%): 3,300,000  Initial liquidity (12%): 1,200,000  Liquidity rewards (20%): 2,000,000 (linearly decreasing curve, over 36 months)  Marketing &amp; operations (15%): 1,500,000 (Vested monthly over 24 months)  Team (15%): 1,500,000 (Vested quarterly over 24 months)  Advisor (5%): 500,000 (Vested quarterly over 24 months)  Launch Details  Start time: 8am UTC, Thursday, 10 February 2022  End time: 8am UTC, Friday, 11 February 2022  Amount to be raised: $660,000 USD</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; hebeswap  crypto futures  bitcoin futures  ethereum futures  cardano futures  litecoin futures  What is hebeswap &amp; how does it work?Hebeswap a simple smart contract interface for swapping ERC20 tokens. It has a formalized model for pooling liquidity reserves. It serves as an open-source frontend interface for traders and liquidity providers and is committed to providing free and decentralized asset exchange.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; How does shibaswap Dex work?“WOOFING” is the function for redeeming BONE returns by swapping the SSLP tokens on the DEX. The “SWAP” feature allows you to exchange multiple assets on the ShibaSwap platform. ShibaSwap also offers quite a secure trading environment. According to CertiK, a blockchain security service, the DEX has a safety score of 93/100.  Popular futures  Recommended  New Listings: KAS, IQ, MBL, TT, and SC USDT-Margined Perpetual Futures&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Cryptos:  1.8M+  Exchanges:  669  Market Cap:  $1.07T  0.81%  24h Vol:  $28.01B  7.69%  Dominance:  BTC: 49.2% ETH: 18.3%  ETH Gas:  10 Gwei  Fear &amp; Greed:  42/100  Hebeswap  Status  Volume data is untracked  This project is featured as an 'Untracked Listing'  For more details on the listing tiers, please refer to Listings Review Criteria Section B - (3)  https://hebeswap.com/  Fees  Blog  Chat  @EtcHebeBlock  Do you work for an exchange?  Submit reserve data  About Hebeswap</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; MIT License  Copyright (c) 2020 Switcheo  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Hebeswap</t>
+          <t>NSKSwap</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; hebeswap  crypto futures  bitcoin futures  ethereum futures  cardano futures  litecoin futures  What is hebeswap &amp; how does it work?Hebeswap a simple smart contract interface for swapping ERC20 tokens. It has a formalized model for pooling liquidity reserves. It serves as an open-source frontend interface for traders and liquidity providers and is committed to providing free and decentralized asset exchange.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; How does shibaswap Dex work?“WOOFING” is the function for redeeming BONE returns by swapping the SSLP tokens on the DEX. The “SWAP” feature allows you to exchange multiple assets on the ShibaSwap platform. ShibaSwap also offers quite a secure trading environment. According to CertiK, a blockchain security service, the DEX has a safety score of 93/100.  Popular futures  Recommended  New Listings: KAS, IQ, MBL, TT, and SC USDT-Margined Perpetual Futures&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Cryptos:  1.8M+  Exchanges:  669  Market Cap:  $1.07T  0.81%  24h Vol:  $28.01B  7.69%  Dominance:  BTC: 49.2% ETH: 18.3%  ETH Gas:  10 Gwei  Fear &amp; Greed:  42/100  Hebeswap  Status  Volume data is untracked  This project is featured as an 'Untracked Listing'  For more details on the listing tiers, please refer to Listings Review Criteria Section B - (3)  https://hebeswap.com/  Fees  Blog  Chat  @EtcHebeBlock  Do you work for an exchange?  Submit reserve data  About Hebeswap</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; If you would like to know where to buy NSKSwap at the current rate, the top cryptocurrency exchange for trading in NSKSwap stock is currently NSKSwap. You can find others listed on our crypto exchanges page.  Cryptocurrencies  Tokens  NSKSwap  Products  Blockchain Explorer  Crypto API  Crypto Indices  Doodles  Sitemap  Company  About us  Terms of use  Privacy Policy  Cookie preferences  Community Rules  Disclaimer  Methodology  CareersWe’re hiring!  Support  Request Form  Contact Support  FAQ&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Loading Data  Please wait a moment.  NSKSwap community  NSKSwap Markets  ALL  CEX  DEX  Spot  Perpetual  Futures  All pairs  Loading data...  Show full width  Disclaimer: This page may contain affiliate links. CoinMarketCap may be compensated if you visit any affiliate links and you take certain actions such as signing up and transacting with these affiliate platforms. Please refer to Affiliate Disclosure.  NSKSwap news  About NSKSwap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; NSKSwap news  About NSKSwap  Nskswap protocol is an open source protocol used to provide liquidity and trade bep20 tokens on the currency security chain. It eliminates trusted intermediaries and unnecessary forms of rent collection, thereby achieving secure, accessible and efficient exchange activities. The agreement is non escalable and is designed to resist censorship. Nskswap is a technical service provided by volunteers organized by Noah Dao  People also watch  GoldMint$0.027231.21%</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6042,12 +6042,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>NSKSwap</t>
+          <t>onAVAX</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; If you would like to know where to buy NSKSwap at the current rate, the top cryptocurrency exchange for trading in NSKSwap stock is currently NSKSwap. You can find others listed on our crypto exchanges page.  Cryptocurrencies  Tokens  NSKSwap  Products  Blockchain Explorer  Crypto API  Crypto Indices  Doodles  Sitemap  Company  About us  Terms of use  Privacy Policy  Cookie preferences  Community Rules  Disclaimer  Methodology  CareersWe’re hiring!  Support  Request Form  Contact Support  FAQ&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Loading Data  Please wait a moment.  NSKSwap community  NSKSwap Markets  ALL  CEX  DEX  Spot  Perpetual  Futures  All pairs  Loading data...  Show full width  Disclaimer: This page may contain affiliate links. CoinMarketCap may be compensated if you visit any affiliate links and you take certain actions such as signing up and transacting with these affiliate platforms. Please refer to Affiliate Disclosure.  NSKSwap news  About NSKSwap&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; NSKSwap news  About NSKSwap  Nskswap protocol is an open source protocol used to provide liquidity and trade bep20 tokens on the currency security chain. It eliminates trusted intermediaries and unnecessary forms of rent collection, thereby achieving secure, accessible and efficient exchange activities. The agreement is non escalable and is designed to resist censorship. Nskswap is a technical service provided by volunteers organized by Noah Dao  People also watch  GoldMint$0.027231.21%</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Another of its core services is the auto-compounding feature, which enables liquidity pools on Pangolin to act as an automated market maker (AMM) for stable assets. Compounding means that rewards from staking are deposited and reinvested to earn even more rewards.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 2. Once you have unlocked your wallet, you can choose to add liquidity, as seen in the picture below. (Note that you must approve your tokens before adding liquidity, so spare some $AVAX for the fees)  2.1 Once you’ve done so, you’ll now need to choose the pairs you want to provide liquidity for. In this case, we’re going with $YAY and $WAVAX, as seen below. Choose the amount of liquidity you want to provide and approve the dApp to use the $YAY token.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Total APY — 203.60%  How to provide liquidity on Snowball  To access their Dapp press here.  Once you press the “Compound &amp; Earn” tab, you can search for $YAY.  2. Press “GET PGL,” and you will be redirected to Pangolin Dex, where you will be able to choose the amount of liquidity you want to add. And confirm it!</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6059,136 +6059,153 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>onAVAX</t>
+          <t>Apeswap</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Dynamic Automated Market Maker (DAMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Another of its core services is the auto-compounding feature, which enables liquidity pools on Pangolin to act as an automated market maker (AMM) for stable assets. Compounding means that rewards from staking are deposited and reinvested to earn even more rewards.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 2. Once you have unlocked your wallet, you can choose to add liquidity, as seen in the picture below. (Note that you must approve your tokens before adding liquidity, so spare some $AVAX for the fees)  2.1 Once you’ve done so, you’ll now need to choose the pairs you want to provide liquidity for. In this case, we’re going with $YAY and $WAVAX, as seen below. Choose the amount of liquidity you want to provide and approve the dApp to use the $YAY token.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Total APY — 203.60%  How to provide liquidity on Snowball  To access their Dapp press here.  Once you press the “Compound &amp; Earn” tab, you can search for $YAY.  2. Press “GET PGL,” and you will be redirected to Pangolin Dex, where you will be able to choose the amount of liquidity you want to add. And confirm it!</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 5. Next, consider Liquidity Ownership, which measures the amount of liquidity that a project owns (protocol owned liquidity, or POL).  a. ApeSwap scans top liquidity provider (LP) token holders to see if any LP tokens are held in a locking contract, a gnosis safe, or a burn address. These are best practices, and every project should be doing one of these two things with their POL.  b. If the project shows a “0” in Liquidity Ownership, it could indicate one of two things:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 5. Next, consider Liquidity Ownership, which measures the amount of liquidity that a project owns (protocol owned liquidity, or POL).  a. ApeSwap scans top liquidity provider (LP) token holders to see if any LP tokens are held in a locking contract, a gnosis safe, or a burn address. These are best practices, and every project should be doing one of these two things with their POL.  b. If the project shows a “0” in Liquidity Ownership, it could indicate one of two things:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; ApeSwap’s decentralized exchange has leveraged the traditional UniSwap V2 liquidity model since launch. V2 liquidity positions cover the entire range of the constant product formula, meaning all liquidity positions in these liquidity pools are reserved equally over the entire range of the applicable token’s relative prices (from $0 to $infinity). As a result, the assets within the majority of V2 liquidity positions are never put to use, because the relative prices of the tokens are often within</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Apeswap</t>
+          <t>ALEX</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 5. Next, consider Liquidity Ownership, which measures the amount of liquidity that a project owns (protocol owned liquidity, or POL).  a. ApeSwap scans top liquidity provider (LP) token holders to see if any LP tokens are held in a locking contract, a gnosis safe, or a burn address. These are best practices, and every project should be doing one of these two things with their POL.  b. If the project shows a “0” in Liquidity Ownership, it could indicate one of two things:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 5. Next, consider Liquidity Ownership, which measures the amount of liquidity that a project owns (protocol owned liquidity, or POL).  a. ApeSwap scans top liquidity provider (LP) token holders to see if any LP tokens are held in a locking contract, a gnosis safe, or a burn address. These are best practices, and every project should be doing one of these two things with their POL.  b. If the project shows a “0” in Liquidity Ownership, it could indicate one of two things:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; ApeSwap’s decentralized exchange has leveraged the traditional UniSwap V2 liquidity model since launch. V2 liquidity positions cover the entire range of the constant product formula, meaning all liquidity positions in these liquidity pools are reserved equally over the entire range of the applicable token’s relative prices (from $0 to $infinity). As a result, the assets within the majority of V2 liquidity positions are never put to use, because the relative prices of the tokens are often within</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Alex L.’s Post  Alex L.  Care, Commit, Transform - Investment Banking | Consulting | SaaS | International Business Development  1y  Report this post  Jean-Baptiste Gaudemet. Enjoy! ;-)  #ai  #artificialintelligence  #kyriba  #workingcapital  #liquiditymanagement  François Masquelier  Philippe HENRY  https://lnkd.in/eaQX_eFk  The Role of AI in Liquidity Management  https://www.youtube.com/  19  1 Comment  Like  Comment  Share  Copy  LinkedIn  Facebook  Twitter  François Masquelier  1y&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Unlike many DeFi platforms that use single collateral pools, ALEX claims to use diversified pools for its lending product. Those pools, consisting of risky and risk-free assets, are meant to reduce default risk while maintaining potential upside gains. Furthermore, an algorithmic engine dynamically adjusts the split of the high-risk and risk-free assets in the diversified pool based on Black-Scholes model.  Who Are the Founders of ALEX?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Chat  @ALEXLabBTC  Do you work for an exchange?  Submit reserve data  About ALEX  What Is ALEX?  Short for Automated Liquidity Exchange, ALEX touts itself as the first one-stop DeFi services platform on Bitcoin via Stacks. It is a hybrid of automated market-making and on-chain loanable funds built on the Stacks blockchain network.</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) 2016 AlexaPi developers  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ALEX</t>
+          <t>Oasis Swap</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Hybrid Constant Function Market Makers (CFMMs)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Alex L.’s Post  Alex L.  Care, Commit, Transform - Investment Banking | Consulting | SaaS | International Business Development  1y  Report this post  Jean-Baptiste Gaudemet. Enjoy! ;-)  #ai  #artificialintelligence  #kyriba  #workingcapital  #liquiditymanagement  François Masquelier  Philippe HENRY  https://lnkd.in/eaQX_eFk  The Role of AI in Liquidity Management  https://www.youtube.com/  19  1 Comment  Like  Comment  Share  Copy  LinkedIn  Facebook  Twitter  François Masquelier  1y&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Unlike many DeFi platforms that use single collateral pools, ALEX claims to use diversified pools for its lending product. Those pools, consisting of risky and risk-free assets, are meant to reduce default risk while maintaining potential upside gains. Furthermore, an algorithmic engine dynamically adjusts the split of the high-risk and risk-free assets in the diversified pool based on Black-Scholes model.  Who Are the Founders of ALEX?&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Chat  @ALEXLabBTC  Do you work for an exchange?  Submit reserve data  About ALEX  What Is ALEX?  Short for Automated Liquidity Exchange, ALEX touts itself as the first one-stop DeFi services platform on Bitcoin via Stacks. It is a hybrid of automated market-making and on-chain loanable funds built on the Stacks blockchain network.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Start using YuzuSwap DEX.  Gemkeeper Finance  GemKeeper.finance is a community-focused Automated Market Maker (AMM) and DeFi platform built on Oasis’ Emerald Paratime. It allows users to execute token swaps, enter existing and create new liquidity pools. Gemkeeper exposes users to yield farming on Oasis using globally accepted crypto assets; users earn $BLING by staking their GemKeeper Liquidity Pool (GLP) tokens in the Gem Mine.  Visit Gemkeeper Finance here.  Fountain Protocol&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Maker-OTC Contract Structure#  The trading engine involves the main contract matching_market.sol importing simple_market.sol and expiring_market.sol.  Through the matching_market.sol contract, you can make all the necessary calls to the maker-otc trading engine.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; An order book for each market is implemented as two double-linked sorted lists, one list for each side of the market (buy and sell). An important feature of the design is that at any point in time, the lists should be sorted accordingly. The second most important design consideration when building the protocol was the use of a so-called Escrow model for Makers. The Escrow model simply means that a given asset is locked within the contract when a new order is placed. Although such an approach</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The MIT License (MIT)  Copyright (c) 2016 AlexaPi developers  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Oasis Swap</t>
+          <t>NESTFi</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Proactive Market Maker (PMM)                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Start using YuzuSwap DEX.  Gemkeeper Finance  GemKeeper.finance is a community-focused Automated Market Maker (AMM) and DeFi platform built on Oasis’ Emerald Paratime. It allows users to execute token swaps, enter existing and create new liquidity pools. Gemkeeper exposes users to yield farming on Oasis using globally accepted crypto assets; users earn $BLING by staking their GemKeeper Liquidity Pool (GLP) tokens in the Gem Mine.  Visit Gemkeeper Finance here.  Fountain Protocol&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Maker-OTC Contract Structure#  The trading engine involves the main contract matching_market.sol importing simple_market.sol and expiring_market.sol.  Through the matching_market.sol contract, you can make all the necessary calls to the maker-otc trading engine.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; An order book for each market is implemented as two double-linked sorted lists, one list for each side of the market (buy and sell). An important feature of the design is that at any point in time, the lists should be sorted accordingly. The second most important design consideration when building the protocol was the use of a so-called Escrow model for Makers. The Escrow model simply means that a given asset is locked within the contract when a new order is placed. Although such an approach</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)", "Concentrated Liquidity (CL)", "synthetic Proactive Market Making (sPMM)", "Constant Sum Market Maker (CSMM)", "Constant Mean Market Maker (CMMM)", "Hybrid Constant Function Market Makers (CFMMs)", "Dynamic Automated Market Maker (DAMM)", "Proactive Market Maker (PMM)", "Virtual Automated Market Makers (vAMM)", "Other", "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; liquidity model constructed by NEST is actually a new trading network paradigm. This will be the most important paradigm revolution after Ethereum. The new NEST white paper defines NEST as the infrastructure of blockchain, providing financial assets with any risk-return structure for all project parties and buyers.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The risk-matching mechanism is imperfect. Regardless of AMM or funding pool, the method of solving liquidity problems sacrifices the flexibility of sellers: sellers need to fix their trading strategies and bear external market fluctuations. Once the price is favorable to the seller, buyers may choose to exit the transaction. Once there is arbitrage, buyers will flock to it, and the entire process has no choice but to rely on mining subsidies and commission or interest rate balance under the law&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Can NESTFi solve DeFi industry pain points?(https://nestfi.org/)  The most critical or painful point of on-chain applications is liquidity. To solve the liquidity problem, DeFi has tried traditional order book and AMM models, but these models are not ideal solutions and cannot include all financial services in the same protocol and share the same liquidity, resulting in waste of resources and low efficiency.</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2021 Brian Svoboda  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>NESTFi</t>
+          <t>Merlin DEX</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)", "Concentrated Liquidity (CL)", "synthetic Proactive Market Making (sPMM)", "Constant Sum Market Maker (CSMM)", "Constant Mean Market Maker (CMMM)", "Hybrid Constant Function Market Makers (CFMMs)", "Dynamic Automated Market Maker (DAMM)", "Proactive Market Maker (PMM)", "Virtual Automated Market Makers (vAMM)", "Other", "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; liquidity model constructed by NEST is actually a new trading network paradigm. This will be the most important paradigm revolution after Ethereum. The new NEST white paper defines NEST as the infrastructure of blockchain, providing financial assets with any risk-return structure for all project parties and buyers.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; The risk-matching mechanism is imperfect. Regardless of AMM or funding pool, the method of solving liquidity problems sacrifices the flexibility of sellers: sellers need to fix their trading strategies and bear external market fluctuations. Once the price is favorable to the seller, buyers may choose to exit the transaction. Once there is arbitrage, buyers will flock to it, and the entire process has no choice but to rely on mining subsidies and commission or interest rate balance under the law&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Can NESTFi solve DeFi industry pain points?(https://nestfi.org/)  The most critical or painful point of on-chain applications is liquidity. To solve the liquidity problem, DeFi has tried traditional order book and AMM models, but these models are not ideal solutions and cannot include all financial services in the same protocol and share the same liquidity, resulting in waste of resources and low efficiency.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Introduction  Merlin  Merlin is an immutable, license-free and community-centric DEX for zkSync, which aims to solve the liquidity problem. It outperforms other DEX products and becomes the First in the zkSync ecosystem.  Attack Process  Role ＆ address：  Attacker：0xc0D6987d10430292A3ca994dd7A31E461eb28182  Attacking Contract：0x3355df6D4c9C3035724Fd0e3914dE96A5a83aaf4  Attacked Contract：0x2744d62a1e9ab975f4d77fe52e16206464ea79b7  Factory Contract：0x63E6fdAdb86Ea26f917496bEEEAEa4efb319229F&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Analysis of Dex Merlin Incident  TriathonLab·Follow  3 min read·May 5  --  Listen  Share  On April 27, 2023, Dex Merlin of the zkSync ecosystem officially claimed that despite passing the security audit of the Certik platform, Merlin’s USDC-WETH liquidity pool was attacked and the pool has been fully exploited by the attackers due to significant undetected control and structural flaws. The attackers made a profit of approximately $1.8 million.  Introduction  Merlin&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; By  Soumen Datta  April 26, 2023  MINS  By  Soumen Datta  WEB3  The hack was discovered after the launch of Merlin's main income farming pools, and security firms and community members immediately pointed it out.  Exploited Funds Bridged to Ethereum  Merlin, a zkSync-based decentralized exchange, suffered a hack on its liquidity pool on April 26 and lost $1.82 million. The incident occurred shortly after the platform's public sale of its token went live.Â</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Copyright (c) 2021 Brian Svoboda  Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Merlin DEX</t>
+          <t>ko.one</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Constant Product Market Maker (CPMM)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Introduction  Merlin  Merlin is an immutable, license-free and community-centric DEX for zkSync, which aims to solve the liquidity problem. It outperforms other DEX products and becomes the First in the zkSync ecosystem.  Attack Process  Role ＆ address：  Attacker：0xc0D6987d10430292A3ca994dd7A31E461eb28182  Attacking Contract：0x3355df6D4c9C3035724Fd0e3914dE96A5a83aaf4  Attacked Contract：0x2744d62a1e9ab975f4d77fe52e16206464ea79b7  Factory Contract：0x63E6fdAdb86Ea26f917496bEEEAEa4efb319229F&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Analysis of Dex Merlin Incident  TriathonLab·Follow  3 min read·May 5  --  Listen  Share  On April 27, 2023, Dex Merlin of the zkSync ecosystem officially claimed that despite passing the security audit of the Certik platform, Merlin’s USDC-WETH liquidity pool was attacked and the pool has been fully exploited by the attackers due to significant undetected control and structural flaws. The attackers made a profit of approximately $1.8 million.  Introduction  Merlin&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; By  Soumen Datta  April 26, 2023  MINS  By  Soumen Datta  WEB3  The hack was discovered after the launch of Merlin's main income farming pools, and security firms and community members immediately pointed it out.  Exploited Funds Bridged to Ethereum  Merlin, a zkSync-based decentralized exchange, suffered a hack on its liquidity pool on April 26 and lost $1.82 million. The incident occurred shortly after the platform's public sale of its token went live.Â</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;The value of this answer is that it provides the user with a specific liquidity model employed by ko.one. This information can be used to understand the liquidity risk management strategies of the firm and to make informed decisions.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Methodologies – These should be clearly documented and based on appropriate assumptions. Firms should aim to use more conservative pro-rata methodologies to test fund liquidity (i.e. not relying on selling the most liquid assets first), and incorporate market impact costs. Models should be regularly reviewed and challenged.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Technical capabilities – Firms should ensure they have sufficient risk management expertise in-house to measure, analyse and report on liquidity risk. Whether risk models are bespoke, or provided by third party systems, there must be a clear understanding of the assumptions and flexibility of those models, including whether they have been specified in line with regulatory standards.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; IOSCO is consulting (PDF 113 KB) on principles-based guidance to support greater and more consistent use of liquidity management tools (LMTs) by OEF managers. The proposed guidance adds more detail to IOSCO's 2018 recommendations (PDF 363 KB) – for example, by specifying how LMTs should be calibrated (to capture implicit and explicit transaction costs, and market impact), and how their use should be overseen by appropriate governance arrangements.</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No official license found for this DEX.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; "You" (or "Your") shall mean an individual or Legal Entity       exercising permissions granted by this License.        "Source" form shall mean the preferred form for making modifications,       including but not limited to software source code, documentation       source, and configuration files.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. Grant of Copyright License. Subject to the terms and conditions of       this License, each Contributor hereby grants to You a perpetual,       worldwide, non-exclusive, no-charge, royalty-free, irrevocable       copyright license to reproduce, prepare Derivative Works of,       publicly display, publicly perform, sublicense, and distribute the       Work and such Derivative Works in Source or Object form.</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ko.one</t>
+          <t>Purple Bridge</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt; &lt;br&gt;&lt;br&gt;The value of this answer is that it provides the user with a specific liquidity model employed by ko.one. This information can be used to understand the liquidity risk management strategies of the firm and to make informed decisions.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Methodologies – These should be clearly documented and based on appropriate assumptions. Firms should aim to use more conservative pro-rata methodologies to test fund liquidity (i.e. not relying on selling the most liquid assets first), and incorporate market impact costs. Models should be regularly reviewed and challenged.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; Technical capabilities – Firms should ensure they have sufficient risk management expertise in-house to measure, analyse and report on liquidity risk. Whether risk models are bespoke, or provided by third party systems, there must be a clear understanding of the assumptions and flexibility of those models, including whether they have been specified in line with regulatory standards.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; IOSCO is consulting (PDF 113 KB) on principles-based guidance to support greater and more consistent use of liquidity management tools (LMTs) by OEF managers. The proposed guidance adds more detail to IOSCO's 2018 recommendations (PDF 363 KB) – for example, by specifying how LMTs should be calibrated (to capture implicit and explicit transaction costs, and market impact), and how their use should be overseen by appropriate governance arrangements.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; For the Bridge Service, When traders pay fees for trades in Swap Service, those fees distribute to liquidity providers and PURPLE LABS for the Swap Service. As a general matter, PURPLE LABS is not a liquidity provider into Service liquidity pools and liquidity providers are independent third parties.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; software including a set of smart contracts and you may not use the Service in a way that attempt to discover the source code or underlying components of models, algorithms, and systems of the Service (except to the extent such restrictions are contrary to applicable law. Your use of the Purple Bridge service involves various risks, including, but not limited to, losses while digital assets are being supplied to the Purple Bridge service and losses due to the fluctuation of prices of tokens in&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; such as SMTP through multiple email clients, you can access the Purple Bridge service through dozens of web or mobile interfaces. You are responsible for doing your own diligence on those interfaces to understand the fees and risks they present.</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Yes"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; You may add Your own copyright statement to Your modifications and       may provide additional or different license terms and conditions       for use, reproduction, or distribution of Your modifications, or       for any such Derivative Works as a whole, provided Your use,       reproduction, and distribution of the Work otherwise complies with       the conditions stated in this License.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; "You" (or "Your") shall mean an individual or Legal Entity       exercising permissions granted by this License.        "Source" form shall mean the preferred form for making modifications,       including but not limited to software source code, documentation       source, and configuration files.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; 2. Grant of Copyright License. Subject to the terms and conditions of       this License, each Contributor hereby grants to You a perpetual,       worldwide, non-exclusive, no-charge, royalty-free, irrevocable       copyright license to reproduce, prepare Derivative Works of,       publicly display, publicly perform, sublicense, and distribute the       Work and such Derivative Works in Source or Object form.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Purple Bridge</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; For the Bridge Service, When traders pay fees for trades in Swap Service, those fees distribute to liquidity providers and PURPLE LABS for the Swap Service. As a general matter, PURPLE LABS is not a liquidity provider into Service liquidity pools and liquidity providers are independent third parties.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; software including a set of smart contracts and you may not use the Service in a way that attempt to discover the source code or underlying components of models, algorithms, and systems of the Service (except to the extent such restrictions are contrary to applicable law. Your use of the Purple Bridge service involves various risks, including, but not limited to, losses while digital assets are being supplied to the Purple Bridge service and losses due to the fluctuation of prices of tokens in&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; such as SMTP through multiple email clients, you can access the Purple Bridge service through dozens of web or mobile interfaces. You are responsible for doing your own diligence on those interfaces to understand the fees and risks they present.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  The liquidity model employed by Uniswap.                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 🏠  Protocol Concepts  Concentrated Liquidity  Helpful?  Concentrated Liquidity  Introduction​  The defining idea of Uniswap v3 is concentrated liquidity: liquidity that is allocated within a custom price range. In earlier versions, liquidity was distributed uniformly along the price curve between 0 and infinity.&lt;br&gt;&amp;nbsp;    &lt;span style='color: Orange;'&gt;&lt;strong&gt;source:&lt;/strong&gt;&lt;/span&gt; tmp_data/Uniswap/liquidity_model\cf97426c873c657357fc611d446a9de8_1.html&lt;br&gt;&amp;nbsp;    &lt;span style='color: Orange;'&gt;&lt;strong&gt;url source:&lt;/strong&gt;&lt;/span&gt; https://docs.uniswap.org/concepts/protocol/concentrated-liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 🏠  V1 Protocol  Guides  Pool Liquidity  Helpful?  Formalized Model  Uniswap liquidity pools are autonomous and use the Constant Product Market Maker (x * y = k). This model was formalized and the smart contract implementation passed a lightweight formal verification.  Formalized Specification  Lightweight Verification  Create Exchange​  The createExchange function is used to deploy exchange contracts for ERC20 tokens that do not yet have one.  factory  methods  createExchange  tokenAddress  send&lt;br&gt;&amp;nbsp;    &lt;span style='color: Orange;'&gt;&lt;strong&gt;source:&lt;/strong&gt;&lt;/span&gt; tmp_data/Uniswap/liquidity_model\1afc65f5111f953c031d801663e994c4_2.html&lt;br&gt;&amp;nbsp;    &lt;span style='color: Orange;'&gt;&lt;strong&gt;url source:&lt;/strong&gt;&lt;/span&gt; https://docs.uniswap.org/contracts/v1/guides/pool-liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Because the relative price of the two pair assets can only be changed through trading, divergences between the Uniswap price and external prices create arbitrage opportunities. This mechanism ensures that Uniswap prices always trend toward the market-clearing price.  Further reading  To see how token swaps work in practice, and to walk through the lifecycle of a swap, check out Swaps. Or, to see how liquidity pools work, see Pools.&lt;br&gt;&amp;nbsp;    &lt;span style='color: Orange;'&gt;&lt;strong&gt;source:&lt;/strong&gt;&lt;/span&gt; tmp_data/Uniswap/liquidity_model\0fe7f3d0c33d1b30526bd3d932b19fee_3.html&lt;br&gt;&amp;nbsp;    &lt;span style='color: Orange;'&gt;&lt;strong&gt;url source:&lt;/strong&gt;&lt;/span&gt; https://docs.uniswap.org/contracts/v2/concepts/protocol-overview/how-uniswap-works</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  "Cannot determine"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; Developers that use the GNU GPL protect your rights with two steps: (1) assert copyright on the software, and (2) offer you this License giving you legal permission to copy, distribute and/or modify it.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; License, you may add to a covered work material governed by the terms of that license document, provided that the further restriction does not survive such relicensing or conveying.&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; not accept this License.  Therefore, by modifying or propagating a covered work, you indicate your acceptance of this License to do so.</t>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Yes                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No license found for this DEX.&lt;br&gt;&amp;nbsp;    &lt;span style='color: Orange;'&gt;&lt;strong&gt;source:&lt;/strong&gt;&lt;/span&gt; tmp_data/Uniswap/license\no_license.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Uniswap v3</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  The Uniswap v3 liquidity model is "Concentrated Liquidity (CL)"                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; 🏠  Protocol Concepts  Concentrated Liquidity  Helpful?  Concentrated Liquidity  Introduction​  The defining idea of Uniswap v3 is concentrated liquidity: liquidity that is allocated within a custom price range. In earlier versions, liquidity was distributed uniformly along the price curve between 0 and infinity.&lt;br&gt;&amp;nbsp;    &lt;span style='color: Orange;'&gt;&lt;strong&gt;url source:&lt;/strong&gt;&lt;/span&gt; https://docs.uniswap.org/concepts/protocol/concentrated-liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; 🏠  Protocol Concepts  Concentrated Liquidity  Helpful?  Concentrated Liquidity  Introduction​  The defining idea of Uniswap v3 is concentrated liquidity: liquidity that is allocated within a custom price range. In earlier versions, liquidity was distributed uniformly along the price curve between 0 and infinity.&lt;br&gt;&amp;nbsp;    &lt;span style='color: Orange;'&gt;&lt;strong&gt;url source:&lt;/strong&gt;&lt;/span&gt; https://docs.uniswap.org/concepts/protocol/concentrated-liquidity&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;3.&lt;/strong&gt;&lt;/span&gt; Multiple fee tiers, allowing LPs to be appropriately compensated for taking on varying degrees of risk  These features make Uniswap v3 the most flexible and efficient AMM ever designed:  LPs can provide liquidity with up to 4000x capital efficiency relative to Uniswap v2, earning higher returns on their capital  Capital efficiency paves the way for low-slippage trade execution that can surpass both centralized exchanges and stablecoin-focused AMMs&lt;br&gt;&amp;nbsp;    &lt;span style='color: Orange;'&gt;&lt;strong&gt;url source:&lt;/strong&gt;&lt;/span&gt; https://blog.uniswap.org/uniswap-v3</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>&lt;span style='color: green;'&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;  Yes                &lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;Sources:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt; &lt;span style='color: Red;'&gt;&lt;strong&gt;1.&lt;/strong&gt;&lt;/span&gt; No license found for this DEX.&lt;br&gt;&lt;br&gt;&lt;span style='color: Red;'&gt;&lt;strong&gt;2.&lt;/strong&gt;&lt;/span&gt; No license found for this DEX.&lt;br&gt;</t>
         </is>
       </c>
     </row>
